--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1546</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1567</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10823" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10970" uniqueCount="390">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1172,6 +1172,18 @@
   <si>
     <t xml:space="preserve">Luis Ángel Malagón    </t>
   </si>
+  <si>
+    <t>José Raúl Zúñiga</t>
+  </si>
+  <si>
+    <t>Luis Ángel Malagón</t>
+  </si>
+  <si>
+    <t>Alexis Gutiérrez</t>
+  </si>
+  <si>
+    <t>Brian Rodríguez</t>
+  </si>
 </sst>
 </file>
 
@@ -1348,10 +1360,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1359,13 +1371,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1373,13 +1385,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1524,8 +1536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1546" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1546"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1567" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1567"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -41928,38 +41940,584 @@
       </c>
     </row>
     <row r="1546">
-      <c r="A1546" s="19">
+      <c r="A1546" s="15">
         <v>45877.38914206019</v>
       </c>
-      <c r="B1546" s="20" t="s">
+      <c r="B1546" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1546" s="20" t="s">
+      <c r="C1546" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D1546" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1546" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1546" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1546" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1546" s="21" t="s">
+      <c r="D1546" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1546" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1546" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1546" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1546" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="12">
+        <v>45880.351948807875</v>
+      </c>
+      <c r="B1547" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1547" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1547" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1547" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1547" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1547" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1547" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="15">
+        <v>45880.35497219907</v>
+      </c>
+      <c r="B1548" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1548" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1548" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1548" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1548" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1548" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1548" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="12">
+        <v>45880.35605615741</v>
+      </c>
+      <c r="B1549" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1549" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1549" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1549" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1549" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1549" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1549" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="15">
+        <v>45880.3568934375</v>
+      </c>
+      <c r="B1550" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1550" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1550" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1550" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1550" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1550" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1550" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="12">
+        <v>45880.36914304398</v>
+      </c>
+      <c r="B1551" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1551" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1551" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1551" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1551" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1551" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1551" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="15">
+        <v>45880.37883199074</v>
+      </c>
+      <c r="B1552" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1552" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1552" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1552" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1552" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1552" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1552" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="12">
+        <v>45880.38362291666</v>
+      </c>
+      <c r="B1553" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1553" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1553" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1553" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1553" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1553" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1553" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="15">
+        <v>45880.384631030094</v>
+      </c>
+      <c r="B1554" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1554" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1554" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1554" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1554" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1554" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1554" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="12">
+        <v>45880.38479652778</v>
+      </c>
+      <c r="B1555" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1555" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1555" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1555" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1555" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1555" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1555" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="15">
+        <v>45880.38497909722</v>
+      </c>
+      <c r="B1556" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1556" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1556" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1556" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1556" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1556" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1556" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="12">
+        <v>45880.38532104167</v>
+      </c>
+      <c r="B1557" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1557" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1557" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1557" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1557" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1557" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1557" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="15">
+        <v>45880.387728368056</v>
+      </c>
+      <c r="B1558" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1558" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1558" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1558" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1558" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1558" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1558" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="12">
+        <v>45880.38928990741</v>
+      </c>
+      <c r="B1559" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1559" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1559" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1559" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1559" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1559" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1559" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="15">
+        <v>45880.389651053236</v>
+      </c>
+      <c r="B1560" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1560" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1560" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1560" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1560" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1560" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1560" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="12">
+        <v>45880.39028413194</v>
+      </c>
+      <c r="B1561" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1561" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1561" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1561" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1561" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1561" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1561" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="15">
+        <v>45880.39076241898</v>
+      </c>
+      <c r="B1562" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1562" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1562" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1562" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1562" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1562" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1562" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="12">
+        <v>45880.39178005787</v>
+      </c>
+      <c r="B1563" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1563" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1563" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1563" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1563" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1563" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1563" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="15">
+        <v>45880.39196759259</v>
+      </c>
+      <c r="B1564" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1564" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1564" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1564" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1564" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1564" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1564" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="12">
+        <v>45880.40407255787</v>
+      </c>
+      <c r="B1565" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1565" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1565" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1565" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1565" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1565" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1565" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="15">
+        <v>45880.41896456019</v>
+      </c>
+      <c r="B1566" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1566" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1566" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1566" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1566" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1566" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1566" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="19">
+        <v>45880.41930699074</v>
+      </c>
+      <c r="B1567" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1567" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1567" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1567" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1567" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1567" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1567" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1646">
+  <conditionalFormatting sqref="D1:D1667">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1646">
+  <conditionalFormatting sqref="G2:G1667">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1567</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1584</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10970" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11089" uniqueCount="390">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1213,7 +1213,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1360,10 +1360,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1371,13 +1371,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1385,13 +1385,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFDD7E6B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDD7E6B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDD7E6B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1401,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1466,6 +1480,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1567" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1567"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1584" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1584"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -42486,38 +42503,480 @@
       </c>
     </row>
     <row r="1567">
-      <c r="A1567" s="19">
+      <c r="A1567" s="12">
         <v>45880.41930699074</v>
       </c>
-      <c r="B1567" s="20" t="s">
+      <c r="B1567" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1567" s="20" t="s">
+      <c r="C1567" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D1567" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1567" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1567" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1567" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1567" s="21" t="s">
-        <v>13</v>
+      <c r="D1567" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1567" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1567" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1567" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1567" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="15">
+        <v>45881.34970086806</v>
+      </c>
+      <c r="B1568" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1568" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1568" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1568" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1568" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1568" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1568" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="12">
+        <v>45881.35944141204</v>
+      </c>
+      <c r="B1569" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1569" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1569" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1569" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1569" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1569" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1569" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="15">
+        <v>45881.35983332176</v>
+      </c>
+      <c r="B1570" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1570" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1570" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1570" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1570" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1570" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1570" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="12">
+        <v>45881.36059590278</v>
+      </c>
+      <c r="B1571" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1571" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1571" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1571" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1571" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1571" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1571" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="15">
+        <v>45881.36090865741</v>
+      </c>
+      <c r="B1572" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1572" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1572" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1572" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1572" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1572" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1572" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="12">
+        <v>45881.367832013886</v>
+      </c>
+      <c r="B1573" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1573" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1573" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1573" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1573" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1573" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1573" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="15">
+        <v>45881.369973356486</v>
+      </c>
+      <c r="B1574" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1574" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1574" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1574" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1574" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1574" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1574" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="12">
+        <v>45881.3724607176</v>
+      </c>
+      <c r="B1575" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1575" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1575" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1575" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1575" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1575" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1575" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="15">
+        <v>45881.372934328705</v>
+      </c>
+      <c r="B1576" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1576" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1576" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1576" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1576" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1576" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1576" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="12">
+        <v>45881.37317238426</v>
+      </c>
+      <c r="B1577" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1577" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1577" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1577" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1577" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1577" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1577" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="15">
+        <v>45881.373618541664</v>
+      </c>
+      <c r="B1578" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1578" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1578" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1578" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1578" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1578" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1578" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="12">
+        <v>45881.37730723379</v>
+      </c>
+      <c r="B1579" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1579" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1579" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1579" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1579" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1579" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1579" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="15">
+        <v>45881.37750016204</v>
+      </c>
+      <c r="B1580" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1580" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1580" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1580" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1580" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1580" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1580" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="12">
+        <v>45881.37838711806</v>
+      </c>
+      <c r="B1581" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1581" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1581" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1581" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1581" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1581" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1581" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="15">
+        <v>45881.38025357639</v>
+      </c>
+      <c r="B1582" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1582" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1582" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1582" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1582" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1582" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1582" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="12">
+        <v>45881.38045846065</v>
+      </c>
+      <c r="B1583" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1583" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1583" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1583" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1583" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1583" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1583" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="19">
+        <v>45881.381669062495</v>
+      </c>
+      <c r="B1584" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1584" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1584" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1584" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1584" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1584" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1584" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1667">
+  <conditionalFormatting sqref="D1:D1684">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1667">
+  <conditionalFormatting sqref="G2:G1684">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1584</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1591</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11089" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11138" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1184,6 +1184,9 @@
   <si>
     <t>Brian Rodríguez</t>
   </si>
+  <si>
+    <t>Allan Saint-Maximin</t>
+  </si>
 </sst>
 </file>
 
@@ -1213,7 +1216,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -1360,10 +1363,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1371,13 +1374,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1385,27 +1388,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDD7E6B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDD7E6B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDD7E6B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1415,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1480,9 +1469,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1553,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1584" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1584"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1591" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1591"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -42945,38 +42931,220 @@
       </c>
     </row>
     <row r="1584">
-      <c r="A1584" s="19">
+      <c r="A1584" s="15">
         <v>45881.381669062495</v>
       </c>
-      <c r="B1584" s="20" t="s">
+      <c r="B1584" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C1584" s="20" t="s">
+      <c r="C1584" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D1584" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1584" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1584" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1584" s="21" t="s">
+      <c r="D1584" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1584" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1584" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1584" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1584" s="22" t="s">
+      <c r="H1584" s="17" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="1585">
+      <c r="A1585" s="12">
+        <v>45881.38301464121</v>
+      </c>
+      <c r="B1585" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1585" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1585" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1585" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1585" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1585" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1585" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="15">
+        <v>45881.383263483796</v>
+      </c>
+      <c r="B1586" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1586" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1586" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1586" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1586" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1586" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1586" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="12">
+        <v>45881.38395292824</v>
+      </c>
+      <c r="B1587" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1587" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1587" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1587" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1587" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1587" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1587" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="15">
+        <v>45881.39453532407</v>
+      </c>
+      <c r="B1588" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1588" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1588" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1588" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1588" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1588" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1588" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="12">
+        <v>45881.401105613426</v>
+      </c>
+      <c r="B1589" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1589" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1589" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1589" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1589" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1589" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1589" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="15">
+        <v>45881.401315358795</v>
+      </c>
+      <c r="B1590" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1590" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1590" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1590" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1590" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1590" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1590" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="19">
+        <v>45881.40468253472</v>
+      </c>
+      <c r="B1591" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1591" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1591" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1591" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1591" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1591" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1591" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1684">
+  <conditionalFormatting sqref="D1:D1691">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1684">
+  <conditionalFormatting sqref="G2:G1691">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1591</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1611</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11138" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11278" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1216,7 +1216,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1388,6 +1388,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFDD7E6B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDD7E6B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDD7E6B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1404,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1469,6 +1483,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1591" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1591"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1611" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1611"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -43113,38 +43130,558 @@
       </c>
     </row>
     <row r="1591">
-      <c r="A1591" s="19">
+      <c r="A1591" s="12">
         <v>45881.40468253472</v>
       </c>
-      <c r="B1591" s="20" t="s">
+      <c r="B1591" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C1591" s="20" t="s">
+      <c r="C1591" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D1591" s="20" t="s">
+      <c r="D1591" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E1591" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1591" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1591" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1591" s="21" t="s">
-        <v>13</v>
+      <c r="E1591" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1591" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1591" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1591" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="15">
+        <v>45882.35950185185</v>
+      </c>
+      <c r="B1592" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1592" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1592" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1592" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1592" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1592" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1592" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="12">
+        <v>45882.35975902778</v>
+      </c>
+      <c r="B1593" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1593" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1593" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1593" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1593" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1593" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1593" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="15">
+        <v>45882.35998528935</v>
+      </c>
+      <c r="B1594" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1594" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1594" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1594" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1594" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1594" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1594" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="12">
+        <v>45882.36560993055</v>
+      </c>
+      <c r="B1595" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1595" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1595" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1595" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1595" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1595" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1595" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="15">
+        <v>45882.368365567134</v>
+      </c>
+      <c r="B1596" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1596" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1596" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1596" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1596" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1596" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1596" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="12">
+        <v>45882.36938403935</v>
+      </c>
+      <c r="B1597" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1597" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1597" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1597" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1597" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1597" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1597" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="15">
+        <v>45882.37654596065</v>
+      </c>
+      <c r="B1598" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1598" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1598" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1598" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1598" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1598" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1598" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="12">
+        <v>45882.37705993056</v>
+      </c>
+      <c r="B1599" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1599" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1599" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1599" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1599" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1599" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1599" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="15">
+        <v>45882.38646496528</v>
+      </c>
+      <c r="B1600" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1600" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1600" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1600" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1600" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1600" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1600" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="12">
+        <v>45882.388083645834</v>
+      </c>
+      <c r="B1601" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1601" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1601" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1601" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1601" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1601" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1601" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="15">
+        <v>45882.389070324076</v>
+      </c>
+      <c r="B1602" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1602" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1602" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1602" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1602" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1602" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1602" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="12">
+        <v>45882.389471435185</v>
+      </c>
+      <c r="B1603" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1603" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1603" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1603" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1603" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1603" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1603" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="15">
+        <v>45882.39004302083</v>
+      </c>
+      <c r="B1604" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1604" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1604" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1604" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1604" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1604" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1604" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="12">
+        <v>45882.3903350926</v>
+      </c>
+      <c r="B1605" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1605" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1605" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1605" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1605" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1605" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1605" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="15">
+        <v>45882.39110766204</v>
+      </c>
+      <c r="B1606" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1606" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1606" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1606" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1606" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1606" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1606" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="12">
+        <v>45882.391556539354</v>
+      </c>
+      <c r="B1607" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1607" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1607" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1607" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1607" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1607" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1607" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="15">
+        <v>45882.39249424769</v>
+      </c>
+      <c r="B1608" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1608" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1608" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1608" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1608" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1608" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1608" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="12">
+        <v>45882.39509273148</v>
+      </c>
+      <c r="B1609" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1609" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1609" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1609" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1609" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1609" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1609" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="15">
+        <v>45882.395311458335</v>
+      </c>
+      <c r="B1610" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1610" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1610" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1610" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1610" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1610" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1610" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="19">
+        <v>45882.40090146991</v>
+      </c>
+      <c r="B1611" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1611" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1611" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1611" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1611" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1611" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1611" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1691">
+  <conditionalFormatting sqref="D1:D1711">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1691">
+  <conditionalFormatting sqref="G2:G1711">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1611</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1634</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11278" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1216,7 +1216,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -1363,10 +1363,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1374,13 +1374,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1388,27 +1388,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDD7E6B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDD7E6B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDD7E6B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1418,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1483,9 +1469,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1556,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1611" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1611"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1634" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1634"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -43650,38 +43633,636 @@
       </c>
     </row>
     <row r="1611">
-      <c r="A1611" s="19">
+      <c r="A1611" s="12">
         <v>45882.40090146991</v>
       </c>
-      <c r="B1611" s="20" t="s">
+      <c r="B1611" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1611" s="20" t="s">
+      <c r="C1611" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D1611" s="20" t="s">
+      <c r="D1611" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E1611" s="20" t="s">
+      <c r="E1611" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1611" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1611" s="21" t="s">
+      <c r="F1611" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1611" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1611" s="22" t="s">
+      <c r="H1611" s="14" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="1612">
+      <c r="A1612" s="15">
+        <v>45883.34490467593</v>
+      </c>
+      <c r="B1612" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1612" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1612" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1612" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1612" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1612" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1612" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="12">
+        <v>45883.35785920139</v>
+      </c>
+      <c r="B1613" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1613" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1613" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1613" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1613" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1613" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1613" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="15">
+        <v>45883.358326435184</v>
+      </c>
+      <c r="B1614" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1614" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1614" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1614" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1614" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1614" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1614" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="12">
+        <v>45883.35856253472</v>
+      </c>
+      <c r="B1615" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1615" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1615" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1615" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1615" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1615" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1615" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="15">
+        <v>45883.367815034726</v>
+      </c>
+      <c r="B1616" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1616" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1616" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1616" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1616" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1616" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1616" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="12">
+        <v>45883.371031863426</v>
+      </c>
+      <c r="B1617" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1617" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1617" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1617" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1617" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1617" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1617" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="15">
+        <v>45883.37126668981</v>
+      </c>
+      <c r="B1618" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1618" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1618" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1618" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1618" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1618" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1618" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="12">
+        <v>45883.371949699074</v>
+      </c>
+      <c r="B1619" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1619" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1619" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1619" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1619" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1619" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1619" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="15">
+        <v>45883.372554699075</v>
+      </c>
+      <c r="B1620" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1620" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1620" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1620" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1620" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1620" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1620" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="12">
+        <v>45883.37275708333</v>
+      </c>
+      <c r="B1621" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1621" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1621" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1621" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1621" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1621" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1621" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="15">
+        <v>45883.373002824075</v>
+      </c>
+      <c r="B1622" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1622" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1622" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1622" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1622" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1622" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1622" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="12">
+        <v>45883.374393125</v>
+      </c>
+      <c r="B1623" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1623" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1623" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1623" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1623" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1623" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1623" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="15">
+        <v>45883.37459864584</v>
+      </c>
+      <c r="B1624" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1624" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1624" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1624" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1624" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1624" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1624" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="12">
+        <v>45883.37485944445</v>
+      </c>
+      <c r="B1625" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1625" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1625" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1625" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1625" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1625" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1625" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="15">
+        <v>45883.376316967595</v>
+      </c>
+      <c r="B1626" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1626" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1626" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1626" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1626" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1626" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1626" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="12">
+        <v>45883.38367258102</v>
+      </c>
+      <c r="B1627" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1627" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1627" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1627" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1627" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1627" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1627" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="15">
+        <v>45883.385100266205</v>
+      </c>
+      <c r="B1628" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1628" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1628" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1628" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1628" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1628" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1628" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="12">
+        <v>45883.391343923606</v>
+      </c>
+      <c r="B1629" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1629" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1629" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1629" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1629" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1629" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1629" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="15">
+        <v>45883.40386751157</v>
+      </c>
+      <c r="B1630" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1630" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1630" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1630" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1630" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1630" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1630" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="12">
+        <v>45883.404108622686</v>
+      </c>
+      <c r="B1631" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1631" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1631" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1631" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1631" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1631" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1631" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="15">
+        <v>45883.41425511574</v>
+      </c>
+      <c r="B1632" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1632" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1632" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1632" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1632" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1632" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1632" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="12">
+        <v>45883.41445065972</v>
+      </c>
+      <c r="B1633" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1633" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1633" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1633" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1633" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1633" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1633" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="19">
+        <v>45883.414607280094</v>
+      </c>
+      <c r="B1634" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1634" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1634" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1634" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1634" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1634" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1634" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1711">
+  <conditionalFormatting sqref="D1:D1734">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1711">
+  <conditionalFormatting sqref="G2:G1734">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1634</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1650</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11551" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1216,7 +1216,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1388,6 +1388,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFDD7E6B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDD7E6B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDD7E6B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1404,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1469,6 +1483,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1556,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1634" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1634"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1650" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1650"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -44231,38 +44248,454 @@
       </c>
     </row>
     <row r="1634">
-      <c r="A1634" s="19">
+      <c r="A1634" s="15">
         <v>45883.414607280094</v>
       </c>
-      <c r="B1634" s="20" t="s">
+      <c r="B1634" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1634" s="20" t="s">
+      <c r="C1634" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D1634" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1634" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1634" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1634" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1634" s="21" t="s">
-        <v>13</v>
+      <c r="D1634" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1634" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1634" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1634" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1634" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="12">
+        <v>45884.33805715278</v>
+      </c>
+      <c r="B1635" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1635" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1635" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1635" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1635" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1635" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1635" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="15">
+        <v>45884.341288055555</v>
+      </c>
+      <c r="B1636" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1636" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1636" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1636" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1636" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1636" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1636" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="12">
+        <v>45884.34146255787</v>
+      </c>
+      <c r="B1637" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1637" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1637" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1637" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1637" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1637" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1637" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="15">
+        <v>45884.341663900464</v>
+      </c>
+      <c r="B1638" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1638" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1638" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1638" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1638" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1638" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1638" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="12">
+        <v>45884.341975069445</v>
+      </c>
+      <c r="B1639" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1639" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1639" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1639" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1639" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1639" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1639" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="15">
+        <v>45884.342484016204</v>
+      </c>
+      <c r="B1640" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1640" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1640" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1640" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1640" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1640" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1640" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="12">
+        <v>45884.344802974534</v>
+      </c>
+      <c r="B1641" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1641" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1641" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1641" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1641" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1641" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1641" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="15">
+        <v>45884.347059594904</v>
+      </c>
+      <c r="B1642" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1642" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1642" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1642" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1642" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1642" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1642" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="12">
+        <v>45884.34791650463</v>
+      </c>
+      <c r="B1643" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1643" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1643" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1643" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1643" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1643" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1643" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="15">
+        <v>45884.3486690625</v>
+      </c>
+      <c r="B1644" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1644" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1644" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1644" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1644" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1644" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1644" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="12">
+        <v>45884.348960682866</v>
+      </c>
+      <c r="B1645" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1645" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1645" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1645" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1645" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1645" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1645" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="15">
+        <v>45884.35048953704</v>
+      </c>
+      <c r="B1646" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1646" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1646" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1646" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1646" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1646" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1646" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="12">
+        <v>45884.3509165162</v>
+      </c>
+      <c r="B1647" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1647" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1647" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1647" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1647" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1647" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1647" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="15">
+        <v>45884.35251921296</v>
+      </c>
+      <c r="B1648" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1648" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1648" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1648" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1648" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1648" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1648" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="12">
+        <v>45884.369775196756</v>
+      </c>
+      <c r="B1649" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1649" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1649" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1649" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1649" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1649" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1649" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="19">
+        <v>45884.376228090274</v>
+      </c>
+      <c r="B1650" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1650" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1650" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1650" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1650" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1650" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1650" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1734">
+  <conditionalFormatting sqref="D1:D1750">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1734">
+  <conditionalFormatting sqref="G2:G1750">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1650</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1653</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11551" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11572" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1216,7 +1216,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -1363,10 +1363,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1374,13 +1374,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1388,27 +1388,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDD7E6B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDD7E6B"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDD7E6B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1418,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1483,9 +1469,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1556,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1650" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1650"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1653" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1653"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -44664,38 +44647,116 @@
       </c>
     </row>
     <row r="1650">
-      <c r="A1650" s="19">
+      <c r="A1650" s="15">
         <v>45884.376228090274</v>
       </c>
-      <c r="B1650" s="20" t="s">
+      <c r="B1650" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1650" s="20" t="s">
+      <c r="C1650" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D1650" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1650" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1650" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1650" s="21" t="s">
+      <c r="D1650" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1650" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1650" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1650" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1650" s="22" t="s">
+      <c r="H1650" s="17" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" s="12">
+        <v>45884.41920474537</v>
+      </c>
+      <c r="B1651" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1651" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1651" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1651" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1651" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1651" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1651" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="15">
+        <v>45887.37138094907</v>
+      </c>
+      <c r="B1652" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1652" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1652" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1652" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1652" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1652" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1652" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="19">
+        <v>45887.3809612037</v>
+      </c>
+      <c r="B1653" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1653" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1653" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1653" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1653" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1653" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1653" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1750">
+  <conditionalFormatting sqref="D1:D1753">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1750">
+  <conditionalFormatting sqref="G2:G1753">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1653</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1674</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11572" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11719" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1363,10 +1363,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1374,13 +1374,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1388,13 +1388,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1539,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1653" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1653"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1674" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1674"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -44725,38 +44725,584 @@
       </c>
     </row>
     <row r="1653">
-      <c r="A1653" s="19">
+      <c r="A1653" s="12">
         <v>45887.3809612037</v>
       </c>
-      <c r="B1653" s="20" t="s">
+      <c r="B1653" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1653" s="20" t="s">
+      <c r="C1653" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D1653" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1653" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1653" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1653" s="20" t="s">
+      <c r="D1653" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1653" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1653" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1653" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1653" s="21" t="s">
+      <c r="H1653" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="15">
+        <v>45888.35647108796</v>
+      </c>
+      <c r="B1654" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1654" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1654" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1654" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1654" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1654" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1654" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="12">
+        <v>45888.35687857639</v>
+      </c>
+      <c r="B1655" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1655" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1655" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1655" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1655" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1655" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1655" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="15">
+        <v>45888.35753246528</v>
+      </c>
+      <c r="B1656" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1656" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1656" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1656" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1656" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1656" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1656" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="12">
+        <v>45888.36209539352</v>
+      </c>
+      <c r="B1657" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1657" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1657" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1657" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1657" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1657" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1657" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="15">
+        <v>45888.363266319444</v>
+      </c>
+      <c r="B1658" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1658" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1658" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1658" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1658" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1658" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1658" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="12">
+        <v>45888.36349553241</v>
+      </c>
+      <c r="B1659" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1659" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1659" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1659" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1659" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1659" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1659" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="15">
+        <v>45888.36371119213</v>
+      </c>
+      <c r="B1660" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1660" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1660" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1660" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1660" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1660" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1660" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="12">
+        <v>45888.364066724534</v>
+      </c>
+      <c r="B1661" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1661" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1661" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1661" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1661" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1661" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1661" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="15">
+        <v>45888.3665006713</v>
+      </c>
+      <c r="B1662" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1662" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1662" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1662" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1662" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1662" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1662" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="12">
+        <v>45888.370354479164</v>
+      </c>
+      <c r="B1663" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1663" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1663" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1663" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1663" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1663" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1663" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="15">
+        <v>45888.37182921296</v>
+      </c>
+      <c r="B1664" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1664" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1664" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1664" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1664" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1664" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1664" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="12">
+        <v>45888.37596077546</v>
+      </c>
+      <c r="B1665" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1665" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1665" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1665" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1665" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1665" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1665" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="15">
+        <v>45888.3762505787</v>
+      </c>
+      <c r="B1666" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1666" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1666" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1666" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1666" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1666" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1666" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="12">
+        <v>45888.386695625</v>
+      </c>
+      <c r="B1667" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1667" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1667" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1667" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1667" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1667" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1667" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="15">
+        <v>45888.390053449075</v>
+      </c>
+      <c r="B1668" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1668" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1668" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1668" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1668" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1668" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1668" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="12">
+        <v>45888.39022594907</v>
+      </c>
+      <c r="B1669" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1669" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1669" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1669" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1669" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1669" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1669" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="15">
+        <v>45888.39140821759</v>
+      </c>
+      <c r="B1670" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1670" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1670" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1670" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1670" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1670" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1670" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="12">
+        <v>45888.396158483796</v>
+      </c>
+      <c r="B1671" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1671" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1671" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1671" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1671" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1671" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1671" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="15">
+        <v>45888.39635028935</v>
+      </c>
+      <c r="B1672" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1672" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1672" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1672" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1672" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1672" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1672" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="12">
+        <v>45888.39652327546</v>
+      </c>
+      <c r="B1673" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1673" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1673" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1673" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1673" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1673" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1673" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="19">
+        <v>45888.39697940972</v>
+      </c>
+      <c r="B1674" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1674" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1674" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1674" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1674" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1674" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1674" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1753">
+  <conditionalFormatting sqref="D1:D1774">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1753">
+  <conditionalFormatting sqref="G2:G1774">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1698</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1721</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11887" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12048" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1698" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1698"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1721" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1721"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -45299,7 +45299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1675">
+    <row r="1675" hidden="1">
       <c r="A1675" s="12">
         <v>45889.34148533565</v>
       </c>
@@ -45325,7 +45325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1676">
+    <row r="1676" hidden="1">
       <c r="A1676" s="15">
         <v>45889.34167108797</v>
       </c>
@@ -45351,7 +45351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1677">
+    <row r="1677" hidden="1">
       <c r="A1677" s="12">
         <v>45889.34270879629</v>
       </c>
@@ -45377,7 +45377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1678">
+    <row r="1678" hidden="1">
       <c r="A1678" s="15">
         <v>45889.34933582176</v>
       </c>
@@ -45403,7 +45403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1679">
+    <row r="1679" hidden="1">
       <c r="A1679" s="12">
         <v>45889.34952243055</v>
       </c>
@@ -45429,7 +45429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1680">
+    <row r="1680" hidden="1">
       <c r="A1680" s="15">
         <v>45889.35977405093</v>
       </c>
@@ -45455,7 +45455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1681">
+    <row r="1681" hidden="1">
       <c r="A1681" s="12">
         <v>45889.36750769676</v>
       </c>
@@ -45481,7 +45481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1682">
+    <row r="1682" hidden="1">
       <c r="A1682" s="15">
         <v>45889.3684109375</v>
       </c>
@@ -45507,7 +45507,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1683">
+    <row r="1683" hidden="1">
       <c r="A1683" s="12">
         <v>45889.370456516204</v>
       </c>
@@ -45533,7 +45533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1684">
+    <row r="1684" hidden="1">
       <c r="A1684" s="15">
         <v>45889.37087975694</v>
       </c>
@@ -45559,7 +45559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1685">
+    <row r="1685" hidden="1">
       <c r="A1685" s="12">
         <v>45889.37222376157</v>
       </c>
@@ -45585,7 +45585,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1686">
+    <row r="1686" hidden="1">
       <c r="A1686" s="15">
         <v>45889.37316533565</v>
       </c>
@@ -45611,7 +45611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1687">
+    <row r="1687" hidden="1">
       <c r="A1687" s="12">
         <v>45889.37453079861</v>
       </c>
@@ -45637,7 +45637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1688">
+    <row r="1688" hidden="1">
       <c r="A1688" s="15">
         <v>45889.37513912037</v>
       </c>
@@ -45663,7 +45663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1689">
+    <row r="1689" hidden="1">
       <c r="A1689" s="12">
         <v>45889.376496689816</v>
       </c>
@@ -45689,7 +45689,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1690">
+    <row r="1690" hidden="1">
       <c r="A1690" s="15">
         <v>45889.376853344904</v>
       </c>
@@ -45715,7 +45715,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1691">
+    <row r="1691" hidden="1">
       <c r="A1691" s="12">
         <v>45889.377265324074</v>
       </c>
@@ -45741,7 +45741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1692">
+    <row r="1692" hidden="1">
       <c r="A1692" s="15">
         <v>45889.37757265047</v>
       </c>
@@ -45767,7 +45767,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1693">
+    <row r="1693" hidden="1">
       <c r="A1693" s="12">
         <v>45889.378789062495</v>
       </c>
@@ -45793,7 +45793,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694">
+    <row r="1694" hidden="1">
       <c r="A1694" s="15">
         <v>45889.379339872685</v>
       </c>
@@ -45819,7 +45819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1695">
+    <row r="1695" hidden="1">
       <c r="A1695" s="12">
         <v>45889.38008471065</v>
       </c>
@@ -45845,7 +45845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1696">
+    <row r="1696" hidden="1">
       <c r="A1696" s="15">
         <v>45889.38024679398</v>
       </c>
@@ -45871,7 +45871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1697">
+    <row r="1697" hidden="1">
       <c r="A1697" s="12">
         <v>45889.399322337966</v>
       </c>
@@ -45897,39 +45897,637 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1698">
-      <c r="A1698" s="19">
+    <row r="1698" hidden="1">
+      <c r="A1698" s="15">
         <v>45889.39948184028</v>
       </c>
-      <c r="B1698" s="20" t="s">
+      <c r="B1698" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1698" s="20" t="s">
+      <c r="C1698" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D1698" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1698" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1698" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1698" s="20" t="s">
+      <c r="D1698" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1698" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1698" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1698" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1698" s="21" t="s">
+      <c r="H1698" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="12">
+        <v>45890.35372402778</v>
+      </c>
+      <c r="B1699" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1699" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1699" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1699" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1699" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1699" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1699" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="15">
+        <v>45890.35421572917</v>
+      </c>
+      <c r="B1700" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1700" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1700" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1700" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1700" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1700" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1700" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="12">
+        <v>45890.35444431713</v>
+      </c>
+      <c r="B1701" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1701" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1701" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1701" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1701" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1701" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1701" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="15">
+        <v>45890.355034733795</v>
+      </c>
+      <c r="B1702" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1702" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1702" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1702" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1702" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1702" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1702" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="12">
+        <v>45890.355385567134</v>
+      </c>
+      <c r="B1703" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1703" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1703" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1703" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1703" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1703" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1703" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="15">
+        <v>45890.35850634259</v>
+      </c>
+      <c r="B1704" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1704" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1704" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1704" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1704" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1704" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1704" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="12">
+        <v>45890.36606292824</v>
+      </c>
+      <c r="B1705" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1705" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1705" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1705" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1705" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1705" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1705" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="15">
+        <v>45890.36631341436</v>
+      </c>
+      <c r="B1706" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1706" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1706" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1706" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1706" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1706" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1706" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="12">
+        <v>45890.36648978009</v>
+      </c>
+      <c r="B1707" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1707" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1707" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1707" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1707" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1707" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1707" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="15">
+        <v>45890.37116664352</v>
+      </c>
+      <c r="B1708" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1708" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1708" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1708" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1708" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1708" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1708" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="12">
+        <v>45890.38008725694</v>
+      </c>
+      <c r="B1709" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1709" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1709" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1709" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1709" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1709" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1709" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="15">
+        <v>45890.38025368056</v>
+      </c>
+      <c r="B1710" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1710" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1710" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1710" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1710" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1710" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1710" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="12">
+        <v>45890.38040228009</v>
+      </c>
+      <c r="B1711" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1711" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1711" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1711" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1711" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1711" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1711" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="15">
+        <v>45890.38062165509</v>
+      </c>
+      <c r="B1712" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1712" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1712" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1712" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1712" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1712" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1712" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="12">
+        <v>45890.387725023145</v>
+      </c>
+      <c r="B1713" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1713" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1713" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1713" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1713" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1713" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1713" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="15">
+        <v>45890.38841097223</v>
+      </c>
+      <c r="B1714" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1714" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1714" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1714" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1714" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1714" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1714" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="12">
+        <v>45890.38864520833</v>
+      </c>
+      <c r="B1715" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1715" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1715" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1715" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1715" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1715" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1715" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="15">
+        <v>45890.390869236115</v>
+      </c>
+      <c r="B1716" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1716" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1716" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1716" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1716" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1716" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1716" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="12">
+        <v>45890.392223726856</v>
+      </c>
+      <c r="B1717" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1717" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1717" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1717" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1717" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1717" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1717" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="15">
+        <v>45890.392384004634</v>
+      </c>
+      <c r="B1718" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1718" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1718" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1718" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1718" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1718" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1718" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="12">
+        <v>45890.394320277774</v>
+      </c>
+      <c r="B1719" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1719" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1719" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1719" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1719" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1719" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1719" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="15">
+        <v>45890.40605950232</v>
+      </c>
+      <c r="B1720" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1720" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1720" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1720" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1720" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1720" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1720" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="19">
+        <v>45890.40624414352</v>
+      </c>
+      <c r="B1721" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1721" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1721" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1721" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1721" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1721" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1721" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1798">
+  <conditionalFormatting sqref="D1:D1821">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1798">
+  <conditionalFormatting sqref="G2:G1821">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1721</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1744</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12048" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12209" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1219,7 +1219,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFDD7E6B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDD7E6B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDD7E6B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1407,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1472,6 +1486,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1721" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1721"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1744" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1744"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -46496,38 +46513,636 @@
       </c>
     </row>
     <row r="1721">
-      <c r="A1721" s="19">
+      <c r="A1721" s="12">
         <v>45890.40624414352</v>
       </c>
-      <c r="B1721" s="20" t="s">
+      <c r="B1721" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1721" s="20" t="s">
+      <c r="C1721" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D1721" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1721" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1721" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1721" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1721" s="21" t="s">
-        <v>13</v>
+      <c r="D1721" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1721" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1721" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1721" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1721" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="15">
+        <v>45891.35789832176</v>
+      </c>
+      <c r="B1722" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1722" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1722" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1722" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1722" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1722" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1722" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="12">
+        <v>45891.35870439815</v>
+      </c>
+      <c r="B1723" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1723" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1723" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1723" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1723" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1723" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1723" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="15">
+        <v>45891.36651678241</v>
+      </c>
+      <c r="B1724" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1724" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1724" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1724" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1724" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1724" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1724" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="12">
+        <v>45891.366746377316</v>
+      </c>
+      <c r="B1725" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1725" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1725" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1725" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1725" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1725" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1725" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="15">
+        <v>45891.367821064814</v>
+      </c>
+      <c r="B1726" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1726" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1726" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1726" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1726" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1726" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1726" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="12">
+        <v>45891.36841505787</v>
+      </c>
+      <c r="B1727" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1727" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1727" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1727" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1727" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1727" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1727" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="15">
+        <v>45891.36862865741</v>
+      </c>
+      <c r="B1728" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1728" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1728" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1728" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1728" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1728" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1728" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="12">
+        <v>45891.36882530093</v>
+      </c>
+      <c r="B1729" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1729" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1729" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1729" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1729" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1729" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1729" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="15">
+        <v>45891.368996226855</v>
+      </c>
+      <c r="B1730" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1730" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1730" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1730" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1730" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1730" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1730" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="12">
+        <v>45891.36925108796</v>
+      </c>
+      <c r="B1731" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1731" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1731" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1731" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1731" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1731" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1731" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="15">
+        <v>45891.3725397338</v>
+      </c>
+      <c r="B1732" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1732" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1732" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1732" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1732" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1732" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1732" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="12">
+        <v>45891.37273321759</v>
+      </c>
+      <c r="B1733" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1733" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1733" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1733" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1733" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1733" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1733" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="15">
+        <v>45891.373854826394</v>
+      </c>
+      <c r="B1734" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1734" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1734" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1734" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1734" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1734" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1734" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="12">
+        <v>45891.37664133102</v>
+      </c>
+      <c r="B1735" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1735" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1735" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1735" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1735" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1735" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1735" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="15">
+        <v>45891.37725924769</v>
+      </c>
+      <c r="B1736" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1736" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1736" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1736" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1736" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1736" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1736" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="12">
+        <v>45891.37754451389</v>
+      </c>
+      <c r="B1737" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1737" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1737" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1737" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1737" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1737" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1737" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="15">
+        <v>45891.37925225694</v>
+      </c>
+      <c r="B1738" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1738" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1738" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1738" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1738" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1738" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1738" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="12">
+        <v>45891.38239840278</v>
+      </c>
+      <c r="B1739" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1739" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1739" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1739" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1739" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1739" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1739" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="15">
+        <v>45891.383409201386</v>
+      </c>
+      <c r="B1740" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1740" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1740" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1740" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1740" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1740" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1740" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="12">
+        <v>45891.389327048615</v>
+      </c>
+      <c r="B1741" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1741" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1741" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1741" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1741" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1741" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1741" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="15">
+        <v>45891.3899556713</v>
+      </c>
+      <c r="B1742" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1742" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1742" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1742" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1742" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1742" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1742" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="12">
+        <v>45891.40267585649</v>
+      </c>
+      <c r="B1743" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1743" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1743" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1743" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1743" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1743" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1743" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="19">
+        <v>45891.40910425926</v>
+      </c>
+      <c r="B1744" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1744" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1744" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1744" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1744" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1744" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1744" s="22" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1821">
+  <conditionalFormatting sqref="D1:D1844">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1821">
+  <conditionalFormatting sqref="G2:G1844">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1781</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1775</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12468" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12426" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1781" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1781"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1775" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1775"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47900,194 +47900,38 @@
       </c>
     </row>
     <row r="1775">
-      <c r="A1775" s="12">
+      <c r="A1775" s="19">
         <v>45895.381882974536</v>
       </c>
-      <c r="B1775" s="13" t="s">
+      <c r="B1775" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C1775" s="13" t="s">
+      <c r="C1775" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D1775" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1775" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1775" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1775" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1775" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1776">
-      <c r="A1776" s="15">
-        <v>45895.38637034722</v>
-      </c>
-      <c r="B1776" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1776" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1776" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1776" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1776" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1776" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1776" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1777">
-      <c r="A1777" s="12">
-        <v>45895.38965509259</v>
-      </c>
-      <c r="B1777" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1777" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1777" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1777" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1777" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1777" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1777" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1778">
-      <c r="A1778" s="15">
-        <v>45895.396348888884</v>
-      </c>
-      <c r="B1778" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1778" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1778" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1778" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1778" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1778" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1778" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="1779">
-      <c r="A1779" s="12">
-        <v>45895.397699016205</v>
-      </c>
-      <c r="B1779" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1779" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1779" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1779" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1779" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1779" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1779" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1780">
-      <c r="A1780" s="15">
-        <v>45895.40102993055</v>
-      </c>
-      <c r="B1780" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1780" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1780" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1780" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1780" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1780" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1780" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1781">
-      <c r="A1781" s="19">
-        <v>45895.402354074075</v>
-      </c>
-      <c r="B1781" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1781" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1781" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1781" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1781" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1781" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1781" s="21" t="s">
+      <c r="D1775" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1775" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1775" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1775" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1775" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1881">
+  <conditionalFormatting sqref="D1:D1875">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1881">
+  <conditionalFormatting sqref="G2:G1875">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1775</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1801</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12426" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12608" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1775" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1775"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1801" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1801"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47639,7 +47639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="1765">
+    <row r="1765" hidden="1">
       <c r="A1765" s="12">
         <v>45895.3621799074</v>
       </c>
@@ -47665,7 +47665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1766">
+    <row r="1766" hidden="1">
       <c r="A1766" s="15">
         <v>45895.36244189815</v>
       </c>
@@ -47691,7 +47691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1767">
+    <row r="1767" hidden="1">
       <c r="A1767" s="12">
         <v>45895.36361596065</v>
       </c>
@@ -47717,7 +47717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1768">
+    <row r="1768" hidden="1">
       <c r="A1768" s="15">
         <v>45895.36383878472</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1769">
+    <row r="1769" hidden="1">
       <c r="A1769" s="12">
         <v>45895.36409127315</v>
       </c>
@@ -47769,7 +47769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1770">
+    <row r="1770" hidden="1">
       <c r="A1770" s="15">
         <v>45895.3643028588</v>
       </c>
@@ -47795,7 +47795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1771">
+    <row r="1771" hidden="1">
       <c r="A1771" s="12">
         <v>45895.369228344905</v>
       </c>
@@ -47821,7 +47821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1772">
+    <row r="1772" hidden="1">
       <c r="A1772" s="15">
         <v>45895.378808078705</v>
       </c>
@@ -47847,7 +47847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1773">
+    <row r="1773" hidden="1">
       <c r="A1773" s="12">
         <v>45895.378963553245</v>
       </c>
@@ -47873,7 +47873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1774">
+    <row r="1774" hidden="1">
       <c r="A1774" s="15">
         <v>45895.38143707176</v>
       </c>
@@ -47899,39 +47899,715 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1775">
-      <c r="A1775" s="19">
+    <row r="1775" hidden="1">
+      <c r="A1775" s="12">
         <v>45895.381882974536</v>
       </c>
-      <c r="B1775" s="20" t="s">
+      <c r="B1775" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C1775" s="20" t="s">
+      <c r="C1775" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D1775" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1775" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1775" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1775" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1775" s="21" t="s">
+      <c r="D1775" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1775" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1775" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1775" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1775" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1776" hidden="1">
+      <c r="A1776" s="15">
+        <v>45895.38637034722</v>
+      </c>
+      <c r="B1776" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1776" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1776" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1776" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1776" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1776" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1776" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1777" hidden="1">
+      <c r="A1777" s="12">
+        <v>45895.38965509259</v>
+      </c>
+      <c r="B1777" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1777" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1777" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1777" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1777" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1777" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1777" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1778" hidden="1">
+      <c r="A1778" s="15">
+        <v>45895.396348888884</v>
+      </c>
+      <c r="B1778" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1778" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1778" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1778" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1778" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1778" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1778" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1779" hidden="1">
+      <c r="A1779" s="12">
+        <v>45895.397699016205</v>
+      </c>
+      <c r="B1779" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1779" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1779" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1779" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1779" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1779" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1779" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1780" hidden="1">
+      <c r="A1780" s="15">
+        <v>45895.40102993055</v>
+      </c>
+      <c r="B1780" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1780" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1780" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1780" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1780" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1780" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1780" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1781" hidden="1">
+      <c r="A1781" s="12">
+        <v>45895.402354074075</v>
+      </c>
+      <c r="B1781" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1781" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1781" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1781" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1781" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1781" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1781" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1782" hidden="1">
+      <c r="A1782" s="15">
+        <v>45895.428531944446</v>
+      </c>
+      <c r="B1782" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1782" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1782" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1782" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1782" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1782" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1782" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1783" hidden="1">
+      <c r="A1783" s="12">
+        <v>45895.4287994676</v>
+      </c>
+      <c r="B1783" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1783" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1783" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1783" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1783" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1783" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1783" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="15">
+        <v>45896.34403115741</v>
+      </c>
+      <c r="B1784" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1784" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1784" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1784" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1784" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1784" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1784" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="12">
+        <v>45896.366676562495</v>
+      </c>
+      <c r="B1785" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1785" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1785" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1785" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1785" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1785" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1785" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="15">
+        <v>45896.36746260417</v>
+      </c>
+      <c r="B1786" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1786" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1786" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1786" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1786" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1786" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1786" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="12">
+        <v>45896.36781496528</v>
+      </c>
+      <c r="B1787" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1787" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1787" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1787" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1787" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1787" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1787" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="15">
+        <v>45896.36798729167</v>
+      </c>
+      <c r="B1788" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1788" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1788" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1788" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1788" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1788" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1788" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="12">
+        <v>45896.371080972225</v>
+      </c>
+      <c r="B1789" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1789" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1789" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1789" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1789" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1789" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1789" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="15">
+        <v>45896.373275185186</v>
+      </c>
+      <c r="B1790" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1790" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1790" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1790" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1790" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1790" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1790" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="12">
+        <v>45896.37404847222</v>
+      </c>
+      <c r="B1791" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1791" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1791" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1791" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1791" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1791" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1791" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="15">
+        <v>45896.37438153935</v>
+      </c>
+      <c r="B1792" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1792" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1792" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1792" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1792" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1792" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1792" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="12">
+        <v>45896.37454163194</v>
+      </c>
+      <c r="B1793" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1793" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1793" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1793" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1793" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1793" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1793" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="15">
+        <v>45896.374747766204</v>
+      </c>
+      <c r="B1794" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1794" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1794" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1794" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1794" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1794" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1794" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="12">
+        <v>45896.37489825231</v>
+      </c>
+      <c r="B1795" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1795" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1795" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1795" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1795" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1795" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1795" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="15">
+        <v>45896.38257797454</v>
+      </c>
+      <c r="B1796" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1796" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1796" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1796" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1796" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1796" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1796" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="12">
+        <v>45896.38420561343</v>
+      </c>
+      <c r="B1797" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1797" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1797" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1797" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1797" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1797" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1797" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="15">
+        <v>45896.393127222225</v>
+      </c>
+      <c r="B1798" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1798" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1798" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1798" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1798" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1798" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1798" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="12">
+        <v>45896.40711936343</v>
+      </c>
+      <c r="B1799" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1799" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1799" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1799" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1799" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1799" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1799" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="15">
+        <v>45896.40848599537</v>
+      </c>
+      <c r="B1800" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1800" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1800" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1800" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1800" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1800" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1800" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="19">
+        <v>45896.4086643287</v>
+      </c>
+      <c r="B1801" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1801" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1801" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1801" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1801" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1801" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1801" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1875">
+  <conditionalFormatting sqref="D1:D1901">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1875">
+  <conditionalFormatting sqref="G2:G1901">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1801</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1822</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12608" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12755" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1801" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1801"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1822" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1822"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -48133,7 +48133,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1784">
+    <row r="1784" hidden="1">
       <c r="A1784" s="15">
         <v>45896.34403115741</v>
       </c>
@@ -48159,7 +48159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1785">
+    <row r="1785" hidden="1">
       <c r="A1785" s="12">
         <v>45896.366676562495</v>
       </c>
@@ -48185,7 +48185,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1786">
+    <row r="1786" hidden="1">
       <c r="A1786" s="15">
         <v>45896.36746260417</v>
       </c>
@@ -48211,7 +48211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1787">
+    <row r="1787" hidden="1">
       <c r="A1787" s="12">
         <v>45896.36781496528</v>
       </c>
@@ -48237,7 +48237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1788">
+    <row r="1788" hidden="1">
       <c r="A1788" s="15">
         <v>45896.36798729167</v>
       </c>
@@ -48263,7 +48263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789">
+    <row r="1789" hidden="1">
       <c r="A1789" s="12">
         <v>45896.371080972225</v>
       </c>
@@ -48289,7 +48289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="1790">
+    <row r="1790" hidden="1">
       <c r="A1790" s="15">
         <v>45896.373275185186</v>
       </c>
@@ -48315,7 +48315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1791">
+    <row r="1791" hidden="1">
       <c r="A1791" s="12">
         <v>45896.37404847222</v>
       </c>
@@ -48341,7 +48341,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="1792">
+    <row r="1792" hidden="1">
       <c r="A1792" s="15">
         <v>45896.37438153935</v>
       </c>
@@ -48367,7 +48367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1793">
+    <row r="1793" hidden="1">
       <c r="A1793" s="12">
         <v>45896.37454163194</v>
       </c>
@@ -48393,7 +48393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1794">
+    <row r="1794" hidden="1">
       <c r="A1794" s="15">
         <v>45896.374747766204</v>
       </c>
@@ -48419,7 +48419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1795">
+    <row r="1795" hidden="1">
       <c r="A1795" s="12">
         <v>45896.37489825231</v>
       </c>
@@ -48445,7 +48445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1796">
+    <row r="1796" hidden="1">
       <c r="A1796" s="15">
         <v>45896.38257797454</v>
       </c>
@@ -48471,7 +48471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1797">
+    <row r="1797" hidden="1">
       <c r="A1797" s="12">
         <v>45896.38420561343</v>
       </c>
@@ -48497,7 +48497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1798">
+    <row r="1798" hidden="1">
       <c r="A1798" s="15">
         <v>45896.393127222225</v>
       </c>
@@ -48523,7 +48523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1799">
+    <row r="1799" hidden="1">
       <c r="A1799" s="12">
         <v>45896.40711936343</v>
       </c>
@@ -48549,7 +48549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1800">
+    <row r="1800" hidden="1">
       <c r="A1800" s="15">
         <v>45896.40848599537</v>
       </c>
@@ -48575,39 +48575,585 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1801">
-      <c r="A1801" s="19">
+    <row r="1801" hidden="1">
+      <c r="A1801" s="12">
         <v>45896.4086643287</v>
       </c>
-      <c r="B1801" s="20" t="s">
+      <c r="B1801" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1801" s="20" t="s">
+      <c r="C1801" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D1801" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1801" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1801" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1801" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1801" s="21" t="s">
+      <c r="D1801" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1801" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1801" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1801" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1801" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="15">
+        <v>45897.35840283565</v>
+      </c>
+      <c r="B1802" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1802" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1802" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1802" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1802" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1802" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1802" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="12">
+        <v>45897.35858082176</v>
+      </c>
+      <c r="B1803" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1803" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1803" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1803" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1803" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1803" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1803" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="15">
+        <v>45897.35874866898</v>
+      </c>
+      <c r="B1804" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1804" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1804" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1804" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1804" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1804" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1804" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="12">
+        <v>45897.359199189814</v>
+      </c>
+      <c r="B1805" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1805" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1805" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1805" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1805" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1805" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1805" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="15">
+        <v>45897.361597546296</v>
+      </c>
+      <c r="B1806" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1806" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1806" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1806" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1806" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1806" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1806" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="12">
+        <v>45897.36182627315</v>
+      </c>
+      <c r="B1807" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1807" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1807" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1807" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1807" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1807" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1807" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="15">
+        <v>45897.36203703703</v>
+      </c>
+      <c r="B1808" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1808" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1808" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1808" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1808" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1808" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1808" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="12">
+        <v>45897.367273854165</v>
+      </c>
+      <c r="B1809" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1809" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1809" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1809" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1809" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1809" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1809" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="15">
+        <v>45897.37258306713</v>
+      </c>
+      <c r="B1810" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1810" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1810" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1810" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1810" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1810" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1810" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="12">
+        <v>45897.375015405094</v>
+      </c>
+      <c r="B1811" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1811" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1811" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1811" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1811" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1811" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1811" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="15">
+        <v>45897.37525747685</v>
+      </c>
+      <c r="B1812" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1812" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1812" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1812" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1812" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1812" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1812" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="12">
+        <v>45897.380201249995</v>
+      </c>
+      <c r="B1813" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1813" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1813" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1813" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1813" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1813" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1813" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="15">
+        <v>45897.38317991898</v>
+      </c>
+      <c r="B1814" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1814" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1814" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1814" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1814" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1814" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1814" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="12">
+        <v>45897.38351017361</v>
+      </c>
+      <c r="B1815" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1815" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1815" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1815" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1815" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1815" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1815" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="15">
+        <v>45897.389312060186</v>
+      </c>
+      <c r="B1816" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1816" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1816" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1816" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1816" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1816" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1816" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="12">
+        <v>45897.398605740746</v>
+      </c>
+      <c r="B1817" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1817" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1817" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1817" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1817" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1817" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1817" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="15">
+        <v>45897.39882109954</v>
+      </c>
+      <c r="B1818" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1818" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1818" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1818" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1818" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1818" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1818" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="12">
+        <v>45897.39927621528</v>
+      </c>
+      <c r="B1819" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1819" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1819" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1819" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1819" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1819" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1819" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="15">
+        <v>45897.40021335648</v>
+      </c>
+      <c r="B1820" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1820" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1820" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1820" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1820" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1820" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1820" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="12">
+        <v>45897.400429918984</v>
+      </c>
+      <c r="B1821" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1821" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1821" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1821" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1821" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1821" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1821" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="19">
+        <v>45897.40301159723</v>
+      </c>
+      <c r="B1822" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1822" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1822" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1822" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1822" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1822" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1822" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1901">
+  <conditionalFormatting sqref="D1:D1922">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1901">
+  <conditionalFormatting sqref="G2:G1922">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1843</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1844</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12902" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12909" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1843" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1843"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1844" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1844"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -49668,38 +49668,64 @@
       </c>
     </row>
     <row r="1843">
-      <c r="A1843" s="19">
+      <c r="A1843" s="12">
         <v>45898.400814293986</v>
       </c>
-      <c r="B1843" s="20" t="s">
+      <c r="B1843" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1843" s="20" t="s">
+      <c r="C1843" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D1843" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1843" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1843" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1843" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1843" s="21" t="s">
+      <c r="D1843" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1843" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1843" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1843" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1843" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="19">
+        <v>45898.436626759256</v>
+      </c>
+      <c r="B1844" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1844" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1844" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1844" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1844" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1844" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1844" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1943">
+  <conditionalFormatting sqref="D1:D1944">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1943">
+  <conditionalFormatting sqref="G2:G1944">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1844</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1855</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12909" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12986" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1844" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1844"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1855" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1855"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -49694,38 +49694,324 @@
       </c>
     </row>
     <row r="1844">
-      <c r="A1844" s="19">
+      <c r="A1844" s="15">
         <v>45898.436626759256</v>
       </c>
-      <c r="B1844" s="20" t="s">
+      <c r="B1844" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1844" s="20" t="s">
+      <c r="C1844" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D1844" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1844" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1844" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1844" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1844" s="21" t="s">
+      <c r="D1844" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1844" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1844" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1844" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1844" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="12">
+        <v>45904.40468302083</v>
+      </c>
+      <c r="B1845" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1845" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1845" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1845" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1845" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1845" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1845" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="15">
+        <v>45904.40492402778</v>
+      </c>
+      <c r="B1846" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1846" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1846" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1846" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1846" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1846" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1846" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="12">
+        <v>45904.405266076385</v>
+      </c>
+      <c r="B1847" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1847" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1847" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1847" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1847" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1847" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1847" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="15">
+        <v>45904.40570365741</v>
+      </c>
+      <c r="B1848" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1848" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1848" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1848" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1848" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1848" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1848" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="12">
+        <v>45904.40590243056</v>
+      </c>
+      <c r="B1849" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1849" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1849" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1849" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1849" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1849" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1849" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="15">
+        <v>45904.40614277778</v>
+      </c>
+      <c r="B1850" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1850" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1850" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1850" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1850" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1850" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1850" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="12">
+        <v>45904.40629576389</v>
+      </c>
+      <c r="B1851" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1851" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1851" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1851" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1851" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1851" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1851" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="15">
+        <v>45904.4068934838</v>
+      </c>
+      <c r="B1852" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1852" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1852" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1852" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1852" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1852" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1852" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="12">
+        <v>45904.40915924768</v>
+      </c>
+      <c r="B1853" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1853" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1853" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1853" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1853" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1853" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1853" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="15">
+        <v>45904.409582002314</v>
+      </c>
+      <c r="B1854" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1854" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1854" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1854" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1854" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1854" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1854" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="19">
+        <v>45904.41042439815</v>
+      </c>
+      <c r="B1855" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1855" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1855" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1855" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1855" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1855" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1855" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1944">
+  <conditionalFormatting sqref="D1:D1955">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1944">
+  <conditionalFormatting sqref="G2:G1955">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1855</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1858</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12986" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1855" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1855"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1858" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1858"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -49980,38 +49980,116 @@
       </c>
     </row>
     <row r="1855">
-      <c r="A1855" s="19">
+      <c r="A1855" s="12">
         <v>45904.41042439815</v>
       </c>
-      <c r="B1855" s="20" t="s">
+      <c r="B1855" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1855" s="20" t="s">
+      <c r="C1855" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1855" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1855" s="21" t="s">
+      <c r="D1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1855" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1855" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="15">
+        <v>45904.41185164352</v>
+      </c>
+      <c r="B1856" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1856" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1856" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1856" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1856" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1856" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1856" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="12">
+        <v>45904.41239082176</v>
+      </c>
+      <c r="B1857" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1857" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1857" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1857" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="19">
+        <v>45904.41260574074</v>
+      </c>
+      <c r="B1858" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1858" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1858" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1858" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1858" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1858" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1858" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1955">
+  <conditionalFormatting sqref="D1:D1958">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1955">
+  <conditionalFormatting sqref="G2:G1958">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1858</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1865</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13056" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,10 +1366,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1377,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1391,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1858" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1858"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1865" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1865"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -50058,38 +50058,220 @@
       </c>
     </row>
     <row r="1858">
-      <c r="A1858" s="19">
+      <c r="A1858" s="15">
         <v>45904.41260574074</v>
       </c>
-      <c r="B1858" s="20" t="s">
+      <c r="B1858" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1858" s="20" t="s">
+      <c r="C1858" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D1858" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1858" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1858" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1858" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1858" s="21" t="s">
+      <c r="D1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1858" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1858" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="12">
+        <v>45908.398801041665</v>
+      </c>
+      <c r="B1859" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1859" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1859" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1859" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1859" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1859" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1859" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="15">
+        <v>45908.39972638889</v>
+      </c>
+      <c r="B1860" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1860" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1860" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1860" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="12">
+        <v>45908.39990498843</v>
+      </c>
+      <c r="B1861" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1861" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1861" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1861" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="15">
+        <v>45908.40597666666</v>
+      </c>
+      <c r="B1862" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1862" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1862" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1862" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="12">
+        <v>45908.40661759259</v>
+      </c>
+      <c r="B1863" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1863" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1863" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1863" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="15">
+        <v>45908.407004189816</v>
+      </c>
+      <c r="B1864" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1864" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1864" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1864" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="19">
+        <v>45908.40741009259</v>
+      </c>
+      <c r="B1865" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1865" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1865" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1865" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1865" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1865" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1865" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1958">
+  <conditionalFormatting sqref="D1:D1965">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1958">
+  <conditionalFormatting sqref="G2:G1965">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1855</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1875</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12986" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13126" uniqueCount="392">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1542,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1855" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1855"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1875" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1875"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -49980,38 +49980,558 @@
       </c>
     </row>
     <row r="1855">
-      <c r="A1855" s="19">
+      <c r="A1855" s="12">
         <v>45904.41042439815</v>
       </c>
-      <c r="B1855" s="20" t="s">
+      <c r="B1855" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1855" s="20" t="s">
+      <c r="C1855" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1855" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1855" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1855" s="21" t="s">
+      <c r="D1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1855" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1855" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1855" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="15">
+        <v>45904.41185164352</v>
+      </c>
+      <c r="B1856" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1856" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1856" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1856" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1856" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1856" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1856" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="12">
+        <v>45904.41239082176</v>
+      </c>
+      <c r="B1857" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1857" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1857" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1857" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1857" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="15">
+        <v>45904.41260574074</v>
+      </c>
+      <c r="B1858" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1858" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1858" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1858" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1858" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="12">
+        <v>45908.398801041665</v>
+      </c>
+      <c r="B1859" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1859" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1859" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1859" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1859" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1859" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1859" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="15">
+        <v>45908.39972638889</v>
+      </c>
+      <c r="B1860" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1860" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1860" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1860" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1860" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="12">
+        <v>45908.39990498843</v>
+      </c>
+      <c r="B1861" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1861" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1861" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1861" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1861" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="15">
+        <v>45908.40597666666</v>
+      </c>
+      <c r="B1862" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1862" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1862" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1862" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1862" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="12">
+        <v>45908.40661759259</v>
+      </c>
+      <c r="B1863" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1863" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1863" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1863" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1863" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="15">
+        <v>45908.407004189816</v>
+      </c>
+      <c r="B1864" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1864" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1864" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1864" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1864" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="12">
+        <v>45908.40741009259</v>
+      </c>
+      <c r="B1865" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1865" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1865" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1865" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1865" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1865" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1865" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="15">
+        <v>45908.4162008912</v>
+      </c>
+      <c r="B1866" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1866" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1866" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1866" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1866" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1866" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1866" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="12">
+        <v>45908.416400601855</v>
+      </c>
+      <c r="B1867" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1867" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1867" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1867" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1867" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1867" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1867" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="15">
+        <v>45908.43757851852</v>
+      </c>
+      <c r="B1868" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1868" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1868" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1868" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1868" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1868" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1868" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="12">
+        <v>45908.4388603588</v>
+      </c>
+      <c r="B1869" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1869" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1869" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1869" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1869" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1869" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1869" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="15">
+        <v>45908.439442256946</v>
+      </c>
+      <c r="B1870" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1870" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1870" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1870" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1870" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1870" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1870" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="12">
+        <v>45908.44579701389</v>
+      </c>
+      <c r="B1871" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1871" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1871" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1871" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1871" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1871" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1871" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="15">
+        <v>45908.44596484954</v>
+      </c>
+      <c r="B1872" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1872" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1872" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1872" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1872" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1872" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1872" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="12">
+        <v>45908.44616677084</v>
+      </c>
+      <c r="B1873" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1873" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1873" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1873" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1873" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1873" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1873" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="15">
+        <v>45908.44645952546</v>
+      </c>
+      <c r="B1874" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1874" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1874" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1874" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1874" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1874" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1874" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="19">
+        <v>45908.44690293982</v>
+      </c>
+      <c r="B1875" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1875" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1875" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1875" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1875" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1875" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1875" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1955">
+  <conditionalFormatting sqref="D1:D1975">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1955">
+  <conditionalFormatting sqref="G2:G1975">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1894</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1909</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13259" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1190,6 +1190,9 @@
   <si>
     <t>25 Cabeza</t>
   </si>
+  <si>
+    <t>3 rodilla derecha, 4 rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,10 +1369,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1394,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1894" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1894"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1909" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1909"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -50525,7 +50528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1876">
+    <row r="1876" hidden="1">
       <c r="A1876" s="15">
         <v>45909.37215534722</v>
       </c>
@@ -50551,7 +50554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1877">
+    <row r="1877" hidden="1">
       <c r="A1877" s="12">
         <v>45909.37285925926</v>
       </c>
@@ -50577,7 +50580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1878">
+    <row r="1878" hidden="1">
       <c r="A1878" s="15">
         <v>45909.3827300463</v>
       </c>
@@ -50603,7 +50606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1879">
+    <row r="1879" hidden="1">
       <c r="A1879" s="12">
         <v>45909.38467929398</v>
       </c>
@@ -50629,7 +50632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880">
+    <row r="1880" hidden="1">
       <c r="A1880" s="15">
         <v>45909.38609510417</v>
       </c>
@@ -50655,7 +50658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1881">
+    <row r="1881" hidden="1">
       <c r="A1881" s="12">
         <v>45909.386736782406</v>
       </c>
@@ -50681,7 +50684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1882">
+    <row r="1882" hidden="1">
       <c r="A1882" s="15">
         <v>45909.39146291667</v>
       </c>
@@ -50707,7 +50710,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="1883">
+    <row r="1883" hidden="1">
       <c r="A1883" s="12">
         <v>45909.39195921297</v>
       </c>
@@ -50733,7 +50736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1884">
+    <row r="1884" hidden="1">
       <c r="A1884" s="15">
         <v>45909.39305521991</v>
       </c>
@@ -50759,7 +50762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1885">
+    <row r="1885" hidden="1">
       <c r="A1885" s="12">
         <v>45909.39377447916</v>
       </c>
@@ -50785,7 +50788,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1886">
+    <row r="1886" hidden="1">
       <c r="A1886" s="15">
         <v>45909.394696284726</v>
       </c>
@@ -50811,7 +50814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1887">
+    <row r="1887" hidden="1">
       <c r="A1887" s="12">
         <v>45909.39527487269</v>
       </c>
@@ -50837,7 +50840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1888">
+    <row r="1888" hidden="1">
       <c r="A1888" s="15">
         <v>45909.39545861111</v>
       </c>
@@ -50863,7 +50866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1889">
+    <row r="1889" hidden="1">
       <c r="A1889" s="12">
         <v>45909.40301807871</v>
       </c>
@@ -50889,7 +50892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1890">
+    <row r="1890" hidden="1">
       <c r="A1890" s="15">
         <v>45909.40365719907</v>
       </c>
@@ -50915,7 +50918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1891">
+    <row r="1891" hidden="1">
       <c r="A1891" s="12">
         <v>45909.404076273146</v>
       </c>
@@ -50941,7 +50944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1892">
+    <row r="1892" hidden="1">
       <c r="A1892" s="15">
         <v>45909.404262094904</v>
       </c>
@@ -50967,7 +50970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1893">
+    <row r="1893" hidden="1">
       <c r="A1893" s="12">
         <v>45909.4055559838</v>
       </c>
@@ -50993,39 +50996,429 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1894">
-      <c r="A1894" s="19">
+    <row r="1894" hidden="1">
+      <c r="A1894" s="15">
         <v>45909.405731770836</v>
       </c>
-      <c r="B1894" s="20" t="s">
+      <c r="B1894" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C1894" s="20" t="s">
+      <c r="C1894" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D1894" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1894" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1894" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1894" s="20" t="s">
+      <c r="D1894" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1894" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1894" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1894" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1894" s="21" t="s">
+      <c r="H1894" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="12">
+        <v>45910.38872837963</v>
+      </c>
+      <c r="B1895" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1895" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1895" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1895" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1895" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1895" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1895" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="15">
+        <v>45910.38907304398</v>
+      </c>
+      <c r="B1896" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1896" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1896" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1896" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1896" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1896" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1896" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="12">
+        <v>45910.38921515046</v>
+      </c>
+      <c r="B1897" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1897" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1897" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1897" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="15">
+        <v>45910.38978048611</v>
+      </c>
+      <c r="B1898" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1898" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1898" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1898" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="12">
+        <v>45910.38995434028</v>
+      </c>
+      <c r="B1899" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1899" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1899" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1899" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1899" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1899" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1899" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="15">
+        <v>45910.39032309028</v>
+      </c>
+      <c r="B1900" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1900" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1900" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1900" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="12">
+        <v>45910.39570412037</v>
+      </c>
+      <c r="B1901" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1901" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1901" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1901" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1901" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1901" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1901" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="15">
+        <v>45910.39645172453</v>
+      </c>
+      <c r="B1902" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1902" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1902" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1902" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1902" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1902" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1902" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="12">
+        <v>45910.39726824074</v>
+      </c>
+      <c r="B1903" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1903" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1903" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1903" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="15">
+        <v>45910.39743549768</v>
+      </c>
+      <c r="B1904" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1904" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1904" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1904" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1904" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1904" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1904" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="12">
+        <v>45910.39761075232</v>
+      </c>
+      <c r="B1905" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1905" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1905" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1905" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1905" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1905" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1905" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="15">
+        <v>45910.39778157407</v>
+      </c>
+      <c r="B1906" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1906" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1906" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1906" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1906" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1906" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1906" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="12">
+        <v>45910.3980089699</v>
+      </c>
+      <c r="B1907" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1907" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1907" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1907" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="15">
+        <v>45910.39846267361</v>
+      </c>
+      <c r="B1908" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1908" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1908" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1908" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1908" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1908" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1908" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="19">
+        <v>45910.399084687495</v>
+      </c>
+      <c r="B1909" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1909" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1909" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1909" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1909" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1909" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1909" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1994">
+  <conditionalFormatting sqref="D1:D2009">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1994">
+  <conditionalFormatting sqref="G2:G2009">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1909</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1931</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13518" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1545,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1909" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1909"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1931" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1931"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51022,7 +51022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895">
+    <row r="1895" hidden="1">
       <c r="A1895" s="12">
         <v>45910.38872837963</v>
       </c>
@@ -51048,7 +51048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1896">
+    <row r="1896" hidden="1">
       <c r="A1896" s="15">
         <v>45910.38907304398</v>
       </c>
@@ -51074,7 +51074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1897">
+    <row r="1897" hidden="1">
       <c r="A1897" s="12">
         <v>45910.38921515046</v>
       </c>
@@ -51100,7 +51100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1898">
+    <row r="1898" hidden="1">
       <c r="A1898" s="15">
         <v>45910.38978048611</v>
       </c>
@@ -51126,7 +51126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1899">
+    <row r="1899" hidden="1">
       <c r="A1899" s="12">
         <v>45910.38995434028</v>
       </c>
@@ -51152,7 +51152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1900">
+    <row r="1900" hidden="1">
       <c r="A1900" s="15">
         <v>45910.39032309028</v>
       </c>
@@ -51178,7 +51178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1901">
+    <row r="1901" hidden="1">
       <c r="A1901" s="12">
         <v>45910.39570412037</v>
       </c>
@@ -51204,7 +51204,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="1902">
+    <row r="1902" hidden="1">
       <c r="A1902" s="15">
         <v>45910.39645172453</v>
       </c>
@@ -51230,7 +51230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1903">
+    <row r="1903" hidden="1">
       <c r="A1903" s="12">
         <v>45910.39726824074</v>
       </c>
@@ -51256,7 +51256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1904">
+    <row r="1904" hidden="1">
       <c r="A1904" s="15">
         <v>45910.39743549768</v>
       </c>
@@ -51282,7 +51282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1905">
+    <row r="1905" hidden="1">
       <c r="A1905" s="12">
         <v>45910.39761075232</v>
       </c>
@@ -51308,7 +51308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1906">
+    <row r="1906" hidden="1">
       <c r="A1906" s="15">
         <v>45910.39778157407</v>
       </c>
@@ -51334,7 +51334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1907">
+    <row r="1907" hidden="1">
       <c r="A1907" s="12">
         <v>45910.3980089699</v>
       </c>
@@ -51360,7 +51360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1908">
+    <row r="1908" hidden="1">
       <c r="A1908" s="15">
         <v>45910.39846267361</v>
       </c>
@@ -51386,39 +51386,611 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1909">
-      <c r="A1909" s="19">
+    <row r="1909" hidden="1">
+      <c r="A1909" s="12">
         <v>45910.399084687495</v>
       </c>
-      <c r="B1909" s="20" t="s">
+      <c r="B1909" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1909" s="20" t="s">
+      <c r="C1909" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D1909" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1909" s="20" t="s">
+      <c r="D1909" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1909" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1909" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1909" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1909" s="21" t="s">
+      <c r="F1909" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1909" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1909" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="15">
+        <v>45911.36196190972</v>
+      </c>
+      <c r="B1910" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1910" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1910" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1910" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="12">
+        <v>45911.36269091435</v>
+      </c>
+      <c r="B1911" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1911" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1911" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1911" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="15">
+        <v>45911.36399370371</v>
+      </c>
+      <c r="B1912" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1912" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1912" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1912" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1912" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1912" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1912" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="12">
+        <v>45911.36563851852</v>
+      </c>
+      <c r="B1913" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1913" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1913" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1913" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1913" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1913" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1913" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="15">
+        <v>45911.38102423611</v>
+      </c>
+      <c r="B1914" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1914" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1914" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1914" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="12">
+        <v>45911.381370613424</v>
+      </c>
+      <c r="B1915" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1915" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1915" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1915" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1915" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1915" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1915" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="15">
+        <v>45911.382989722224</v>
+      </c>
+      <c r="B1916" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1916" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1916" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1916" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1916" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1916" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1916" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="12">
+        <v>45911.38319237268</v>
+      </c>
+      <c r="B1917" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1917" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1917" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1917" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1917" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1917" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1917" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="15">
+        <v>45911.38335820602</v>
+      </c>
+      <c r="B1918" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1918" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1918" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1918" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="12">
+        <v>45911.38355407407</v>
+      </c>
+      <c r="B1919" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1919" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1919" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1919" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="15">
+        <v>45911.3837790625</v>
+      </c>
+      <c r="B1920" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1920" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1920" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1920" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1920" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1920" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1920" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="12">
+        <v>45911.388568263894</v>
+      </c>
+      <c r="B1921" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1921" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1921" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1921" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1921" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1921" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1921" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="15">
+        <v>45911.39399539352</v>
+      </c>
+      <c r="B1922" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1922" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1922" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1922" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1922" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1922" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1922" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="12">
+        <v>45911.39479789352</v>
+      </c>
+      <c r="B1923" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1923" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1923" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1923" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1923" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1923" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1923" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="15">
+        <v>45911.39495231482</v>
+      </c>
+      <c r="B1924" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1924" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1924" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1924" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1924" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1924" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1924" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="12">
+        <v>45911.39511269676</v>
+      </c>
+      <c r="B1925" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1925" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1925" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1925" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1925" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1925" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1925" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="15">
+        <v>45911.3959746412</v>
+      </c>
+      <c r="B1926" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1926" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1926" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1926" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1926" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1926" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1926" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="12">
+        <v>45911.39617482639</v>
+      </c>
+      <c r="B1927" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1927" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1927" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1927" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1927" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1927" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1927" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="15">
+        <v>45911.39747460648</v>
+      </c>
+      <c r="B1928" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1928" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1928" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1928" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1928" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1928" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1928" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="12">
+        <v>45911.398987175926</v>
+      </c>
+      <c r="B1929" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1929" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1929" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1929" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1929" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1929" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1929" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="15">
+        <v>45911.399243576394</v>
+      </c>
+      <c r="B1930" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1930" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1930" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1930" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1930" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1930" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1930" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="19">
+        <v>45911.40027293982</v>
+      </c>
+      <c r="B1931" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1931" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1931" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1931" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1931" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1931" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1931" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2009">
+  <conditionalFormatting sqref="D1:D2031">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2009">
+  <conditionalFormatting sqref="G2:G2031">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1894</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1921</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13259" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13448" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1190,6 +1190,9 @@
   <si>
     <t>25 Cabeza</t>
   </si>
+  <si>
+    <t>3 rodilla derecha, 4 rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,10 +1369,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1377,13 +1380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1391,13 +1394,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1542,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1894" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1894"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1921" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1921"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -50525,7 +50528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1876">
+    <row r="1876" hidden="1">
       <c r="A1876" s="15">
         <v>45909.37215534722</v>
       </c>
@@ -50551,7 +50554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1877">
+    <row r="1877" hidden="1">
       <c r="A1877" s="12">
         <v>45909.37285925926</v>
       </c>
@@ -50577,7 +50580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1878">
+    <row r="1878" hidden="1">
       <c r="A1878" s="15">
         <v>45909.3827300463</v>
       </c>
@@ -50603,7 +50606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1879">
+    <row r="1879" hidden="1">
       <c r="A1879" s="12">
         <v>45909.38467929398</v>
       </c>
@@ -50629,7 +50632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880">
+    <row r="1880" hidden="1">
       <c r="A1880" s="15">
         <v>45909.38609510417</v>
       </c>
@@ -50655,7 +50658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1881">
+    <row r="1881" hidden="1">
       <c r="A1881" s="12">
         <v>45909.386736782406</v>
       </c>
@@ -50681,7 +50684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1882">
+    <row r="1882" hidden="1">
       <c r="A1882" s="15">
         <v>45909.39146291667</v>
       </c>
@@ -50707,7 +50710,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="1883">
+    <row r="1883" hidden="1">
       <c r="A1883" s="12">
         <v>45909.39195921297</v>
       </c>
@@ -50733,7 +50736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1884">
+    <row r="1884" hidden="1">
       <c r="A1884" s="15">
         <v>45909.39305521991</v>
       </c>
@@ -50759,7 +50762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1885">
+    <row r="1885" hidden="1">
       <c r="A1885" s="12">
         <v>45909.39377447916</v>
       </c>
@@ -50785,7 +50788,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1886">
+    <row r="1886" hidden="1">
       <c r="A1886" s="15">
         <v>45909.394696284726</v>
       </c>
@@ -50811,7 +50814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1887">
+    <row r="1887" hidden="1">
       <c r="A1887" s="12">
         <v>45909.39527487269</v>
       </c>
@@ -50837,7 +50840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1888">
+    <row r="1888" hidden="1">
       <c r="A1888" s="15">
         <v>45909.39545861111</v>
       </c>
@@ -50863,7 +50866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1889">
+    <row r="1889" hidden="1">
       <c r="A1889" s="12">
         <v>45909.40301807871</v>
       </c>
@@ -50889,7 +50892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1890">
+    <row r="1890" hidden="1">
       <c r="A1890" s="15">
         <v>45909.40365719907</v>
       </c>
@@ -50915,7 +50918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1891">
+    <row r="1891" hidden="1">
       <c r="A1891" s="12">
         <v>45909.404076273146</v>
       </c>
@@ -50941,7 +50944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1892">
+    <row r="1892" hidden="1">
       <c r="A1892" s="15">
         <v>45909.404262094904</v>
       </c>
@@ -50967,7 +50970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1893">
+    <row r="1893" hidden="1">
       <c r="A1893" s="12">
         <v>45909.4055559838</v>
       </c>
@@ -50993,39 +50996,741 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1894">
-      <c r="A1894" s="19">
+    <row r="1894" hidden="1">
+      <c r="A1894" s="15">
         <v>45909.405731770836</v>
       </c>
-      <c r="B1894" s="20" t="s">
+      <c r="B1894" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C1894" s="20" t="s">
+      <c r="C1894" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D1894" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1894" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1894" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1894" s="20" t="s">
+      <c r="D1894" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1894" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1894" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1894" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H1894" s="21" t="s">
+      <c r="H1894" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1895" hidden="1">
+      <c r="A1895" s="12">
+        <v>45910.38872837963</v>
+      </c>
+      <c r="B1895" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1895" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1895" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1895" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1895" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1895" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1895" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1896" hidden="1">
+      <c r="A1896" s="15">
+        <v>45910.38907304398</v>
+      </c>
+      <c r="B1896" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1896" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1896" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1896" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1896" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1896" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1896" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1897" hidden="1">
+      <c r="A1897" s="12">
+        <v>45910.38921515046</v>
+      </c>
+      <c r="B1897" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1897" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1897" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1897" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1897" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1898" hidden="1">
+      <c r="A1898" s="15">
+        <v>45910.38978048611</v>
+      </c>
+      <c r="B1898" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1898" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1898" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1898" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1898" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1899" hidden="1">
+      <c r="A1899" s="12">
+        <v>45910.38995434028</v>
+      </c>
+      <c r="B1899" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1899" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1899" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1899" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1899" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1899" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1899" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1900" hidden="1">
+      <c r="A1900" s="15">
+        <v>45910.39032309028</v>
+      </c>
+      <c r="B1900" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1900" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1900" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1900" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1900" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1901" hidden="1">
+      <c r="A1901" s="12">
+        <v>45910.39570412037</v>
+      </c>
+      <c r="B1901" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1901" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1901" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1901" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1901" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1901" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1901" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1902" hidden="1">
+      <c r="A1902" s="15">
+        <v>45910.39645172453</v>
+      </c>
+      <c r="B1902" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1902" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1902" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1902" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1902" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1902" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1902" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1903" hidden="1">
+      <c r="A1903" s="12">
+        <v>45910.39726824074</v>
+      </c>
+      <c r="B1903" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1903" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1903" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1903" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1904" hidden="1">
+      <c r="A1904" s="15">
+        <v>45910.39743549768</v>
+      </c>
+      <c r="B1904" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1904" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1904" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1904" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1904" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1904" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1904" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1905" hidden="1">
+      <c r="A1905" s="12">
+        <v>45910.39761075232</v>
+      </c>
+      <c r="B1905" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1905" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1905" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1905" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1905" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1905" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1905" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1906" hidden="1">
+      <c r="A1906" s="15">
+        <v>45910.39778157407</v>
+      </c>
+      <c r="B1906" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1906" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1906" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1906" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1906" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1906" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1906" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1907" hidden="1">
+      <c r="A1907" s="12">
+        <v>45910.3980089699</v>
+      </c>
+      <c r="B1907" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1907" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1907" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1907" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1907" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1908" hidden="1">
+      <c r="A1908" s="15">
+        <v>45910.39846267361</v>
+      </c>
+      <c r="B1908" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1908" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1908" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1908" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1908" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1908" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1908" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1909" hidden="1">
+      <c r="A1909" s="12">
+        <v>45910.399084687495</v>
+      </c>
+      <c r="B1909" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1909" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1909" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1909" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1909" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1909" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1909" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="15">
+        <v>45911.36196190972</v>
+      </c>
+      <c r="B1910" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1910" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1910" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1910" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1910" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="12">
+        <v>45911.36269091435</v>
+      </c>
+      <c r="B1911" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1911" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1911" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1911" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1911" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="15">
+        <v>45911.36399370371</v>
+      </c>
+      <c r="B1912" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1912" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1912" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1912" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1912" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1912" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1912" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="12">
+        <v>45911.36563851852</v>
+      </c>
+      <c r="B1913" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1913" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1913" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1913" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1913" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1913" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1913" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="15">
+        <v>45911.38102423611</v>
+      </c>
+      <c r="B1914" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1914" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1914" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1914" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1914" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="12">
+        <v>45911.381370613424</v>
+      </c>
+      <c r="B1915" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1915" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1915" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1915" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1915" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1915" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1915" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="15">
+        <v>45911.382989722224</v>
+      </c>
+      <c r="B1916" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1916" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1916" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1916" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1916" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1916" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1916" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="12">
+        <v>45911.38319237268</v>
+      </c>
+      <c r="B1917" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1917" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1917" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1917" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1917" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1917" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1917" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="15">
+        <v>45911.38335820602</v>
+      </c>
+      <c r="B1918" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1918" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1918" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1918" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1918" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="12">
+        <v>45911.38355407407</v>
+      </c>
+      <c r="B1919" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1919" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1919" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1919" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1919" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="15">
+        <v>45911.3837790625</v>
+      </c>
+      <c r="B1920" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1920" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1920" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1920" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1920" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1920" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1920" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="19">
+        <v>45911.388568263894</v>
+      </c>
+      <c r="B1921" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1921" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1921" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1921" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1921" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1921" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1921" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1994">
+  <conditionalFormatting sqref="D1:D2021">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1994">
+  <conditionalFormatting sqref="G2:G2021">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1931</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1955</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13518" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13686" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1545,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1931" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1931"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1955" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1955"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51959,38 +51959,662 @@
       </c>
     </row>
     <row r="1931">
-      <c r="A1931" s="19">
+      <c r="A1931" s="12">
         <v>45911.40027293982</v>
       </c>
-      <c r="B1931" s="20" t="s">
+      <c r="B1931" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1931" s="20" t="s">
+      <c r="C1931" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D1931" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1931" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1931" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1931" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1931" s="21" t="s">
+      <c r="D1931" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1931" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1931" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1931" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1931" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="15">
+        <v>45912.35150001157</v>
+      </c>
+      <c r="B1932" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1932" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1932" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1932" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1932" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1932" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1932" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="12">
+        <v>45912.36705961806</v>
+      </c>
+      <c r="B1933" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1933" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1933" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1933" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1933" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1933" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1933" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="15">
+        <v>45912.36731420139</v>
+      </c>
+      <c r="B1934" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1934" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1934" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1934" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1934" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1934" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1934" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="12">
+        <v>45912.368830127314</v>
+      </c>
+      <c r="B1935" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1935" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1935" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1935" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1935" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1935" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1935" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="15">
+        <v>45912.368984016204</v>
+      </c>
+      <c r="B1936" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1936" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1936" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1936" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1936" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1936" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1936" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="12">
+        <v>45912.370099328706</v>
+      </c>
+      <c r="B1937" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1937" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1937" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1937" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1937" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1937" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1937" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="15">
+        <v>45912.37372023148</v>
+      </c>
+      <c r="B1938" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1938" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1938" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1938" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1938" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1938" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1938" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="12">
+        <v>45912.37398643518</v>
+      </c>
+      <c r="B1939" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1939" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1939" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1939" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1939" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1939" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1939" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="15">
+        <v>45912.37436688658</v>
+      </c>
+      <c r="B1940" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1940" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1940" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1940" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1940" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1940" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1940" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="12">
+        <v>45912.374579166666</v>
+      </c>
+      <c r="B1941" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1941" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1941" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1941" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1941" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1941" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1941" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="15">
+        <v>45912.374878773146</v>
+      </c>
+      <c r="B1942" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1942" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1942" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1942" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1942" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1942" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1942" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="12">
+        <v>45912.37513813657</v>
+      </c>
+      <c r="B1943" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1943" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1943" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1943" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1943" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1943" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1943" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="15">
+        <v>45912.37601137732</v>
+      </c>
+      <c r="B1944" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1944" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1944" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1944" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1944" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1944" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1944" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="12">
+        <v>45912.37621099537</v>
+      </c>
+      <c r="B1945" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1945" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1945" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1945" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1945" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1945" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1945" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="15">
+        <v>45912.376369571764</v>
+      </c>
+      <c r="B1946" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1946" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1946" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1946" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1946" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1946" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1946" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="12">
+        <v>45912.37963631944</v>
+      </c>
+      <c r="B1947" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1947" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1947" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1947" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1947" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1947" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1947" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="15">
+        <v>45912.38561349537</v>
+      </c>
+      <c r="B1948" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1948" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1948" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1948" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1948" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1948" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1948" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="12">
+        <v>45912.388620451384</v>
+      </c>
+      <c r="B1949" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1949" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1949" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1949" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1949" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1949" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1949" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="15">
+        <v>45912.39263003472</v>
+      </c>
+      <c r="B1950" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1950" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1950" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1950" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1950" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1950" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1950" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="12">
+        <v>45912.39282194445</v>
+      </c>
+      <c r="B1951" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1951" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1951" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1951" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1951" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1951" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1951" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="15">
+        <v>45912.40098528935</v>
+      </c>
+      <c r="B1952" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1952" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1952" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1952" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1952" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1952" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1952" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="12">
+        <v>45912.40146328704</v>
+      </c>
+      <c r="B1953" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1953" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1953" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1953" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1953" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1953" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1953" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="15">
+        <v>45912.40656103009</v>
+      </c>
+      <c r="B1954" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1954" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1954" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1954" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1954" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1954" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1954" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="19">
+        <v>45912.40972239584</v>
+      </c>
+      <c r="B1955" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1955" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1955" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1955" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1955" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1955" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1955" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2031">
+  <conditionalFormatting sqref="D1:D2055">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2031">
+  <conditionalFormatting sqref="G2:G2055">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1955</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1974</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13686" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13819" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1369,10 +1369,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1380,13 +1380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1394,13 +1394,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1545,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1955" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1955"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1974" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1974"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51412,7 +51412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1910">
+    <row r="1910" hidden="1">
       <c r="A1910" s="15">
         <v>45911.36196190972</v>
       </c>
@@ -51438,7 +51438,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1911">
+    <row r="1911" hidden="1">
       <c r="A1911" s="12">
         <v>45911.36269091435</v>
       </c>
@@ -51464,7 +51464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1912">
+    <row r="1912" hidden="1">
       <c r="A1912" s="15">
         <v>45911.36399370371</v>
       </c>
@@ -51490,7 +51490,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1913">
+    <row r="1913" hidden="1">
       <c r="A1913" s="12">
         <v>45911.36563851852</v>
       </c>
@@ -51516,7 +51516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1914">
+    <row r="1914" hidden="1">
       <c r="A1914" s="15">
         <v>45911.38102423611</v>
       </c>
@@ -51542,7 +51542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1915">
+    <row r="1915" hidden="1">
       <c r="A1915" s="12">
         <v>45911.381370613424</v>
       </c>
@@ -51568,7 +51568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1916">
+    <row r="1916" hidden="1">
       <c r="A1916" s="15">
         <v>45911.382989722224</v>
       </c>
@@ -51594,7 +51594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1917">
+    <row r="1917" hidden="1">
       <c r="A1917" s="12">
         <v>45911.38319237268</v>
       </c>
@@ -51620,7 +51620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1918">
+    <row r="1918" hidden="1">
       <c r="A1918" s="15">
         <v>45911.38335820602</v>
       </c>
@@ -51646,7 +51646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1919">
+    <row r="1919" hidden="1">
       <c r="A1919" s="12">
         <v>45911.38355407407</v>
       </c>
@@ -51672,7 +51672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1920">
+    <row r="1920" hidden="1">
       <c r="A1920" s="15">
         <v>45911.3837790625</v>
       </c>
@@ -51698,7 +51698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1921">
+    <row r="1921" hidden="1">
       <c r="A1921" s="12">
         <v>45911.388568263894</v>
       </c>
@@ -51724,7 +51724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1922">
+    <row r="1922" hidden="1">
       <c r="A1922" s="15">
         <v>45911.39399539352</v>
       </c>
@@ -51750,7 +51750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1923">
+    <row r="1923" hidden="1">
       <c r="A1923" s="12">
         <v>45911.39479789352</v>
       </c>
@@ -51776,7 +51776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1924">
+    <row r="1924" hidden="1">
       <c r="A1924" s="15">
         <v>45911.39495231482</v>
       </c>
@@ -51802,7 +51802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1925">
+    <row r="1925" hidden="1">
       <c r="A1925" s="12">
         <v>45911.39511269676</v>
       </c>
@@ -51828,7 +51828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1926">
+    <row r="1926" hidden="1">
       <c r="A1926" s="15">
         <v>45911.3959746412</v>
       </c>
@@ -51854,7 +51854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1927">
+    <row r="1927" hidden="1">
       <c r="A1927" s="12">
         <v>45911.39617482639</v>
       </c>
@@ -51880,7 +51880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1928">
+    <row r="1928" hidden="1">
       <c r="A1928" s="15">
         <v>45911.39747460648</v>
       </c>
@@ -51906,7 +51906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1929">
+    <row r="1929" hidden="1">
       <c r="A1929" s="12">
         <v>45911.398987175926</v>
       </c>
@@ -51932,7 +51932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930">
+    <row r="1930" hidden="1">
       <c r="A1930" s="15">
         <v>45911.399243576394</v>
       </c>
@@ -51958,7 +51958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1931">
+    <row r="1931" hidden="1">
       <c r="A1931" s="12">
         <v>45911.40027293982</v>
       </c>
@@ -51984,7 +51984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1932">
+    <row r="1932" hidden="1">
       <c r="A1932" s="15">
         <v>45912.35150001157</v>
       </c>
@@ -52010,7 +52010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1933">
+    <row r="1933" hidden="1">
       <c r="A1933" s="12">
         <v>45912.36705961806</v>
       </c>
@@ -52036,7 +52036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1934">
+    <row r="1934" hidden="1">
       <c r="A1934" s="15">
         <v>45912.36731420139</v>
       </c>
@@ -52062,7 +52062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1935">
+    <row r="1935" hidden="1">
       <c r="A1935" s="12">
         <v>45912.368830127314</v>
       </c>
@@ -52088,7 +52088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1936">
+    <row r="1936" hidden="1">
       <c r="A1936" s="15">
         <v>45912.368984016204</v>
       </c>
@@ -52114,7 +52114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1937">
+    <row r="1937" hidden="1">
       <c r="A1937" s="12">
         <v>45912.370099328706</v>
       </c>
@@ -52140,7 +52140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1938">
+    <row r="1938" hidden="1">
       <c r="A1938" s="15">
         <v>45912.37372023148</v>
       </c>
@@ -52166,7 +52166,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="1939">
+    <row r="1939" hidden="1">
       <c r="A1939" s="12">
         <v>45912.37398643518</v>
       </c>
@@ -52192,7 +52192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1940">
+    <row r="1940" hidden="1">
       <c r="A1940" s="15">
         <v>45912.37436688658</v>
       </c>
@@ -52218,7 +52218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1941">
+    <row r="1941" hidden="1">
       <c r="A1941" s="12">
         <v>45912.374579166666</v>
       </c>
@@ -52244,7 +52244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1942">
+    <row r="1942" hidden="1">
       <c r="A1942" s="15">
         <v>45912.374878773146</v>
       </c>
@@ -52270,7 +52270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1943">
+    <row r="1943" hidden="1">
       <c r="A1943" s="12">
         <v>45912.37513813657</v>
       </c>
@@ -52296,7 +52296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1944">
+    <row r="1944" hidden="1">
       <c r="A1944" s="15">
         <v>45912.37601137732</v>
       </c>
@@ -52322,7 +52322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1945">
+    <row r="1945" hidden="1">
       <c r="A1945" s="12">
         <v>45912.37621099537</v>
       </c>
@@ -52348,7 +52348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1946">
+    <row r="1946" hidden="1">
       <c r="A1946" s="15">
         <v>45912.376369571764</v>
       </c>
@@ -52374,7 +52374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947">
+    <row r="1947" hidden="1">
       <c r="A1947" s="12">
         <v>45912.37963631944</v>
       </c>
@@ -52400,7 +52400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1948">
+    <row r="1948" hidden="1">
       <c r="A1948" s="15">
         <v>45912.38561349537</v>
       </c>
@@ -52426,7 +52426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1949">
+    <row r="1949" hidden="1">
       <c r="A1949" s="12">
         <v>45912.388620451384</v>
       </c>
@@ -52452,7 +52452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1950">
+    <row r="1950" hidden="1">
       <c r="A1950" s="15">
         <v>45912.39263003472</v>
       </c>
@@ -52478,7 +52478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1951">
+    <row r="1951" hidden="1">
       <c r="A1951" s="12">
         <v>45912.39282194445</v>
       </c>
@@ -52504,7 +52504,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="1952">
+    <row r="1952" hidden="1">
       <c r="A1952" s="15">
         <v>45912.40098528935</v>
       </c>
@@ -52530,7 +52530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1953">
+    <row r="1953" hidden="1">
       <c r="A1953" s="12">
         <v>45912.40146328704</v>
       </c>
@@ -52556,7 +52556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1954">
+    <row r="1954" hidden="1">
       <c r="A1954" s="15">
         <v>45912.40656103009</v>
       </c>
@@ -52582,39 +52582,533 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1955">
-      <c r="A1955" s="19">
+    <row r="1955" hidden="1">
+      <c r="A1955" s="12">
         <v>45912.40972239584</v>
       </c>
-      <c r="B1955" s="20" t="s">
+      <c r="B1955" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1955" s="20" t="s">
+      <c r="C1955" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D1955" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1955" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1955" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1955" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1955" s="21" t="s">
+      <c r="D1955" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1955" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1955" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1955" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1955" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="15">
+        <v>45915.356879548606</v>
+      </c>
+      <c r="B1956" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1956" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1956" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1956" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1956" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1956" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1956" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="12">
+        <v>45915.35912278935</v>
+      </c>
+      <c r="B1957" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1957" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1957" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1957" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1957" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1957" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1957" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="15">
+        <v>45915.35981378472</v>
+      </c>
+      <c r="B1958" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1958" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1958" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1958" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1958" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1958" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1958" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="12">
+        <v>45915.36003119213</v>
+      </c>
+      <c r="B1959" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1959" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1959" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1959" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1959" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1959" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1959" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="15">
+        <v>45915.360451307875</v>
+      </c>
+      <c r="B1960" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1960" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1960" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1960" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1960" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1960" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1960" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="12">
+        <v>45915.36087820602</v>
+      </c>
+      <c r="B1961" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1961" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1961" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1961" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1961" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1961" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1961" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="15">
+        <v>45915.361059965275</v>
+      </c>
+      <c r="B1962" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1962" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1962" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1962" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1962" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1962" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1962" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="12">
+        <v>45915.36157605324</v>
+      </c>
+      <c r="B1963" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1963" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1963" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1963" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1963" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1963" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1963" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="15">
+        <v>45915.36177186343</v>
+      </c>
+      <c r="B1964" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1964" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1964" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1964" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1964" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1964" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1964" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="12">
+        <v>45915.3879469213</v>
+      </c>
+      <c r="B1965" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1965" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1965" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1965" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1965" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1965" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1965" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="15">
+        <v>45915.38813770833</v>
+      </c>
+      <c r="B1966" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1966" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1966" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1966" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1966" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1966" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1966" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="12">
+        <v>45915.38831876157</v>
+      </c>
+      <c r="B1967" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1967" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1967" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1967" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1967" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1967" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1967" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="15">
+        <v>45915.38853511574</v>
+      </c>
+      <c r="B1968" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1968" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1968" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1968" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1968" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1968" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1968" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="12">
+        <v>45915.38873510416</v>
+      </c>
+      <c r="B1969" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1969" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1969" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1969" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1969" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1969" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1969" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="15">
+        <v>45915.38889826389</v>
+      </c>
+      <c r="B1970" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1970" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1970" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1970" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1970" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1970" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1970" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="12">
+        <v>45915.38972561342</v>
+      </c>
+      <c r="B1971" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1971" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1971" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1971" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1971" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1971" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1971" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="15">
+        <v>45915.40587287037</v>
+      </c>
+      <c r="B1972" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1972" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1972" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1972" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1972" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1972" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1972" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="12">
+        <v>45915.41061712963</v>
+      </c>
+      <c r="B1973" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1973" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1973" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1973" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1973" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1973" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1973" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="19">
+        <v>45915.41088659722</v>
+      </c>
+      <c r="B1974" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1974" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1974" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1974" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1974" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1974" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1974" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2055">
+  <conditionalFormatting sqref="D1:D2074">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2055">
+  <conditionalFormatting sqref="G2:G2074">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1974</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1993</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13819" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13952" uniqueCount="393">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1369,10 +1369,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1380,13 +1380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1394,13 +1394,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1545,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1974" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1974"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1993" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$1993"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -53077,38 +53077,532 @@
       </c>
     </row>
     <row r="1974">
-      <c r="A1974" s="19">
+      <c r="A1974" s="15">
         <v>45915.41088659722</v>
       </c>
-      <c r="B1974" s="20" t="s">
+      <c r="B1974" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1974" s="20" t="s">
+      <c r="C1974" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D1974" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1974" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1974" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1974" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1974" s="21" t="s">
+      <c r="D1974" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1974" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1974" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1974" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1974" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="12">
+        <v>45916.396026250004</v>
+      </c>
+      <c r="B1975" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1975" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1975" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1975" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1975" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1975" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1975" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="15">
+        <v>45916.39632185185</v>
+      </c>
+      <c r="B1976" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1976" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1976" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1976" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1976" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1976" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1976" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="12">
+        <v>45916.39653814815</v>
+      </c>
+      <c r="B1977" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1977" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1977" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1977" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1977" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1977" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1977" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="15">
+        <v>45916.396749374995</v>
+      </c>
+      <c r="B1978" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1978" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1978" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1978" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1978" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1978" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1978" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="12">
+        <v>45916.396972476854</v>
+      </c>
+      <c r="B1979" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1979" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1979" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1979" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1979" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1979" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1979" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="15">
+        <v>45916.397191296295</v>
+      </c>
+      <c r="B1980" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1980" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1980" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1980" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1980" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1980" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1980" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="12">
+        <v>45916.397969513884</v>
+      </c>
+      <c r="B1981" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1981" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1981" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1981" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1981" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1981" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1981" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="15">
+        <v>45916.39928375</v>
+      </c>
+      <c r="B1982" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1982" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1982" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1982" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1982" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1982" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1982" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="12">
+        <v>45916.40042868056</v>
+      </c>
+      <c r="B1983" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1983" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1983" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1983" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1983" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1983" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1983" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="15">
+        <v>45916.40056829861</v>
+      </c>
+      <c r="B1984" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1984" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1984" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1984" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1984" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1984" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1984" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="12">
+        <v>45916.400979247686</v>
+      </c>
+      <c r="B1985" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1985" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1985" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1985" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1985" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1985" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1985" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="15">
+        <v>45916.4015003588</v>
+      </c>
+      <c r="B1986" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1986" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1986" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1986" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1986" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1986" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1986" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="12">
+        <v>45916.401664143516</v>
+      </c>
+      <c r="B1987" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1987" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1987" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1987" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1987" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1987" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1987" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="15">
+        <v>45916.40223659722</v>
+      </c>
+      <c r="B1988" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1988" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1988" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1988" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1988" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1988" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1988" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="12">
+        <v>45916.4027728588</v>
+      </c>
+      <c r="B1989" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1989" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1989" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1989" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1989" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1989" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1989" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="15">
+        <v>45916.40760965278</v>
+      </c>
+      <c r="B1990" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1990" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1990" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1990" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1990" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1990" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1990" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="12">
+        <v>45916.40778666666</v>
+      </c>
+      <c r="B1991" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1991" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1991" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1991" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1991" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1991" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1991" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="15">
+        <v>45916.40800802084</v>
+      </c>
+      <c r="B1992" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1992" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1992" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1992" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1992" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1992" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1992" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="19">
+        <v>45916.408183113424</v>
+      </c>
+      <c r="B1993" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1993" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1993" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1993" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1993" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1993" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1993" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2074">
+  <conditionalFormatting sqref="D1:D2093">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2074">
+  <conditionalFormatting sqref="G2:G2093">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1993</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2012</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13952" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14085" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1193,6 +1193,9 @@
   <si>
     <t>3 rodilla derecha, 4 rodilla izquierda</t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1369,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1380,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1394,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1545,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1993" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1993"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2012" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2012"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -52608,7 +52611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1956">
+    <row r="1956" hidden="1">
       <c r="A1956" s="15">
         <v>45915.356879548606</v>
       </c>
@@ -52634,7 +52637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1957">
+    <row r="1957" hidden="1">
       <c r="A1957" s="12">
         <v>45915.35912278935</v>
       </c>
@@ -52660,7 +52663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1958">
+    <row r="1958" hidden="1">
       <c r="A1958" s="15">
         <v>45915.35981378472</v>
       </c>
@@ -52686,7 +52689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1959">
+    <row r="1959" hidden="1">
       <c r="A1959" s="12">
         <v>45915.36003119213</v>
       </c>
@@ -52712,7 +52715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1960">
+    <row r="1960" hidden="1">
       <c r="A1960" s="15">
         <v>45915.360451307875</v>
       </c>
@@ -52738,7 +52741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1961">
+    <row r="1961" hidden="1">
       <c r="A1961" s="12">
         <v>45915.36087820602</v>
       </c>
@@ -52764,7 +52767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1962">
+    <row r="1962" hidden="1">
       <c r="A1962" s="15">
         <v>45915.361059965275</v>
       </c>
@@ -52790,7 +52793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1963">
+    <row r="1963" hidden="1">
       <c r="A1963" s="12">
         <v>45915.36157605324</v>
       </c>
@@ -52816,7 +52819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1964">
+    <row r="1964" hidden="1">
       <c r="A1964" s="15">
         <v>45915.36177186343</v>
       </c>
@@ -52842,7 +52845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1965">
+    <row r="1965" hidden="1">
       <c r="A1965" s="12">
         <v>45915.3879469213</v>
       </c>
@@ -52868,7 +52871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1966">
+    <row r="1966" hidden="1">
       <c r="A1966" s="15">
         <v>45915.38813770833</v>
       </c>
@@ -52894,7 +52897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1967">
+    <row r="1967" hidden="1">
       <c r="A1967" s="12">
         <v>45915.38831876157</v>
       </c>
@@ -52920,7 +52923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1968">
+    <row r="1968" hidden="1">
       <c r="A1968" s="15">
         <v>45915.38853511574</v>
       </c>
@@ -52946,7 +52949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1969">
+    <row r="1969" hidden="1">
       <c r="A1969" s="12">
         <v>45915.38873510416</v>
       </c>
@@ -52972,7 +52975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1970">
+    <row r="1970" hidden="1">
       <c r="A1970" s="15">
         <v>45915.38889826389</v>
       </c>
@@ -52998,7 +53001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1971">
+    <row r="1971" hidden="1">
       <c r="A1971" s="12">
         <v>45915.38972561342</v>
       </c>
@@ -53024,7 +53027,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972">
+    <row r="1972" hidden="1">
       <c r="A1972" s="15">
         <v>45915.40587287037</v>
       </c>
@@ -53050,7 +53053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1973">
+    <row r="1973" hidden="1">
       <c r="A1973" s="12">
         <v>45915.41061712963</v>
       </c>
@@ -53076,7 +53079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1974">
+    <row r="1974" hidden="1">
       <c r="A1974" s="15">
         <v>45915.41088659722</v>
       </c>
@@ -53102,7 +53105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1975">
+    <row r="1975" hidden="1">
       <c r="A1975" s="12">
         <v>45916.396026250004</v>
       </c>
@@ -53128,7 +53131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1976">
+    <row r="1976" hidden="1">
       <c r="A1976" s="15">
         <v>45916.39632185185</v>
       </c>
@@ -53154,7 +53157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1977">
+    <row r="1977" hidden="1">
       <c r="A1977" s="12">
         <v>45916.39653814815</v>
       </c>
@@ -53180,7 +53183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1978">
+    <row r="1978" hidden="1">
       <c r="A1978" s="15">
         <v>45916.396749374995</v>
       </c>
@@ -53206,7 +53209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1979">
+    <row r="1979" hidden="1">
       <c r="A1979" s="12">
         <v>45916.396972476854</v>
       </c>
@@ -53232,7 +53235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1980">
+    <row r="1980" hidden="1">
       <c r="A1980" s="15">
         <v>45916.397191296295</v>
       </c>
@@ -53258,7 +53261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1981">
+    <row r="1981" hidden="1">
       <c r="A1981" s="12">
         <v>45916.397969513884</v>
       </c>
@@ -53284,7 +53287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982">
+    <row r="1982" hidden="1">
       <c r="A1982" s="15">
         <v>45916.39928375</v>
       </c>
@@ -53310,7 +53313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1983">
+    <row r="1983" hidden="1">
       <c r="A1983" s="12">
         <v>45916.40042868056</v>
       </c>
@@ -53336,7 +53339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1984">
+    <row r="1984" hidden="1">
       <c r="A1984" s="15">
         <v>45916.40056829861</v>
       </c>
@@ -53362,7 +53365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1985">
+    <row r="1985" hidden="1">
       <c r="A1985" s="12">
         <v>45916.400979247686</v>
       </c>
@@ -53388,7 +53391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1986">
+    <row r="1986" hidden="1">
       <c r="A1986" s="15">
         <v>45916.4015003588</v>
       </c>
@@ -53414,7 +53417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1987">
+    <row r="1987" hidden="1">
       <c r="A1987" s="12">
         <v>45916.401664143516</v>
       </c>
@@ -53440,7 +53443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1988">
+    <row r="1988" hidden="1">
       <c r="A1988" s="15">
         <v>45916.40223659722</v>
       </c>
@@ -53466,7 +53469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1989">
+    <row r="1989" hidden="1">
       <c r="A1989" s="12">
         <v>45916.4027728588</v>
       </c>
@@ -53492,7 +53495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1990">
+    <row r="1990" hidden="1">
       <c r="A1990" s="15">
         <v>45916.40760965278</v>
       </c>
@@ -53518,7 +53521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1991">
+    <row r="1991" hidden="1">
       <c r="A1991" s="12">
         <v>45916.40778666666</v>
       </c>
@@ -53544,7 +53547,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1992">
+    <row r="1992" hidden="1">
       <c r="A1992" s="15">
         <v>45916.40800802084</v>
       </c>
@@ -53570,39 +53573,533 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1993">
-      <c r="A1993" s="19">
+    <row r="1993" hidden="1">
+      <c r="A1993" s="12">
         <v>45916.408183113424</v>
       </c>
-      <c r="B1993" s="20" t="s">
+      <c r="B1993" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C1993" s="20" t="s">
+      <c r="C1993" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1993" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1993" s="21" t="s">
+      <c r="D1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1993" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1993" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1994" hidden="1">
+      <c r="A1994" s="15">
+        <v>45916.418678738424</v>
+      </c>
+      <c r="B1994" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1994" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1994" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1994" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1994" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1994" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1994" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="12">
+        <v>45917.35918104167</v>
+      </c>
+      <c r="B1995" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1995" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1995" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1995" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1995" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1995" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1995" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="15">
+        <v>45917.362821180555</v>
+      </c>
+      <c r="B1996" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1996" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1996" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1996" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1996" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1996" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1996" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="12">
+        <v>45917.364348206014</v>
+      </c>
+      <c r="B1997" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1997" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1997" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1997" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1997" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1997" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1997" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="15">
+        <v>45917.36531684028</v>
+      </c>
+      <c r="B1998" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1998" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1998" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1998" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="12">
+        <v>45917.36659045139</v>
+      </c>
+      <c r="B1999" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1999" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1999" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1999" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1999" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1999" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1999" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="15">
+        <v>45917.367945763894</v>
+      </c>
+      <c r="B2000" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2000" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2000" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2000" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2000" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2000" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2000" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="12">
+        <v>45917.369153506945</v>
+      </c>
+      <c r="B2001" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2001" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2001" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2001" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2001" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2001" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2001" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="15">
+        <v>45917.369526319446</v>
+      </c>
+      <c r="B2002" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2002" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2002" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2002" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2002" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2002" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2002" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="12">
+        <v>45917.36986510416</v>
+      </c>
+      <c r="B2003" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2003" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2003" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2003" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="15">
+        <v>45917.37014591435</v>
+      </c>
+      <c r="B2004" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2004" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2004" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2004" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2004" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2004" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2004" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="12">
+        <v>45917.37063655093</v>
+      </c>
+      <c r="B2005" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2005" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2005" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2005" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2005" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2005" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2005" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="15">
+        <v>45917.393133680554</v>
+      </c>
+      <c r="B2006" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2006" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2006" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2006" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2006" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2006" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2006" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="12">
+        <v>45917.393531608795</v>
+      </c>
+      <c r="B2007" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2007" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2007" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2007" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2007" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2007" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2007" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="15">
+        <v>45917.394830000005</v>
+      </c>
+      <c r="B2008" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2008" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2008" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2008" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2008" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2008" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2008" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="12">
+        <v>45917.39538016204</v>
+      </c>
+      <c r="B2009" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2009" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2009" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2009" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2009" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2009" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2009" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="15">
+        <v>45917.39555421296</v>
+      </c>
+      <c r="B2010" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2010" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2010" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2010" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2010" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2010" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2010" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="12">
+        <v>45917.39713341436</v>
+      </c>
+      <c r="B2011" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2011" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2011" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2011" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2011" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2011" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2011" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="19">
+        <v>45917.39749369213</v>
+      </c>
+      <c r="B2012" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2012" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2012" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2012" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2012" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2012" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2012" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2093">
+  <conditionalFormatting sqref="D1:D2112">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2093">
+  <conditionalFormatting sqref="G2:G2112">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$1993</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2005</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13952" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1193,6 +1193,9 @@
   <si>
     <t>3 rodilla derecha, 4 rodilla izquierda</t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1993" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$1993"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2005" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2005"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -53571,38 +53574,350 @@
       </c>
     </row>
     <row r="1993">
-      <c r="A1993" s="19">
+      <c r="A1993" s="12">
         <v>45916.408183113424</v>
       </c>
-      <c r="B1993" s="20" t="s">
+      <c r="B1993" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C1993" s="20" t="s">
+      <c r="C1993" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1993" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1993" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1993" s="21" t="s">
+      <c r="D1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1993" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1993" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1993" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="15">
+        <v>45916.418678738424</v>
+      </c>
+      <c r="B1994" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1994" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1994" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1994" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1994" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1994" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1994" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="12">
+        <v>45917.35918104167</v>
+      </c>
+      <c r="B1995" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1995" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1995" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1995" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1995" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1995" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1995" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="15">
+        <v>45917.362821180555</v>
+      </c>
+      <c r="B1996" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1996" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1996" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1996" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1996" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1996" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1996" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="12">
+        <v>45917.364348206014</v>
+      </c>
+      <c r="B1997" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1997" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1997" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1997" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1997" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1997" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1997" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="15">
+        <v>45917.36531684028</v>
+      </c>
+      <c r="B1998" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1998" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1998" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1998" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1998" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="12">
+        <v>45917.36659045139</v>
+      </c>
+      <c r="B1999" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1999" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1999" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1999" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1999" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1999" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1999" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="15">
+        <v>45917.367945763894</v>
+      </c>
+      <c r="B2000" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2000" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2000" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2000" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2000" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2000" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2000" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="12">
+        <v>45917.369153506945</v>
+      </c>
+      <c r="B2001" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2001" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2001" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2001" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2001" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2001" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2001" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="15">
+        <v>45917.369526319446</v>
+      </c>
+      <c r="B2002" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2002" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2002" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2002" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2002" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2002" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2002" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="12">
+        <v>45917.36986510416</v>
+      </c>
+      <c r="B2003" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2003" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2003" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2003" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2003" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="15">
+        <v>45917.37014591435</v>
+      </c>
+      <c r="B2004" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2004" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2004" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2004" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2004" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2004" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2004" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="19">
+        <v>45917.37063655093</v>
+      </c>
+      <c r="B2005" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2005" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2005" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2005" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2005" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2005" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2005" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2093">
+  <conditionalFormatting sqref="D1:D2105">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2093">
+  <conditionalFormatting sqref="G2:G2105">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2012</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2032</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14085" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14225" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2012" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2012"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2032" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2032"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -54068,38 +54068,558 @@
       </c>
     </row>
     <row r="2012">
-      <c r="A2012" s="19">
+      <c r="A2012" s="15">
         <v>45917.39749369213</v>
       </c>
-      <c r="B2012" s="20" t="s">
+      <c r="B2012" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2012" s="20" t="s">
+      <c r="C2012" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D2012" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2012" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2012" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2012" s="20" t="s">
+      <c r="D2012" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2012" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2012" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2012" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2012" s="21" t="s">
+      <c r="H2012" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="12">
+        <v>45918.362257430555</v>
+      </c>
+      <c r="B2013" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2013" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2013" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2013" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2013" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2013" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2013" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="15">
+        <v>45918.362523715274</v>
+      </c>
+      <c r="B2014" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2014" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2014" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2014" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2014" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2014" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2014" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="12">
+        <v>45918.362735393515</v>
+      </c>
+      <c r="B2015" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2015" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2015" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2015" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2015" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2015" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2015" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="15">
+        <v>45918.3628928588</v>
+      </c>
+      <c r="B2016" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2016" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2016" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2016" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2016" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2016" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2016" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="12">
+        <v>45918.36306712963</v>
+      </c>
+      <c r="B2017" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2017" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2017" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2017" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2017" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2017" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2017" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="15">
+        <v>45918.36324944445</v>
+      </c>
+      <c r="B2018" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2018" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2018" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2018" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2018" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2018" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2018" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="12">
+        <v>45918.36341832176</v>
+      </c>
+      <c r="B2019" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2019" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2019" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2019" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2019" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2019" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2019" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="15">
+        <v>45918.366790115746</v>
+      </c>
+      <c r="B2020" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2020" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2020" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2020" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2020" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2020" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2020" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="12">
+        <v>45918.36697659722</v>
+      </c>
+      <c r="B2021" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2021" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2021" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2021" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2021" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2021" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2021" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="15">
+        <v>45918.36723836805</v>
+      </c>
+      <c r="B2022" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2022" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2022" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2022" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2022" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2022" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2022" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="12">
+        <v>45918.36747875</v>
+      </c>
+      <c r="B2023" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2023" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2023" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2023" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2023" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2023" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2023" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="15">
+        <v>45918.37022053241</v>
+      </c>
+      <c r="B2024" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2024" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2024" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2024" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2024" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2024" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2024" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="12">
+        <v>45918.37049721065</v>
+      </c>
+      <c r="B2025" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2025" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2025" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2025" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2025" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2025" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2025" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="15">
+        <v>45918.37078590278</v>
+      </c>
+      <c r="B2026" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2026" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2026" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2026" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2026" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2026" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2026" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="12">
+        <v>45918.37169479167</v>
+      </c>
+      <c r="B2027" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2027" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2027" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2027" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2027" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2027" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2027" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="15">
+        <v>45918.3843537037</v>
+      </c>
+      <c r="B2028" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2028" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2028" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2028" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2028" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2028" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2028" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="12">
+        <v>45918.392201863426</v>
+      </c>
+      <c r="B2029" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2029" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2029" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2029" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2029" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2029" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2029" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="15">
+        <v>45918.39668232639</v>
+      </c>
+      <c r="B2030" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2030" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2030" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2030" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2030" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2030" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2030" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="12">
+        <v>45918.39722233797</v>
+      </c>
+      <c r="B2031" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2031" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2031" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2031" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2031" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2031" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2031" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="19">
+        <v>45918.40847412037</v>
+      </c>
+      <c r="B2032" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2032" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2032" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2032" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2032" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2032" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2032" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2112">
+  <conditionalFormatting sqref="D1:D2132">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2112">
+  <conditionalFormatting sqref="G2:G2132">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2074</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2091</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14519" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14638" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2074" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2074"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2091" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2091"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55159,7 +55159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2054">
+    <row r="2054" hidden="1">
       <c r="A2054" s="15">
         <v>45922.356927789355</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2055">
+    <row r="2055" hidden="1">
       <c r="A2055" s="12">
         <v>45922.357128460644</v>
       </c>
@@ -55211,7 +55211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2056">
+    <row r="2056" hidden="1">
       <c r="A2056" s="15">
         <v>45922.36746291666</v>
       </c>
@@ -55237,7 +55237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2057">
+    <row r="2057" hidden="1">
       <c r="A2057" s="12">
         <v>45922.367984386576</v>
       </c>
@@ -55263,7 +55263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2058">
+    <row r="2058" hidden="1">
       <c r="A2058" s="15">
         <v>45922.369453067135</v>
       </c>
@@ -55289,7 +55289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2059">
+    <row r="2059" hidden="1">
       <c r="A2059" s="12">
         <v>45922.37064728009</v>
       </c>
@@ -55315,7 +55315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2060">
+    <row r="2060" hidden="1">
       <c r="A2060" s="15">
         <v>45922.370831631946</v>
       </c>
@@ -55341,7 +55341,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2061">
+    <row r="2061" hidden="1">
       <c r="A2061" s="12">
         <v>45922.37103134259</v>
       </c>
@@ -55367,7 +55367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2062">
+    <row r="2062" hidden="1">
       <c r="A2062" s="15">
         <v>45922.371231921294</v>
       </c>
@@ -55393,7 +55393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2063">
+    <row r="2063" hidden="1">
       <c r="A2063" s="12">
         <v>45922.37356446759</v>
       </c>
@@ -55419,7 +55419,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2064">
+    <row r="2064" hidden="1">
       <c r="A2064" s="15">
         <v>45922.381482199075</v>
       </c>
@@ -55445,7 +55445,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2065">
+    <row r="2065" hidden="1">
       <c r="A2065" s="12">
         <v>45922.3816590162</v>
       </c>
@@ -55471,7 +55471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2066">
+    <row r="2066" hidden="1">
       <c r="A2066" s="15">
         <v>45922.38190583333</v>
       </c>
@@ -55497,7 +55497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2067">
+    <row r="2067" hidden="1">
       <c r="A2067" s="12">
         <v>45922.38222090278</v>
       </c>
@@ -55523,7 +55523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2068">
+    <row r="2068" hidden="1">
       <c r="A2068" s="15">
         <v>45922.38245211805</v>
       </c>
@@ -55549,7 +55549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2069">
+    <row r="2069" hidden="1">
       <c r="A2069" s="12">
         <v>45922.382852916664</v>
       </c>
@@ -55575,7 +55575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2070">
+    <row r="2070" hidden="1">
       <c r="A2070" s="15">
         <v>45922.38356194444</v>
       </c>
@@ -55601,7 +55601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071">
+    <row r="2071" hidden="1">
       <c r="A2071" s="12">
         <v>45922.38489828704</v>
       </c>
@@ -55627,7 +55627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2072">
+    <row r="2072" hidden="1">
       <c r="A2072" s="15">
         <v>45922.392472418986</v>
       </c>
@@ -55653,7 +55653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2073">
+    <row r="2073" hidden="1">
       <c r="A2073" s="12">
         <v>45922.39349585648</v>
       </c>
@@ -55679,39 +55679,481 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2074">
-      <c r="A2074" s="19">
+    <row r="2074" hidden="1">
+      <c r="A2074" s="15">
         <v>45922.39836489584</v>
       </c>
-      <c r="B2074" s="20" t="s">
+      <c r="B2074" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C2074" s="20" t="s">
+      <c r="C2074" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2074" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2074" s="21" t="s">
+      <c r="D2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2074" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2074" s="17" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" s="12">
+        <v>45923.371285891204</v>
+      </c>
+      <c r="B2075" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2075" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2075" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2075" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2075" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2075" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2075" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="15">
+        <v>45923.37151541667</v>
+      </c>
+      <c r="B2076" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2076" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2076" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2076" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="12">
+        <v>45923.37174200232</v>
+      </c>
+      <c r="B2077" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2077" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2077" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2077" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2077" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2077" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2077" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="15">
+        <v>45923.37196240741</v>
+      </c>
+      <c r="B2078" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2078" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2078" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2078" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2078" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2078" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2078" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="12">
+        <v>45923.37276237269</v>
+      </c>
+      <c r="B2079" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2079" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2079" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2079" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2079" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2079" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2079" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="15">
+        <v>45923.37294431713</v>
+      </c>
+      <c r="B2080" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2080" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2080" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2080" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2080" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2080" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2080" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="12">
+        <v>45923.373171354164</v>
+      </c>
+      <c r="B2081" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2081" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2081" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2081" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="15">
+        <v>45923.37344793981</v>
+      </c>
+      <c r="B2082" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2082" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2082" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2082" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="12">
+        <v>45923.37377549769</v>
+      </c>
+      <c r="B2083" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2083" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2083" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2083" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2083" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2083" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2083" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="15">
+        <v>45923.37461142361</v>
+      </c>
+      <c r="B2084" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2084" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2084" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2084" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2084" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2084" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2084" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="12">
+        <v>45923.38884486111</v>
+      </c>
+      <c r="B2085" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2085" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2085" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2085" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="15">
+        <v>45923.38922362268</v>
+      </c>
+      <c r="B2086" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2086" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2086" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2086" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2086" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2086" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2086" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="12">
+        <v>45923.38983987269</v>
+      </c>
+      <c r="B2087" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2087" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2087" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2087" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2087" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2087" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2087" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="15">
+        <v>45923.390471782404</v>
+      </c>
+      <c r="B2088" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2088" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2088" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2088" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="12">
+        <v>45923.40482486111</v>
+      </c>
+      <c r="B2089" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2089" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2089" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2089" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2089" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2089" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2089" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="15">
+        <v>45923.405790439814</v>
+      </c>
+      <c r="B2090" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2090" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2090" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2090" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="19">
+        <v>45923.40676356481</v>
+      </c>
+      <c r="B2091" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2091" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2091" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2091" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2091" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2091" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2091" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2174">
+  <conditionalFormatting sqref="D1:D2191">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2174">
+  <conditionalFormatting sqref="G2:G2191">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2091</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2092</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14638" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14645" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2091" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2091"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2092" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2092"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -56122,38 +56122,64 @@
       </c>
     </row>
     <row r="2091">
-      <c r="A2091" s="19">
+      <c r="A2091" s="12">
         <v>45923.40676356481</v>
       </c>
-      <c r="B2091" s="20" t="s">
+      <c r="B2091" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C2091" s="20" t="s">
+      <c r="C2091" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D2091" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2091" s="20" t="s">
+      <c r="D2091" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2091" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2091" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2091" s="20" t="s">
+      <c r="F2091" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2091" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2091" s="21" t="s">
+      <c r="H2091" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="19">
+        <v>45923.412033773144</v>
+      </c>
+      <c r="B2092" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2092" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2092" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2092" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2191">
+  <conditionalFormatting sqref="D1:D2192">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2191">
+  <conditionalFormatting sqref="G2:G2192">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2074</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2092</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14519" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14645" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2074" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2074"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2092" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2092"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55159,7 +55159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2054">
+    <row r="2054" hidden="1">
       <c r="A2054" s="15">
         <v>45922.356927789355</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2055">
+    <row r="2055" hidden="1">
       <c r="A2055" s="12">
         <v>45922.357128460644</v>
       </c>
@@ -55211,7 +55211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2056">
+    <row r="2056" hidden="1">
       <c r="A2056" s="15">
         <v>45922.36746291666</v>
       </c>
@@ -55237,7 +55237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2057">
+    <row r="2057" hidden="1">
       <c r="A2057" s="12">
         <v>45922.367984386576</v>
       </c>
@@ -55263,7 +55263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2058">
+    <row r="2058" hidden="1">
       <c r="A2058" s="15">
         <v>45922.369453067135</v>
       </c>
@@ -55289,7 +55289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2059">
+    <row r="2059" hidden="1">
       <c r="A2059" s="12">
         <v>45922.37064728009</v>
       </c>
@@ -55315,7 +55315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2060">
+    <row r="2060" hidden="1">
       <c r="A2060" s="15">
         <v>45922.370831631946</v>
       </c>
@@ -55341,7 +55341,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2061">
+    <row r="2061" hidden="1">
       <c r="A2061" s="12">
         <v>45922.37103134259</v>
       </c>
@@ -55367,7 +55367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2062">
+    <row r="2062" hidden="1">
       <c r="A2062" s="15">
         <v>45922.371231921294</v>
       </c>
@@ -55393,7 +55393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2063">
+    <row r="2063" hidden="1">
       <c r="A2063" s="12">
         <v>45922.37356446759</v>
       </c>
@@ -55419,7 +55419,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2064">
+    <row r="2064" hidden="1">
       <c r="A2064" s="15">
         <v>45922.381482199075</v>
       </c>
@@ -55445,7 +55445,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2065">
+    <row r="2065" hidden="1">
       <c r="A2065" s="12">
         <v>45922.3816590162</v>
       </c>
@@ -55471,7 +55471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2066">
+    <row r="2066" hidden="1">
       <c r="A2066" s="15">
         <v>45922.38190583333</v>
       </c>
@@ -55497,7 +55497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2067">
+    <row r="2067" hidden="1">
       <c r="A2067" s="12">
         <v>45922.38222090278</v>
       </c>
@@ -55523,7 +55523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2068">
+    <row r="2068" hidden="1">
       <c r="A2068" s="15">
         <v>45922.38245211805</v>
       </c>
@@ -55549,7 +55549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2069">
+    <row r="2069" hidden="1">
       <c r="A2069" s="12">
         <v>45922.382852916664</v>
       </c>
@@ -55575,7 +55575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2070">
+    <row r="2070" hidden="1">
       <c r="A2070" s="15">
         <v>45922.38356194444</v>
       </c>
@@ -55601,7 +55601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071">
+    <row r="2071" hidden="1">
       <c r="A2071" s="12">
         <v>45922.38489828704</v>
       </c>
@@ -55627,7 +55627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2072">
+    <row r="2072" hidden="1">
       <c r="A2072" s="15">
         <v>45922.392472418986</v>
       </c>
@@ -55653,7 +55653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2073">
+    <row r="2073" hidden="1">
       <c r="A2073" s="12">
         <v>45922.39349585648</v>
       </c>
@@ -55679,39 +55679,507 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2074">
-      <c r="A2074" s="19">
+    <row r="2074" hidden="1">
+      <c r="A2074" s="15">
         <v>45922.39836489584</v>
       </c>
-      <c r="B2074" s="20" t="s">
+      <c r="B2074" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C2074" s="20" t="s">
+      <c r="C2074" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2074" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2074" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2074" s="21" t="s">
+      <c r="D2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2074" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2074" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2074" s="17" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" s="12">
+        <v>45923.371285891204</v>
+      </c>
+      <c r="B2075" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2075" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2075" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2075" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2075" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2075" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2075" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="15">
+        <v>45923.37151541667</v>
+      </c>
+      <c r="B2076" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2076" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2076" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2076" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2076" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="12">
+        <v>45923.37174200232</v>
+      </c>
+      <c r="B2077" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2077" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2077" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2077" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2077" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2077" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2077" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="15">
+        <v>45923.37196240741</v>
+      </c>
+      <c r="B2078" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2078" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2078" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2078" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2078" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2078" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2078" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="12">
+        <v>45923.37276237269</v>
+      </c>
+      <c r="B2079" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2079" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2079" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2079" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2079" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2079" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2079" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="15">
+        <v>45923.37294431713</v>
+      </c>
+      <c r="B2080" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2080" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2080" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2080" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2080" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2080" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2080" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="12">
+        <v>45923.373171354164</v>
+      </c>
+      <c r="B2081" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2081" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2081" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2081" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2081" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="15">
+        <v>45923.37344793981</v>
+      </c>
+      <c r="B2082" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2082" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2082" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2082" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2082" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="12">
+        <v>45923.37377549769</v>
+      </c>
+      <c r="B2083" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2083" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2083" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2083" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2083" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2083" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2083" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="15">
+        <v>45923.37461142361</v>
+      </c>
+      <c r="B2084" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2084" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2084" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2084" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2084" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2084" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2084" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="12">
+        <v>45923.38884486111</v>
+      </c>
+      <c r="B2085" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2085" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2085" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2085" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2085" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="15">
+        <v>45923.38922362268</v>
+      </c>
+      <c r="B2086" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2086" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2086" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2086" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2086" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2086" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2086" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="12">
+        <v>45923.38983987269</v>
+      </c>
+      <c r="B2087" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2087" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2087" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2087" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2087" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2087" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2087" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="15">
+        <v>45923.390471782404</v>
+      </c>
+      <c r="B2088" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2088" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2088" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2088" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2088" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="12">
+        <v>45923.40482486111</v>
+      </c>
+      <c r="B2089" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2089" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2089" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2089" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2089" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2089" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2089" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="15">
+        <v>45923.405790439814</v>
+      </c>
+      <c r="B2090" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2090" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2090" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2090" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2090" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="12">
+        <v>45923.40676356481</v>
+      </c>
+      <c r="B2091" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2091" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2091" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2091" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2091" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2091" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2091" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="19">
+        <v>45923.412033773144</v>
+      </c>
+      <c r="B2092" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2092" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2092" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2092" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2092" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2174">
+  <conditionalFormatting sqref="D1:D2192">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2174">
+  <conditionalFormatting sqref="G2:G2192">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2092</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2110</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14645" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14771" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2092" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2092"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2110" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2110"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -56148,38 +56148,506 @@
       </c>
     </row>
     <row r="2092">
-      <c r="A2092" s="19">
+      <c r="A2092" s="15">
         <v>45923.412033773144</v>
       </c>
-      <c r="B2092" s="20" t="s">
+      <c r="B2092" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2092" s="20" t="s">
+      <c r="C2092" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D2092" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2092" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2092" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2092" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2092" s="21" t="s">
+      <c r="D2092" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2092" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2092" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2092" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2092" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="12">
+        <v>45926.33973487269</v>
+      </c>
+      <c r="B2093" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2093" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2093" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2093" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2093" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2093" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2093" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="15">
+        <v>45926.34701702546</v>
+      </c>
+      <c r="B2094" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2094" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2094" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2094" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2094" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2094" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2094" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="12">
+        <v>45926.34933336805</v>
+      </c>
+      <c r="B2095" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2095" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2095" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2095" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2095" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2095" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2095" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="15">
+        <v>45926.34947806713</v>
+      </c>
+      <c r="B2096" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2096" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2096" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2096" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2096" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2096" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2096" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="12">
+        <v>45926.349656122686</v>
+      </c>
+      <c r="B2097" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2097" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2097" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2097" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2097" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2097" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2097" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="15">
+        <v>45926.357278587966</v>
+      </c>
+      <c r="B2098" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2098" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2098" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2098" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2098" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2098" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2098" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="12">
+        <v>45926.3609009838</v>
+      </c>
+      <c r="B2099" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2099" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2099" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2099" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2099" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2099" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2099" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="15">
+        <v>45926.364903912036</v>
+      </c>
+      <c r="B2100" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2100" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2100" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2100" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2100" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="12">
+        <v>45926.36922965277</v>
+      </c>
+      <c r="B2101" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2101" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2101" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2101" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2101" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2101" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="15">
+        <v>45926.36951209491</v>
+      </c>
+      <c r="B2102" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2102" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2102" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2102" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2102" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2102" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2102" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="12">
+        <v>45926.37000575232</v>
+      </c>
+      <c r="B2103" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2103" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2103" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2103" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2103" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="15">
+        <v>45926.37018421297</v>
+      </c>
+      <c r="B2104" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2104" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2104" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2104" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2104" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2104" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2104" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="12">
+        <v>45926.370466319444</v>
+      </c>
+      <c r="B2105" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2105" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2105" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2105" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2105" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2105" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2105" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="15">
+        <v>45926.37084695602</v>
+      </c>
+      <c r="B2106" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2106" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2106" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2106" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2106" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2106" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="12">
+        <v>45926.385102175926</v>
+      </c>
+      <c r="B2107" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2107" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2107" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2107" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="15">
+        <v>45926.38564234954</v>
+      </c>
+      <c r="B2108" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2108" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2108" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2108" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2108" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2108" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2108" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="12">
+        <v>45926.38942910879</v>
+      </c>
+      <c r="B2109" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2109" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2109" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2109" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="19">
+        <v>45926.40699524306</v>
+      </c>
+      <c r="B2110" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2110" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2110" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2110" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2110" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2110" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2110" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2192">
+  <conditionalFormatting sqref="D1:D2210">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2192">
+  <conditionalFormatting sqref="G2:G2210">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2110</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2120</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14771" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14841" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2110" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2120" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2120"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -56616,38 +56616,298 @@
       </c>
     </row>
     <row r="2110">
-      <c r="A2110" s="19">
+      <c r="A2110" s="15">
         <v>45926.40699524306</v>
       </c>
-      <c r="B2110" s="20" t="s">
+      <c r="B2110" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2110" s="20" t="s">
+      <c r="C2110" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D2110" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2110" s="20" t="s">
+      <c r="D2110" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2110" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2110" s="20" t="s">
+      <c r="F2110" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G2110" s="20" t="s">
+      <c r="G2110" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2110" s="21" t="s">
+      <c r="H2110" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="12">
+        <v>45930.35072290509</v>
+      </c>
+      <c r="B2111" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2111" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2111" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2111" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2111" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2111" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2111" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="15">
+        <v>45930.352601203704</v>
+      </c>
+      <c r="B2112" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2112" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2112" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2112" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2112" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="12">
+        <v>45930.357260543984</v>
+      </c>
+      <c r="B2113" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2113" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2113" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2113" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="15">
+        <v>45930.3669765625</v>
+      </c>
+      <c r="B2114" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2114" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2114" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2114" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2114" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="12">
+        <v>45930.367270393515</v>
+      </c>
+      <c r="B2115" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2115" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2115" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2115" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2115" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="15">
+        <v>45930.36766606482</v>
+      </c>
+      <c r="B2116" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2116" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2116" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2116" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2116" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2116" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2116" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="12">
+        <v>45930.369535370366</v>
+      </c>
+      <c r="B2117" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2117" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2117" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2117" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="15">
+        <v>45930.36970707176</v>
+      </c>
+      <c r="B2118" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2118" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2118" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2118" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2118" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2118" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2118" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="12">
+        <v>45930.3698969213</v>
+      </c>
+      <c r="B2119" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2119" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2119" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2119" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2119" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2119" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2119" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="19">
+        <v>45930.37462818287</v>
+      </c>
+      <c r="B2120" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2120" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2120" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2120" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2120" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2120" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2120" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2210">
+  <conditionalFormatting sqref="D1:D2220">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2210">
+  <conditionalFormatting sqref="G2:G2220">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2126</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2145</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14883" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15016" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2126" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2145" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2145"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -56641,7 +56641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2111">
+    <row r="2111" hidden="1">
       <c r="A2111" s="12">
         <v>45930.35072290509</v>
       </c>
@@ -56667,7 +56667,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2112">
+    <row r="2112" hidden="1">
       <c r="A2112" s="15">
         <v>45930.352601203704</v>
       </c>
@@ -56693,7 +56693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2113">
+    <row r="2113" hidden="1">
       <c r="A2113" s="12">
         <v>45930.357260543984</v>
       </c>
@@ -56719,7 +56719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2114">
+    <row r="2114" hidden="1">
       <c r="A2114" s="15">
         <v>45930.3669765625</v>
       </c>
@@ -56745,7 +56745,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2115">
+    <row r="2115" hidden="1">
       <c r="A2115" s="12">
         <v>45930.367270393515</v>
       </c>
@@ -56771,7 +56771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2116">
+    <row r="2116" hidden="1">
       <c r="A2116" s="15">
         <v>45930.36766606482</v>
       </c>
@@ -56797,7 +56797,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2117">
+    <row r="2117" hidden="1">
       <c r="A2117" s="12">
         <v>45930.369535370366</v>
       </c>
@@ -56823,7 +56823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2118">
+    <row r="2118" hidden="1">
       <c r="A2118" s="15">
         <v>45930.36970707176</v>
       </c>
@@ -56849,7 +56849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2119">
+    <row r="2119" hidden="1">
       <c r="A2119" s="12">
         <v>45930.3698969213</v>
       </c>
@@ -56875,7 +56875,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2120">
+    <row r="2120" hidden="1">
       <c r="A2120" s="15">
         <v>45930.37462818287</v>
       </c>
@@ -56901,7 +56901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2121">
+    <row r="2121" hidden="1">
       <c r="A2121" s="12">
         <v>45930.384636874995</v>
       </c>
@@ -56927,7 +56927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2122">
+    <row r="2122" hidden="1">
       <c r="A2122" s="15">
         <v>45930.38815517361</v>
       </c>
@@ -56953,7 +56953,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123">
+    <row r="2123" hidden="1">
       <c r="A2123" s="12">
         <v>45930.38858100695</v>
       </c>
@@ -56979,7 +56979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2124">
+    <row r="2124" hidden="1">
       <c r="A2124" s="15">
         <v>45930.3936884375</v>
       </c>
@@ -57005,7 +57005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2125">
+    <row r="2125" hidden="1">
       <c r="A2125" s="12">
         <v>45930.3952375463</v>
       </c>
@@ -57031,39 +57031,533 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2126">
-      <c r="A2126" s="19">
+    <row r="2126" hidden="1">
+      <c r="A2126" s="15">
         <v>45930.40193920139</v>
       </c>
-      <c r="B2126" s="20" t="s">
+      <c r="B2126" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2126" s="20" t="s">
+      <c r="C2126" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D2126" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2126" s="20" t="s">
+      <c r="D2126" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2126" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2126" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2126" s="20" t="s">
+      <c r="F2126" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2126" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2126" s="21" t="s">
+      <c r="H2126" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2127" hidden="1">
+      <c r="A2127" s="12">
+        <v>45930.417426562504</v>
+      </c>
+      <c r="B2127" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2127" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2127" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2127" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2127" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2127" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2127" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="15">
+        <v>45931.368601712966</v>
+      </c>
+      <c r="B2128" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2128" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2128" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2128" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2128" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2128" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2128" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="12">
+        <v>45931.36880420139</v>
+      </c>
+      <c r="B2129" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2129" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2129" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2129" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2129" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2129" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2129" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="15">
+        <v>45931.369370810186</v>
+      </c>
+      <c r="B2130" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2130" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2130" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2130" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2130" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2130" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2130" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="12">
+        <v>45931.36985497685</v>
+      </c>
+      <c r="B2131" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2131" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2131" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2131" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2131" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2131" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2131" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="15">
+        <v>45931.38374134259</v>
+      </c>
+      <c r="B2132" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2132" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2132" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2132" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2132" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2132" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2132" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="12">
+        <v>45931.38407158565</v>
+      </c>
+      <c r="B2133" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2133" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2133" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2133" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2133" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2133" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="15">
+        <v>45931.38425981482</v>
+      </c>
+      <c r="B2134" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2134" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2134" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2134" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2134" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2134" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2134" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="12">
+        <v>45931.3856155324</v>
+      </c>
+      <c r="B2135" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2135" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2135" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2135" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="15">
+        <v>45931.387110625</v>
+      </c>
+      <c r="B2136" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2136" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2136" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2136" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2136" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2136" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2136" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="12">
+        <v>45931.38731853009</v>
+      </c>
+      <c r="B2137" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2137" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2137" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2137" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2137" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2137" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2137" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="15">
+        <v>45931.38799164352</v>
+      </c>
+      <c r="B2138" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2138" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2138" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2138" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2138" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2138" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2138" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="12">
+        <v>45931.38827034722</v>
+      </c>
+      <c r="B2139" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2139" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2139" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2139" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2139" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2139" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2139" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="15">
+        <v>45931.390006863425</v>
+      </c>
+      <c r="B2140" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2140" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2140" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2140" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2140" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2140" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2140" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="12">
+        <v>45931.397893807865</v>
+      </c>
+      <c r="B2141" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2141" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2141" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2141" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2141" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2141" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2141" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="15">
+        <v>45931.39806449074</v>
+      </c>
+      <c r="B2142" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2142" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2142" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2142" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2142" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2142" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2142" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="12">
+        <v>45931.39864886574</v>
+      </c>
+      <c r="B2143" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2143" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2143" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2143" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2143" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2143" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2143" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="15">
+        <v>45931.39879435185</v>
+      </c>
+      <c r="B2144" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2144" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2144" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2144" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2144" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="19">
+        <v>45931.40382787037</v>
+      </c>
+      <c r="B2145" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2145" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2145" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2145" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2145" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2145" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2145" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2226">
+  <conditionalFormatting sqref="D1:D2245">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2226">
+  <conditionalFormatting sqref="G2:G2245">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2145</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2162</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15016" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15135" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2145" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2162" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2162"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -57083,7 +57083,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2128">
+    <row r="2128" hidden="1">
       <c r="A2128" s="15">
         <v>45931.368601712966</v>
       </c>
@@ -57109,7 +57109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2129">
+    <row r="2129" hidden="1">
       <c r="A2129" s="12">
         <v>45931.36880420139</v>
       </c>
@@ -57135,7 +57135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2130">
+    <row r="2130" hidden="1">
       <c r="A2130" s="15">
         <v>45931.369370810186</v>
       </c>
@@ -57161,7 +57161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2131">
+    <row r="2131" hidden="1">
       <c r="A2131" s="12">
         <v>45931.36985497685</v>
       </c>
@@ -57187,7 +57187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2132">
+    <row r="2132" hidden="1">
       <c r="A2132" s="15">
         <v>45931.38374134259</v>
       </c>
@@ -57213,7 +57213,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2133">
+    <row r="2133" hidden="1">
       <c r="A2133" s="12">
         <v>45931.38407158565</v>
       </c>
@@ -57239,7 +57239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2134">
+    <row r="2134" hidden="1">
       <c r="A2134" s="15">
         <v>45931.38425981482</v>
       </c>
@@ -57265,7 +57265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2135">
+    <row r="2135" hidden="1">
       <c r="A2135" s="12">
         <v>45931.3856155324</v>
       </c>
@@ -57291,7 +57291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2136">
+    <row r="2136" hidden="1">
       <c r="A2136" s="15">
         <v>45931.387110625</v>
       </c>
@@ -57317,7 +57317,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2137">
+    <row r="2137" hidden="1">
       <c r="A2137" s="12">
         <v>45931.38731853009</v>
       </c>
@@ -57343,7 +57343,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138">
+    <row r="2138" hidden="1">
       <c r="A2138" s="15">
         <v>45931.38799164352</v>
       </c>
@@ -57369,7 +57369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2139">
+    <row r="2139" hidden="1">
       <c r="A2139" s="12">
         <v>45931.38827034722</v>
       </c>
@@ -57395,7 +57395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2140">
+    <row r="2140" hidden="1">
       <c r="A2140" s="15">
         <v>45931.390006863425</v>
       </c>
@@ -57421,7 +57421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2141">
+    <row r="2141" hidden="1">
       <c r="A2141" s="12">
         <v>45931.397893807865</v>
       </c>
@@ -57447,7 +57447,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2142">
+    <row r="2142" hidden="1">
       <c r="A2142" s="15">
         <v>45931.39806449074</v>
       </c>
@@ -57473,7 +57473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2143">
+    <row r="2143" hidden="1">
       <c r="A2143" s="12">
         <v>45931.39864886574</v>
       </c>
@@ -57499,7 +57499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2144">
+    <row r="2144" hidden="1">
       <c r="A2144" s="15">
         <v>45931.39879435185</v>
       </c>
@@ -57525,39 +57525,481 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2145">
-      <c r="A2145" s="19">
+    <row r="2145" hidden="1">
+      <c r="A2145" s="12">
         <v>45931.40382787037</v>
       </c>
-      <c r="B2145" s="20" t="s">
+      <c r="B2145" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2145" s="20" t="s">
+      <c r="C2145" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D2145" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2145" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2145" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2145" s="20" t="s">
+      <c r="D2145" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2145" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2145" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2145" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2145" s="21" t="s">
+      <c r="H2145" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="15">
+        <v>45932.34858381945</v>
+      </c>
+      <c r="B2146" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2146" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2146" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2146" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2146" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2146" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2146" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="12">
+        <v>45932.35044663194</v>
+      </c>
+      <c r="B2147" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2147" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2147" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2147" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2147" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2147" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2147" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="15">
+        <v>45932.366592060185</v>
+      </c>
+      <c r="B2148" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2148" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2148" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2148" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2148" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2148" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="12">
+        <v>45932.3668690162</v>
+      </c>
+      <c r="B2149" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2149" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2149" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2149" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2149" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2149" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2149" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="15">
+        <v>45932.367350960645</v>
+      </c>
+      <c r="B2150" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2150" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2150" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2150" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="12">
+        <v>45932.36868383102</v>
+      </c>
+      <c r="B2151" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2151" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2151" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2151" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2151" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2151" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2151" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="15">
+        <v>45932.36974126157</v>
+      </c>
+      <c r="B2152" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2152" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2152" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2152" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2152" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2152" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2152" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="12">
+        <v>45932.37223422454</v>
+      </c>
+      <c r="B2153" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2153" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2153" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2153" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2153" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2153" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2153" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="15">
+        <v>45932.372382500005</v>
+      </c>
+      <c r="B2154" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2154" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2154" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2154" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2154" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2154" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2154" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="12">
+        <v>45932.373174085646</v>
+      </c>
+      <c r="B2155" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2155" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2155" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2155" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2155" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2155" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2155" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="15">
+        <v>45932.37606667824</v>
+      </c>
+      <c r="B2156" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2156" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2156" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2156" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2156" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2156" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2156" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="12">
+        <v>45932.37680600694</v>
+      </c>
+      <c r="B2157" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2157" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2157" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2157" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2157" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2157" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2157" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="15">
+        <v>45932.37704416667</v>
+      </c>
+      <c r="B2158" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2158" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2158" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2158" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2158" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2158" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2158" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="12">
+        <v>45932.37879803241</v>
+      </c>
+      <c r="B2159" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2159" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2159" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2159" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2159" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2159" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2159" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="15">
+        <v>45932.39429412037</v>
+      </c>
+      <c r="B2160" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2160" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2160" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2160" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2160" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2160" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2160" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="12">
+        <v>45932.39460741898</v>
+      </c>
+      <c r="B2161" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2161" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2161" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2161" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2161" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2161" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2161" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="19">
+        <v>45932.39477396991</v>
+      </c>
+      <c r="B2162" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2162" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2162" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2162" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2162" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2162" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2162" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2245">
+  <conditionalFormatting sqref="D1:D2262">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2245">
+  <conditionalFormatting sqref="G2:G2262">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2162</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2182</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15135" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15275" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2162" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2182" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2182"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -57551,7 +57551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2146">
+    <row r="2146" hidden="1">
       <c r="A2146" s="15">
         <v>45932.34858381945</v>
       </c>
@@ -57577,7 +57577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2147">
+    <row r="2147" hidden="1">
       <c r="A2147" s="12">
         <v>45932.35044663194</v>
       </c>
@@ -57603,7 +57603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2148">
+    <row r="2148" hidden="1">
       <c r="A2148" s="15">
         <v>45932.366592060185</v>
       </c>
@@ -57629,7 +57629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2149">
+    <row r="2149" hidden="1">
       <c r="A2149" s="12">
         <v>45932.3668690162</v>
       </c>
@@ -57655,7 +57655,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2150">
+    <row r="2150" hidden="1">
       <c r="A2150" s="15">
         <v>45932.367350960645</v>
       </c>
@@ -57681,7 +57681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2151">
+    <row r="2151" hidden="1">
       <c r="A2151" s="12">
         <v>45932.36868383102</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2152">
+    <row r="2152" hidden="1">
       <c r="A2152" s="15">
         <v>45932.36974126157</v>
       </c>
@@ -57733,7 +57733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2153">
+    <row r="2153" hidden="1">
       <c r="A2153" s="12">
         <v>45932.37223422454</v>
       </c>
@@ -57759,7 +57759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2154">
+    <row r="2154" hidden="1">
       <c r="A2154" s="15">
         <v>45932.372382500005</v>
       </c>
@@ -57785,7 +57785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2155">
+    <row r="2155" hidden="1">
       <c r="A2155" s="12">
         <v>45932.373174085646</v>
       </c>
@@ -57811,7 +57811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2156">
+    <row r="2156" hidden="1">
       <c r="A2156" s="15">
         <v>45932.37606667824</v>
       </c>
@@ -57837,7 +57837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2157">
+    <row r="2157" hidden="1">
       <c r="A2157" s="12">
         <v>45932.37680600694</v>
       </c>
@@ -57863,7 +57863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2158">
+    <row r="2158" hidden="1">
       <c r="A2158" s="15">
         <v>45932.37704416667</v>
       </c>
@@ -57889,7 +57889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2159">
+    <row r="2159" hidden="1">
       <c r="A2159" s="12">
         <v>45932.37879803241</v>
       </c>
@@ -57915,7 +57915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2160">
+    <row r="2160" hidden="1">
       <c r="A2160" s="15">
         <v>45932.39429412037</v>
       </c>
@@ -57941,7 +57941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2161">
+    <row r="2161" hidden="1">
       <c r="A2161" s="12">
         <v>45932.39460741898</v>
       </c>
@@ -57967,39 +57967,559 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2162">
-      <c r="A2162" s="19">
+    <row r="2162" hidden="1">
+      <c r="A2162" s="15">
         <v>45932.39477396991</v>
       </c>
-      <c r="B2162" s="20" t="s">
+      <c r="B2162" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2162" s="20" t="s">
+      <c r="C2162" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D2162" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2162" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2162" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2162" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2162" s="21" t="s">
+      <c r="D2162" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2162" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2162" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2162" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2162" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="12">
+        <v>45933.34677777778</v>
+      </c>
+      <c r="B2163" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2163" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2163" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2163" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2163" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2163" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2163" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="15">
+        <v>45933.34711002315</v>
+      </c>
+      <c r="B2164" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2164" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2164" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2164" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="12">
+        <v>45933.358100729165</v>
+      </c>
+      <c r="B2165" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2165" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2165" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2165" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2165" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2165" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2165" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="15">
+        <v>45933.36139194445</v>
+      </c>
+      <c r="B2166" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2166" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2166" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2166" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2166" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2166" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="12">
+        <v>45933.363193020836</v>
+      </c>
+      <c r="B2167" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2167" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2167" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2167" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2167" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2167" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2167" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="15">
+        <v>45933.36357446759</v>
+      </c>
+      <c r="B2168" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2168" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2168" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2168" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2168" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2168" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2168" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="12">
+        <v>45933.36624018518</v>
+      </c>
+      <c r="B2169" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2169" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2169" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2169" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2169" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2169" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2169" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="15">
+        <v>45933.366397731486</v>
+      </c>
+      <c r="B2170" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2170" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2170" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2170" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2170" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2170" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2170" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="12">
+        <v>45933.36702009259</v>
+      </c>
+      <c r="B2171" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2171" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2171" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2171" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2171" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2171" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2171" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="15">
+        <v>45933.36721296296</v>
+      </c>
+      <c r="B2172" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2172" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2172" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2172" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2172" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2172" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2172" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="12">
+        <v>45933.367366493054</v>
+      </c>
+      <c r="B2173" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2173" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2173" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2173" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2173" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="15">
+        <v>45933.36821256945</v>
+      </c>
+      <c r="B2174" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2174" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2174" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2174" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="12">
+        <v>45933.3769794213</v>
+      </c>
+      <c r="B2175" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2175" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2175" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2175" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2175" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2175" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="15">
+        <v>45933.377796898145</v>
+      </c>
+      <c r="B2176" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2176" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2176" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2176" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2176" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2176" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2176" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="12">
+        <v>45933.37801890046</v>
+      </c>
+      <c r="B2177" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2177" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2177" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2177" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2177" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2177" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2177" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="15">
+        <v>45933.38023359954</v>
+      </c>
+      <c r="B2178" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2178" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2178" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2178" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2178" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2178" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2178" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="12">
+        <v>45933.38156096065</v>
+      </c>
+      <c r="B2179" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2179" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2179" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2179" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2179" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2179" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2179" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="15">
+        <v>45933.38693552083</v>
+      </c>
+      <c r="B2180" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2180" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2180" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2180" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2180" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2180" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2180" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="12">
+        <v>45933.4039849074</v>
+      </c>
+      <c r="B2181" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2181" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2181" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2181" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2181" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2181" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2181" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="19">
+        <v>45933.40417862269</v>
+      </c>
+      <c r="B2182" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2182" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2182" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2182" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2182" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2182" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2182" s="21" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2262">
+  <conditionalFormatting sqref="D1:D2282">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2262">
+  <conditionalFormatting sqref="G2:G2282">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2182</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2183</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15275" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15282" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2182" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2183" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2183"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -58488,38 +58488,64 @@
       </c>
     </row>
     <row r="2182">
-      <c r="A2182" s="19">
+      <c r="A2182" s="15">
         <v>45933.40417862269</v>
       </c>
-      <c r="B2182" s="20" t="s">
+      <c r="B2182" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2182" s="20" t="s">
+      <c r="C2182" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D2182" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2182" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2182" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2182" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2182" s="21" t="s">
-        <v>13</v>
+      <c r="D2182" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2182" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2182" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2182" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2182" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="19">
+        <v>45943.390180682865</v>
+      </c>
+      <c r="B2183" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2183" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2183" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2183" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2183" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2183" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2183" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2282">
+  <conditionalFormatting sqref="D1:D2283">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2282">
+  <conditionalFormatting sqref="G2:G2283">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2183</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2210</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15282" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1548,8 +1548,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2183" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2183"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2210" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2210"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -57993,7 +57993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2163">
+    <row r="2163" hidden="1">
       <c r="A2163" s="12">
         <v>45933.34677777778</v>
       </c>
@@ -58019,7 +58019,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2164">
+    <row r="2164" hidden="1">
       <c r="A2164" s="15">
         <v>45933.34711002315</v>
       </c>
@@ -58045,7 +58045,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2165">
+    <row r="2165" hidden="1">
       <c r="A2165" s="12">
         <v>45933.358100729165</v>
       </c>
@@ -58071,7 +58071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2166">
+    <row r="2166" hidden="1">
       <c r="A2166" s="15">
         <v>45933.36139194445</v>
       </c>
@@ -58097,7 +58097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2167">
+    <row r="2167" hidden="1">
       <c r="A2167" s="12">
         <v>45933.363193020836</v>
       </c>
@@ -58123,7 +58123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2168">
+    <row r="2168" hidden="1">
       <c r="A2168" s="15">
         <v>45933.36357446759</v>
       </c>
@@ -58149,7 +58149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2169">
+    <row r="2169" hidden="1">
       <c r="A2169" s="12">
         <v>45933.36624018518</v>
       </c>
@@ -58175,7 +58175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2170">
+    <row r="2170" hidden="1">
       <c r="A2170" s="15">
         <v>45933.366397731486</v>
       </c>
@@ -58201,7 +58201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2171">
+    <row r="2171" hidden="1">
       <c r="A2171" s="12">
         <v>45933.36702009259</v>
       </c>
@@ -58227,7 +58227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2172">
+    <row r="2172" hidden="1">
       <c r="A2172" s="15">
         <v>45933.36721296296</v>
       </c>
@@ -58253,7 +58253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2173">
+    <row r="2173" hidden="1">
       <c r="A2173" s="12">
         <v>45933.367366493054</v>
       </c>
@@ -58279,7 +58279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2174">
+    <row r="2174" hidden="1">
       <c r="A2174" s="15">
         <v>45933.36821256945</v>
       </c>
@@ -58305,7 +58305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2175">
+    <row r="2175" hidden="1">
       <c r="A2175" s="12">
         <v>45933.3769794213</v>
       </c>
@@ -58331,7 +58331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2176">
+    <row r="2176" hidden="1">
       <c r="A2176" s="15">
         <v>45933.377796898145</v>
       </c>
@@ -58357,7 +58357,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2177">
+    <row r="2177" hidden="1">
       <c r="A2177" s="12">
         <v>45933.37801890046</v>
       </c>
@@ -58383,7 +58383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2178">
+    <row r="2178" hidden="1">
       <c r="A2178" s="15">
         <v>45933.38023359954</v>
       </c>
@@ -58409,7 +58409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2179">
+    <row r="2179" hidden="1">
       <c r="A2179" s="12">
         <v>45933.38156096065</v>
       </c>
@@ -58435,7 +58435,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2180">
+    <row r="2180" hidden="1">
       <c r="A2180" s="15">
         <v>45933.38693552083</v>
       </c>
@@ -58461,7 +58461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2181">
+    <row r="2181" hidden="1">
       <c r="A2181" s="12">
         <v>45933.4039849074</v>
       </c>
@@ -58487,7 +58487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2182">
+    <row r="2182" hidden="1">
       <c r="A2182" s="15">
         <v>45933.40417862269</v>
       </c>
@@ -58513,39 +58513,741 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2183">
-      <c r="A2183" s="19">
+    <row r="2183" hidden="1">
+      <c r="A2183" s="12">
         <v>45943.390180682865</v>
       </c>
-      <c r="B2183" s="20" t="s">
+      <c r="B2183" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C2183" s="20" t="s">
+      <c r="C2183" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="D2183" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2183" s="20" t="s">
+      <c r="D2183" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2183" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2183" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2183" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2183" s="21" t="s">
+      <c r="F2183" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2183" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2183" s="14" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="2184" hidden="1">
+      <c r="A2184" s="15">
+        <v>45943.424944189814</v>
+      </c>
+      <c r="B2184" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2184" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2184" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2184" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2184" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2184" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2184" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2185" hidden="1">
+      <c r="A2185" s="12">
+        <v>45943.425391956014</v>
+      </c>
+      <c r="B2185" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2185" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2185" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2185" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2185" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2185" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2185" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2186" hidden="1">
+      <c r="A2186" s="15">
+        <v>45943.42756928241</v>
+      </c>
+      <c r="B2186" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2186" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2186" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2186" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2186" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2186" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2186" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2187" hidden="1">
+      <c r="A2187" s="12">
+        <v>45943.42913484953</v>
+      </c>
+      <c r="B2187" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2187" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2187" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2187" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2187" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2187" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2187" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2188" hidden="1">
+      <c r="A2188" s="15">
+        <v>45943.4343321875</v>
+      </c>
+      <c r="B2188" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2188" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2188" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2188" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2188" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2188" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2188" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2189" hidden="1">
+      <c r="A2189" s="12">
+        <v>45943.439895787036</v>
+      </c>
+      <c r="B2189" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2189" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2189" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2189" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2189" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2189" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2189" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2190" hidden="1">
+      <c r="A2190" s="15">
+        <v>45943.44129505787</v>
+      </c>
+      <c r="B2190" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2190" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2190" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2190" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2190" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2190" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2190" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2191" hidden="1">
+      <c r="A2191" s="12">
+        <v>45943.44147763889</v>
+      </c>
+      <c r="B2191" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2191" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2191" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2191" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2191" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2191" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2191" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2192" hidden="1">
+      <c r="A2192" s="15">
+        <v>45943.442480682876</v>
+      </c>
+      <c r="B2192" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2192" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2192" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2192" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2192" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2192" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2192" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2193" hidden="1">
+      <c r="A2193" s="12">
+        <v>45943.443330636575</v>
+      </c>
+      <c r="B2193" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2193" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2193" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2193" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2193" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2193" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2193" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2194" hidden="1">
+      <c r="A2194" s="15">
+        <v>45943.45716614583</v>
+      </c>
+      <c r="B2194" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2194" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2194" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2194" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2194" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2194" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2194" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2195" hidden="1">
+      <c r="A2195" s="12">
+        <v>45943.457368981486</v>
+      </c>
+      <c r="B2195" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2195" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2195" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2195" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2195" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2195" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2195" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2196" hidden="1">
+      <c r="A2196" s="15">
+        <v>45943.45755864584</v>
+      </c>
+      <c r="B2196" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2196" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2196" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2196" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2196" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2196" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2196" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2197" hidden="1">
+      <c r="A2197" s="12">
+        <v>45943.45935690972</v>
+      </c>
+      <c r="B2197" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2197" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2197" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2197" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2197" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2197" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2197" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="15">
+        <v>45944.354731921296</v>
+      </c>
+      <c r="B2198" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2198" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2198" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2198" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2198" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2198" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2198" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="12">
+        <v>45944.35531449074</v>
+      </c>
+      <c r="B2199" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2199" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2199" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2199" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2199" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2199" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2199" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="15">
+        <v>45944.359010949076</v>
+      </c>
+      <c r="B2200" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2200" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2200" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2200" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2200" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2200" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2200" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="12">
+        <v>45944.35916572917</v>
+      </c>
+      <c r="B2201" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2201" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2201" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2201" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2201" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2201" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2201" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="15">
+        <v>45944.364896747684</v>
+      </c>
+      <c r="B2202" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2202" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2202" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2202" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2202" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2202" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2202" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="12">
+        <v>45944.36611857639</v>
+      </c>
+      <c r="B2203" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2203" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2203" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2203" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2203" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2203" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2203" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="15">
+        <v>45944.368247210645</v>
+      </c>
+      <c r="B2204" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2204" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2204" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2204" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2204" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2204" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2204" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="12">
+        <v>45944.374824328705</v>
+      </c>
+      <c r="B2205" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2205" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2205" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2205" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2205" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2205" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2205" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="15">
+        <v>45944.382605949075</v>
+      </c>
+      <c r="B2206" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2206" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2206" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2206" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2206" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2206" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2206" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="12">
+        <v>45944.38298334491</v>
+      </c>
+      <c r="B2207" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2207" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2207" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2207" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2207" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2207" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2207" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="15">
+        <v>45944.39213121528</v>
+      </c>
+      <c r="B2208" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2208" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2208" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2208" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2208" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2208" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2208" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="12">
+        <v>45944.39304451389</v>
+      </c>
+      <c r="B2209" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2209" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2209" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2209" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2209" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2209" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2209" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="19">
+        <v>45944.39919011574</v>
+      </c>
+      <c r="B2210" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2210" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2210" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2210" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2210" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2210" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2210" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2283">
+  <conditionalFormatting sqref="D1:D2310">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2283">
+  <conditionalFormatting sqref="G2:G2310">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2210</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2229</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15604" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1534,10 +1534,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Respuestas de formulario 1-style">
+    <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
+      <tableStyleElement dxfId="1" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1548,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2210" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2229" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2229"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -59216,38 +59217,532 @@
       </c>
     </row>
     <row r="2210">
-      <c r="A2210" s="19">
+      <c r="A2210" s="15">
         <v>45944.39919011574</v>
       </c>
-      <c r="B2210" s="20" t="s">
+      <c r="B2210" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2210" s="20" t="s">
+      <c r="C2210" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D2210" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2210" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2210" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2210" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2210" s="21" t="s">
+      <c r="D2210" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2210" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2210" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2210" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2210" s="17" t="s">
         <v>392</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" s="12">
+        <v>45947.34792840278</v>
+      </c>
+      <c r="B2211" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2211" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2211" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2211" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2211" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2211" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2211" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="15">
+        <v>45947.34818803241</v>
+      </c>
+      <c r="B2212" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2212" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2212" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2212" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2212" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2212" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2212" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="12">
+        <v>45947.352187372686</v>
+      </c>
+      <c r="B2213" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2213" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2213" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2213" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2213" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2213" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2213" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="15">
+        <v>45947.355400879635</v>
+      </c>
+      <c r="B2214" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2214" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2214" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2214" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2214" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2214" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2214" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="12">
+        <v>45947.369521562505</v>
+      </c>
+      <c r="B2215" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2215" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2215" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2215" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2215" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2215" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2215" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="15">
+        <v>45947.37041200232</v>
+      </c>
+      <c r="B2216" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2216" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2216" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2216" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2216" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2216" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2216" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="12">
+        <v>45947.37101920139</v>
+      </c>
+      <c r="B2217" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2217" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2217" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2217" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="15">
+        <v>45947.37215761574</v>
+      </c>
+      <c r="B2218" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2218" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2218" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2218" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2218" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2218" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2218" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="12">
+        <v>45947.372322337964</v>
+      </c>
+      <c r="B2219" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2219" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2219" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2219" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2219" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2219" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2219" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="15">
+        <v>45947.377948657406</v>
+      </c>
+      <c r="B2220" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2220" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2220" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2220" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2220" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2220" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2220" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="12">
+        <v>45947.37849015046</v>
+      </c>
+      <c r="B2221" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2221" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2221" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2221" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2221" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2221" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2221" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="15">
+        <v>45947.3789765625</v>
+      </c>
+      <c r="B2222" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2222" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2222" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2222" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2222" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2222" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2222" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="12">
+        <v>45947.403554282406</v>
+      </c>
+      <c r="B2223" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2223" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2223" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2223" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2223" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2223" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2223" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="15">
+        <v>45947.40380013888</v>
+      </c>
+      <c r="B2224" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2224" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2224" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2224" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2224" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2224" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2224" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="12">
+        <v>45947.404019375</v>
+      </c>
+      <c r="B2225" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2225" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2225" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2225" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2225" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2225" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2225" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="15">
+        <v>45947.405126134254</v>
+      </c>
+      <c r="B2226" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2226" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2226" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2226" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2226" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2226" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2226" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="12">
+        <v>45947.405311863426</v>
+      </c>
+      <c r="B2227" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2227" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2227" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2227" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2227" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2227" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2227" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="15">
+        <v>45947.405520879634</v>
+      </c>
+      <c r="B2228" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2228" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2228" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2228" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2228" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2228" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2228" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="19">
+        <v>45947.40588899306</v>
+      </c>
+      <c r="B2229" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2229" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2229" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2229" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2229" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2229" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2229" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2310">
+  <conditionalFormatting sqref="D1:D2329">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2310">
+  <conditionalFormatting sqref="G2:G2329">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2229</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2235</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15604" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15646" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1549,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2229" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2235" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2235"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -59711,38 +59711,194 @@
       </c>
     </row>
     <row r="2229">
-      <c r="A2229" s="19">
+      <c r="A2229" s="12">
         <v>45947.40588899306</v>
       </c>
-      <c r="B2229" s="20" t="s">
+      <c r="B2229" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C2229" s="20" t="s">
+      <c r="C2229" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D2229" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2229" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2229" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2229" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2229" s="21" t="s">
-        <v>13</v>
+      <c r="D2229" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2229" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2229" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2229" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2229" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="15">
+        <v>45949.40053398148</v>
+      </c>
+      <c r="B2230" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2230" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2230" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2230" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2230" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2230" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2230" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="12">
+        <v>45949.40070585648</v>
+      </c>
+      <c r="B2231" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2231" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2231" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2231" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2231" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2231" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2231" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="15">
+        <v>45949.4009180787</v>
+      </c>
+      <c r="B2232" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2232" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2232" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2232" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2232" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2232" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2232" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="12">
+        <v>45949.401119594906</v>
+      </c>
+      <c r="B2233" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2233" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2233" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2233" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2233" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2233" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2233" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="15">
+        <v>45949.40241527778</v>
+      </c>
+      <c r="B2234" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2234" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2234" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2234" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="19">
+        <v>45949.403081909724</v>
+      </c>
+      <c r="B2235" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2235" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2235" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2235" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2235" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2235" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2235" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2329">
+  <conditionalFormatting sqref="D1:D2335">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2329">
+  <conditionalFormatting sqref="G2:G2335">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2235</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2248</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15646" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15737" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,10 +1372,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1383,13 +1383,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1397,13 +1397,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1549,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2235" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2235"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2248" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2248"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -59867,38 +59867,376 @@
       </c>
     </row>
     <row r="2235">
-      <c r="A2235" s="19">
+      <c r="A2235" s="12">
         <v>45949.403081909724</v>
       </c>
-      <c r="B2235" s="20" t="s">
+      <c r="B2235" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C2235" s="20" t="s">
+      <c r="C2235" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D2235" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2235" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2235" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2235" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2235" s="21" t="s">
+      <c r="D2235" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2235" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2235" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2235" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2235" s="14" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" s="15">
+        <v>45949.42311469908</v>
+      </c>
+      <c r="B2236" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2236" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2236" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2236" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2236" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2236" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2236" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="12">
+        <v>45949.42327053241</v>
+      </c>
+      <c r="B2237" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2237" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2237" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2237" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2237" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2237" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2237" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="15">
+        <v>45949.42534109954</v>
+      </c>
+      <c r="B2238" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2238" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2238" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2238" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2238" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2238" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2238" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="12">
+        <v>45949.42948577546</v>
+      </c>
+      <c r="B2239" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2239" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2239" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2239" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2239" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2239" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2239" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="15">
+        <v>45949.42972061342</v>
+      </c>
+      <c r="B2240" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2240" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2240" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2240" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2240" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2240" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2240" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="12">
+        <v>45949.43017797454</v>
+      </c>
+      <c r="B2241" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2241" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2241" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2241" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2241" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2241" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2241" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="15">
+        <v>45949.43089023148</v>
+      </c>
+      <c r="B2242" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2242" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2242" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2242" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2242" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2242" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2242" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="12">
+        <v>45949.431319236115</v>
+      </c>
+      <c r="B2243" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2243" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2243" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2243" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2243" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2243" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2243" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="15">
+        <v>45949.44222877314</v>
+      </c>
+      <c r="B2244" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2244" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2244" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2244" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2244" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2244" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2244" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="12">
+        <v>45949.44239898148</v>
+      </c>
+      <c r="B2245" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2245" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2245" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2245" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2245" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2245" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2245" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="15">
+        <v>45949.44265386574</v>
+      </c>
+      <c r="B2246" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2246" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2246" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2246" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2246" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2246" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2246" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="12">
+        <v>45949.44608954861</v>
+      </c>
+      <c r="B2247" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2247" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2247" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2247" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2247" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2247" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2247" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="19">
+        <v>45949.44626636574</v>
+      </c>
+      <c r="B2248" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2248" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2248" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2248" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2248" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2248" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2248" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2335">
+  <conditionalFormatting sqref="D1:D2348">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2335">
+  <conditionalFormatting sqref="G2:G2348">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2248</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2258</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15737" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15807" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1549,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2248" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2258" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2258"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -60205,38 +60205,298 @@
       </c>
     </row>
     <row r="2248">
-      <c r="A2248" s="19">
+      <c r="A2248" s="15">
         <v>45949.44626636574</v>
       </c>
-      <c r="B2248" s="20" t="s">
+      <c r="B2248" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C2248" s="20" t="s">
+      <c r="C2248" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D2248" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2248" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2248" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2248" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2248" s="21" t="s">
-        <v>13</v>
+      <c r="D2248" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2248" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2248" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2248" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2248" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="12">
+        <v>45952.34467048611</v>
+      </c>
+      <c r="B2249" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2249" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2249" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2249" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2249" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2249" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2249" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="15">
+        <v>45952.345047870374</v>
+      </c>
+      <c r="B2250" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2250" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2250" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2250" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2250" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2250" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2250" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="12">
+        <v>45952.35089391204</v>
+      </c>
+      <c r="B2251" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2251" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2251" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2251" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2251" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2251" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2251" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="15">
+        <v>45952.35118247685</v>
+      </c>
+      <c r="B2252" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2252" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2252" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2252" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2252" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2252" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2252" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="12">
+        <v>45952.35173863426</v>
+      </c>
+      <c r="B2253" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2253" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2253" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2253" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2253" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2253" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2253" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="15">
+        <v>45952.36485211806</v>
+      </c>
+      <c r="B2254" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2254" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2254" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2254" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2254" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2254" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2254" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="12">
+        <v>45952.36855961806</v>
+      </c>
+      <c r="B2255" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2255" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2255" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2255" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2255" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2255" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2255" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="15">
+        <v>45952.38742313658</v>
+      </c>
+      <c r="B2256" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2256" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2256" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2256" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2256" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2256" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2256" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="12">
+        <v>45952.38762664352</v>
+      </c>
+      <c r="B2257" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2257" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2257" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2257" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2257" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2257" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2257" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="19">
+        <v>45952.410955671294</v>
+      </c>
+      <c r="B2258" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2258" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2258" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2258" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2258" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2258" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2258" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2348">
+  <conditionalFormatting sqref="D1:D2358">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2348">
+  <conditionalFormatting sqref="G2:G2358">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2258</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2288</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15807" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16017" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1225,7 +1225,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1397,6 +1397,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFDD7E6B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDD7E6B"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDD7E6B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1413,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1478,6 +1492,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1549,8 +1566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2258" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2288" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2288"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -60465,38 +60482,818 @@
       </c>
     </row>
     <row r="2258">
-      <c r="A2258" s="19">
+      <c r="A2258" s="15">
         <v>45952.410955671294</v>
       </c>
-      <c r="B2258" s="20" t="s">
+      <c r="B2258" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2258" s="20" t="s">
+      <c r="C2258" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D2258" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2258" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2258" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2258" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2258" s="21" t="s">
+      <c r="D2258" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2258" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2258" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2258" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2258" s="17" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" s="12">
+        <v>45952.41210498843</v>
+      </c>
+      <c r="B2259" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2259" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2259" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2259" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2259" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2259" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2259" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="15">
+        <v>45952.412782534724</v>
+      </c>
+      <c r="B2260" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2260" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2260" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2260" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2260" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2260" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2260" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="12">
+        <v>45952.412947743054</v>
+      </c>
+      <c r="B2261" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2261" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2261" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2261" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2261" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2261" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2261" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="15">
+        <v>45952.41320034722</v>
+      </c>
+      <c r="B2262" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2262" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2262" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2262" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2262" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2262" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2262" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="12">
+        <v>45952.41411288195</v>
+      </c>
+      <c r="B2263" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2263" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2263" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2263" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2263" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2263" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2263" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="15">
+        <v>45952.41425173611</v>
+      </c>
+      <c r="B2264" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2264" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2264" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2264" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="12">
+        <v>45952.41442105324</v>
+      </c>
+      <c r="B2265" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2265" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2265" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2265" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2265" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2265" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2265" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="15">
+        <v>45952.41459458333</v>
+      </c>
+      <c r="B2266" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2266" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2266" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2266" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2266" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2266" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2266" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="12">
+        <v>45952.414769780095</v>
+      </c>
+      <c r="B2267" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2267" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2267" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2267" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2267" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2267" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2267" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="15">
+        <v>45952.4153465625</v>
+      </c>
+      <c r="B2268" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2268" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2268" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2268" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2268" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2268" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2268" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="12">
+        <v>45953.32133170139</v>
+      </c>
+      <c r="B2269" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2269" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2269" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2269" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2269" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2269" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2269" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="15">
+        <v>45953.32561439815</v>
+      </c>
+      <c r="B2270" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2270" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2270" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2270" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2270" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2270" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2270" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="12">
+        <v>45953.33003686342</v>
+      </c>
+      <c r="B2271" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2271" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2271" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2271" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2271" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2271" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2271" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="15">
+        <v>45953.33033107639</v>
+      </c>
+      <c r="B2272" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2272" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2272" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2272" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2272" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2272" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2272" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="12">
+        <v>45953.33232927084</v>
+      </c>
+      <c r="B2273" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2273" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2273" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2273" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2273" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2273" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2273" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="15">
+        <v>45953.33346738426</v>
+      </c>
+      <c r="B2274" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2274" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2274" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2274" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2274" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2274" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2274" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="12">
+        <v>45953.334249004634</v>
+      </c>
+      <c r="B2275" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2275" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2275" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2275" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2275" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2275" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2275" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="15">
+        <v>45953.33986373842</v>
+      </c>
+      <c r="B2276" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2276" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2276" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2276" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2276" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2276" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2276" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="12">
+        <v>45953.3400658912</v>
+      </c>
+      <c r="B2277" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2277" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2277" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2277" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2277" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2277" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2277" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="15">
+        <v>45953.35276890046</v>
+      </c>
+      <c r="B2278" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2278" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2278" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2278" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2278" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2278" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2278" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="12">
+        <v>45953.35293284722</v>
+      </c>
+      <c r="B2279" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2279" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2279" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2279" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2279" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2279" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2279" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="15">
+        <v>45953.35376951389</v>
+      </c>
+      <c r="B2280" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2280" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2280" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2280" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2280" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2280" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2280" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="12">
+        <v>45953.35399474537</v>
+      </c>
+      <c r="B2281" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2281" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2281" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2281" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2281" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2281" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2281" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="15">
+        <v>45953.35418197917</v>
+      </c>
+      <c r="B2282" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2282" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2282" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2282" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2282" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2282" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2282" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="12">
+        <v>45953.35446824074</v>
+      </c>
+      <c r="B2283" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2283" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2283" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2283" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2283" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2283" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2283" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="15">
+        <v>45953.359394513885</v>
+      </c>
+      <c r="B2284" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2284" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2284" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2284" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2284" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2284" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2284" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="12">
+        <v>45953.36426511574</v>
+      </c>
+      <c r="B2285" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2285" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2285" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2285" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2285" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2285" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2285" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="15">
+        <v>45953.36538174769</v>
+      </c>
+      <c r="B2286" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2286" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2286" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2286" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2286" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2286" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2286" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="12">
+        <v>45953.36744931713</v>
+      </c>
+      <c r="B2287" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2287" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2287" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2287" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2287" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2287" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2287" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="19">
+        <v>45953.370094768514</v>
+      </c>
+      <c r="B2288" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2288" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2288" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2288" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2288" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2288" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2288" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2358">
+  <conditionalFormatting sqref="D1:D2388">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2358">
+  <conditionalFormatting sqref="G2:G2388">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2288</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2307</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16017" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16150" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2288" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2288"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2307" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2307"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -61059,13 +61059,507 @@
         <v>374</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" s="5">
+        <v>45957.33799828704</v>
+      </c>
+      <c r="B2289" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2289" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2289" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2289" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2289" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2289" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="5">
+        <v>45957.33953883102</v>
+      </c>
+      <c r="B2290" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2290" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2290" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2290" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2290" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="5">
+        <v>45957.33975008102</v>
+      </c>
+      <c r="B2291" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2291" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2291" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2291" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="5">
+        <v>45957.34874357639</v>
+      </c>
+      <c r="B2292" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2292" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2292" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2292" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2292" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2292" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2292" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="5">
+        <v>45957.353678541665</v>
+      </c>
+      <c r="B2293" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2293" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2293" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2293" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2293" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2293" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2293" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="5">
+        <v>45957.353922106486</v>
+      </c>
+      <c r="B2294" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2294" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2294" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2294" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2294" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2294" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2294" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="5">
+        <v>45957.3543097338</v>
+      </c>
+      <c r="B2295" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2295" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2295" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2295" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="5">
+        <v>45957.37045560185</v>
+      </c>
+      <c r="B2296" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2296" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2296" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2296" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2296" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2296" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2296" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="5">
+        <v>45957.37074780093</v>
+      </c>
+      <c r="B2297" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2297" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2297" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2297" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2297" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2297" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2297" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="5">
+        <v>45957.383850729166</v>
+      </c>
+      <c r="B2298" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2298" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2298" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2298" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2298" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2298" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2298" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="5">
+        <v>45957.38399929398</v>
+      </c>
+      <c r="B2299" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2299" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2299" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2299" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2299" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2299" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2299" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="5">
+        <v>45957.38877232639</v>
+      </c>
+      <c r="B2300" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2300" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2300" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2300" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="5">
+        <v>45957.398234594904</v>
+      </c>
+      <c r="B2301" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2301" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2301" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2301" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2301" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2301" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2301" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="5">
+        <v>45957.39891782407</v>
+      </c>
+      <c r="B2302" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2302" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2302" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2302" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="5">
+        <v>45957.40018952546</v>
+      </c>
+      <c r="B2303" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2303" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2303" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2303" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="5">
+        <v>45957.400458668984</v>
+      </c>
+      <c r="B2304" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2304" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2304" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2304" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="5">
+        <v>45957.40083236111</v>
+      </c>
+      <c r="B2305" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2305" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2305" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2305" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="5">
+        <v>45957.40104710648</v>
+      </c>
+      <c r="B2306" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2306" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2306" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2306" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="5">
+        <v>45957.411177766204</v>
+      </c>
+      <c r="B2307" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2307" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2307" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2307" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2307" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2388">
+  <conditionalFormatting sqref="D1:D2407">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2388">
+  <conditionalFormatting sqref="G2:G2407">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2326</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2342</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16283" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16395" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2326" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2326"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2342" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2342"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -62047,13 +62047,429 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" s="5">
+        <v>45961.349068703705</v>
+      </c>
+      <c r="B2327" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2327" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2327" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2327" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="5">
+        <v>45961.34924784722</v>
+      </c>
+      <c r="B2328" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2328" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2328" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2328" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="5">
+        <v>45961.349792939815</v>
+      </c>
+      <c r="B2329" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2329" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2329" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2329" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2329" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="5">
+        <v>45961.354895752316</v>
+      </c>
+      <c r="B2330" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2330" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2330" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2330" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="5">
+        <v>45961.356059791666</v>
+      </c>
+      <c r="B2331" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2331" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2331" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2331" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2331" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="5">
+        <v>45961.38264822916</v>
+      </c>
+      <c r="B2332" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2332" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2332" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2332" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="5">
+        <v>45961.382819756946</v>
+      </c>
+      <c r="B2333" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2333" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2333" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2333" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="5">
+        <v>45961.38330422454</v>
+      </c>
+      <c r="B2334" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2334" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2334" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2334" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="5">
+        <v>45961.38363506945</v>
+      </c>
+      <c r="B2335" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2335" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2335" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2335" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="5">
+        <v>45961.383967685186</v>
+      </c>
+      <c r="B2336" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2336" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2336" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2336" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="5">
+        <v>45961.38694309028</v>
+      </c>
+      <c r="B2337" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2337" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2337" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2337" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2337" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2337" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="5">
+        <v>45961.398452141206</v>
+      </c>
+      <c r="B2338" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2338" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2338" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2338" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="5">
+        <v>45961.405344722225</v>
+      </c>
+      <c r="B2339" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2339" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2339" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2339" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="5">
+        <v>45961.40685032407</v>
+      </c>
+      <c r="B2340" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2340" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2340" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2340" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="5">
+        <v>45961.407000266205</v>
+      </c>
+      <c r="B2341" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2341" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2341" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2341" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="5">
+        <v>45961.40716292824</v>
+      </c>
+      <c r="B2342" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2342" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2342" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2342" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2426">
+  <conditionalFormatting sqref="D1:D2442">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2426">
+  <conditionalFormatting sqref="G2:G2442">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2342</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2363</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16395" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16542" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2342" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2342"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2363" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2363"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -62463,13 +62463,559 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" s="5">
+        <v>45964.37515317129</v>
+      </c>
+      <c r="B2343" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2343" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2343" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2343" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="5">
+        <v>45964.375313032404</v>
+      </c>
+      <c r="B2344" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2344" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2344" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2344" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="5">
+        <v>45964.37591126157</v>
+      </c>
+      <c r="B2345" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2345" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2345" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2345" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2345" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2345" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="5">
+        <v>45964.376069861115</v>
+      </c>
+      <c r="B2346" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2346" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2346" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2346" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2346" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2346" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2346" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="5">
+        <v>45964.376246134256</v>
+      </c>
+      <c r="B2347" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2347" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2347" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2347" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="5">
+        <v>45964.37645232639</v>
+      </c>
+      <c r="B2348" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2348" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2348" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2348" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="5">
+        <v>45964.37673474537</v>
+      </c>
+      <c r="B2349" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2349" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2349" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2349" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2349" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2349" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="5">
+        <v>45964.37703472222</v>
+      </c>
+      <c r="B2350" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2350" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2350" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2350" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2350" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2350" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2350" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="5">
+        <v>45964.37738497685</v>
+      </c>
+      <c r="B2351" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2351" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2351" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2351" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="5">
+        <v>45964.38053445602</v>
+      </c>
+      <c r="B2352" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2352" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2352" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2352" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2352" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2352" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2352" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="5">
+        <v>45964.380921828706</v>
+      </c>
+      <c r="B2353" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2353" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2353" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2353" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="5">
+        <v>45964.3813362963</v>
+      </c>
+      <c r="B2354" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2354" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2354" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2354" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2354" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2354" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2354" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="5">
+        <v>45964.38149857639</v>
+      </c>
+      <c r="B2355" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2355" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2355" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2355" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2355" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2355" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2355" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="5">
+        <v>45964.38284978009</v>
+      </c>
+      <c r="B2356" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2356" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2356" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2356" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2356" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2356" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2356" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="5">
+        <v>45964.39025149305</v>
+      </c>
+      <c r="B2357" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2357" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2357" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2357" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2357" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2357" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="5">
+        <v>45964.39044413195</v>
+      </c>
+      <c r="B2358" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2358" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2358" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2358" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="5">
+        <v>45964.391543645834</v>
+      </c>
+      <c r="B2359" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2359" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2359" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2359" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="5">
+        <v>45964.39174259259</v>
+      </c>
+      <c r="B2360" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2360" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2360" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2360" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2360" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2360" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="5">
+        <v>45964.39932907408</v>
+      </c>
+      <c r="B2361" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2361" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2361" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2361" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="5">
+        <v>45964.40012075231</v>
+      </c>
+      <c r="B2362" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2362" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2362" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2362" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="5">
+        <v>45964.400345243055</v>
+      </c>
+      <c r="B2363" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2363" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2363" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2363" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2363" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2363" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2442">
+  <conditionalFormatting sqref="D1:D2463">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2442">
+  <conditionalFormatting sqref="G2:G2463">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2363</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2381</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16542" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16668" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2363" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2363"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2381" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2381"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -63009,13 +63009,481 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" s="5">
+        <v>45964.4123768287</v>
+      </c>
+      <c r="B2364" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2364" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2364" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2364" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2364" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2364" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2364" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="5">
+        <v>45965.35299944444</v>
+      </c>
+      <c r="B2365" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2365" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2365" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2365" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="5">
+        <v>45965.35441059028</v>
+      </c>
+      <c r="B2366" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2366" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2366" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2366" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2366" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2366" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2366" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="5">
+        <v>45965.354595185185</v>
+      </c>
+      <c r="B2367" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2367" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2367" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2367" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="5">
+        <v>45965.35588708334</v>
+      </c>
+      <c r="B2368" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2368" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2368" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2368" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2368" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2368" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2368" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="5">
+        <v>45965.357469490744</v>
+      </c>
+      <c r="B2369" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2369" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2369" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2369" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="5">
+        <v>45965.3577646875</v>
+      </c>
+      <c r="B2370" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2370" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2370" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2370" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="5">
+        <v>45965.36012496528</v>
+      </c>
+      <c r="B2371" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2371" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2371" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2371" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2371" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2371" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2371" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="5">
+        <v>45965.360776747686</v>
+      </c>
+      <c r="B2372" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2372" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2372" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2372" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2372" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2372" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2372" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="5">
+        <v>45965.36316502315</v>
+      </c>
+      <c r="B2373" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2373" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2373" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2373" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="5">
+        <v>45965.36566008102</v>
+      </c>
+      <c r="B2374" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2374" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2374" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2374" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="5">
+        <v>45965.37161753472</v>
+      </c>
+      <c r="B2375" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2375" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2375" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2375" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="5">
+        <v>45965.37821322917</v>
+      </c>
+      <c r="B2376" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2376" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2376" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2376" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="5">
+        <v>45965.389150532406</v>
+      </c>
+      <c r="B2377" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2377" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2377" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2377" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2377" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2377" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2377" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" s="5">
+        <v>45965.39184217593</v>
+      </c>
+      <c r="B2378" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2378" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2378" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2378" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2378" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2378" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2378" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" s="5">
+        <v>45965.40109734954</v>
+      </c>
+      <c r="B2379" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2379" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2379" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2379" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" s="5">
+        <v>45965.40127700231</v>
+      </c>
+      <c r="B2380" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2380" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2380" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2380" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" s="5">
+        <v>45965.40151548611</v>
+      </c>
+      <c r="B2381" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2381" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2381" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2381" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2381" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2381" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2381" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2463">
+  <conditionalFormatting sqref="D1:D2481">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2463">
+  <conditionalFormatting sqref="G2:G2481">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2381</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2402</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16668" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16815" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2381" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2381"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2402" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2402"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -63477,13 +63477,559 @@
         <v>233</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" s="5">
+        <v>45966.342014560185</v>
+      </c>
+      <c r="B2382" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2382" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2382" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2382" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="5">
+        <v>45966.35233184027</v>
+      </c>
+      <c r="B2383" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2383" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2383" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2383" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2383" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2383" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2383" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="5">
+        <v>45966.35266907407</v>
+      </c>
+      <c r="B2384" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2384" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2384" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2384" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2384" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2384" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2384" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="5">
+        <v>45966.35389994213</v>
+      </c>
+      <c r="B2385" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2385" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2385" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2385" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="5">
+        <v>45966.35695739584</v>
+      </c>
+      <c r="B2386" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2386" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2386" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2386" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="5">
+        <v>45966.35814534722</v>
+      </c>
+      <c r="B2387" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2387" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2387" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2387" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="5">
+        <v>45966.369080856486</v>
+      </c>
+      <c r="B2388" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2388" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2388" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2388" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2388" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2388" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2388" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="5">
+        <v>45966.370306157405</v>
+      </c>
+      <c r="B2389" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2389" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2389" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2389" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2389" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2389" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="5">
+        <v>45966.37044907408</v>
+      </c>
+      <c r="B2390" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2390" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2390" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2390" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="5">
+        <v>45966.37111207176</v>
+      </c>
+      <c r="B2391" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2391" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2391" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2391" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2391" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2391" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="5">
+        <v>45966.373446770835</v>
+      </c>
+      <c r="B2392" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2392" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2392" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2392" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="5">
+        <v>45966.37366357639</v>
+      </c>
+      <c r="B2393" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2393" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2393" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2393" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2393" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2393" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2393" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="5">
+        <v>45966.37463479167</v>
+      </c>
+      <c r="B2394" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2394" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2394" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2394" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="5">
+        <v>45966.37506982639</v>
+      </c>
+      <c r="B2395" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2395" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2395" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2395" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2395" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2395" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="5">
+        <v>45966.375838946755</v>
+      </c>
+      <c r="B2396" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2396" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2396" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2396" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2396" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2396" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2396" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="5">
+        <v>45966.386143587966</v>
+      </c>
+      <c r="B2397" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2397" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2397" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2397" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="5">
+        <v>45966.38634715277</v>
+      </c>
+      <c r="B2398" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2398" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2398" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2398" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2398" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2398" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2398" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="5">
+        <v>45966.38653355324</v>
+      </c>
+      <c r="B2399" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2399" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2399" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2399" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="5">
+        <v>45966.39841623843</v>
+      </c>
+      <c r="B2400" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2400" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2400" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2400" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="5">
+        <v>45966.398801793985</v>
+      </c>
+      <c r="B2401" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2401" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2401" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2401" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="5">
+        <v>45966.403497604166</v>
+      </c>
+      <c r="B2402" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2402" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2402" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2402" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2481">
+  <conditionalFormatting sqref="D1:D2502">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2481">
+  <conditionalFormatting sqref="G2:G2502">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2402</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2422</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16815" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16955" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2402" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2422" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2422"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -61553,7 +61553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2308">
+    <row r="2308" hidden="1">
       <c r="A2308" s="5">
         <v>45958.34083350694</v>
       </c>
@@ -61579,7 +61579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2309">
+    <row r="2309" hidden="1">
       <c r="A2309" s="5">
         <v>45958.344075127316</v>
       </c>
@@ -61605,7 +61605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2310">
+    <row r="2310" hidden="1">
       <c r="A2310" s="5">
         <v>45958.34497142361</v>
       </c>
@@ -61631,7 +61631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2311">
+    <row r="2311" hidden="1">
       <c r="A2311" s="5">
         <v>45958.35377291667</v>
       </c>
@@ -61657,7 +61657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2312">
+    <row r="2312" hidden="1">
       <c r="A2312" s="5">
         <v>45958.35560137732</v>
       </c>
@@ -61683,7 +61683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313">
+    <row r="2313" hidden="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -61709,7 +61709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2314">
+    <row r="2314" hidden="1">
       <c r="A2314" s="5">
         <v>45958.36006160879</v>
       </c>
@@ -61735,7 +61735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2315">
+    <row r="2315" hidden="1">
       <c r="A2315" s="5">
         <v>45958.3620680787</v>
       </c>
@@ -61761,7 +61761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2316">
+    <row r="2316" hidden="1">
       <c r="A2316" s="5">
         <v>45958.37576761574</v>
       </c>
@@ -61787,7 +61787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2317">
+    <row r="2317" hidden="1">
       <c r="A2317" s="5">
         <v>45958.376574317124</v>
       </c>
@@ -61813,7 +61813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2318">
+    <row r="2318" hidden="1">
       <c r="A2318" s="5">
         <v>45958.37710899305</v>
       </c>
@@ -61839,7 +61839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2319">
+    <row r="2319" hidden="1">
       <c r="A2319" s="5">
         <v>45958.3777237037</v>
       </c>
@@ -61865,7 +61865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2320">
+    <row r="2320" hidden="1">
       <c r="A2320" s="5">
         <v>45958.377992291666</v>
       </c>
@@ -61891,7 +61891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2321">
+    <row r="2321" hidden="1">
       <c r="A2321" s="5">
         <v>45958.37952650463</v>
       </c>
@@ -61917,7 +61917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2322">
+    <row r="2322" hidden="1">
       <c r="A2322" s="5">
         <v>45958.37967646991</v>
       </c>
@@ -61943,7 +61943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2323">
+    <row r="2323" hidden="1">
       <c r="A2323" s="5">
         <v>45958.38852679398</v>
       </c>
@@ -61969,7 +61969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2324">
+    <row r="2324" hidden="1">
       <c r="A2324" s="5">
         <v>45958.38923584491</v>
       </c>
@@ -61995,7 +61995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2325">
+    <row r="2325" hidden="1">
       <c r="A2325" s="5">
         <v>45958.38948722222</v>
       </c>
@@ -62021,7 +62021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2326">
+    <row r="2326" hidden="1">
       <c r="A2326" s="5">
         <v>45958.39696684028</v>
       </c>
@@ -62047,7 +62047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2327">
+    <row r="2327" hidden="1">
       <c r="A2327" s="5">
         <v>45961.349068703705</v>
       </c>
@@ -62073,7 +62073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2328">
+    <row r="2328" hidden="1">
       <c r="A2328" s="5">
         <v>45961.34924784722</v>
       </c>
@@ -62099,7 +62099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2329">
+    <row r="2329" hidden="1">
       <c r="A2329" s="5">
         <v>45961.349792939815</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2330">
+    <row r="2330" hidden="1">
       <c r="A2330" s="5">
         <v>45961.354895752316</v>
       </c>
@@ -62151,7 +62151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2331">
+    <row r="2331" hidden="1">
       <c r="A2331" s="5">
         <v>45961.356059791666</v>
       </c>
@@ -62177,7 +62177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2332">
+    <row r="2332" hidden="1">
       <c r="A2332" s="5">
         <v>45961.38264822916</v>
       </c>
@@ -62203,7 +62203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2333">
+    <row r="2333" hidden="1">
       <c r="A2333" s="5">
         <v>45961.382819756946</v>
       </c>
@@ -62229,7 +62229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2334">
+    <row r="2334" hidden="1">
       <c r="A2334" s="5">
         <v>45961.38330422454</v>
       </c>
@@ -62255,7 +62255,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2335">
+    <row r="2335" hidden="1">
       <c r="A2335" s="5">
         <v>45961.38363506945</v>
       </c>
@@ -62281,7 +62281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2336">
+    <row r="2336" hidden="1">
       <c r="A2336" s="5">
         <v>45961.383967685186</v>
       </c>
@@ -62307,7 +62307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2337">
+    <row r="2337" hidden="1">
       <c r="A2337" s="5">
         <v>45961.38694309028</v>
       </c>
@@ -62333,7 +62333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2338">
+    <row r="2338" hidden="1">
       <c r="A2338" s="5">
         <v>45961.398452141206</v>
       </c>
@@ -62359,7 +62359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2339">
+    <row r="2339" hidden="1">
       <c r="A2339" s="5">
         <v>45961.405344722225</v>
       </c>
@@ -62385,7 +62385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2340">
+    <row r="2340" hidden="1">
       <c r="A2340" s="5">
         <v>45961.40685032407</v>
       </c>
@@ -62411,7 +62411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2341">
+    <row r="2341" hidden="1">
       <c r="A2341" s="5">
         <v>45961.407000266205</v>
       </c>
@@ -62437,7 +62437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2342">
+    <row r="2342" hidden="1">
       <c r="A2342" s="5">
         <v>45961.40716292824</v>
       </c>
@@ -62463,7 +62463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2343">
+    <row r="2343" hidden="1">
       <c r="A2343" s="5">
         <v>45964.37515317129</v>
       </c>
@@ -62489,7 +62489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2344">
+    <row r="2344" hidden="1">
       <c r="A2344" s="5">
         <v>45964.375313032404</v>
       </c>
@@ -62515,7 +62515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2345">
+    <row r="2345" hidden="1">
       <c r="A2345" s="5">
         <v>45964.37591126157</v>
       </c>
@@ -62541,7 +62541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2346">
+    <row r="2346" hidden="1">
       <c r="A2346" s="5">
         <v>45964.376069861115</v>
       </c>
@@ -62567,7 +62567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2347">
+    <row r="2347" hidden="1">
       <c r="A2347" s="5">
         <v>45964.376246134256</v>
       </c>
@@ -62593,7 +62593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2348">
+    <row r="2348" hidden="1">
       <c r="A2348" s="5">
         <v>45964.37645232639</v>
       </c>
@@ -62619,7 +62619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2349">
+    <row r="2349" hidden="1">
       <c r="A2349" s="5">
         <v>45964.37673474537</v>
       </c>
@@ -62645,7 +62645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2350">
+    <row r="2350" hidden="1">
       <c r="A2350" s="5">
         <v>45964.37703472222</v>
       </c>
@@ -62671,7 +62671,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2351">
+    <row r="2351" hidden="1">
       <c r="A2351" s="5">
         <v>45964.37738497685</v>
       </c>
@@ -62697,7 +62697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2352">
+    <row r="2352" hidden="1">
       <c r="A2352" s="5">
         <v>45964.38053445602</v>
       </c>
@@ -62723,7 +62723,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2353">
+    <row r="2353" hidden="1">
       <c r="A2353" s="5">
         <v>45964.380921828706</v>
       </c>
@@ -62749,7 +62749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2354">
+    <row r="2354" hidden="1">
       <c r="A2354" s="5">
         <v>45964.3813362963</v>
       </c>
@@ -62775,7 +62775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2355">
+    <row r="2355" hidden="1">
       <c r="A2355" s="5">
         <v>45964.38149857639</v>
       </c>
@@ -62801,7 +62801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2356">
+    <row r="2356" hidden="1">
       <c r="A2356" s="5">
         <v>45964.38284978009</v>
       </c>
@@ -62827,7 +62827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2357">
+    <row r="2357" hidden="1">
       <c r="A2357" s="5">
         <v>45964.39025149305</v>
       </c>
@@ -62853,7 +62853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2358">
+    <row r="2358" hidden="1">
       <c r="A2358" s="5">
         <v>45964.39044413195</v>
       </c>
@@ -62879,7 +62879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2359">
+    <row r="2359" hidden="1">
       <c r="A2359" s="5">
         <v>45964.391543645834</v>
       </c>
@@ -62905,7 +62905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2360">
+    <row r="2360" hidden="1">
       <c r="A2360" s="5">
         <v>45964.39174259259</v>
       </c>
@@ -62931,7 +62931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2361">
+    <row r="2361" hidden="1">
       <c r="A2361" s="5">
         <v>45964.39932907408</v>
       </c>
@@ -62957,7 +62957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2362">
+    <row r="2362" hidden="1">
       <c r="A2362" s="5">
         <v>45964.40012075231</v>
       </c>
@@ -62983,7 +62983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363">
+    <row r="2363" hidden="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63009,7 +63009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2364">
+    <row r="2364" hidden="1">
       <c r="A2364" s="5">
         <v>45964.4123768287</v>
       </c>
@@ -63035,7 +63035,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2365">
+    <row r="2365" hidden="1">
       <c r="A2365" s="5">
         <v>45965.35299944444</v>
       </c>
@@ -63061,7 +63061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2366">
+    <row r="2366" hidden="1">
       <c r="A2366" s="5">
         <v>45965.35441059028</v>
       </c>
@@ -63087,7 +63087,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2367">
+    <row r="2367" hidden="1">
       <c r="A2367" s="5">
         <v>45965.354595185185</v>
       </c>
@@ -63113,7 +63113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2368">
+    <row r="2368" hidden="1">
       <c r="A2368" s="5">
         <v>45965.35588708334</v>
       </c>
@@ -63139,7 +63139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2369">
+    <row r="2369" hidden="1">
       <c r="A2369" s="5">
         <v>45965.357469490744</v>
       </c>
@@ -63165,7 +63165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2370">
+    <row r="2370" hidden="1">
       <c r="A2370" s="5">
         <v>45965.3577646875</v>
       </c>
@@ -63191,7 +63191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2371">
+    <row r="2371" hidden="1">
       <c r="A2371" s="5">
         <v>45965.36012496528</v>
       </c>
@@ -63217,7 +63217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2372">
+    <row r="2372" hidden="1">
       <c r="A2372" s="5">
         <v>45965.360776747686</v>
       </c>
@@ -63243,7 +63243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2373">
+    <row r="2373" hidden="1">
       <c r="A2373" s="5">
         <v>45965.36316502315</v>
       </c>
@@ -63269,7 +63269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2374">
+    <row r="2374" hidden="1">
       <c r="A2374" s="5">
         <v>45965.36566008102</v>
       </c>
@@ -63295,7 +63295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2375">
+    <row r="2375" hidden="1">
       <c r="A2375" s="5">
         <v>45965.37161753472</v>
       </c>
@@ -63321,7 +63321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2376">
+    <row r="2376" hidden="1">
       <c r="A2376" s="5">
         <v>45965.37821322917</v>
       </c>
@@ -63347,7 +63347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2377">
+    <row r="2377" hidden="1">
       <c r="A2377" s="5">
         <v>45965.389150532406</v>
       </c>
@@ -63373,7 +63373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2378">
+    <row r="2378" hidden="1">
       <c r="A2378" s="5">
         <v>45965.39184217593</v>
       </c>
@@ -63399,7 +63399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2379">
+    <row r="2379" hidden="1">
       <c r="A2379" s="5">
         <v>45965.40109734954</v>
       </c>
@@ -63425,7 +63425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2380">
+    <row r="2380" hidden="1">
       <c r="A2380" s="5">
         <v>45965.40127700231</v>
       </c>
@@ -63451,7 +63451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2381">
+    <row r="2381" hidden="1">
       <c r="A2381" s="5">
         <v>45965.40151548611</v>
       </c>
@@ -63477,7 +63477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2382">
+    <row r="2382" hidden="1">
       <c r="A2382" s="5">
         <v>45966.342014560185</v>
       </c>
@@ -63503,7 +63503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2383">
+    <row r="2383" hidden="1">
       <c r="A2383" s="5">
         <v>45966.35233184027</v>
       </c>
@@ -63529,7 +63529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2384">
+    <row r="2384" hidden="1">
       <c r="A2384" s="5">
         <v>45966.35266907407</v>
       </c>
@@ -63555,7 +63555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2385">
+    <row r="2385" hidden="1">
       <c r="A2385" s="5">
         <v>45966.35389994213</v>
       </c>
@@ -63581,7 +63581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2386">
+    <row r="2386" hidden="1">
       <c r="A2386" s="5">
         <v>45966.35695739584</v>
       </c>
@@ -63607,7 +63607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2387">
+    <row r="2387" hidden="1">
       <c r="A2387" s="5">
         <v>45966.35814534722</v>
       </c>
@@ -63633,7 +63633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2388">
+    <row r="2388" hidden="1">
       <c r="A2388" s="5">
         <v>45966.369080856486</v>
       </c>
@@ -63659,7 +63659,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2389">
+    <row r="2389" hidden="1">
       <c r="A2389" s="5">
         <v>45966.370306157405</v>
       </c>
@@ -63685,7 +63685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2390">
+    <row r="2390" hidden="1">
       <c r="A2390" s="5">
         <v>45966.37044907408</v>
       </c>
@@ -63711,7 +63711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2391">
+    <row r="2391" hidden="1">
       <c r="A2391" s="5">
         <v>45966.37111207176</v>
       </c>
@@ -63737,7 +63737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2392">
+    <row r="2392" hidden="1">
       <c r="A2392" s="5">
         <v>45966.373446770835</v>
       </c>
@@ -63763,7 +63763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2393">
+    <row r="2393" hidden="1">
       <c r="A2393" s="5">
         <v>45966.37366357639</v>
       </c>
@@ -63789,7 +63789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394">
+    <row r="2394" hidden="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -63815,7 +63815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2395">
+    <row r="2395" hidden="1">
       <c r="A2395" s="5">
         <v>45966.37506982639</v>
       </c>
@@ -63841,7 +63841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2396">
+    <row r="2396" hidden="1">
       <c r="A2396" s="5">
         <v>45966.375838946755</v>
       </c>
@@ -63867,7 +63867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2397">
+    <row r="2397" hidden="1">
       <c r="A2397" s="5">
         <v>45966.386143587966</v>
       </c>
@@ -63893,7 +63893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2398">
+    <row r="2398" hidden="1">
       <c r="A2398" s="5">
         <v>45966.38634715277</v>
       </c>
@@ -63919,7 +63919,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2399">
+    <row r="2399" hidden="1">
       <c r="A2399" s="5">
         <v>45966.38653355324</v>
       </c>
@@ -63945,7 +63945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2400">
+    <row r="2400" hidden="1">
       <c r="A2400" s="5">
         <v>45966.39841623843</v>
       </c>
@@ -63971,7 +63971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2401">
+    <row r="2401" hidden="1">
       <c r="A2401" s="5">
         <v>45966.398801793985</v>
       </c>
@@ -63997,7 +63997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2402">
+    <row r="2402" hidden="1">
       <c r="A2402" s="5">
         <v>45966.403497604166</v>
       </c>
@@ -64023,13 +64023,533 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" s="5">
+        <v>45967.347547349535</v>
+      </c>
+      <c r="B2403" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2403" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2403" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2403" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="5">
+        <v>45967.34772618055</v>
+      </c>
+      <c r="B2404" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2404" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2404" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2404" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="5">
+        <v>45967.34979953704</v>
+      </c>
+      <c r="B2405" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2405" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2405" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2405" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="5">
+        <v>45967.36394403935</v>
+      </c>
+      <c r="B2406" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2406" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2406" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2406" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="5">
+        <v>45967.36449908565</v>
+      </c>
+      <c r="B2407" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2407" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2407" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2407" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="5">
+        <v>45967.376191296295</v>
+      </c>
+      <c r="B2408" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2408" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2408" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2408" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="5">
+        <v>45967.38077751157</v>
+      </c>
+      <c r="B2409" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2409" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2409" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2409" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2409" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2409" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2409" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="5">
+        <v>45967.381072511576</v>
+      </c>
+      <c r="B2410" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2410" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2410" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2410" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2410" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2410" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2410" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="5">
+        <v>45967.38133672454</v>
+      </c>
+      <c r="B2411" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2411" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2411" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2411" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="5">
+        <v>45967.381897824074</v>
+      </c>
+      <c r="B2412" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2412" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2412" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2412" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2412" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2412" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2412" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" s="5">
+        <v>45967.38206212963</v>
+      </c>
+      <c r="B2413" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2413" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2413" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2413" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2413" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2413" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2413" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" s="5">
+        <v>45967.38285576389</v>
+      </c>
+      <c r="B2414" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2414" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2414" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2414" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2414" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2414" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2414" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" s="5">
+        <v>45967.38327824074</v>
+      </c>
+      <c r="B2415" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2415" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2415" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2415" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2415" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2415" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2415" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="5">
+        <v>45967.38348127315</v>
+      </c>
+      <c r="B2416" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2416" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2416" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2416" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2416" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2416" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2416" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="5">
+        <v>45967.38382347222</v>
+      </c>
+      <c r="B2417" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2417" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2417" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2417" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2417" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2417" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2417" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="5">
+        <v>45967.38426653935</v>
+      </c>
+      <c r="B2418" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2418" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2418" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2418" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2418" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2418" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2418" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="5">
+        <v>45967.390986087965</v>
+      </c>
+      <c r="B2419" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2419" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2419" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2419" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2419" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2419" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2419" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="5">
+        <v>45967.39278637731</v>
+      </c>
+      <c r="B2420" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2420" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2420" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2420" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2420" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2420" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2420" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="5">
+        <v>45967.39298908565</v>
+      </c>
+      <c r="B2421" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2421" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2421" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2421" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2421" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2421" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2421" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" s="5">
+        <v>45967.39805467593</v>
+      </c>
+      <c r="B2422" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2422" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2422" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2422" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2422" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2422" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2422" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2502">
+  <conditionalFormatting sqref="D1:D2522">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2502">
+  <conditionalFormatting sqref="G2:G2522">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2326</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2412</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16283" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16885" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2326" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2326"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2412" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2412"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -61553,7 +61553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2308">
+    <row r="2308" hidden="1">
       <c r="A2308" s="5">
         <v>45958.34083350694</v>
       </c>
@@ -61579,7 +61579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2309">
+    <row r="2309" hidden="1">
       <c r="A2309" s="5">
         <v>45958.344075127316</v>
       </c>
@@ -61605,7 +61605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2310">
+    <row r="2310" hidden="1">
       <c r="A2310" s="5">
         <v>45958.34497142361</v>
       </c>
@@ -61631,7 +61631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2311">
+    <row r="2311" hidden="1">
       <c r="A2311" s="5">
         <v>45958.35377291667</v>
       </c>
@@ -61657,7 +61657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2312">
+    <row r="2312" hidden="1">
       <c r="A2312" s="5">
         <v>45958.35560137732</v>
       </c>
@@ -61683,7 +61683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313">
+    <row r="2313" hidden="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -61709,7 +61709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2314">
+    <row r="2314" hidden="1">
       <c r="A2314" s="5">
         <v>45958.36006160879</v>
       </c>
@@ -61735,7 +61735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2315">
+    <row r="2315" hidden="1">
       <c r="A2315" s="5">
         <v>45958.3620680787</v>
       </c>
@@ -61761,7 +61761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2316">
+    <row r="2316" hidden="1">
       <c r="A2316" s="5">
         <v>45958.37576761574</v>
       </c>
@@ -61787,7 +61787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2317">
+    <row r="2317" hidden="1">
       <c r="A2317" s="5">
         <v>45958.376574317124</v>
       </c>
@@ -61813,7 +61813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2318">
+    <row r="2318" hidden="1">
       <c r="A2318" s="5">
         <v>45958.37710899305</v>
       </c>
@@ -61839,7 +61839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2319">
+    <row r="2319" hidden="1">
       <c r="A2319" s="5">
         <v>45958.3777237037</v>
       </c>
@@ -61865,7 +61865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2320">
+    <row r="2320" hidden="1">
       <c r="A2320" s="5">
         <v>45958.377992291666</v>
       </c>
@@ -61891,7 +61891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2321">
+    <row r="2321" hidden="1">
       <c r="A2321" s="5">
         <v>45958.37952650463</v>
       </c>
@@ -61917,7 +61917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2322">
+    <row r="2322" hidden="1">
       <c r="A2322" s="5">
         <v>45958.37967646991</v>
       </c>
@@ -61943,7 +61943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2323">
+    <row r="2323" hidden="1">
       <c r="A2323" s="5">
         <v>45958.38852679398</v>
       </c>
@@ -61969,7 +61969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2324">
+    <row r="2324" hidden="1">
       <c r="A2324" s="5">
         <v>45958.38923584491</v>
       </c>
@@ -61995,7 +61995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2325">
+    <row r="2325" hidden="1">
       <c r="A2325" s="5">
         <v>45958.38948722222</v>
       </c>
@@ -62021,7 +62021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2326">
+    <row r="2326" hidden="1">
       <c r="A2326" s="5">
         <v>45958.39696684028</v>
       </c>
@@ -62047,13 +62047,2249 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2327" hidden="1">
+      <c r="A2327" s="5">
+        <v>45961.349068703705</v>
+      </c>
+      <c r="B2327" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2327" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2327" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2327" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2328" hidden="1">
+      <c r="A2328" s="5">
+        <v>45961.34924784722</v>
+      </c>
+      <c r="B2328" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2328" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2328" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2328" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2329" hidden="1">
+      <c r="A2329" s="5">
+        <v>45961.349792939815</v>
+      </c>
+      <c r="B2329" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2329" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2329" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2329" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2329" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2330" hidden="1">
+      <c r="A2330" s="5">
+        <v>45961.354895752316</v>
+      </c>
+      <c r="B2330" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2330" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2330" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2330" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2331" hidden="1">
+      <c r="A2331" s="5">
+        <v>45961.356059791666</v>
+      </c>
+      <c r="B2331" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2331" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2331" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2331" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2331" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2332" hidden="1">
+      <c r="A2332" s="5">
+        <v>45961.38264822916</v>
+      </c>
+      <c r="B2332" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2332" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2332" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2332" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2333" hidden="1">
+      <c r="A2333" s="5">
+        <v>45961.382819756946</v>
+      </c>
+      <c r="B2333" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2333" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2333" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2333" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2334" hidden="1">
+      <c r="A2334" s="5">
+        <v>45961.38330422454</v>
+      </c>
+      <c r="B2334" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2334" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2334" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2334" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2335" hidden="1">
+      <c r="A2335" s="5">
+        <v>45961.38363506945</v>
+      </c>
+      <c r="B2335" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2335" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2335" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2335" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2336" hidden="1">
+      <c r="A2336" s="5">
+        <v>45961.383967685186</v>
+      </c>
+      <c r="B2336" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2336" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2336" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2336" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2337" hidden="1">
+      <c r="A2337" s="5">
+        <v>45961.38694309028</v>
+      </c>
+      <c r="B2337" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2337" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2337" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2337" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2337" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2337" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2338" hidden="1">
+      <c r="A2338" s="5">
+        <v>45961.398452141206</v>
+      </c>
+      <c r="B2338" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2338" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2338" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2338" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2339" hidden="1">
+      <c r="A2339" s="5">
+        <v>45961.405344722225</v>
+      </c>
+      <c r="B2339" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2339" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2339" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2339" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2340" hidden="1">
+      <c r="A2340" s="5">
+        <v>45961.40685032407</v>
+      </c>
+      <c r="B2340" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2340" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2340" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2340" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2341" hidden="1">
+      <c r="A2341" s="5">
+        <v>45961.407000266205</v>
+      </c>
+      <c r="B2341" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2341" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2341" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2341" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2342" hidden="1">
+      <c r="A2342" s="5">
+        <v>45961.40716292824</v>
+      </c>
+      <c r="B2342" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2342" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2342" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2342" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2343" hidden="1">
+      <c r="A2343" s="5">
+        <v>45964.37515317129</v>
+      </c>
+      <c r="B2343" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2343" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2343" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2343" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2344" hidden="1">
+      <c r="A2344" s="5">
+        <v>45964.375313032404</v>
+      </c>
+      <c r="B2344" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2344" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2344" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2344" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2345" hidden="1">
+      <c r="A2345" s="5">
+        <v>45964.37591126157</v>
+      </c>
+      <c r="B2345" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2345" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2345" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2345" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2345" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2345" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2346" hidden="1">
+      <c r="A2346" s="5">
+        <v>45964.376069861115</v>
+      </c>
+      <c r="B2346" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2346" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2346" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2346" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2346" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2346" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2346" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2347" hidden="1">
+      <c r="A2347" s="5">
+        <v>45964.376246134256</v>
+      </c>
+      <c r="B2347" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2347" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2347" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2347" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2347" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2348" hidden="1">
+      <c r="A2348" s="5">
+        <v>45964.37645232639</v>
+      </c>
+      <c r="B2348" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2348" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2348" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2348" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2349" hidden="1">
+      <c r="A2349" s="5">
+        <v>45964.37673474537</v>
+      </c>
+      <c r="B2349" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2349" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2349" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2349" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2349" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2349" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2350" hidden="1">
+      <c r="A2350" s="5">
+        <v>45964.37703472222</v>
+      </c>
+      <c r="B2350" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2350" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2350" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2350" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2350" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2350" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2350" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2351" hidden="1">
+      <c r="A2351" s="5">
+        <v>45964.37738497685</v>
+      </c>
+      <c r="B2351" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2351" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2351" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2351" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2351" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2352" hidden="1">
+      <c r="A2352" s="5">
+        <v>45964.38053445602</v>
+      </c>
+      <c r="B2352" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2352" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2352" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2352" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2352" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2352" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2352" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2353" hidden="1">
+      <c r="A2353" s="5">
+        <v>45964.380921828706</v>
+      </c>
+      <c r="B2353" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2353" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2353" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2353" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2354" hidden="1">
+      <c r="A2354" s="5">
+        <v>45964.3813362963</v>
+      </c>
+      <c r="B2354" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2354" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2354" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2354" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2354" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2354" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2354" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2355" hidden="1">
+      <c r="A2355" s="5">
+        <v>45964.38149857639</v>
+      </c>
+      <c r="B2355" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2355" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2355" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2355" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2355" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2355" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2355" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2356" hidden="1">
+      <c r="A2356" s="5">
+        <v>45964.38284978009</v>
+      </c>
+      <c r="B2356" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2356" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2356" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2356" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2356" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2356" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2356" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2357" hidden="1">
+      <c r="A2357" s="5">
+        <v>45964.39025149305</v>
+      </c>
+      <c r="B2357" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2357" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2357" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2357" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2357" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2357" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2358" hidden="1">
+      <c r="A2358" s="5">
+        <v>45964.39044413195</v>
+      </c>
+      <c r="B2358" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2358" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2358" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2358" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2358" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2359" hidden="1">
+      <c r="A2359" s="5">
+        <v>45964.391543645834</v>
+      </c>
+      <c r="B2359" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2359" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2359" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2359" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2359" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2360" hidden="1">
+      <c r="A2360" s="5">
+        <v>45964.39174259259</v>
+      </c>
+      <c r="B2360" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2360" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2360" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2360" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2360" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2360" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2361" hidden="1">
+      <c r="A2361" s="5">
+        <v>45964.39932907408</v>
+      </c>
+      <c r="B2361" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2361" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2361" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2361" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2361" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2362" hidden="1">
+      <c r="A2362" s="5">
+        <v>45964.40012075231</v>
+      </c>
+      <c r="B2362" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2362" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2362" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2362" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2362" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2363" hidden="1">
+      <c r="A2363" s="5">
+        <v>45964.400345243055</v>
+      </c>
+      <c r="B2363" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2363" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2363" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2363" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2363" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2363" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2364" hidden="1">
+      <c r="A2364" s="5">
+        <v>45964.4123768287</v>
+      </c>
+      <c r="B2364" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2364" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2364" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2364" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2364" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2364" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2364" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2365" hidden="1">
+      <c r="A2365" s="5">
+        <v>45965.35299944444</v>
+      </c>
+      <c r="B2365" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2365" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2365" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2365" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2365" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2366" hidden="1">
+      <c r="A2366" s="5">
+        <v>45965.35441059028</v>
+      </c>
+      <c r="B2366" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2366" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2366" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2366" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2366" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2366" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2366" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2367" hidden="1">
+      <c r="A2367" s="5">
+        <v>45965.354595185185</v>
+      </c>
+      <c r="B2367" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2367" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2367" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2367" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2367" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2368" hidden="1">
+      <c r="A2368" s="5">
+        <v>45965.35588708334</v>
+      </c>
+      <c r="B2368" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2368" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2368" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2368" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2368" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2368" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2368" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2369" hidden="1">
+      <c r="A2369" s="5">
+        <v>45965.357469490744</v>
+      </c>
+      <c r="B2369" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2369" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2369" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2369" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2369" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2370" hidden="1">
+      <c r="A2370" s="5">
+        <v>45965.3577646875</v>
+      </c>
+      <c r="B2370" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2370" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2370" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2370" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2370" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2371" hidden="1">
+      <c r="A2371" s="5">
+        <v>45965.36012496528</v>
+      </c>
+      <c r="B2371" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2371" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2371" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2371" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2371" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2371" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2371" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2372" hidden="1">
+      <c r="A2372" s="5">
+        <v>45965.360776747686</v>
+      </c>
+      <c r="B2372" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2372" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2372" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2372" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2372" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2372" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2372" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2373" hidden="1">
+      <c r="A2373" s="5">
+        <v>45965.36316502315</v>
+      </c>
+      <c r="B2373" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2373" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2373" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2373" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2373" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2374" hidden="1">
+      <c r="A2374" s="5">
+        <v>45965.36566008102</v>
+      </c>
+      <c r="B2374" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2374" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2374" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2374" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2374" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2375" hidden="1">
+      <c r="A2375" s="5">
+        <v>45965.37161753472</v>
+      </c>
+      <c r="B2375" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2375" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2375" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2375" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2375" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2376" hidden="1">
+      <c r="A2376" s="5">
+        <v>45965.37821322917</v>
+      </c>
+      <c r="B2376" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2376" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2376" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2376" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2376" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2377" hidden="1">
+      <c r="A2377" s="5">
+        <v>45965.389150532406</v>
+      </c>
+      <c r="B2377" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2377" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2377" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2377" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2377" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2377" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2377" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2378" hidden="1">
+      <c r="A2378" s="5">
+        <v>45965.39184217593</v>
+      </c>
+      <c r="B2378" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2378" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2378" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2378" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2378" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2378" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2378" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2379" hidden="1">
+      <c r="A2379" s="5">
+        <v>45965.40109734954</v>
+      </c>
+      <c r="B2379" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2379" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2379" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2379" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2379" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2380" hidden="1">
+      <c r="A2380" s="5">
+        <v>45965.40127700231</v>
+      </c>
+      <c r="B2380" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2380" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2380" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2380" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2380" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2381" hidden="1">
+      <c r="A2381" s="5">
+        <v>45965.40151548611</v>
+      </c>
+      <c r="B2381" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2381" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2381" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2381" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2381" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2381" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2381" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" s="5">
+        <v>45966.342014560185</v>
+      </c>
+      <c r="B2382" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2382" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2382" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2382" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2382" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="5">
+        <v>45966.35233184027</v>
+      </c>
+      <c r="B2383" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2383" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2383" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2383" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2383" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2383" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2383" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="5">
+        <v>45966.35266907407</v>
+      </c>
+      <c r="B2384" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2384" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2384" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2384" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2384" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2384" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2384" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="5">
+        <v>45966.35389994213</v>
+      </c>
+      <c r="B2385" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2385" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2385" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2385" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2385" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="5">
+        <v>45966.35695739584</v>
+      </c>
+      <c r="B2386" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2386" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2386" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2386" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2386" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="5">
+        <v>45966.35814534722</v>
+      </c>
+      <c r="B2387" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2387" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2387" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2387" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="5">
+        <v>45966.369080856486</v>
+      </c>
+      <c r="B2388" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2388" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2388" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2388" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2388" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2388" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2388" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="5">
+        <v>45966.370306157405</v>
+      </c>
+      <c r="B2389" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2389" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2389" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2389" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2389" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2389" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="5">
+        <v>45966.37044907408</v>
+      </c>
+      <c r="B2390" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2390" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2390" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2390" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2390" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="5">
+        <v>45966.37111207176</v>
+      </c>
+      <c r="B2391" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2391" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2391" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2391" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2391" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2391" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="5">
+        <v>45966.373446770835</v>
+      </c>
+      <c r="B2392" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2392" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2392" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2392" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2392" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="5">
+        <v>45966.37366357639</v>
+      </c>
+      <c r="B2393" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2393" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2393" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2393" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2393" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2393" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2393" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="5">
+        <v>45966.37463479167</v>
+      </c>
+      <c r="B2394" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2394" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2394" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2394" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="5">
+        <v>45966.37506982639</v>
+      </c>
+      <c r="B2395" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2395" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2395" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2395" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2395" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2395" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="5">
+        <v>45966.375838946755</v>
+      </c>
+      <c r="B2396" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2396" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2396" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2396" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2396" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2396" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2396" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="5">
+        <v>45966.386143587966</v>
+      </c>
+      <c r="B2397" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2397" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2397" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2397" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="5">
+        <v>45966.38634715277</v>
+      </c>
+      <c r="B2398" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2398" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2398" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2398" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2398" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2398" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2398" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="5">
+        <v>45966.38653355324</v>
+      </c>
+      <c r="B2399" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2399" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2399" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2399" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2399" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="5">
+        <v>45966.39841623843</v>
+      </c>
+      <c r="B2400" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2400" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2400" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2400" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2400" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="5">
+        <v>45966.398801793985</v>
+      </c>
+      <c r="B2401" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2401" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2401" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2401" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2401" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="5">
+        <v>45966.403497604166</v>
+      </c>
+      <c r="B2402" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2402" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2402" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2402" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" s="5">
+        <v>45967.347547349535</v>
+      </c>
+      <c r="B2403" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2403" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2403" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2403" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2403" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="5">
+        <v>45967.34772618055</v>
+      </c>
+      <c r="B2404" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2404" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2404" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2404" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2404" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="5">
+        <v>45967.34979953704</v>
+      </c>
+      <c r="B2405" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2405" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2405" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2405" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="5">
+        <v>45967.36394403935</v>
+      </c>
+      <c r="B2406" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2406" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2406" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2406" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="5">
+        <v>45967.36449908565</v>
+      </c>
+      <c r="B2407" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2407" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2407" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2407" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="5">
+        <v>45967.376191296295</v>
+      </c>
+      <c r="B2408" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2408" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2408" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2408" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="5">
+        <v>45967.38077751157</v>
+      </c>
+      <c r="B2409" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2409" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2409" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2409" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2409" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2409" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2409" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="5">
+        <v>45967.381072511576</v>
+      </c>
+      <c r="B2410" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2410" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2410" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2410" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2410" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2410" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2410" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="5">
+        <v>45967.38133672454</v>
+      </c>
+      <c r="B2411" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2411" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2411" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2411" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="5">
+        <v>45967.381897824074</v>
+      </c>
+      <c r="B2412" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2412" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2412" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2412" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2412" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2412" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2412" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2426">
+  <conditionalFormatting sqref="D1:D2512">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2426">
+  <conditionalFormatting sqref="G2:G2512">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2440</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2454</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17081" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17179" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2440" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2440"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2454" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2454"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -65011,13 +65011,377 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2441" ht="22.5" customHeight="1">
+      <c r="A2441" s="5">
+        <v>45979.371744027776</v>
+      </c>
+      <c r="B2441" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2441" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2441" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2441" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2441" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2441" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2441" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2442" ht="22.5" customHeight="1">
+      <c r="A2442" s="5">
+        <v>45979.38103636574</v>
+      </c>
+      <c r="B2442" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2442" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2442" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2442" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2442" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2442" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2442" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2443" ht="22.5" customHeight="1">
+      <c r="A2443" s="5">
+        <v>45979.38141162037</v>
+      </c>
+      <c r="B2443" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2443" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2443" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2443" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2443" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2443" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2443" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2444" ht="22.5" customHeight="1">
+      <c r="A2444" s="5">
+        <v>45979.381551053244</v>
+      </c>
+      <c r="B2444" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2444" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2444" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2444" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2444" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2444" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2444" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2445" ht="22.5" customHeight="1">
+      <c r="A2445" s="5">
+        <v>45979.38177255787</v>
+      </c>
+      <c r="B2445" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2445" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2445" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2445" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2445" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2445" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2445" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2446" ht="22.5" customHeight="1">
+      <c r="A2446" s="5">
+        <v>45979.38241262731</v>
+      </c>
+      <c r="B2446" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2446" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2446" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2446" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2446" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2446" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2446" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2447" ht="22.5" customHeight="1">
+      <c r="A2447" s="5">
+        <v>45979.382770358796</v>
+      </c>
+      <c r="B2447" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2447" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2447" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2447" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2447" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2447" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2447" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2448" ht="22.5" customHeight="1">
+      <c r="A2448" s="5">
+        <v>45979.38304634259</v>
+      </c>
+      <c r="B2448" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2448" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2448" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2448" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2448" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2448" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2448" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2449" ht="22.5" customHeight="1">
+      <c r="A2449" s="5">
+        <v>45979.38318224537</v>
+      </c>
+      <c r="B2449" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2449" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2449" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2449" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2449" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2449" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2449" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2450" ht="22.5" customHeight="1">
+      <c r="A2450" s="5">
+        <v>45979.38356877315</v>
+      </c>
+      <c r="B2450" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2450" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2450" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2450" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2450" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2450" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2450" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2451" ht="22.5" customHeight="1">
+      <c r="A2451" s="5">
+        <v>45979.383746493055</v>
+      </c>
+      <c r="B2451" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2451" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2451" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2451" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2451" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2451" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2451" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2452" ht="22.5" customHeight="1">
+      <c r="A2452" s="5">
+        <v>45979.38665796296</v>
+      </c>
+      <c r="B2452" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2452" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2452" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2452" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2452" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2452" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2452" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2453" ht="22.5" customHeight="1">
+      <c r="A2453" s="5">
+        <v>45979.39523810185</v>
+      </c>
+      <c r="B2453" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2453" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2453" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2453" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2453" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2453" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2453" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2454" ht="22.5" customHeight="1">
+      <c r="A2454" s="5">
+        <v>45979.40328141204</v>
+      </c>
+      <c r="B2454" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2454" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2454" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2454" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2454" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2454" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2454" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2540">
+  <conditionalFormatting sqref="D1:D2554">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2540">
+  <conditionalFormatting sqref="G2:G2554">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2454</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2465</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17179" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17256" uniqueCount="395">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1196,6 +1196,9 @@
   <si>
     <t>11 parte trasera de la rodilla izquierda</t>
   </si>
+  <si>
+    <t>23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1338,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2454" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2454"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2465" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2465"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -65375,13 +65378,299 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2455" ht="22.5" customHeight="1">
+      <c r="A2455" s="5">
+        <v>45980.33732693287</v>
+      </c>
+      <c r="B2455" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2455" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2455" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2455" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2455" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2455" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2455" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2456" ht="22.5" customHeight="1">
+      <c r="A2456" s="5">
+        <v>45980.337807303236</v>
+      </c>
+      <c r="B2456" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2456" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2456" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2456" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2456" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2456" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2456" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2457" ht="22.5" customHeight="1">
+      <c r="A2457" s="5">
+        <v>45980.352399537034</v>
+      </c>
+      <c r="B2457" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2457" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2457" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2457" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2457" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2457" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2457" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2458" ht="22.5" customHeight="1">
+      <c r="A2458" s="5">
+        <v>45980.355132013894</v>
+      </c>
+      <c r="B2458" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2458" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2458" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2458" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2458" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2458" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2458" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2459" ht="22.5" customHeight="1">
+      <c r="A2459" s="5">
+        <v>45980.36229711806</v>
+      </c>
+      <c r="B2459" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2459" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2459" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2459" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2459" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2459" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2459" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2460" ht="22.5" customHeight="1">
+      <c r="A2460" s="5">
+        <v>45980.37232134259</v>
+      </c>
+      <c r="B2460" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2460" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2460" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2460" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2460" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2460" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2460" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2461" ht="22.5" customHeight="1">
+      <c r="A2461" s="5">
+        <v>45980.37654516204</v>
+      </c>
+      <c r="B2461" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2461" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2461" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2461" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2461" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2461" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2461" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2462" ht="22.5" customHeight="1">
+      <c r="A2462" s="5">
+        <v>45980.37741714121</v>
+      </c>
+      <c r="B2462" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2462" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2462" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2462" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2462" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2462" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2462" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2463" ht="22.5" customHeight="1">
+      <c r="A2463" s="5">
+        <v>45980.379511990745</v>
+      </c>
+      <c r="B2463" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2463" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2463" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2463" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2463" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2463" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2463" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2464" ht="22.5" customHeight="1">
+      <c r="A2464" s="5">
+        <v>45980.38000016204</v>
+      </c>
+      <c r="B2464" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2464" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2464" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2464" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2464" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2464" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2464" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2465" ht="22.5" customHeight="1">
+      <c r="A2465" s="5">
+        <v>45980.380176226856</v>
+      </c>
+      <c r="B2465" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2465" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2465" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2465" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2465" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2465" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2465" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2554">
+  <conditionalFormatting sqref="D1:D2565">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2554">
+  <conditionalFormatting sqref="G2:G2565">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -65664,7 +65664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2466" ht="22.5" customHeight="1">
+    <row r="2466" ht="22.5" hidden="1" customHeight="1">
       <c r="A2466" s="5">
         <v>45981.34220226852</v>
       </c>
@@ -65690,7 +65690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2467" ht="22.5" customHeight="1">
+    <row r="2467" ht="22.5" hidden="1" customHeight="1">
       <c r="A2467" s="5">
         <v>45981.34241208334</v>
       </c>
@@ -65716,7 +65716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2468" ht="22.5" customHeight="1">
+    <row r="2468" ht="22.5" hidden="1" customHeight="1">
       <c r="A2468" s="5">
         <v>45981.36439379629</v>
       </c>
@@ -65742,7 +65742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2469" ht="22.5" customHeight="1">
+    <row r="2469" ht="22.5" hidden="1" customHeight="1">
       <c r="A2469" s="5">
         <v>45981.36458327546</v>
       </c>
@@ -65768,7 +65768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2470" ht="22.5" customHeight="1">
+    <row r="2470" ht="22.5" hidden="1" customHeight="1">
       <c r="A2470" s="5">
         <v>45981.367529571755</v>
       </c>
@@ -65794,7 +65794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2471" ht="22.5" customHeight="1">
+    <row r="2471" ht="22.5" hidden="1" customHeight="1">
       <c r="A2471" s="5">
         <v>45981.37876619213</v>
       </c>
@@ -65820,7 +65820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2472" ht="22.5" customHeight="1">
+    <row r="2472" ht="22.5" hidden="1" customHeight="1">
       <c r="A2472" s="5">
         <v>45981.37911232639</v>
       </c>
@@ -65846,7 +65846,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2473" ht="22.5" customHeight="1">
+    <row r="2473" ht="22.5" hidden="1" customHeight="1">
       <c r="A2473" s="5">
         <v>45981.379467743056</v>
       </c>
@@ -65872,7 +65872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2474" ht="22.5" customHeight="1">
+    <row r="2474" ht="22.5" hidden="1" customHeight="1">
       <c r="A2474" s="5">
         <v>45981.37972802084</v>
       </c>
@@ -65898,7 +65898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2475" ht="22.5" customHeight="1">
+    <row r="2475" ht="22.5" hidden="1" customHeight="1">
       <c r="A2475" s="5">
         <v>45981.380400891205</v>
       </c>
@@ -65924,7 +65924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" customHeight="1">
+    <row r="2476" ht="22.5" hidden="1" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -65950,7 +65950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2477" ht="22.5" customHeight="1">
+    <row r="2477" ht="22.5" hidden="1" customHeight="1">
       <c r="A2477" s="5">
         <v>45981.388170694445</v>
       </c>
@@ -65976,7 +65976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2478" ht="22.5" customHeight="1">
+    <row r="2478" ht="22.5" hidden="1" customHeight="1">
       <c r="A2478" s="5">
         <v>45981.38836467593</v>
       </c>
@@ -66002,7 +66002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2479" ht="22.5" customHeight="1">
+    <row r="2479" ht="22.5" hidden="1" customHeight="1">
       <c r="A2479" s="5">
         <v>45981.38989756945</v>
       </c>
@@ -66028,7 +66028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2480" ht="22.5" customHeight="1">
+    <row r="2480" ht="22.5" hidden="1" customHeight="1">
       <c r="A2480" s="5">
         <v>45981.39213384259</v>
       </c>
@@ -66054,7 +66054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2481" ht="22.5" customHeight="1">
+    <row r="2481" ht="22.5" hidden="1" customHeight="1">
       <c r="A2481" s="5">
         <v>45981.39294583333</v>
       </c>
@@ -66080,7 +66080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2482" ht="22.5" customHeight="1">
+    <row r="2482" ht="22.5" hidden="1" customHeight="1">
       <c r="A2482" s="5">
         <v>45981.393144699075</v>
       </c>
@@ -66106,7 +66106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2483" ht="22.5" customHeight="1">
+    <row r="2483" ht="22.5" hidden="1" customHeight="1">
       <c r="A2483" s="5">
         <v>45981.393335127315</v>
       </c>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2483</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2504</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17382" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17529" uniqueCount="395">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1341,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2483" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2483"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2504" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2504"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -66132,13 +66132,559 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2484" ht="22.5" customHeight="1">
+      <c r="A2484" s="5">
+        <v>45985.37313903935</v>
+      </c>
+      <c r="B2484" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2484" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2484" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2484" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2484" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2484" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2484" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2485" ht="22.5" customHeight="1">
+      <c r="A2485" s="5">
+        <v>45985.37328670139</v>
+      </c>
+      <c r="B2485" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2485" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2485" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2485" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2485" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2485" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2485" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2486" ht="22.5" customHeight="1">
+      <c r="A2486" s="5">
+        <v>45985.37347265046</v>
+      </c>
+      <c r="B2486" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2486" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2486" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2486" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2486" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2486" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2486" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2487" ht="22.5" customHeight="1">
+      <c r="A2487" s="5">
+        <v>45985.37374943287</v>
+      </c>
+      <c r="B2487" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2487" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2487" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2487" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2487" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2487" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2487" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2488" ht="22.5" customHeight="1">
+      <c r="A2488" s="5">
+        <v>45985.38800142361</v>
+      </c>
+      <c r="B2488" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2488" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2488" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2488" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2488" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2488" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2488" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2489" ht="22.5" customHeight="1">
+      <c r="A2489" s="5">
+        <v>45985.389600208335</v>
+      </c>
+      <c r="B2489" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2489" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2489" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2489" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2489" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2489" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2489" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2490" ht="22.5" customHeight="1">
+      <c r="A2490" s="5">
+        <v>45985.389780196754</v>
+      </c>
+      <c r="B2490" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2490" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2490" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2490" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2490" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2490" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2490" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2491" ht="22.5" customHeight="1">
+      <c r="A2491" s="5">
+        <v>45985.3900733912</v>
+      </c>
+      <c r="B2491" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2491" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2491" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2491" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2491" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2491" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2491" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2492" ht="22.5" customHeight="1">
+      <c r="A2492" s="5">
+        <v>45985.39057517362</v>
+      </c>
+      <c r="B2492" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2492" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2492" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2492" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2492" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2492" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2492" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2493" ht="22.5" customHeight="1">
+      <c r="A2493" s="5">
+        <v>45985.39079627315</v>
+      </c>
+      <c r="B2493" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2493" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2493" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2493" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2493" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2493" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2493" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2494" ht="22.5" customHeight="1">
+      <c r="A2494" s="5">
+        <v>45985.39547872685</v>
+      </c>
+      <c r="B2494" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2494" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2494" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2494" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2494" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2494" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2494" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2495" ht="22.5" customHeight="1">
+      <c r="A2495" s="5">
+        <v>45985.395632291664</v>
+      </c>
+      <c r="B2495" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2495" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2495" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2495" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2495" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2495" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2495" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2496" ht="22.5" customHeight="1">
+      <c r="A2496" s="5">
+        <v>45985.39580758102</v>
+      </c>
+      <c r="B2496" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2496" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2496" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2496" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2496" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2496" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2496" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2497" ht="22.5" customHeight="1">
+      <c r="A2497" s="5">
+        <v>45985.39599524306</v>
+      </c>
+      <c r="B2497" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2497" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2497" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2497" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2497" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2497" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2497" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2498" ht="22.5" customHeight="1">
+      <c r="A2498" s="5">
+        <v>45985.39622416667</v>
+      </c>
+      <c r="B2498" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2498" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2498" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2498" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2498" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2498" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2498" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2499" ht="22.5" customHeight="1">
+      <c r="A2499" s="5">
+        <v>45985.39639915509</v>
+      </c>
+      <c r="B2499" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2499" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2499" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2499" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2499" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2499" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2499" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2500" ht="22.5" customHeight="1">
+      <c r="A2500" s="5">
+        <v>45985.39979122685</v>
+      </c>
+      <c r="B2500" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2500" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2500" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2500" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2500" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2500" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2500" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2501" ht="22.5" customHeight="1">
+      <c r="A2501" s="5">
+        <v>45985.400279560185</v>
+      </c>
+      <c r="B2501" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2501" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2501" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2501" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2501" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2501" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2501" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2502" ht="22.5" customHeight="1">
+      <c r="A2502" s="5">
+        <v>45985.400573217594</v>
+      </c>
+      <c r="B2502" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2502" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2502" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2502" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2502" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2502" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2502" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2503" ht="22.5" customHeight="1">
+      <c r="A2503" s="5">
+        <v>45985.40075596065</v>
+      </c>
+      <c r="B2503" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2503" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2503" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2503" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2503" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2503" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2503" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2504" ht="22.5" customHeight="1">
+      <c r="A2504" s="5">
+        <v>45985.40096788194</v>
+      </c>
+      <c r="B2504" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2504" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2504" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2504" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2504" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2504" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2504" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2583">
+  <conditionalFormatting sqref="D1:D2604">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2583">
+  <conditionalFormatting sqref="G2:G2604">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2504</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2523</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17529" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17662" uniqueCount="395">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1341,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2504" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2504"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2523" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2523"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -66678,13 +66678,507 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2505" ht="22.5" customHeight="1">
+      <c r="A2505" s="5">
+        <v>45986.381360706015</v>
+      </c>
+      <c r="B2505" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2505" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2505" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2505" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2505" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2505" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2505" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2506" ht="22.5" customHeight="1">
+      <c r="A2506" s="5">
+        <v>45986.38169416667</v>
+      </c>
+      <c r="B2506" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2506" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2506" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2506" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2506" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2506" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2506" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2507" ht="22.5" customHeight="1">
+      <c r="A2507" s="5">
+        <v>45986.384118437505</v>
+      </c>
+      <c r="B2507" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2507" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2507" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2507" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2507" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2507" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2507" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2508" ht="22.5" customHeight="1">
+      <c r="A2508" s="5">
+        <v>45986.384317766206</v>
+      </c>
+      <c r="B2508" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2508" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2508" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2508" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2508" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2508" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2508" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2509" ht="22.5" customHeight="1">
+      <c r="A2509" s="5">
+        <v>45986.38448778936</v>
+      </c>
+      <c r="B2509" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2509" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2509" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2509" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2509" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2509" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2509" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2510" ht="22.5" customHeight="1">
+      <c r="A2510" s="5">
+        <v>45986.385220729164</v>
+      </c>
+      <c r="B2510" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2510" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2510" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2510" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2510" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2510" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2510" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2511" ht="22.5" customHeight="1">
+      <c r="A2511" s="5">
+        <v>45986.38732739583</v>
+      </c>
+      <c r="B2511" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2511" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2511" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2511" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2511" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2511" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2511" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2512" ht="22.5" customHeight="1">
+      <c r="A2512" s="5">
+        <v>45986.38755190972</v>
+      </c>
+      <c r="B2512" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2512" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2512" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2512" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2512" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2512" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2512" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2513" ht="22.5" customHeight="1">
+      <c r="A2513" s="5">
+        <v>45986.38784972222</v>
+      </c>
+      <c r="B2513" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2513" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2513" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2513" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2513" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2513" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2513" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2514" ht="22.5" customHeight="1">
+      <c r="A2514" s="5">
+        <v>45986.38808230324</v>
+      </c>
+      <c r="B2514" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2514" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2514" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2514" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2514" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2514" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2514" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2515" ht="22.5" customHeight="1">
+      <c r="A2515" s="5">
+        <v>45986.38828114583</v>
+      </c>
+      <c r="B2515" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2515" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2515" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2515" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2515" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2515" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2515" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2516" ht="22.5" customHeight="1">
+      <c r="A2516" s="5">
+        <v>45986.38929590277</v>
+      </c>
+      <c r="B2516" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2516" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2516" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2516" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2516" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2516" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2516" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2517" ht="22.5" customHeight="1">
+      <c r="A2517" s="5">
+        <v>45986.38943311342</v>
+      </c>
+      <c r="B2517" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2517" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2517" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2517" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2517" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2517" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2517" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2518" ht="22.5" customHeight="1">
+      <c r="A2518" s="5">
+        <v>45986.39645888889</v>
+      </c>
+      <c r="B2518" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2518" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2518" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2518" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2518" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2518" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2518" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2519" ht="22.5" customHeight="1">
+      <c r="A2519" s="5">
+        <v>45986.39661427084</v>
+      </c>
+      <c r="B2519" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2519" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2519" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2519" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2519" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2519" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2519" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2520" ht="22.5" customHeight="1">
+      <c r="A2520" s="5">
+        <v>45986.40569484954</v>
+      </c>
+      <c r="B2520" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2520" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2520" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2520" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2520" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2520" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2520" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2521" ht="22.5" customHeight="1">
+      <c r="A2521" s="5">
+        <v>45986.406333946754</v>
+      </c>
+      <c r="B2521" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2521" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2521" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2521" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2521" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2521" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2521" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2522" ht="22.5" customHeight="1">
+      <c r="A2522" s="5">
+        <v>45986.406483252315</v>
+      </c>
+      <c r="B2522" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2522" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2522" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2522" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2522" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2522" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2522" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2523" ht="22.5" customHeight="1">
+      <c r="A2523" s="5">
+        <v>45986.40677638889</v>
+      </c>
+      <c r="B2523" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2523" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2523" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2523" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2523" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2523" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2523" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2604">
+  <conditionalFormatting sqref="D1:D2623">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2604">
+  <conditionalFormatting sqref="G2:G2623">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2524</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2559</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17669" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17914" uniqueCount="395">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1264,16 +1264,6 @@
     <dxf>
       <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
         <patternFill patternType="none"/>
       </fill>
       <border/>
@@ -1324,13 +1314,23 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-      <tableStyleElement dxfId="5" size="0" type="wholeTable"/>
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1341,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2524" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2524"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2559" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2559"/>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67198,14 +67198,924 @@
         <v>314</v>
       </c>
     </row>
+    <row r="2525" ht="22.5" customHeight="1">
+      <c r="A2525" s="5">
+        <v>46009.63071359954</v>
+      </c>
+      <c r="B2525" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2525" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2525" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2525" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2525" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2525" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2525" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2526" ht="22.5" customHeight="1">
+      <c r="A2526" s="5">
+        <v>46009.63157017361</v>
+      </c>
+      <c r="B2526" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2526" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2526" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2526" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2526" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2526" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2526" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2527" ht="22.5" customHeight="1">
+      <c r="A2527" s="5">
+        <v>46009.63196967593</v>
+      </c>
+      <c r="B2527" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2527" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2527" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2527" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2528" ht="22.5" customHeight="1">
+      <c r="A2528" s="5">
+        <v>46009.63219956019</v>
+      </c>
+      <c r="B2528" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2528" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2528" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2528" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2529" ht="22.5" customHeight="1">
+      <c r="A2529" s="5">
+        <v>46009.63250756945</v>
+      </c>
+      <c r="B2529" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2529" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2529" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2529" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2529" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2529" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2529" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2530" ht="22.5" customHeight="1">
+      <c r="A2530" s="5">
+        <v>46009.633614328704</v>
+      </c>
+      <c r="B2530" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2530" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2530" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2530" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2531" ht="22.5" customHeight="1">
+      <c r="A2531" s="5">
+        <v>46009.63377163194</v>
+      </c>
+      <c r="B2531" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2531" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2531" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2531" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2531" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2531" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2531" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2532" ht="22.5" customHeight="1">
+      <c r="A2532" s="5">
+        <v>46009.63467008102</v>
+      </c>
+      <c r="B2532" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2532" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2532" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2532" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2532" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2532" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2532" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2533" ht="22.5" customHeight="1">
+      <c r="A2533" s="5">
+        <v>46009.63540960648</v>
+      </c>
+      <c r="B2533" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2533" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2533" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2533" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2533" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2533" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2533" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2534" ht="22.5" customHeight="1">
+      <c r="A2534" s="5">
+        <v>46009.63556296296</v>
+      </c>
+      <c r="B2534" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2534" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2534" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2534" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2534" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2534" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2534" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2535" ht="22.5" customHeight="1">
+      <c r="A2535" s="5">
+        <v>46009.63616807871</v>
+      </c>
+      <c r="B2535" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2535" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2535" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2535" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2535" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2535" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2535" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2536" ht="22.5" customHeight="1">
+      <c r="A2536" s="5">
+        <v>46009.64010440972</v>
+      </c>
+      <c r="B2536" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2536" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2536" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2536" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2536" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2536" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2536" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2537" ht="22.5" customHeight="1">
+      <c r="A2537" s="5">
+        <v>46009.640328043984</v>
+      </c>
+      <c r="B2537" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2537" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2537" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2537" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2537" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2537" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2537" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2538" ht="22.5" customHeight="1">
+      <c r="A2538" s="5">
+        <v>46009.64048443287</v>
+      </c>
+      <c r="B2538" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2538" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2538" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2538" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2538" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2538" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2538" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2539" ht="22.5" customHeight="1">
+      <c r="A2539" s="5">
+        <v>46009.64063076389</v>
+      </c>
+      <c r="B2539" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2539" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2539" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2539" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2539" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2539" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2539" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2540" ht="22.5" customHeight="1">
+      <c r="A2540" s="5">
+        <v>46009.640842187495</v>
+      </c>
+      <c r="B2540" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2540" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2540" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2540" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2540" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2540" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2540" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2541" ht="22.5" customHeight="1">
+      <c r="A2541" s="5">
+        <v>46009.64235283565</v>
+      </c>
+      <c r="B2541" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2541" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2541" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2541" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2542" ht="22.5" customHeight="1">
+      <c r="A2542" s="5">
+        <v>46010.33907607639</v>
+      </c>
+      <c r="B2542" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2542" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2542" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2542" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2542" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2542" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2542" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2543" ht="22.5" customHeight="1">
+      <c r="A2543" s="5">
+        <v>46010.33984688658</v>
+      </c>
+      <c r="B2543" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2543" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2543" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2543" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2544" ht="22.5" customHeight="1">
+      <c r="A2544" s="5">
+        <v>46010.34017599537</v>
+      </c>
+      <c r="B2544" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2544" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2544" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2544" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2545" ht="22.5" customHeight="1">
+      <c r="A2545" s="5">
+        <v>46010.34057917824</v>
+      </c>
+      <c r="B2545" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2545" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2545" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2545" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2545" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2545" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2545" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2546" ht="22.5" customHeight="1">
+      <c r="A2546" s="5">
+        <v>46010.340764594905</v>
+      </c>
+      <c r="B2546" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2546" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2546" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2546" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2547" ht="22.5" customHeight="1">
+      <c r="A2547" s="5">
+        <v>46010.34091508102</v>
+      </c>
+      <c r="B2547" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2547" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2547" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2547" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2547" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2547" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2547" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2548" ht="22.5" customHeight="1">
+      <c r="A2548" s="5">
+        <v>46010.34207900463</v>
+      </c>
+      <c r="B2548" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2548" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2548" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2548" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2549" ht="22.5" customHeight="1">
+      <c r="A2549" s="5">
+        <v>46010.34233159722</v>
+      </c>
+      <c r="B2549" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2549" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2549" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2549" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2549" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2549" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2549" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2550" ht="22.5" customHeight="1">
+      <c r="A2550" s="5">
+        <v>46010.342462002314</v>
+      </c>
+      <c r="B2550" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2550" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2550" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2550" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2551" ht="22.5" customHeight="1">
+      <c r="A2551" s="5">
+        <v>46010.34270541667</v>
+      </c>
+      <c r="B2551" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2551" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2551" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2551" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2552" ht="22.5" customHeight="1">
+      <c r="A2552" s="5">
+        <v>46010.342964571755</v>
+      </c>
+      <c r="B2552" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2552" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2552" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2552" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2553" ht="22.5" customHeight="1">
+      <c r="A2553" s="5">
+        <v>46010.34317388889</v>
+      </c>
+      <c r="B2553" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2553" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2553" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2553" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2554" ht="22.5" customHeight="1">
+      <c r="A2554" s="5">
+        <v>46010.344093657404</v>
+      </c>
+      <c r="B2554" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2554" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2554" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2554" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2554" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2554" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2554" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2555" ht="22.5" customHeight="1">
+      <c r="A2555" s="5">
+        <v>46010.34441888889</v>
+      </c>
+      <c r="B2555" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2555" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2555" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2555" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2555" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2555" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2555" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2556" ht="22.5" customHeight="1">
+      <c r="A2556" s="5">
+        <v>46010.344881701385</v>
+      </c>
+      <c r="B2556" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2556" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2556" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2556" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2556" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2556" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2556" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2557" ht="22.5" customHeight="1">
+      <c r="A2557" s="5">
+        <v>46010.34607519676</v>
+      </c>
+      <c r="B2557" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2557" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2557" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2557" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2557" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2557" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2557" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2558" ht="22.5" customHeight="1">
+      <c r="A2558" s="5">
+        <v>46010.34621233796</v>
+      </c>
+      <c r="B2558" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2558" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2558" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2558" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2559" ht="22.5" customHeight="1">
+      <c r="A2559" s="5">
+        <v>46010.34728162037</v>
+      </c>
+      <c r="B2559" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2559" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2559" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2559" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2559" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2559" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2559" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2624">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
+  <conditionalFormatting sqref="D1:D2659">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2624">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
+  <conditionalFormatting sqref="G2:G2659">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2591</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2629</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18138" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18404" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2591" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2591">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2629" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2629">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -68958,13 +68958,1001 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2592" ht="22.5" customHeight="1">
+      <c r="A2592" s="5">
+        <v>46011.644947673616</v>
+      </c>
+      <c r="B2592" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2592" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2592" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2592" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2592" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2592" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2592" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2593" ht="22.5" customHeight="1">
+      <c r="A2593" s="5">
+        <v>46011.64575946759</v>
+      </c>
+      <c r="B2593" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2593" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2593" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2593" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2593" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2593" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2593" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2594" ht="22.5" customHeight="1">
+      <c r="A2594" s="5">
+        <v>46011.64679453704</v>
+      </c>
+      <c r="B2594" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2594" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2594" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2594" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2594" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2594" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2594" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2595" ht="22.5" customHeight="1">
+      <c r="A2595" s="5">
+        <v>46011.64726376157</v>
+      </c>
+      <c r="B2595" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2595" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2595" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2595" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2595" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2595" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2595" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2596" ht="22.5" customHeight="1">
+      <c r="A2596" s="5">
+        <v>46011.64855503472</v>
+      </c>
+      <c r="B2596" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2596" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2596" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2596" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2596" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2596" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2596" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2597" ht="22.5" customHeight="1">
+      <c r="A2597" s="5">
+        <v>46011.65217178241</v>
+      </c>
+      <c r="B2597" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2597" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2597" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2597" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2597" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2597" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2597" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2598" ht="22.5" customHeight="1">
+      <c r="A2598" s="5">
+        <v>46011.65270490741</v>
+      </c>
+      <c r="B2598" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2598" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2598" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2598" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2598" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2598" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2598" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2599" ht="22.5" customHeight="1">
+      <c r="A2599" s="5">
+        <v>46011.65336935185</v>
+      </c>
+      <c r="B2599" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2599" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2599" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2599" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2599" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2599" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2599" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2600" ht="22.5" customHeight="1">
+      <c r="A2600" s="5">
+        <v>46011.65512840278</v>
+      </c>
+      <c r="B2600" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2600" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2600" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2600" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2600" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2600" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2600" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2601" ht="22.5" customHeight="1">
+      <c r="A2601" s="5">
+        <v>46011.655611504626</v>
+      </c>
+      <c r="B2601" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2601" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2601" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2601" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2601" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2601" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2601" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2602" ht="22.5" customHeight="1">
+      <c r="A2602" s="5">
+        <v>46011.65925834491</v>
+      </c>
+      <c r="B2602" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2602" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2602" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2602" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2602" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2602" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2602" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2603" ht="22.5" customHeight="1">
+      <c r="A2603" s="5">
+        <v>46011.65957847222</v>
+      </c>
+      <c r="B2603" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2603" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2603" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2603" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2603" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2603" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2603" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2604" ht="22.5" customHeight="1">
+      <c r="A2604" s="5">
+        <v>46011.659953912036</v>
+      </c>
+      <c r="B2604" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2604" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2604" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2604" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2604" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2604" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2604" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2605" ht="22.5" customHeight="1">
+      <c r="A2605" s="5">
+        <v>46011.66039179398</v>
+      </c>
+      <c r="B2605" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2605" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2605" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2605" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2605" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2605" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2605" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2606" ht="22.5" customHeight="1">
+      <c r="A2606" s="5">
+        <v>46011.66075746527</v>
+      </c>
+      <c r="B2606" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2606" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2606" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2606" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2606" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2606" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2606" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2607" ht="22.5" customHeight="1">
+      <c r="A2607" s="5">
+        <v>46011.661354814816</v>
+      </c>
+      <c r="B2607" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2607" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2607" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2607" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2607" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2607" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2607" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2608" ht="22.5" customHeight="1">
+      <c r="A2608" s="5">
+        <v>46011.66189505787</v>
+      </c>
+      <c r="B2608" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2608" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2608" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2608" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2608" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2608" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2608" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2609" ht="22.5" customHeight="1">
+      <c r="A2609" s="5">
+        <v>46011.66219752315</v>
+      </c>
+      <c r="B2609" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2609" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2609" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2609" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2609" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2609" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2609" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2610" ht="22.5" customHeight="1">
+      <c r="A2610" s="5">
+        <v>46011.662445787035</v>
+      </c>
+      <c r="B2610" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2610" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2610" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2610" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2610" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2610" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2610" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2611" ht="22.5" customHeight="1">
+      <c r="A2611" s="5">
+        <v>46011.662733310186</v>
+      </c>
+      <c r="B2611" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2611" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2611" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2611" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2611" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2611" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2611" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2612" ht="22.5" customHeight="1">
+      <c r="A2612" s="5">
+        <v>46011.66310677084</v>
+      </c>
+      <c r="B2612" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2612" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2612" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2612" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2612" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2612" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2612" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2613" ht="22.5" customHeight="1">
+      <c r="A2613" s="5">
+        <v>46011.663499953705</v>
+      </c>
+      <c r="B2613" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2613" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2613" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2613" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2613" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2613" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2613" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2614" ht="22.5" customHeight="1">
+      <c r="A2614" s="5">
+        <v>46011.66377085648</v>
+      </c>
+      <c r="B2614" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2614" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2614" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2614" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2614" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2614" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2614" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2615" ht="22.5" customHeight="1">
+      <c r="A2615" s="5">
+        <v>46011.664039166666</v>
+      </c>
+      <c r="B2615" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2615" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2615" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2615" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2615" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2615" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2615" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2616" ht="22.5" customHeight="1">
+      <c r="A2616" s="5">
+        <v>46011.66431335648</v>
+      </c>
+      <c r="B2616" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2616" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2616" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2616" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2616" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2616" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2616" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2617" ht="22.5" customHeight="1">
+      <c r="A2617" s="5">
+        <v>46012.406275416666</v>
+      </c>
+      <c r="B2617" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2617" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2617" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2617" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2617" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2617" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2617" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2618" ht="22.5" customHeight="1">
+      <c r="A2618" s="5">
+        <v>46012.40696774305</v>
+      </c>
+      <c r="B2618" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2618" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2618" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2618" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2618" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2618" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2618" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2619" ht="22.5" customHeight="1">
+      <c r="A2619" s="5">
+        <v>46012.40735553241</v>
+      </c>
+      <c r="B2619" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2619" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2619" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2619" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2619" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2619" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2619" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2620" ht="22.5" customHeight="1">
+      <c r="A2620" s="5">
+        <v>46012.407736747686</v>
+      </c>
+      <c r="B2620" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2620" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2620" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2620" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2620" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2620" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2620" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2621" ht="22.5" customHeight="1">
+      <c r="A2621" s="5">
+        <v>46012.40803497685</v>
+      </c>
+      <c r="B2621" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2621" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2621" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2621" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2621" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2621" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2621" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2622" ht="22.5" customHeight="1">
+      <c r="A2622" s="5">
+        <v>46012.408312280095</v>
+      </c>
+      <c r="B2622" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2622" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2622" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2622" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2622" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2622" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2622" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2623" ht="22.5" customHeight="1">
+      <c r="A2623" s="5">
+        <v>46012.408646076394</v>
+      </c>
+      <c r="B2623" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2623" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2623" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2623" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2623" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2623" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2623" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2624" ht="22.5" customHeight="1">
+      <c r="A2624" s="5">
+        <v>46012.409001064814</v>
+      </c>
+      <c r="B2624" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2624" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2624" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2624" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2624" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2624" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2624" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2625" ht="22.5" customHeight="1">
+      <c r="A2625" s="5">
+        <v>46012.409509398145</v>
+      </c>
+      <c r="B2625" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2625" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2625" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2625" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2625" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2625" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2625" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2626" ht="22.5" customHeight="1">
+      <c r="A2626" s="5">
+        <v>46012.409934525465</v>
+      </c>
+      <c r="B2626" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2626" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2626" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2626" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2626" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2626" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2626" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2627" ht="22.5" customHeight="1">
+      <c r="A2627" s="5">
+        <v>46012.410468587965</v>
+      </c>
+      <c r="B2627" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2627" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2627" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2627" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2627" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2627" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2627" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2628" ht="22.5" customHeight="1">
+      <c r="A2628" s="5">
+        <v>46012.41076921296</v>
+      </c>
+      <c r="B2628" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2628" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2628" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2628" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2628" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2628" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2628" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2629" ht="22.5" customHeight="1">
+      <c r="A2629" s="5">
+        <v>46012.41105765046</v>
+      </c>
+      <c r="B2629" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2629" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2629" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2629" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2629" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2629" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2629" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2691">
+  <conditionalFormatting sqref="D1:D2729">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2691">
+  <conditionalFormatting sqref="G2:G2729">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2523</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2591</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17662" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18138" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1199,6 +1199,9 @@
   <si>
     <t>23 gluteo derecho</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 14 pantorrilla derecha, 15 espalda baja</t>
+  </si>
 </sst>
 </file>
 
@@ -1264,16 +1267,6 @@
     <dxf>
       <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
         <patternFill patternType="none"/>
       </fill>
       <border/>
@@ -1324,13 +1317,23 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-      <tableStyleElement dxfId="5" size="0" type="wholeTable"/>
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1341,8 +1344,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2523" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2523"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2591" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2591">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Álvaro fidalgo"/>
+        <filter val="Kevin Alvarez"/>
+        <filter val="Luis Malagon"/>
+        <filter val="Jonathan dos Santos"/>
+        <filter val="Rodrigo Aguirre"/>
+        <filter val="Allan Saint-Maximin"/>
+        <filter val="Alejandro Zendejas"/>
+        <filter val="Henry Martin"/>
+        <filter val="Nestor Araujo"/>
+        <filter val="Israel Reyes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -42914,7 +42932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1591" ht="22.5" hidden="1" customHeight="1">
+    <row r="1591" ht="22.5" customHeight="1">
       <c r="A1591" s="5">
         <v>45881.40468253472</v>
       </c>
@@ -43252,7 +43270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1604" ht="22.5" hidden="1" customHeight="1">
+    <row r="1604" ht="22.5" customHeight="1">
       <c r="A1604" s="5">
         <v>45882.39004302083</v>
       </c>
@@ -43746,7 +43764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1623" ht="22.5" hidden="1" customHeight="1">
+    <row r="1623" ht="22.5" customHeight="1">
       <c r="A1623" s="5">
         <v>45883.374393125</v>
       </c>
@@ -44474,7 +44492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" ht="22.5" hidden="1" customHeight="1">
+    <row r="1651" ht="22.5" customHeight="1">
       <c r="A1651" s="5">
         <v>45884.41920474537</v>
       </c>
@@ -44526,7 +44544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1653" ht="22.5" hidden="1" customHeight="1">
+    <row r="1653" ht="22.5" customHeight="1">
       <c r="A1653" s="5">
         <v>45887.3809612037</v>
       </c>
@@ -44968,7 +44986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1670" ht="22.5" hidden="1" customHeight="1">
+    <row r="1670" ht="22.5" customHeight="1">
       <c r="A1670" s="5">
         <v>45888.39140821759</v>
       </c>
@@ -45592,7 +45610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694" ht="22.5" hidden="1" customHeight="1">
+    <row r="1694" ht="22.5" customHeight="1">
       <c r="A1694" s="5">
         <v>45889.379339872685</v>
       </c>
@@ -46216,7 +46234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1718" ht="22.5" hidden="1" customHeight="1">
+    <row r="1718" ht="22.5" customHeight="1">
       <c r="A1718" s="5">
         <v>45890.392384004634</v>
       </c>
@@ -46840,7 +46858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1742" ht="22.5" hidden="1" customHeight="1">
+    <row r="1742" ht="22.5" customHeight="1">
       <c r="A1742" s="5">
         <v>45891.3899556713</v>
       </c>
@@ -47386,7 +47404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1763" ht="22.5" hidden="1" customHeight="1">
+    <row r="1763" ht="22.5" customHeight="1">
       <c r="A1763" s="5">
         <v>45892.36715967592</v>
       </c>
@@ -47750,7 +47768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1777" ht="22.5" hidden="1" customHeight="1">
+    <row r="1777" ht="22.5" customHeight="1">
       <c r="A1777" s="5">
         <v>45895.38965509259</v>
       </c>
@@ -48062,7 +48080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789" ht="22.5" hidden="1" customHeight="1">
+    <row r="1789" ht="22.5" customHeight="1">
       <c r="A1789" s="5">
         <v>45896.371080972225</v>
       </c>
@@ -48686,7 +48704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1813" ht="22.5" hidden="1" customHeight="1">
+    <row r="1813" ht="22.5" customHeight="1">
       <c r="A1813" s="5">
         <v>45897.380201249995</v>
       </c>
@@ -49310,7 +49328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1837" ht="22.5" hidden="1" customHeight="1">
+    <row r="1837" ht="22.5" customHeight="1">
       <c r="A1837" s="5">
         <v>45898.389731979165</v>
       </c>
@@ -49726,7 +49744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1853" ht="22.5" hidden="1" customHeight="1">
+    <row r="1853" ht="22.5" customHeight="1">
       <c r="A1853" s="5">
         <v>45904.40915924768</v>
       </c>
@@ -49882,7 +49900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1859" ht="22.5" hidden="1" customHeight="1">
+    <row r="1859" ht="22.5" customHeight="1">
       <c r="A1859" s="5">
         <v>45908.398801041665</v>
       </c>
@@ -50428,7 +50446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880" ht="22.5" hidden="1" customHeight="1">
+    <row r="1880" ht="22.5" customHeight="1">
       <c r="A1880" s="5">
         <v>45909.38609510417</v>
       </c>
@@ -50818,7 +50836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895" ht="22.5" hidden="1" customHeight="1">
+    <row r="1895" ht="22.5" customHeight="1">
       <c r="A1895" s="5">
         <v>45910.38872837963</v>
       </c>
@@ -51728,7 +51746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930" ht="22.5" hidden="1" customHeight="1">
+    <row r="1930" ht="22.5" customHeight="1">
       <c r="A1930" s="5">
         <v>45911.399243576394</v>
       </c>
@@ -52170,7 +52188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947" ht="22.5" hidden="1" customHeight="1">
+    <row r="1947" ht="22.5" customHeight="1">
       <c r="A1947" s="5">
         <v>45912.37963631944</v>
       </c>
@@ -52820,7 +52838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972" ht="22.5" hidden="1" customHeight="1">
+    <row r="1972" ht="22.5" customHeight="1">
       <c r="A1972" s="5">
         <v>45915.40587287037</v>
       </c>
@@ -53080,7 +53098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982" ht="22.5" hidden="1" customHeight="1">
+    <row r="1982" ht="22.5" customHeight="1">
       <c r="A1982" s="5">
         <v>45916.39928375</v>
       </c>
@@ -53756,7 +53774,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2008" ht="22.5" hidden="1" customHeight="1">
+    <row r="2008" ht="22.5" customHeight="1">
       <c r="A2008" s="5">
         <v>45917.394830000005</v>
       </c>
@@ -54302,7 +54320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2029" ht="22.5" hidden="1" customHeight="1">
+    <row r="2029" ht="22.5" customHeight="1">
       <c r="A2029" s="5">
         <v>45918.392201863426</v>
       </c>
@@ -54926,7 +54944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2053" ht="22.5" hidden="1" customHeight="1">
+    <row r="2053" ht="22.5" customHeight="1">
       <c r="A2053" s="5">
         <v>45919.38368543981</v>
       </c>
@@ -55394,7 +55412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071" ht="22.5" hidden="1" customHeight="1">
+    <row r="2071" ht="22.5" customHeight="1">
       <c r="A2071" s="5">
         <v>45922.38489828704</v>
       </c>
@@ -55810,7 +55828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2087" ht="22.5" hidden="1" customHeight="1">
+    <row r="2087" ht="22.5" customHeight="1">
       <c r="A2087" s="5">
         <v>45923.38983987269</v>
       </c>
@@ -56408,7 +56426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2110" ht="22.5" hidden="1" customHeight="1">
+    <row r="2110" ht="22.5" customHeight="1">
       <c r="A2110" s="5">
         <v>45926.40699524306</v>
       </c>
@@ -56746,7 +56764,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123" ht="22.5" hidden="1" customHeight="1">
+    <row r="2123" ht="22.5" customHeight="1">
       <c r="A2123" s="5">
         <v>45930.38858100695</v>
       </c>
@@ -57136,7 +57154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138" ht="22.5" hidden="1" customHeight="1">
+    <row r="2138" ht="22.5" customHeight="1">
       <c r="A2138" s="5">
         <v>45931.38799164352</v>
       </c>
@@ -58670,7 +58688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2197" ht="22.5" hidden="1" customHeight="1">
+    <row r="2197" ht="22.5" customHeight="1">
       <c r="A2197" s="5">
         <v>45943.45935690972</v>
       </c>
@@ -58904,7 +58922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2206" ht="22.5" hidden="1" customHeight="1">
+    <row r="2206" ht="22.5" customHeight="1">
       <c r="A2206" s="5">
         <v>45944.382605949075</v>
       </c>
@@ -59346,7 +59364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2223" ht="22.5" hidden="1" customHeight="1">
+    <row r="2223" ht="22.5" customHeight="1">
       <c r="A2223" s="5">
         <v>45947.403554282406</v>
       </c>
@@ -59684,7 +59702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2236" ht="22.5" hidden="1" customHeight="1">
+    <row r="2236" ht="22.5" customHeight="1">
       <c r="A2236" s="5">
         <v>45949.42311469908</v>
       </c>
@@ -60204,7 +60222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2256" ht="22.5" hidden="1" customHeight="1">
+    <row r="2256" ht="22.5" customHeight="1">
       <c r="A2256" s="5">
         <v>45952.38742313658</v>
       </c>
@@ -60568,7 +60586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2270" ht="22.5" hidden="1" customHeight="1">
+    <row r="2270" ht="22.5" customHeight="1">
       <c r="A2270" s="5">
         <v>45953.32561439815</v>
       </c>
@@ -61270,7 +61288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2297" ht="22.5" hidden="1" customHeight="1">
+    <row r="2297" ht="22.5" customHeight="1">
       <c r="A2297" s="5">
         <v>45957.37074780093</v>
       </c>
@@ -61686,7 +61704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313" ht="22.5" hidden="1" customHeight="1">
+    <row r="2313" ht="22.5" customHeight="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -62986,7 +63004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363" ht="22.5" hidden="1" customHeight="1">
+    <row r="2363" ht="22.5" customHeight="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63792,7 +63810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394" ht="22.5" hidden="1" customHeight="1">
+    <row r="2394" ht="22.5" customHeight="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -64442,7 +64460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2419" ht="22.5" hidden="1" customHeight="1">
+    <row r="2419" ht="22.5" customHeight="1">
       <c r="A2419" s="5">
         <v>45967.390986087965</v>
       </c>
@@ -64910,7 +64928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2437" ht="22.5" hidden="1" customHeight="1">
+    <row r="2437" ht="22.5" customHeight="1">
       <c r="A2437" s="5">
         <v>45968.389227569445</v>
       </c>
@@ -65144,7 +65162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2446" ht="22.5" hidden="1" customHeight="1">
+    <row r="2446" ht="22.5" customHeight="1">
       <c r="A2446" s="5">
         <v>45979.38241262731</v>
       </c>
@@ -65534,7 +65552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2461" ht="22.5" hidden="1" customHeight="1">
+    <row r="2461" ht="22.5" customHeight="1">
       <c r="A2461" s="5">
         <v>45980.37654516204</v>
       </c>
@@ -65924,7 +65942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" hidden="1" customHeight="1">
+    <row r="2476" ht="22.5" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -66132,7 +66150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2484" ht="22.5" customHeight="1">
+    <row r="2484" ht="22.5" hidden="1" customHeight="1">
       <c r="A2484" s="5">
         <v>45985.37313903935</v>
       </c>
@@ -66158,7 +66176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2485" ht="22.5" customHeight="1">
+    <row r="2485" ht="22.5" hidden="1" customHeight="1">
       <c r="A2485" s="5">
         <v>45985.37328670139</v>
       </c>
@@ -66184,7 +66202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2486" ht="22.5" customHeight="1">
+    <row r="2486" ht="22.5" hidden="1" customHeight="1">
       <c r="A2486" s="5">
         <v>45985.37347265046</v>
       </c>
@@ -66210,7 +66228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2487" ht="22.5" customHeight="1">
+    <row r="2487" ht="22.5" hidden="1" customHeight="1">
       <c r="A2487" s="5">
         <v>45985.37374943287</v>
       </c>
@@ -66236,7 +66254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2488" ht="22.5" customHeight="1">
+    <row r="2488" ht="22.5" hidden="1" customHeight="1">
       <c r="A2488" s="5">
         <v>45985.38800142361</v>
       </c>
@@ -66262,7 +66280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2489" ht="22.5" customHeight="1">
+    <row r="2489" ht="22.5" hidden="1" customHeight="1">
       <c r="A2489" s="5">
         <v>45985.389600208335</v>
       </c>
@@ -66288,7 +66306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2490" ht="22.5" customHeight="1">
+    <row r="2490" ht="22.5" hidden="1" customHeight="1">
       <c r="A2490" s="5">
         <v>45985.389780196754</v>
       </c>
@@ -66314,7 +66332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2491" ht="22.5" customHeight="1">
+    <row r="2491" ht="22.5" hidden="1" customHeight="1">
       <c r="A2491" s="5">
         <v>45985.3900733912</v>
       </c>
@@ -66340,7 +66358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2492" ht="22.5" customHeight="1">
+    <row r="2492" ht="22.5" hidden="1" customHeight="1">
       <c r="A2492" s="5">
         <v>45985.39057517362</v>
       </c>
@@ -66366,7 +66384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2493" ht="22.5" customHeight="1">
+    <row r="2493" ht="22.5" hidden="1" customHeight="1">
       <c r="A2493" s="5">
         <v>45985.39079627315</v>
       </c>
@@ -66392,7 +66410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2494" ht="22.5" customHeight="1">
+    <row r="2494" ht="22.5" hidden="1" customHeight="1">
       <c r="A2494" s="5">
         <v>45985.39547872685</v>
       </c>
@@ -66418,7 +66436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2495" ht="22.5" customHeight="1">
+    <row r="2495" ht="22.5" hidden="1" customHeight="1">
       <c r="A2495" s="5">
         <v>45985.395632291664</v>
       </c>
@@ -66444,7 +66462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2496" ht="22.5" customHeight="1">
+    <row r="2496" ht="22.5" hidden="1" customHeight="1">
       <c r="A2496" s="5">
         <v>45985.39580758102</v>
       </c>
@@ -66470,7 +66488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2497" ht="22.5" customHeight="1">
+    <row r="2497" ht="22.5" hidden="1" customHeight="1">
       <c r="A2497" s="5">
         <v>45985.39599524306</v>
       </c>
@@ -66496,7 +66514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2498" ht="22.5" customHeight="1">
+    <row r="2498" ht="22.5" hidden="1" customHeight="1">
       <c r="A2498" s="5">
         <v>45985.39622416667</v>
       </c>
@@ -66522,7 +66540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2499" ht="22.5" customHeight="1">
+    <row r="2499" ht="22.5" hidden="1" customHeight="1">
       <c r="A2499" s="5">
         <v>45985.39639915509</v>
       </c>
@@ -66548,7 +66566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2500" ht="22.5" customHeight="1">
+    <row r="2500" ht="22.5" hidden="1" customHeight="1">
       <c r="A2500" s="5">
         <v>45985.39979122685</v>
       </c>
@@ -66574,7 +66592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2501" ht="22.5" customHeight="1">
+    <row r="2501" ht="22.5" hidden="1" customHeight="1">
       <c r="A2501" s="5">
         <v>45985.400279560185</v>
       </c>
@@ -66600,7 +66618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2502" ht="22.5" customHeight="1">
+    <row r="2502" ht="22.5" hidden="1" customHeight="1">
       <c r="A2502" s="5">
         <v>45985.400573217594</v>
       </c>
@@ -66626,7 +66644,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2503" ht="22.5" customHeight="1">
+    <row r="2503" ht="22.5" hidden="1" customHeight="1">
       <c r="A2503" s="5">
         <v>45985.40075596065</v>
       </c>
@@ -66652,7 +66670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2504" ht="22.5" customHeight="1">
+    <row r="2504" ht="22.5" hidden="1" customHeight="1">
       <c r="A2504" s="5">
         <v>45985.40096788194</v>
       </c>
@@ -66678,7 +66696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2505" ht="22.5" customHeight="1">
+    <row r="2505" ht="22.5" hidden="1" customHeight="1">
       <c r="A2505" s="5">
         <v>45986.381360706015</v>
       </c>
@@ -66704,7 +66722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2506" ht="22.5" customHeight="1">
+    <row r="2506" ht="22.5" hidden="1" customHeight="1">
       <c r="A2506" s="5">
         <v>45986.38169416667</v>
       </c>
@@ -66730,7 +66748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2507" ht="22.5" customHeight="1">
+    <row r="2507" ht="22.5" hidden="1" customHeight="1">
       <c r="A2507" s="5">
         <v>45986.384118437505</v>
       </c>
@@ -66756,7 +66774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2508" ht="22.5" customHeight="1">
+    <row r="2508" ht="22.5" hidden="1" customHeight="1">
       <c r="A2508" s="5">
         <v>45986.384317766206</v>
       </c>
@@ -66782,7 +66800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2509" ht="22.5" customHeight="1">
+    <row r="2509" ht="22.5" hidden="1" customHeight="1">
       <c r="A2509" s="5">
         <v>45986.38448778936</v>
       </c>
@@ -66808,7 +66826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2510" ht="22.5" customHeight="1">
+    <row r="2510" ht="22.5" hidden="1" customHeight="1">
       <c r="A2510" s="5">
         <v>45986.385220729164</v>
       </c>
@@ -66834,7 +66852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2511" ht="22.5" customHeight="1">
+    <row r="2511" ht="22.5" hidden="1" customHeight="1">
       <c r="A2511" s="5">
         <v>45986.38732739583</v>
       </c>
@@ -66860,7 +66878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2512" ht="22.5" customHeight="1">
+    <row r="2512" ht="22.5" hidden="1" customHeight="1">
       <c r="A2512" s="5">
         <v>45986.38755190972</v>
       </c>
@@ -66886,7 +66904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2513" ht="22.5" customHeight="1">
+    <row r="2513" ht="22.5" hidden="1" customHeight="1">
       <c r="A2513" s="5">
         <v>45986.38784972222</v>
       </c>
@@ -66912,7 +66930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2514" ht="22.5" customHeight="1">
+    <row r="2514" ht="22.5" hidden="1" customHeight="1">
       <c r="A2514" s="5">
         <v>45986.38808230324</v>
       </c>
@@ -66938,7 +66956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2515" ht="22.5" customHeight="1">
+    <row r="2515" ht="22.5" hidden="1" customHeight="1">
       <c r="A2515" s="5">
         <v>45986.38828114583</v>
       </c>
@@ -66964,7 +66982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2516" ht="22.5" customHeight="1">
+    <row r="2516" ht="22.5" hidden="1" customHeight="1">
       <c r="A2516" s="5">
         <v>45986.38929590277</v>
       </c>
@@ -66990,7 +67008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2517" ht="22.5" customHeight="1">
+    <row r="2517" ht="22.5" hidden="1" customHeight="1">
       <c r="A2517" s="5">
         <v>45986.38943311342</v>
       </c>
@@ -67016,7 +67034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2518" ht="22.5" customHeight="1">
+    <row r="2518" ht="22.5" hidden="1" customHeight="1">
       <c r="A2518" s="5">
         <v>45986.39645888889</v>
       </c>
@@ -67042,7 +67060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2519" ht="22.5" customHeight="1">
+    <row r="2519" ht="22.5" hidden="1" customHeight="1">
       <c r="A2519" s="5">
         <v>45986.39661427084</v>
       </c>
@@ -67068,7 +67086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2520" ht="22.5" customHeight="1">
+    <row r="2520" ht="22.5" hidden="1" customHeight="1">
       <c r="A2520" s="5">
         <v>45986.40569484954</v>
       </c>
@@ -67094,7 +67112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2521" ht="22.5" customHeight="1">
+    <row r="2521" ht="22.5" hidden="1" customHeight="1">
       <c r="A2521" s="5">
         <v>45986.406333946754</v>
       </c>
@@ -67120,7 +67138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2522" ht="22.5" customHeight="1">
+    <row r="2522" ht="22.5" hidden="1" customHeight="1">
       <c r="A2522" s="5">
         <v>45986.406483252315</v>
       </c>
@@ -67146,7 +67164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2523" ht="22.5" customHeight="1">
+    <row r="2523" ht="22.5" hidden="1" customHeight="1">
       <c r="A2523" s="5">
         <v>45986.40677638889</v>
       </c>
@@ -67172,14 +67190,1782 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2524" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2524" s="5">
+        <v>46008.50118107639</v>
+      </c>
+      <c r="B2524" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2524" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2524" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2524" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2524" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2524" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2524" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2525" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2525" s="5">
+        <v>46009.63071359954</v>
+      </c>
+      <c r="B2525" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2525" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2525" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2525" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2525" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2525" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2525" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2526" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2526" s="5">
+        <v>46009.63157017361</v>
+      </c>
+      <c r="B2526" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2526" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2526" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2526" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2526" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2526" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2526" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2527" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2527" s="5">
+        <v>46009.63196967593</v>
+      </c>
+      <c r="B2527" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2527" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2527" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2527" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2527" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2528" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2528" s="5">
+        <v>46009.63219956019</v>
+      </c>
+      <c r="B2528" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2528" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2528" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2528" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2528" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2529" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2529" s="5">
+        <v>46009.63250756945</v>
+      </c>
+      <c r="B2529" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2529" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2529" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2529" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2529" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2529" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2529" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2530" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2530" s="5">
+        <v>46009.633614328704</v>
+      </c>
+      <c r="B2530" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2530" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2530" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2530" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2530" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2531" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2531" s="5">
+        <v>46009.63377163194</v>
+      </c>
+      <c r="B2531" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2531" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2531" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2531" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2531" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2531" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2531" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2532" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2532" s="5">
+        <v>46009.63467008102</v>
+      </c>
+      <c r="B2532" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2532" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2532" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2532" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2532" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2532" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2532" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2533" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2533" s="5">
+        <v>46009.63540960648</v>
+      </c>
+      <c r="B2533" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2533" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2533" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2533" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2533" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2533" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2533" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2534" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2534" s="5">
+        <v>46009.63556296296</v>
+      </c>
+      <c r="B2534" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2534" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2534" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2534" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2534" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2534" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2534" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2535" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2535" s="5">
+        <v>46009.63616807871</v>
+      </c>
+      <c r="B2535" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2535" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2535" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2535" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2535" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2535" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2535" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2536" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2536" s="5">
+        <v>46009.64010440972</v>
+      </c>
+      <c r="B2536" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2536" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2536" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2536" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2536" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2536" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2536" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2537" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2537" s="5">
+        <v>46009.640328043984</v>
+      </c>
+      <c r="B2537" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2537" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2537" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2537" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2537" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2537" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2537" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2538" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2538" s="5">
+        <v>46009.64048443287</v>
+      </c>
+      <c r="B2538" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2538" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2538" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2538" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2538" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2538" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2538" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2539" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2539" s="5">
+        <v>46009.64063076389</v>
+      </c>
+      <c r="B2539" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2539" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2539" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2539" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2539" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2539" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2539" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2540" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2540" s="5">
+        <v>46009.640842187495</v>
+      </c>
+      <c r="B2540" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2540" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2540" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2540" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2540" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2540" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2540" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2541" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2541" s="5">
+        <v>46009.64235283565</v>
+      </c>
+      <c r="B2541" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2541" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2541" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2541" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2541" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2542" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2542" s="5">
+        <v>46010.33907607639</v>
+      </c>
+      <c r="B2542" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2542" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2542" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2542" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2542" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2542" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2542" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2543" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2543" s="5">
+        <v>46010.33984688658</v>
+      </c>
+      <c r="B2543" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2543" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2543" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2543" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2543" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2544" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2544" s="5">
+        <v>46010.34017599537</v>
+      </c>
+      <c r="B2544" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2544" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2544" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2544" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2544" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2545" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2545" s="5">
+        <v>46010.34057917824</v>
+      </c>
+      <c r="B2545" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2545" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2545" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2545" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2545" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2545" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2545" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2546" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2546" s="5">
+        <v>46010.340764594905</v>
+      </c>
+      <c r="B2546" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2546" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2546" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2546" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2547" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2547" s="5">
+        <v>46010.34091508102</v>
+      </c>
+      <c r="B2547" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2547" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2547" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2547" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2547" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2547" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2547" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2548" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2548" s="5">
+        <v>46010.34207900463</v>
+      </c>
+      <c r="B2548" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2548" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2548" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2548" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2548" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2549" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2549" s="5">
+        <v>46010.34233159722</v>
+      </c>
+      <c r="B2549" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2549" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2549" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2549" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2549" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2549" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2549" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2550" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2550" s="5">
+        <v>46010.342462002314</v>
+      </c>
+      <c r="B2550" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2550" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2550" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2550" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2550" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2551" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2551" s="5">
+        <v>46010.34270541667</v>
+      </c>
+      <c r="B2551" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2551" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2551" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2551" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2551" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2552" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2552" s="5">
+        <v>46010.342964571755</v>
+      </c>
+      <c r="B2552" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2552" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2552" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2552" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2553" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2553" s="5">
+        <v>46010.34317388889</v>
+      </c>
+      <c r="B2553" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2553" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2553" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2553" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2554" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2554" s="5">
+        <v>46010.344093657404</v>
+      </c>
+      <c r="B2554" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2554" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2554" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2554" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2554" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2554" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2554" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2555" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2555" s="5">
+        <v>46010.34441888889</v>
+      </c>
+      <c r="B2555" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2555" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2555" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2555" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2555" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2555" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2555" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2556" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2556" s="5">
+        <v>46010.344881701385</v>
+      </c>
+      <c r="B2556" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2556" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2556" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2556" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2556" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2556" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2556" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2557" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2557" s="5">
+        <v>46010.34607519676</v>
+      </c>
+      <c r="B2557" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2557" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2557" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2557" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2557" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2557" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2557" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2558" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2558" s="5">
+        <v>46010.34621233796</v>
+      </c>
+      <c r="B2558" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2558" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2558" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2558" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2559" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2559" s="5">
+        <v>46010.34728162037</v>
+      </c>
+      <c r="B2559" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2559" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2559" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2559" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2559" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2559" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2559" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2560" ht="22.5" customHeight="1">
+      <c r="A2560" s="5">
+        <v>46010.6586277662</v>
+      </c>
+      <c r="B2560" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2560" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2560" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2560" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2560" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2560" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2560" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2561" ht="22.5" customHeight="1">
+      <c r="A2561" s="5">
+        <v>46010.6602537037</v>
+      </c>
+      <c r="B2561" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2561" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2561" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2561" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2561" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2561" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2561" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2562" ht="22.5" customHeight="1">
+      <c r="A2562" s="5">
+        <v>46010.68708289352</v>
+      </c>
+      <c r="B2562" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2562" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2562" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2562" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2562" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2562" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2562" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2563" ht="22.5" customHeight="1">
+      <c r="A2563" s="5">
+        <v>46010.68727944445</v>
+      </c>
+      <c r="B2563" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2563" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2563" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2563" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2563" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2563" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2563" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2564" ht="22.5" customHeight="1">
+      <c r="A2564" s="5">
+        <v>46010.68803590278</v>
+      </c>
+      <c r="B2564" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2564" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2564" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2564" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2564" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2564" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2564" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2565" ht="22.5" customHeight="1">
+      <c r="A2565" s="5">
+        <v>46010.68818315973</v>
+      </c>
+      <c r="B2565" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2565" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2565" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2565" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2565" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2565" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2565" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2566" ht="22.5" customHeight="1">
+      <c r="A2566" s="5">
+        <v>46010.689745069445</v>
+      </c>
+      <c r="B2566" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2566" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2566" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2566" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2566" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2566" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2566" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2567" ht="22.5" customHeight="1">
+      <c r="A2567" s="5">
+        <v>46010.689891331014</v>
+      </c>
+      <c r="B2567" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2567" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2567" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2567" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2567" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2567" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2567" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2568" ht="22.5" customHeight="1">
+      <c r="A2568" s="5">
+        <v>46010.698468726856</v>
+      </c>
+      <c r="B2568" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2568" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2568" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2568" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2568" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2568" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2568" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2569" ht="22.5" customHeight="1">
+      <c r="A2569" s="5">
+        <v>46010.69863162037</v>
+      </c>
+      <c r="B2569" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2569" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2569" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2569" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2569" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2569" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2569" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2570" ht="22.5" customHeight="1">
+      <c r="A2570" s="5">
+        <v>46010.69886758101</v>
+      </c>
+      <c r="B2570" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2570" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2570" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2570" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2570" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2570" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2570" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2571" ht="22.5" customHeight="1">
+      <c r="A2571" s="5">
+        <v>46010.702832106486</v>
+      </c>
+      <c r="B2571" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2571" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2571" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2571" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2571" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2571" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2571" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2572" ht="22.5" customHeight="1">
+      <c r="A2572" s="5">
+        <v>46010.70299414352</v>
+      </c>
+      <c r="B2572" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2572" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2572" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2572" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2572" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2572" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2572" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2573" ht="22.5" customHeight="1">
+      <c r="A2573" s="5">
+        <v>46010.70315818287</v>
+      </c>
+      <c r="B2573" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2573" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2573" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2573" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2573" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2573" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2573" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2574" ht="22.5" customHeight="1">
+      <c r="A2574" s="5">
+        <v>46011.36116439815</v>
+      </c>
+      <c r="B2574" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2574" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2574" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2574" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2574" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2574" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2574" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2575" ht="22.5" customHeight="1">
+      <c r="A2575" s="5">
+        <v>46011.36194297454</v>
+      </c>
+      <c r="B2575" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2575" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2575" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2575" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2575" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2575" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2575" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2576" ht="22.5" customHeight="1">
+      <c r="A2576" s="5">
+        <v>46011.36257939815</v>
+      </c>
+      <c r="B2576" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2576" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2576" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2576" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2576" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2576" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2576" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2577" ht="22.5" customHeight="1">
+      <c r="A2577" s="5">
+        <v>46011.36303930556</v>
+      </c>
+      <c r="B2577" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2577" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2577" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2577" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2577" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2577" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2577" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2578" ht="22.5" customHeight="1">
+      <c r="A2578" s="5">
+        <v>46011.36370047454</v>
+      </c>
+      <c r="B2578" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2578" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2578" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2578" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2578" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2578" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2578" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2579" ht="22.5" customHeight="1">
+      <c r="A2579" s="5">
+        <v>46011.364157986114</v>
+      </c>
+      <c r="B2579" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2579" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2579" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2579" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2579" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2579" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2579" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2580" ht="22.5" customHeight="1">
+      <c r="A2580" s="5">
+        <v>46011.36491052083</v>
+      </c>
+      <c r="B2580" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2580" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2580" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2580" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2580" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2580" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2580" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2581" ht="22.5" customHeight="1">
+      <c r="A2581" s="5">
+        <v>46011.36641270833</v>
+      </c>
+      <c r="B2581" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2581" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2581" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2581" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2581" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2581" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2581" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2582" ht="22.5" customHeight="1">
+      <c r="A2582" s="5">
+        <v>46011.36754990741</v>
+      </c>
+      <c r="B2582" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2582" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2582" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2582" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2582" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2582" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2582" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2583" ht="22.5" customHeight="1">
+      <c r="A2583" s="5">
+        <v>46011.3680284375</v>
+      </c>
+      <c r="B2583" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2583" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2583" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2583" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2583" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2583" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2583" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2584" ht="22.5" customHeight="1">
+      <c r="A2584" s="5">
+        <v>46011.36899107639</v>
+      </c>
+      <c r="B2584" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2584" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2584" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2584" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2584" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2584" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2584" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2585" ht="22.5" customHeight="1">
+      <c r="A2585" s="5">
+        <v>46011.36956982639</v>
+      </c>
+      <c r="B2585" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2585" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2585" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2585" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2585" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2585" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2585" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2586" ht="22.5" customHeight="1">
+      <c r="A2586" s="5">
+        <v>46011.36990143519</v>
+      </c>
+      <c r="B2586" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2586" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2586" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2586" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2586" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2586" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2586" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2587" ht="22.5" customHeight="1">
+      <c r="A2587" s="5">
+        <v>46011.37083474537</v>
+      </c>
+      <c r="B2587" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2587" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2587" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2587" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2587" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2587" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2587" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2588" ht="22.5" customHeight="1">
+      <c r="A2588" s="5">
+        <v>46011.37155277778</v>
+      </c>
+      <c r="B2588" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2588" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2588" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2588" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2588" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2588" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2588" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2589" ht="22.5" customHeight="1">
+      <c r="A2589" s="5">
+        <v>46011.37188224537</v>
+      </c>
+      <c r="B2589" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2589" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2589" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2589" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2589" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2589" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2589" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2590" ht="22.5" customHeight="1">
+      <c r="A2590" s="5">
+        <v>46011.37250920139</v>
+      </c>
+      <c r="B2590" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2590" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2590" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2590" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2590" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2590" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2590" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2591" ht="22.5" customHeight="1">
+      <c r="A2591" s="5">
+        <v>46011.37290135417</v>
+      </c>
+      <c r="B2591" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2591" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2591" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2591" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2591" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2591" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2591" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2623">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
+  <conditionalFormatting sqref="D1:D2691">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2623">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="adolorido">
+  <conditionalFormatting sqref="G2:G2691">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2629</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2662</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18404" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18635" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2629" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2629">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2662" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2662">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -42932,7 +42932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1591" ht="22.5" customHeight="1">
+    <row r="1591" ht="22.5" hidden="1" customHeight="1">
       <c r="A1591" s="5">
         <v>45881.40468253472</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1604" ht="22.5" customHeight="1">
+    <row r="1604" ht="22.5" hidden="1" customHeight="1">
       <c r="A1604" s="5">
         <v>45882.39004302083</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1623" ht="22.5" customHeight="1">
+    <row r="1623" ht="22.5" hidden="1" customHeight="1">
       <c r="A1623" s="5">
         <v>45883.374393125</v>
       </c>
@@ -44492,7 +44492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" ht="22.5" customHeight="1">
+    <row r="1651" ht="22.5" hidden="1" customHeight="1">
       <c r="A1651" s="5">
         <v>45884.41920474537</v>
       </c>
@@ -44544,7 +44544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1653" ht="22.5" customHeight="1">
+    <row r="1653" ht="22.5" hidden="1" customHeight="1">
       <c r="A1653" s="5">
         <v>45887.3809612037</v>
       </c>
@@ -44986,7 +44986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1670" ht="22.5" customHeight="1">
+    <row r="1670" ht="22.5" hidden="1" customHeight="1">
       <c r="A1670" s="5">
         <v>45888.39140821759</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694" ht="22.5" customHeight="1">
+    <row r="1694" ht="22.5" hidden="1" customHeight="1">
       <c r="A1694" s="5">
         <v>45889.379339872685</v>
       </c>
@@ -46234,7 +46234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1718" ht="22.5" customHeight="1">
+    <row r="1718" ht="22.5" hidden="1" customHeight="1">
       <c r="A1718" s="5">
         <v>45890.392384004634</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1742" ht="22.5" customHeight="1">
+    <row r="1742" ht="22.5" hidden="1" customHeight="1">
       <c r="A1742" s="5">
         <v>45891.3899556713</v>
       </c>
@@ -47404,7 +47404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1763" ht="22.5" customHeight="1">
+    <row r="1763" ht="22.5" hidden="1" customHeight="1">
       <c r="A1763" s="5">
         <v>45892.36715967592</v>
       </c>
@@ -47768,7 +47768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1777" ht="22.5" customHeight="1">
+    <row r="1777" ht="22.5" hidden="1" customHeight="1">
       <c r="A1777" s="5">
         <v>45895.38965509259</v>
       </c>
@@ -48080,7 +48080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789" ht="22.5" customHeight="1">
+    <row r="1789" ht="22.5" hidden="1" customHeight="1">
       <c r="A1789" s="5">
         <v>45896.371080972225</v>
       </c>
@@ -48704,7 +48704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1813" ht="22.5" customHeight="1">
+    <row r="1813" ht="22.5" hidden="1" customHeight="1">
       <c r="A1813" s="5">
         <v>45897.380201249995</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1837" ht="22.5" customHeight="1">
+    <row r="1837" ht="22.5" hidden="1" customHeight="1">
       <c r="A1837" s="5">
         <v>45898.389731979165</v>
       </c>
@@ -49744,7 +49744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1853" ht="22.5" customHeight="1">
+    <row r="1853" ht="22.5" hidden="1" customHeight="1">
       <c r="A1853" s="5">
         <v>45904.40915924768</v>
       </c>
@@ -49900,7 +49900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1859" ht="22.5" customHeight="1">
+    <row r="1859" ht="22.5" hidden="1" customHeight="1">
       <c r="A1859" s="5">
         <v>45908.398801041665</v>
       </c>
@@ -50446,7 +50446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880" ht="22.5" customHeight="1">
+    <row r="1880" ht="22.5" hidden="1" customHeight="1">
       <c r="A1880" s="5">
         <v>45909.38609510417</v>
       </c>
@@ -50836,7 +50836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895" ht="22.5" customHeight="1">
+    <row r="1895" ht="22.5" hidden="1" customHeight="1">
       <c r="A1895" s="5">
         <v>45910.38872837963</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930" ht="22.5" customHeight="1">
+    <row r="1930" ht="22.5" hidden="1" customHeight="1">
       <c r="A1930" s="5">
         <v>45911.399243576394</v>
       </c>
@@ -52188,7 +52188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947" ht="22.5" customHeight="1">
+    <row r="1947" ht="22.5" hidden="1" customHeight="1">
       <c r="A1947" s="5">
         <v>45912.37963631944</v>
       </c>
@@ -52838,7 +52838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972" ht="22.5" customHeight="1">
+    <row r="1972" ht="22.5" hidden="1" customHeight="1">
       <c r="A1972" s="5">
         <v>45915.40587287037</v>
       </c>
@@ -53098,7 +53098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982" ht="22.5" customHeight="1">
+    <row r="1982" ht="22.5" hidden="1" customHeight="1">
       <c r="A1982" s="5">
         <v>45916.39928375</v>
       </c>
@@ -53774,7 +53774,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2008" ht="22.5" customHeight="1">
+    <row r="2008" ht="22.5" hidden="1" customHeight="1">
       <c r="A2008" s="5">
         <v>45917.394830000005</v>
       </c>
@@ -54320,7 +54320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2029" ht="22.5" customHeight="1">
+    <row r="2029" ht="22.5" hidden="1" customHeight="1">
       <c r="A2029" s="5">
         <v>45918.392201863426</v>
       </c>
@@ -54944,7 +54944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2053" ht="22.5" customHeight="1">
+    <row r="2053" ht="22.5" hidden="1" customHeight="1">
       <c r="A2053" s="5">
         <v>45919.38368543981</v>
       </c>
@@ -55412,7 +55412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071" ht="22.5" customHeight="1">
+    <row r="2071" ht="22.5" hidden="1" customHeight="1">
       <c r="A2071" s="5">
         <v>45922.38489828704</v>
       </c>
@@ -55828,7 +55828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2087" ht="22.5" customHeight="1">
+    <row r="2087" ht="22.5" hidden="1" customHeight="1">
       <c r="A2087" s="5">
         <v>45923.38983987269</v>
       </c>
@@ -56426,7 +56426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2110" ht="22.5" customHeight="1">
+    <row r="2110" ht="22.5" hidden="1" customHeight="1">
       <c r="A2110" s="5">
         <v>45926.40699524306</v>
       </c>
@@ -56764,7 +56764,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123" ht="22.5" customHeight="1">
+    <row r="2123" ht="22.5" hidden="1" customHeight="1">
       <c r="A2123" s="5">
         <v>45930.38858100695</v>
       </c>
@@ -57154,7 +57154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138" ht="22.5" customHeight="1">
+    <row r="2138" ht="22.5" hidden="1" customHeight="1">
       <c r="A2138" s="5">
         <v>45931.38799164352</v>
       </c>
@@ -58688,7 +58688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2197" ht="22.5" customHeight="1">
+    <row r="2197" ht="22.5" hidden="1" customHeight="1">
       <c r="A2197" s="5">
         <v>45943.45935690972</v>
       </c>
@@ -58922,7 +58922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2206" ht="22.5" customHeight="1">
+    <row r="2206" ht="22.5" hidden="1" customHeight="1">
       <c r="A2206" s="5">
         <v>45944.382605949075</v>
       </c>
@@ -59364,7 +59364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2223" ht="22.5" customHeight="1">
+    <row r="2223" ht="22.5" hidden="1" customHeight="1">
       <c r="A2223" s="5">
         <v>45947.403554282406</v>
       </c>
@@ -59702,7 +59702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2236" ht="22.5" customHeight="1">
+    <row r="2236" ht="22.5" hidden="1" customHeight="1">
       <c r="A2236" s="5">
         <v>45949.42311469908</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2256" ht="22.5" customHeight="1">
+    <row r="2256" ht="22.5" hidden="1" customHeight="1">
       <c r="A2256" s="5">
         <v>45952.38742313658</v>
       </c>
@@ -60586,7 +60586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2270" ht="22.5" customHeight="1">
+    <row r="2270" ht="22.5" hidden="1" customHeight="1">
       <c r="A2270" s="5">
         <v>45953.32561439815</v>
       </c>
@@ -61288,7 +61288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2297" ht="22.5" customHeight="1">
+    <row r="2297" ht="22.5" hidden="1" customHeight="1">
       <c r="A2297" s="5">
         <v>45957.37074780093</v>
       </c>
@@ -61704,7 +61704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313" ht="22.5" customHeight="1">
+    <row r="2313" ht="22.5" hidden="1" customHeight="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -63004,7 +63004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363" ht="22.5" customHeight="1">
+    <row r="2363" ht="22.5" hidden="1" customHeight="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63810,7 +63810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394" ht="22.5" customHeight="1">
+    <row r="2394" ht="22.5" hidden="1" customHeight="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -64460,7 +64460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2419" ht="22.5" customHeight="1">
+    <row r="2419" ht="22.5" hidden="1" customHeight="1">
       <c r="A2419" s="5">
         <v>45967.390986087965</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2437" ht="22.5" customHeight="1">
+    <row r="2437" ht="22.5" hidden="1" customHeight="1">
       <c r="A2437" s="5">
         <v>45968.389227569445</v>
       </c>
@@ -65162,7 +65162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2446" ht="22.5" customHeight="1">
+    <row r="2446" ht="22.5" hidden="1" customHeight="1">
       <c r="A2446" s="5">
         <v>45979.38241262731</v>
       </c>
@@ -65552,7 +65552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2461" ht="22.5" customHeight="1">
+    <row r="2461" ht="22.5" hidden="1" customHeight="1">
       <c r="A2461" s="5">
         <v>45980.37654516204</v>
       </c>
@@ -65942,7 +65942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" customHeight="1">
+    <row r="2476" ht="22.5" hidden="1" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -68126,7 +68126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2560" ht="22.5" customHeight="1">
+    <row r="2560" ht="22.5" hidden="1" customHeight="1">
       <c r="A2560" s="5">
         <v>46010.6586277662</v>
       </c>
@@ -68152,7 +68152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2561" ht="22.5" customHeight="1">
+    <row r="2561" ht="22.5" hidden="1" customHeight="1">
       <c r="A2561" s="5">
         <v>46010.6602537037</v>
       </c>
@@ -68178,7 +68178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2562" ht="22.5" customHeight="1">
+    <row r="2562" ht="22.5" hidden="1" customHeight="1">
       <c r="A2562" s="5">
         <v>46010.68708289352</v>
       </c>
@@ -68204,7 +68204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2563" ht="22.5" customHeight="1">
+    <row r="2563" ht="22.5" hidden="1" customHeight="1">
       <c r="A2563" s="5">
         <v>46010.68727944445</v>
       </c>
@@ -68230,7 +68230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2564" ht="22.5" customHeight="1">
+    <row r="2564" ht="22.5" hidden="1" customHeight="1">
       <c r="A2564" s="5">
         <v>46010.68803590278</v>
       </c>
@@ -68256,7 +68256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2565" ht="22.5" customHeight="1">
+    <row r="2565" ht="22.5" hidden="1" customHeight="1">
       <c r="A2565" s="5">
         <v>46010.68818315973</v>
       </c>
@@ -68282,7 +68282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2566" ht="22.5" customHeight="1">
+    <row r="2566" ht="22.5" hidden="1" customHeight="1">
       <c r="A2566" s="5">
         <v>46010.689745069445</v>
       </c>
@@ -68308,7 +68308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2567" ht="22.5" customHeight="1">
+    <row r="2567" ht="22.5" hidden="1" customHeight="1">
       <c r="A2567" s="5">
         <v>46010.689891331014</v>
       </c>
@@ -68334,7 +68334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2568" ht="22.5" customHeight="1">
+    <row r="2568" ht="22.5" hidden="1" customHeight="1">
       <c r="A2568" s="5">
         <v>46010.698468726856</v>
       </c>
@@ -68360,7 +68360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2569" ht="22.5" customHeight="1">
+    <row r="2569" ht="22.5" hidden="1" customHeight="1">
       <c r="A2569" s="5">
         <v>46010.69863162037</v>
       </c>
@@ -68386,7 +68386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2570" ht="22.5" customHeight="1">
+    <row r="2570" ht="22.5" hidden="1" customHeight="1">
       <c r="A2570" s="5">
         <v>46010.69886758101</v>
       </c>
@@ -68412,7 +68412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2571" ht="22.5" customHeight="1">
+    <row r="2571" ht="22.5" hidden="1" customHeight="1">
       <c r="A2571" s="5">
         <v>46010.702832106486</v>
       </c>
@@ -68438,7 +68438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2572" ht="22.5" customHeight="1">
+    <row r="2572" ht="22.5" hidden="1" customHeight="1">
       <c r="A2572" s="5">
         <v>46010.70299414352</v>
       </c>
@@ -68464,7 +68464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2573" ht="22.5" customHeight="1">
+    <row r="2573" ht="22.5" hidden="1" customHeight="1">
       <c r="A2573" s="5">
         <v>46010.70315818287</v>
       </c>
@@ -68490,7 +68490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2574" ht="22.5" customHeight="1">
+    <row r="2574" ht="22.5" hidden="1" customHeight="1">
       <c r="A2574" s="5">
         <v>46011.36116439815</v>
       </c>
@@ -68516,7 +68516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2575" ht="22.5" customHeight="1">
+    <row r="2575" ht="22.5" hidden="1" customHeight="1">
       <c r="A2575" s="5">
         <v>46011.36194297454</v>
       </c>
@@ -68542,7 +68542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2576" ht="22.5" customHeight="1">
+    <row r="2576" ht="22.5" hidden="1" customHeight="1">
       <c r="A2576" s="5">
         <v>46011.36257939815</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2577" ht="22.5" customHeight="1">
+    <row r="2577" ht="22.5" hidden="1" customHeight="1">
       <c r="A2577" s="5">
         <v>46011.36303930556</v>
       </c>
@@ -68594,7 +68594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2578" ht="22.5" customHeight="1">
+    <row r="2578" ht="22.5" hidden="1" customHeight="1">
       <c r="A2578" s="5">
         <v>46011.36370047454</v>
       </c>
@@ -68620,7 +68620,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2579" ht="22.5" customHeight="1">
+    <row r="2579" ht="22.5" hidden="1" customHeight="1">
       <c r="A2579" s="5">
         <v>46011.364157986114</v>
       </c>
@@ -68646,7 +68646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2580" ht="22.5" customHeight="1">
+    <row r="2580" ht="22.5" hidden="1" customHeight="1">
       <c r="A2580" s="5">
         <v>46011.36491052083</v>
       </c>
@@ -68672,7 +68672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2581" ht="22.5" customHeight="1">
+    <row r="2581" ht="22.5" hidden="1" customHeight="1">
       <c r="A2581" s="5">
         <v>46011.36641270833</v>
       </c>
@@ -68698,7 +68698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2582" ht="22.5" customHeight="1">
+    <row r="2582" ht="22.5" hidden="1" customHeight="1">
       <c r="A2582" s="5">
         <v>46011.36754990741</v>
       </c>
@@ -68724,7 +68724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2583" ht="22.5" customHeight="1">
+    <row r="2583" ht="22.5" hidden="1" customHeight="1">
       <c r="A2583" s="5">
         <v>46011.3680284375</v>
       </c>
@@ -68750,7 +68750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2584" ht="22.5" customHeight="1">
+    <row r="2584" ht="22.5" hidden="1" customHeight="1">
       <c r="A2584" s="5">
         <v>46011.36899107639</v>
       </c>
@@ -68776,7 +68776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2585" ht="22.5" customHeight="1">
+    <row r="2585" ht="22.5" hidden="1" customHeight="1">
       <c r="A2585" s="5">
         <v>46011.36956982639</v>
       </c>
@@ -68802,7 +68802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2586" ht="22.5" customHeight="1">
+    <row r="2586" ht="22.5" hidden="1" customHeight="1">
       <c r="A2586" s="5">
         <v>46011.36990143519</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2587" ht="22.5" customHeight="1">
+    <row r="2587" ht="22.5" hidden="1" customHeight="1">
       <c r="A2587" s="5">
         <v>46011.37083474537</v>
       </c>
@@ -68854,7 +68854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2588" ht="22.5" customHeight="1">
+    <row r="2588" ht="22.5" hidden="1" customHeight="1">
       <c r="A2588" s="5">
         <v>46011.37155277778</v>
       </c>
@@ -68880,7 +68880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2589" ht="22.5" customHeight="1">
+    <row r="2589" ht="22.5" hidden="1" customHeight="1">
       <c r="A2589" s="5">
         <v>46011.37188224537</v>
       </c>
@@ -68906,7 +68906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2590" ht="22.5" customHeight="1">
+    <row r="2590" ht="22.5" hidden="1" customHeight="1">
       <c r="A2590" s="5">
         <v>46011.37250920139</v>
       </c>
@@ -68932,7 +68932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2591" ht="22.5" customHeight="1">
+    <row r="2591" ht="22.5" hidden="1" customHeight="1">
       <c r="A2591" s="5">
         <v>46011.37290135417</v>
       </c>
@@ -68958,7 +68958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2592" ht="22.5" customHeight="1">
+    <row r="2592" ht="22.5" hidden="1" customHeight="1">
       <c r="A2592" s="5">
         <v>46011.644947673616</v>
       </c>
@@ -68984,7 +68984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2593" ht="22.5" customHeight="1">
+    <row r="2593" ht="22.5" hidden="1" customHeight="1">
       <c r="A2593" s="5">
         <v>46011.64575946759</v>
       </c>
@@ -69010,7 +69010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2594" ht="22.5" customHeight="1">
+    <row r="2594" ht="22.5" hidden="1" customHeight="1">
       <c r="A2594" s="5">
         <v>46011.64679453704</v>
       </c>
@@ -69036,7 +69036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2595" ht="22.5" customHeight="1">
+    <row r="2595" ht="22.5" hidden="1" customHeight="1">
       <c r="A2595" s="5">
         <v>46011.64726376157</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2596" ht="22.5" customHeight="1">
+    <row r="2596" ht="22.5" hidden="1" customHeight="1">
       <c r="A2596" s="5">
         <v>46011.64855503472</v>
       </c>
@@ -69088,7 +69088,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2597" ht="22.5" customHeight="1">
+    <row r="2597" ht="22.5" hidden="1" customHeight="1">
       <c r="A2597" s="5">
         <v>46011.65217178241</v>
       </c>
@@ -69114,7 +69114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2598" ht="22.5" customHeight="1">
+    <row r="2598" ht="22.5" hidden="1" customHeight="1">
       <c r="A2598" s="5">
         <v>46011.65270490741</v>
       </c>
@@ -69140,7 +69140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2599" ht="22.5" customHeight="1">
+    <row r="2599" ht="22.5" hidden="1" customHeight="1">
       <c r="A2599" s="5">
         <v>46011.65336935185</v>
       </c>
@@ -69166,7 +69166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2600" ht="22.5" customHeight="1">
+    <row r="2600" ht="22.5" hidden="1" customHeight="1">
       <c r="A2600" s="5">
         <v>46011.65512840278</v>
       </c>
@@ -69192,7 +69192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2601" ht="22.5" customHeight="1">
+    <row r="2601" ht="22.5" hidden="1" customHeight="1">
       <c r="A2601" s="5">
         <v>46011.655611504626</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2602" ht="22.5" customHeight="1">
+    <row r="2602" ht="22.5" hidden="1" customHeight="1">
       <c r="A2602" s="5">
         <v>46011.65925834491</v>
       </c>
@@ -69244,7 +69244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2603" ht="22.5" customHeight="1">
+    <row r="2603" ht="22.5" hidden="1" customHeight="1">
       <c r="A2603" s="5">
         <v>46011.65957847222</v>
       </c>
@@ -69270,7 +69270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2604" ht="22.5" customHeight="1">
+    <row r="2604" ht="22.5" hidden="1" customHeight="1">
       <c r="A2604" s="5">
         <v>46011.659953912036</v>
       </c>
@@ -69296,7 +69296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2605" ht="22.5" customHeight="1">
+    <row r="2605" ht="22.5" hidden="1" customHeight="1">
       <c r="A2605" s="5">
         <v>46011.66039179398</v>
       </c>
@@ -69322,7 +69322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2606" ht="22.5" customHeight="1">
+    <row r="2606" ht="22.5" hidden="1" customHeight="1">
       <c r="A2606" s="5">
         <v>46011.66075746527</v>
       </c>
@@ -69348,7 +69348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2607" ht="22.5" customHeight="1">
+    <row r="2607" ht="22.5" hidden="1" customHeight="1">
       <c r="A2607" s="5">
         <v>46011.661354814816</v>
       </c>
@@ -69374,7 +69374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2608" ht="22.5" customHeight="1">
+    <row r="2608" ht="22.5" hidden="1" customHeight="1">
       <c r="A2608" s="5">
         <v>46011.66189505787</v>
       </c>
@@ -69400,7 +69400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2609" ht="22.5" customHeight="1">
+    <row r="2609" ht="22.5" hidden="1" customHeight="1">
       <c r="A2609" s="5">
         <v>46011.66219752315</v>
       </c>
@@ -69426,7 +69426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2610" ht="22.5" customHeight="1">
+    <row r="2610" ht="22.5" hidden="1" customHeight="1">
       <c r="A2610" s="5">
         <v>46011.662445787035</v>
       </c>
@@ -69452,7 +69452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2611" ht="22.5" customHeight="1">
+    <row r="2611" ht="22.5" hidden="1" customHeight="1">
       <c r="A2611" s="5">
         <v>46011.662733310186</v>
       </c>
@@ -69478,7 +69478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2612" ht="22.5" customHeight="1">
+    <row r="2612" ht="22.5" hidden="1" customHeight="1">
       <c r="A2612" s="5">
         <v>46011.66310677084</v>
       </c>
@@ -69504,7 +69504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2613" ht="22.5" customHeight="1">
+    <row r="2613" ht="22.5" hidden="1" customHeight="1">
       <c r="A2613" s="5">
         <v>46011.663499953705</v>
       </c>
@@ -69530,7 +69530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2614" ht="22.5" customHeight="1">
+    <row r="2614" ht="22.5" hidden="1" customHeight="1">
       <c r="A2614" s="5">
         <v>46011.66377085648</v>
       </c>
@@ -69556,7 +69556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2615" ht="22.5" customHeight="1">
+    <row r="2615" ht="22.5" hidden="1" customHeight="1">
       <c r="A2615" s="5">
         <v>46011.664039166666</v>
       </c>
@@ -69582,7 +69582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2616" ht="22.5" customHeight="1">
+    <row r="2616" ht="22.5" hidden="1" customHeight="1">
       <c r="A2616" s="5">
         <v>46011.66431335648</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2617" ht="22.5" customHeight="1">
+    <row r="2617" ht="22.5" hidden="1" customHeight="1">
       <c r="A2617" s="5">
         <v>46012.406275416666</v>
       </c>
@@ -69634,7 +69634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2618" ht="22.5" customHeight="1">
+    <row r="2618" ht="22.5" hidden="1" customHeight="1">
       <c r="A2618" s="5">
         <v>46012.40696774305</v>
       </c>
@@ -69660,7 +69660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2619" ht="22.5" customHeight="1">
+    <row r="2619" ht="22.5" hidden="1" customHeight="1">
       <c r="A2619" s="5">
         <v>46012.40735553241</v>
       </c>
@@ -69686,7 +69686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2620" ht="22.5" customHeight="1">
+    <row r="2620" ht="22.5" hidden="1" customHeight="1">
       <c r="A2620" s="5">
         <v>46012.407736747686</v>
       </c>
@@ -69712,7 +69712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2621" ht="22.5" customHeight="1">
+    <row r="2621" ht="22.5" hidden="1" customHeight="1">
       <c r="A2621" s="5">
         <v>46012.40803497685</v>
       </c>
@@ -69738,7 +69738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2622" ht="22.5" customHeight="1">
+    <row r="2622" ht="22.5" hidden="1" customHeight="1">
       <c r="A2622" s="5">
         <v>46012.408312280095</v>
       </c>
@@ -69764,7 +69764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2623" ht="22.5" customHeight="1">
+    <row r="2623" ht="22.5" hidden="1" customHeight="1">
       <c r="A2623" s="5">
         <v>46012.408646076394</v>
       </c>
@@ -69790,7 +69790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2624" ht="22.5" customHeight="1">
+    <row r="2624" ht="22.5" hidden="1" customHeight="1">
       <c r="A2624" s="5">
         <v>46012.409001064814</v>
       </c>
@@ -69816,7 +69816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2625" ht="22.5" customHeight="1">
+    <row r="2625" ht="22.5" hidden="1" customHeight="1">
       <c r="A2625" s="5">
         <v>46012.409509398145</v>
       </c>
@@ -69842,7 +69842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2626" ht="22.5" customHeight="1">
+    <row r="2626" ht="22.5" hidden="1" customHeight="1">
       <c r="A2626" s="5">
         <v>46012.409934525465</v>
       </c>
@@ -69868,7 +69868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2627" ht="22.5" customHeight="1">
+    <row r="2627" ht="22.5" hidden="1" customHeight="1">
       <c r="A2627" s="5">
         <v>46012.410468587965</v>
       </c>
@@ -69894,7 +69894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2628" ht="22.5" customHeight="1">
+    <row r="2628" ht="22.5" hidden="1" customHeight="1">
       <c r="A2628" s="5">
         <v>46012.41076921296</v>
       </c>
@@ -69920,7 +69920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2629" ht="22.5" customHeight="1">
+    <row r="2629" ht="22.5" hidden="1" customHeight="1">
       <c r="A2629" s="5">
         <v>46012.41105765046</v>
       </c>
@@ -69946,13 +69946,871 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2630" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2630" s="5">
+        <v>46012.411354027776</v>
+      </c>
+      <c r="B2630" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2630" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2630" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2630" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2630" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2630" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2630" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2631" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2631" s="5">
+        <v>46012.411611435185</v>
+      </c>
+      <c r="B2631" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2631" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2631" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2631" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2631" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2631" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2631" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2632" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2632" s="5">
+        <v>46012.41193630787</v>
+      </c>
+      <c r="B2632" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2632" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2632" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2632" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2632" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2632" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2632" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2633" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2633" s="5">
+        <v>46012.41230246528</v>
+      </c>
+      <c r="B2633" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2633" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2633" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2633" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2633" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2633" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2633" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2634" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2634" s="5">
+        <v>46012.416488877316</v>
+      </c>
+      <c r="B2634" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2634" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2634" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2634" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2634" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2634" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2634" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2635" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2635" s="5">
+        <v>46012.41720302083</v>
+      </c>
+      <c r="B2635" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2635" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2635" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2635" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2635" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2635" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2635" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2636" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2636" s="5">
+        <v>46012.417760729164</v>
+      </c>
+      <c r="B2636" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2636" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2636" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2636" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2636" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2636" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2636" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2637" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2637" s="5">
+        <v>46012.417966493056</v>
+      </c>
+      <c r="B2637" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2637" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2637" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2637" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2637" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2637" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2637" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2638" ht="22.5" customHeight="1">
+      <c r="A2638" s="5">
+        <v>46013.335654027775</v>
+      </c>
+      <c r="B2638" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2638" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2638" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2638" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2638" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2638" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2638" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2639" ht="22.5" customHeight="1">
+      <c r="A2639" s="5">
+        <v>46013.33618799769</v>
+      </c>
+      <c r="B2639" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2639" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2639" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2639" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2639" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2639" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2639" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2640" ht="22.5" customHeight="1">
+      <c r="A2640" s="5">
+        <v>46013.33657557871</v>
+      </c>
+      <c r="B2640" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2640" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2640" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2640" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2640" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2640" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2640" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2641" ht="22.5" customHeight="1">
+      <c r="A2641" s="5">
+        <v>46013.33698266203</v>
+      </c>
+      <c r="B2641" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2641" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2641" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2641" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2641" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2641" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2641" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2642" ht="22.5" customHeight="1">
+      <c r="A2642" s="5">
+        <v>46013.33732827546</v>
+      </c>
+      <c r="B2642" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2642" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2642" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2642" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2642" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2642" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2642" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2643" ht="22.5" customHeight="1">
+      <c r="A2643" s="5">
+        <v>46013.33771087963</v>
+      </c>
+      <c r="B2643" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2643" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2643" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2643" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2643" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2643" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2643" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2644" ht="22.5" customHeight="1">
+      <c r="A2644" s="5">
+        <v>46013.33834283565</v>
+      </c>
+      <c r="B2644" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2644" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2644" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2644" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2644" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2644" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2644" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2645" ht="22.5" customHeight="1">
+      <c r="A2645" s="5">
+        <v>46013.34011751157</v>
+      </c>
+      <c r="B2645" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2645" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2645" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2645" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2645" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2645" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2645" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2646" ht="22.5" customHeight="1">
+      <c r="A2646" s="5">
+        <v>46013.342919675924</v>
+      </c>
+      <c r="B2646" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2646" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2646" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2646" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2646" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2646" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2646" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2647" ht="22.5" customHeight="1">
+      <c r="A2647" s="5">
+        <v>46013.343977303244</v>
+      </c>
+      <c r="B2647" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2647" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2647" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2647" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2647" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2647" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2647" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2648" ht="22.5" customHeight="1">
+      <c r="A2648" s="5">
+        <v>46013.35667259259</v>
+      </c>
+      <c r="B2648" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2648" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2648" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2648" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2648" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2648" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2648" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2649" ht="22.5" customHeight="1">
+      <c r="A2649" s="5">
+        <v>46013.3570225</v>
+      </c>
+      <c r="B2649" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2649" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2649" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2649" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2649" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2649" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2649" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2650" ht="22.5" customHeight="1">
+      <c r="A2650" s="5">
+        <v>46013.357438391206</v>
+      </c>
+      <c r="B2650" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2650" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2650" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2650" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2650" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2650" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2650" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2651" ht="22.5" customHeight="1">
+      <c r="A2651" s="5">
+        <v>46013.35799391204</v>
+      </c>
+      <c r="B2651" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2651" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2651" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2651" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2651" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2651" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2651" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2652" ht="22.5" customHeight="1">
+      <c r="A2652" s="5">
+        <v>46013.3583334838</v>
+      </c>
+      <c r="B2652" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2652" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2652" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2652" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2652" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2652" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2652" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2653" ht="22.5" customHeight="1">
+      <c r="A2653" s="5">
+        <v>46013.358621203704</v>
+      </c>
+      <c r="B2653" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2653" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2653" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2653" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2653" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2653" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2653" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2654" ht="22.5" customHeight="1">
+      <c r="A2654" s="5">
+        <v>46013.35895483797</v>
+      </c>
+      <c r="B2654" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2654" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2654" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2654" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2654" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2654" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2654" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2655" ht="22.5" customHeight="1">
+      <c r="A2655" s="5">
+        <v>46013.35930568287</v>
+      </c>
+      <c r="B2655" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2655" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2655" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2655" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2655" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2655" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2655" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2656" ht="22.5" customHeight="1">
+      <c r="A2656" s="5">
+        <v>46013.36087318287</v>
+      </c>
+      <c r="B2656" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2656" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2656" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2656" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2656" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2656" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2656" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2657" ht="22.5" customHeight="1">
+      <c r="A2657" s="5">
+        <v>46013.36119708333</v>
+      </c>
+      <c r="B2657" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2657" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2657" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2657" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2657" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2657" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2657" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2658" ht="22.5" customHeight="1">
+      <c r="A2658" s="5">
+        <v>46013.362917997685</v>
+      </c>
+      <c r="B2658" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2658" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2658" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2658" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2658" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2658" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2658" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2659" ht="22.5" customHeight="1">
+      <c r="A2659" s="5">
+        <v>46013.36359679398</v>
+      </c>
+      <c r="B2659" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2659" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2659" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2659" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2659" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2659" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2659" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2660" ht="22.5" customHeight="1">
+      <c r="A2660" s="5">
+        <v>46013.364556238426</v>
+      </c>
+      <c r="B2660" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2660" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2660" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2660" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2660" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2660" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2660" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2661" ht="22.5" customHeight="1">
+      <c r="A2661" s="5">
+        <v>46013.375676701384</v>
+      </c>
+      <c r="B2661" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2661" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2661" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2661" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2661" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2661" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2661" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2662" ht="22.5" customHeight="1">
+      <c r="A2662" s="5">
+        <v>46013.376511400464</v>
+      </c>
+      <c r="B2662" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2662" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2662" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2662" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2662" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2662" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2662" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2729">
+  <conditionalFormatting sqref="D1:D2762">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2729">
+  <conditionalFormatting sqref="G2:G2762">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -42932,7 +42932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1591" ht="22.5" hidden="1" customHeight="1">
+    <row r="1591" ht="22.5" customHeight="1">
       <c r="A1591" s="5">
         <v>45881.40468253472</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1604" ht="22.5" hidden="1" customHeight="1">
+    <row r="1604" ht="22.5" customHeight="1">
       <c r="A1604" s="5">
         <v>45882.39004302083</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1623" ht="22.5" hidden="1" customHeight="1">
+    <row r="1623" ht="22.5" customHeight="1">
       <c r="A1623" s="5">
         <v>45883.374393125</v>
       </c>
@@ -44492,7 +44492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" ht="22.5" hidden="1" customHeight="1">
+    <row r="1651" ht="22.5" customHeight="1">
       <c r="A1651" s="5">
         <v>45884.41920474537</v>
       </c>
@@ -44544,7 +44544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1653" ht="22.5" hidden="1" customHeight="1">
+    <row r="1653" ht="22.5" customHeight="1">
       <c r="A1653" s="5">
         <v>45887.3809612037</v>
       </c>
@@ -44986,7 +44986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1670" ht="22.5" hidden="1" customHeight="1">
+    <row r="1670" ht="22.5" customHeight="1">
       <c r="A1670" s="5">
         <v>45888.39140821759</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694" ht="22.5" hidden="1" customHeight="1">
+    <row r="1694" ht="22.5" customHeight="1">
       <c r="A1694" s="5">
         <v>45889.379339872685</v>
       </c>
@@ -46234,7 +46234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1718" ht="22.5" hidden="1" customHeight="1">
+    <row r="1718" ht="22.5" customHeight="1">
       <c r="A1718" s="5">
         <v>45890.392384004634</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1742" ht="22.5" hidden="1" customHeight="1">
+    <row r="1742" ht="22.5" customHeight="1">
       <c r="A1742" s="5">
         <v>45891.3899556713</v>
       </c>
@@ -47404,7 +47404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1763" ht="22.5" hidden="1" customHeight="1">
+    <row r="1763" ht="22.5" customHeight="1">
       <c r="A1763" s="5">
         <v>45892.36715967592</v>
       </c>
@@ -47768,7 +47768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1777" ht="22.5" hidden="1" customHeight="1">
+    <row r="1777" ht="22.5" customHeight="1">
       <c r="A1777" s="5">
         <v>45895.38965509259</v>
       </c>
@@ -48080,7 +48080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789" ht="22.5" hidden="1" customHeight="1">
+    <row r="1789" ht="22.5" customHeight="1">
       <c r="A1789" s="5">
         <v>45896.371080972225</v>
       </c>
@@ -48704,7 +48704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1813" ht="22.5" hidden="1" customHeight="1">
+    <row r="1813" ht="22.5" customHeight="1">
       <c r="A1813" s="5">
         <v>45897.380201249995</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1837" ht="22.5" hidden="1" customHeight="1">
+    <row r="1837" ht="22.5" customHeight="1">
       <c r="A1837" s="5">
         <v>45898.389731979165</v>
       </c>
@@ -49744,7 +49744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1853" ht="22.5" hidden="1" customHeight="1">
+    <row r="1853" ht="22.5" customHeight="1">
       <c r="A1853" s="5">
         <v>45904.40915924768</v>
       </c>
@@ -49900,7 +49900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1859" ht="22.5" hidden="1" customHeight="1">
+    <row r="1859" ht="22.5" customHeight="1">
       <c r="A1859" s="5">
         <v>45908.398801041665</v>
       </c>
@@ -50446,7 +50446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880" ht="22.5" hidden="1" customHeight="1">
+    <row r="1880" ht="22.5" customHeight="1">
       <c r="A1880" s="5">
         <v>45909.38609510417</v>
       </c>
@@ -50836,7 +50836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895" ht="22.5" hidden="1" customHeight="1">
+    <row r="1895" ht="22.5" customHeight="1">
       <c r="A1895" s="5">
         <v>45910.38872837963</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930" ht="22.5" hidden="1" customHeight="1">
+    <row r="1930" ht="22.5" customHeight="1">
       <c r="A1930" s="5">
         <v>45911.399243576394</v>
       </c>
@@ -52188,7 +52188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947" ht="22.5" hidden="1" customHeight="1">
+    <row r="1947" ht="22.5" customHeight="1">
       <c r="A1947" s="5">
         <v>45912.37963631944</v>
       </c>
@@ -52838,7 +52838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972" ht="22.5" hidden="1" customHeight="1">
+    <row r="1972" ht="22.5" customHeight="1">
       <c r="A1972" s="5">
         <v>45915.40587287037</v>
       </c>
@@ -53098,7 +53098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982" ht="22.5" hidden="1" customHeight="1">
+    <row r="1982" ht="22.5" customHeight="1">
       <c r="A1982" s="5">
         <v>45916.39928375</v>
       </c>
@@ -53774,7 +53774,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2008" ht="22.5" hidden="1" customHeight="1">
+    <row r="2008" ht="22.5" customHeight="1">
       <c r="A2008" s="5">
         <v>45917.394830000005</v>
       </c>
@@ -54320,7 +54320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2029" ht="22.5" hidden="1" customHeight="1">
+    <row r="2029" ht="22.5" customHeight="1">
       <c r="A2029" s="5">
         <v>45918.392201863426</v>
       </c>
@@ -54944,7 +54944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2053" ht="22.5" hidden="1" customHeight="1">
+    <row r="2053" ht="22.5" customHeight="1">
       <c r="A2053" s="5">
         <v>45919.38368543981</v>
       </c>
@@ -55412,7 +55412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071" ht="22.5" hidden="1" customHeight="1">
+    <row r="2071" ht="22.5" customHeight="1">
       <c r="A2071" s="5">
         <v>45922.38489828704</v>
       </c>
@@ -55828,7 +55828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2087" ht="22.5" hidden="1" customHeight="1">
+    <row r="2087" ht="22.5" customHeight="1">
       <c r="A2087" s="5">
         <v>45923.38983987269</v>
       </c>
@@ -56426,7 +56426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2110" ht="22.5" hidden="1" customHeight="1">
+    <row r="2110" ht="22.5" customHeight="1">
       <c r="A2110" s="5">
         <v>45926.40699524306</v>
       </c>
@@ -56764,7 +56764,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123" ht="22.5" hidden="1" customHeight="1">
+    <row r="2123" ht="22.5" customHeight="1">
       <c r="A2123" s="5">
         <v>45930.38858100695</v>
       </c>
@@ -57154,7 +57154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138" ht="22.5" hidden="1" customHeight="1">
+    <row r="2138" ht="22.5" customHeight="1">
       <c r="A2138" s="5">
         <v>45931.38799164352</v>
       </c>
@@ -58688,7 +58688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2197" ht="22.5" hidden="1" customHeight="1">
+    <row r="2197" ht="22.5" customHeight="1">
       <c r="A2197" s="5">
         <v>45943.45935690972</v>
       </c>
@@ -58922,7 +58922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2206" ht="22.5" hidden="1" customHeight="1">
+    <row r="2206" ht="22.5" customHeight="1">
       <c r="A2206" s="5">
         <v>45944.382605949075</v>
       </c>
@@ -59364,7 +59364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2223" ht="22.5" hidden="1" customHeight="1">
+    <row r="2223" ht="22.5" customHeight="1">
       <c r="A2223" s="5">
         <v>45947.403554282406</v>
       </c>
@@ -59702,7 +59702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2236" ht="22.5" hidden="1" customHeight="1">
+    <row r="2236" ht="22.5" customHeight="1">
       <c r="A2236" s="5">
         <v>45949.42311469908</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2256" ht="22.5" hidden="1" customHeight="1">
+    <row r="2256" ht="22.5" customHeight="1">
       <c r="A2256" s="5">
         <v>45952.38742313658</v>
       </c>
@@ -60586,7 +60586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2270" ht="22.5" hidden="1" customHeight="1">
+    <row r="2270" ht="22.5" customHeight="1">
       <c r="A2270" s="5">
         <v>45953.32561439815</v>
       </c>
@@ -61288,7 +61288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2297" ht="22.5" hidden="1" customHeight="1">
+    <row r="2297" ht="22.5" customHeight="1">
       <c r="A2297" s="5">
         <v>45957.37074780093</v>
       </c>
@@ -61704,7 +61704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313" ht="22.5" hidden="1" customHeight="1">
+    <row r="2313" ht="22.5" customHeight="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -63004,7 +63004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363" ht="22.5" hidden="1" customHeight="1">
+    <row r="2363" ht="22.5" customHeight="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63810,7 +63810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394" ht="22.5" hidden="1" customHeight="1">
+    <row r="2394" ht="22.5" customHeight="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -64460,7 +64460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2419" ht="22.5" hidden="1" customHeight="1">
+    <row r="2419" ht="22.5" customHeight="1">
       <c r="A2419" s="5">
         <v>45967.390986087965</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2437" ht="22.5" hidden="1" customHeight="1">
+    <row r="2437" ht="22.5" customHeight="1">
       <c r="A2437" s="5">
         <v>45968.389227569445</v>
       </c>
@@ -65162,7 +65162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2446" ht="22.5" hidden="1" customHeight="1">
+    <row r="2446" ht="22.5" customHeight="1">
       <c r="A2446" s="5">
         <v>45979.38241262731</v>
       </c>
@@ -65552,7 +65552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2461" ht="22.5" hidden="1" customHeight="1">
+    <row r="2461" ht="22.5" customHeight="1">
       <c r="A2461" s="5">
         <v>45980.37654516204</v>
       </c>
@@ -65942,7 +65942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" hidden="1" customHeight="1">
+    <row r="2476" ht="22.5" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -68126,7 +68126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2560" ht="22.5" hidden="1" customHeight="1">
+    <row r="2560" ht="22.5" customHeight="1">
       <c r="A2560" s="5">
         <v>46010.6586277662</v>
       </c>
@@ -68152,7 +68152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2561" ht="22.5" hidden="1" customHeight="1">
+    <row r="2561" ht="22.5" customHeight="1">
       <c r="A2561" s="5">
         <v>46010.6602537037</v>
       </c>
@@ -68178,7 +68178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2562" ht="22.5" hidden="1" customHeight="1">
+    <row r="2562" ht="22.5" customHeight="1">
       <c r="A2562" s="5">
         <v>46010.68708289352</v>
       </c>
@@ -68204,7 +68204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2563" ht="22.5" hidden="1" customHeight="1">
+    <row r="2563" ht="22.5" customHeight="1">
       <c r="A2563" s="5">
         <v>46010.68727944445</v>
       </c>
@@ -68230,7 +68230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2564" ht="22.5" hidden="1" customHeight="1">
+    <row r="2564" ht="22.5" customHeight="1">
       <c r="A2564" s="5">
         <v>46010.68803590278</v>
       </c>
@@ -68256,7 +68256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2565" ht="22.5" hidden="1" customHeight="1">
+    <row r="2565" ht="22.5" customHeight="1">
       <c r="A2565" s="5">
         <v>46010.68818315973</v>
       </c>
@@ -68282,7 +68282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2566" ht="22.5" hidden="1" customHeight="1">
+    <row r="2566" ht="22.5" customHeight="1">
       <c r="A2566" s="5">
         <v>46010.689745069445</v>
       </c>
@@ -68308,7 +68308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2567" ht="22.5" hidden="1" customHeight="1">
+    <row r="2567" ht="22.5" customHeight="1">
       <c r="A2567" s="5">
         <v>46010.689891331014</v>
       </c>
@@ -68334,7 +68334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2568" ht="22.5" hidden="1" customHeight="1">
+    <row r="2568" ht="22.5" customHeight="1">
       <c r="A2568" s="5">
         <v>46010.698468726856</v>
       </c>
@@ -68360,7 +68360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2569" ht="22.5" hidden="1" customHeight="1">
+    <row r="2569" ht="22.5" customHeight="1">
       <c r="A2569" s="5">
         <v>46010.69863162037</v>
       </c>
@@ -68386,7 +68386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2570" ht="22.5" hidden="1" customHeight="1">
+    <row r="2570" ht="22.5" customHeight="1">
       <c r="A2570" s="5">
         <v>46010.69886758101</v>
       </c>
@@ -68412,7 +68412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2571" ht="22.5" hidden="1" customHeight="1">
+    <row r="2571" ht="22.5" customHeight="1">
       <c r="A2571" s="5">
         <v>46010.702832106486</v>
       </c>
@@ -68438,7 +68438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2572" ht="22.5" hidden="1" customHeight="1">
+    <row r="2572" ht="22.5" customHeight="1">
       <c r="A2572" s="5">
         <v>46010.70299414352</v>
       </c>
@@ -68464,7 +68464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2573" ht="22.5" hidden="1" customHeight="1">
+    <row r="2573" ht="22.5" customHeight="1">
       <c r="A2573" s="5">
         <v>46010.70315818287</v>
       </c>
@@ -68490,7 +68490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2574" ht="22.5" hidden="1" customHeight="1">
+    <row r="2574" ht="22.5" customHeight="1">
       <c r="A2574" s="5">
         <v>46011.36116439815</v>
       </c>
@@ -68516,7 +68516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2575" ht="22.5" hidden="1" customHeight="1">
+    <row r="2575" ht="22.5" customHeight="1">
       <c r="A2575" s="5">
         <v>46011.36194297454</v>
       </c>
@@ -68542,7 +68542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2576" ht="22.5" hidden="1" customHeight="1">
+    <row r="2576" ht="22.5" customHeight="1">
       <c r="A2576" s="5">
         <v>46011.36257939815</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2577" ht="22.5" hidden="1" customHeight="1">
+    <row r="2577" ht="22.5" customHeight="1">
       <c r="A2577" s="5">
         <v>46011.36303930556</v>
       </c>
@@ -68594,7 +68594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2578" ht="22.5" hidden="1" customHeight="1">
+    <row r="2578" ht="22.5" customHeight="1">
       <c r="A2578" s="5">
         <v>46011.36370047454</v>
       </c>
@@ -68620,7 +68620,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2579" ht="22.5" hidden="1" customHeight="1">
+    <row r="2579" ht="22.5" customHeight="1">
       <c r="A2579" s="5">
         <v>46011.364157986114</v>
       </c>
@@ -68646,7 +68646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2580" ht="22.5" hidden="1" customHeight="1">
+    <row r="2580" ht="22.5" customHeight="1">
       <c r="A2580" s="5">
         <v>46011.36491052083</v>
       </c>
@@ -68672,7 +68672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2581" ht="22.5" hidden="1" customHeight="1">
+    <row r="2581" ht="22.5" customHeight="1">
       <c r="A2581" s="5">
         <v>46011.36641270833</v>
       </c>
@@ -68698,7 +68698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2582" ht="22.5" hidden="1" customHeight="1">
+    <row r="2582" ht="22.5" customHeight="1">
       <c r="A2582" s="5">
         <v>46011.36754990741</v>
       </c>
@@ -68724,7 +68724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2583" ht="22.5" hidden="1" customHeight="1">
+    <row r="2583" ht="22.5" customHeight="1">
       <c r="A2583" s="5">
         <v>46011.3680284375</v>
       </c>
@@ -68750,7 +68750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2584" ht="22.5" hidden="1" customHeight="1">
+    <row r="2584" ht="22.5" customHeight="1">
       <c r="A2584" s="5">
         <v>46011.36899107639</v>
       </c>
@@ -68776,7 +68776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2585" ht="22.5" hidden="1" customHeight="1">
+    <row r="2585" ht="22.5" customHeight="1">
       <c r="A2585" s="5">
         <v>46011.36956982639</v>
       </c>
@@ -68802,7 +68802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2586" ht="22.5" hidden="1" customHeight="1">
+    <row r="2586" ht="22.5" customHeight="1">
       <c r="A2586" s="5">
         <v>46011.36990143519</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2587" ht="22.5" hidden="1" customHeight="1">
+    <row r="2587" ht="22.5" customHeight="1">
       <c r="A2587" s="5">
         <v>46011.37083474537</v>
       </c>
@@ -68854,7 +68854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2588" ht="22.5" hidden="1" customHeight="1">
+    <row r="2588" ht="22.5" customHeight="1">
       <c r="A2588" s="5">
         <v>46011.37155277778</v>
       </c>
@@ -68880,7 +68880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2589" ht="22.5" hidden="1" customHeight="1">
+    <row r="2589" ht="22.5" customHeight="1">
       <c r="A2589" s="5">
         <v>46011.37188224537</v>
       </c>
@@ -68906,7 +68906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2590" ht="22.5" hidden="1" customHeight="1">
+    <row r="2590" ht="22.5" customHeight="1">
       <c r="A2590" s="5">
         <v>46011.37250920139</v>
       </c>
@@ -68932,7 +68932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2591" ht="22.5" hidden="1" customHeight="1">
+    <row r="2591" ht="22.5" customHeight="1">
       <c r="A2591" s="5">
         <v>46011.37290135417</v>
       </c>
@@ -68958,7 +68958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2592" ht="22.5" hidden="1" customHeight="1">
+    <row r="2592" ht="22.5" customHeight="1">
       <c r="A2592" s="5">
         <v>46011.644947673616</v>
       </c>
@@ -68984,7 +68984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2593" ht="22.5" hidden="1" customHeight="1">
+    <row r="2593" ht="22.5" customHeight="1">
       <c r="A2593" s="5">
         <v>46011.64575946759</v>
       </c>
@@ -69010,7 +69010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2594" ht="22.5" hidden="1" customHeight="1">
+    <row r="2594" ht="22.5" customHeight="1">
       <c r="A2594" s="5">
         <v>46011.64679453704</v>
       </c>
@@ -69036,7 +69036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2595" ht="22.5" hidden="1" customHeight="1">
+    <row r="2595" ht="22.5" customHeight="1">
       <c r="A2595" s="5">
         <v>46011.64726376157</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2596" ht="22.5" hidden="1" customHeight="1">
+    <row r="2596" ht="22.5" customHeight="1">
       <c r="A2596" s="5">
         <v>46011.64855503472</v>
       </c>
@@ -69088,7 +69088,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2597" ht="22.5" hidden="1" customHeight="1">
+    <row r="2597" ht="22.5" customHeight="1">
       <c r="A2597" s="5">
         <v>46011.65217178241</v>
       </c>
@@ -69114,7 +69114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2598" ht="22.5" hidden="1" customHeight="1">
+    <row r="2598" ht="22.5" customHeight="1">
       <c r="A2598" s="5">
         <v>46011.65270490741</v>
       </c>
@@ -69140,7 +69140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2599" ht="22.5" hidden="1" customHeight="1">
+    <row r="2599" ht="22.5" customHeight="1">
       <c r="A2599" s="5">
         <v>46011.65336935185</v>
       </c>
@@ -69166,7 +69166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2600" ht="22.5" hidden="1" customHeight="1">
+    <row r="2600" ht="22.5" customHeight="1">
       <c r="A2600" s="5">
         <v>46011.65512840278</v>
       </c>
@@ -69192,7 +69192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2601" ht="22.5" hidden="1" customHeight="1">
+    <row r="2601" ht="22.5" customHeight="1">
       <c r="A2601" s="5">
         <v>46011.655611504626</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2602" ht="22.5" hidden="1" customHeight="1">
+    <row r="2602" ht="22.5" customHeight="1">
       <c r="A2602" s="5">
         <v>46011.65925834491</v>
       </c>
@@ -69244,7 +69244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2603" ht="22.5" hidden="1" customHeight="1">
+    <row r="2603" ht="22.5" customHeight="1">
       <c r="A2603" s="5">
         <v>46011.65957847222</v>
       </c>
@@ -69270,7 +69270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2604" ht="22.5" hidden="1" customHeight="1">
+    <row r="2604" ht="22.5" customHeight="1">
       <c r="A2604" s="5">
         <v>46011.659953912036</v>
       </c>
@@ -69296,7 +69296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2605" ht="22.5" hidden="1" customHeight="1">
+    <row r="2605" ht="22.5" customHeight="1">
       <c r="A2605" s="5">
         <v>46011.66039179398</v>
       </c>
@@ -69322,7 +69322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2606" ht="22.5" hidden="1" customHeight="1">
+    <row r="2606" ht="22.5" customHeight="1">
       <c r="A2606" s="5">
         <v>46011.66075746527</v>
       </c>
@@ -69348,7 +69348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2607" ht="22.5" hidden="1" customHeight="1">
+    <row r="2607" ht="22.5" customHeight="1">
       <c r="A2607" s="5">
         <v>46011.661354814816</v>
       </c>
@@ -69374,7 +69374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2608" ht="22.5" hidden="1" customHeight="1">
+    <row r="2608" ht="22.5" customHeight="1">
       <c r="A2608" s="5">
         <v>46011.66189505787</v>
       </c>
@@ -69400,7 +69400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2609" ht="22.5" hidden="1" customHeight="1">
+    <row r="2609" ht="22.5" customHeight="1">
       <c r="A2609" s="5">
         <v>46011.66219752315</v>
       </c>
@@ -69426,7 +69426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2610" ht="22.5" hidden="1" customHeight="1">
+    <row r="2610" ht="22.5" customHeight="1">
       <c r="A2610" s="5">
         <v>46011.662445787035</v>
       </c>
@@ -69452,7 +69452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2611" ht="22.5" hidden="1" customHeight="1">
+    <row r="2611" ht="22.5" customHeight="1">
       <c r="A2611" s="5">
         <v>46011.662733310186</v>
       </c>
@@ -69478,7 +69478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2612" ht="22.5" hidden="1" customHeight="1">
+    <row r="2612" ht="22.5" customHeight="1">
       <c r="A2612" s="5">
         <v>46011.66310677084</v>
       </c>
@@ -69504,7 +69504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2613" ht="22.5" hidden="1" customHeight="1">
+    <row r="2613" ht="22.5" customHeight="1">
       <c r="A2613" s="5">
         <v>46011.663499953705</v>
       </c>
@@ -69530,7 +69530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2614" ht="22.5" hidden="1" customHeight="1">
+    <row r="2614" ht="22.5" customHeight="1">
       <c r="A2614" s="5">
         <v>46011.66377085648</v>
       </c>
@@ -69556,7 +69556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2615" ht="22.5" hidden="1" customHeight="1">
+    <row r="2615" ht="22.5" customHeight="1">
       <c r="A2615" s="5">
         <v>46011.664039166666</v>
       </c>
@@ -69582,7 +69582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2616" ht="22.5" hidden="1" customHeight="1">
+    <row r="2616" ht="22.5" customHeight="1">
       <c r="A2616" s="5">
         <v>46011.66431335648</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2617" ht="22.5" hidden="1" customHeight="1">
+    <row r="2617" ht="22.5" customHeight="1">
       <c r="A2617" s="5">
         <v>46012.406275416666</v>
       </c>
@@ -69634,7 +69634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2618" ht="22.5" hidden="1" customHeight="1">
+    <row r="2618" ht="22.5" customHeight="1">
       <c r="A2618" s="5">
         <v>46012.40696774305</v>
       </c>
@@ -69660,7 +69660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2619" ht="22.5" hidden="1" customHeight="1">
+    <row r="2619" ht="22.5" customHeight="1">
       <c r="A2619" s="5">
         <v>46012.40735553241</v>
       </c>
@@ -69686,7 +69686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2620" ht="22.5" hidden="1" customHeight="1">
+    <row r="2620" ht="22.5" customHeight="1">
       <c r="A2620" s="5">
         <v>46012.407736747686</v>
       </c>
@@ -69712,7 +69712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2621" ht="22.5" hidden="1" customHeight="1">
+    <row r="2621" ht="22.5" customHeight="1">
       <c r="A2621" s="5">
         <v>46012.40803497685</v>
       </c>
@@ -69738,7 +69738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2622" ht="22.5" hidden="1" customHeight="1">
+    <row r="2622" ht="22.5" customHeight="1">
       <c r="A2622" s="5">
         <v>46012.408312280095</v>
       </c>
@@ -69764,7 +69764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2623" ht="22.5" hidden="1" customHeight="1">
+    <row r="2623" ht="22.5" customHeight="1">
       <c r="A2623" s="5">
         <v>46012.408646076394</v>
       </c>
@@ -69790,7 +69790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2624" ht="22.5" hidden="1" customHeight="1">
+    <row r="2624" ht="22.5" customHeight="1">
       <c r="A2624" s="5">
         <v>46012.409001064814</v>
       </c>
@@ -69816,7 +69816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2625" ht="22.5" hidden="1" customHeight="1">
+    <row r="2625" ht="22.5" customHeight="1">
       <c r="A2625" s="5">
         <v>46012.409509398145</v>
       </c>
@@ -69842,7 +69842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2626" ht="22.5" hidden="1" customHeight="1">
+    <row r="2626" ht="22.5" customHeight="1">
       <c r="A2626" s="5">
         <v>46012.409934525465</v>
       </c>
@@ -69868,7 +69868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2627" ht="22.5" hidden="1" customHeight="1">
+    <row r="2627" ht="22.5" customHeight="1">
       <c r="A2627" s="5">
         <v>46012.410468587965</v>
       </c>
@@ -69894,7 +69894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2628" ht="22.5" hidden="1" customHeight="1">
+    <row r="2628" ht="22.5" customHeight="1">
       <c r="A2628" s="5">
         <v>46012.41076921296</v>
       </c>
@@ -69920,7 +69920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2629" ht="22.5" hidden="1" customHeight="1">
+    <row r="2629" ht="22.5" customHeight="1">
       <c r="A2629" s="5">
         <v>46012.41105765046</v>
       </c>
@@ -69946,7 +69946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2630" ht="22.5" hidden="1" customHeight="1">
+    <row r="2630" ht="22.5" customHeight="1">
       <c r="A2630" s="5">
         <v>46012.411354027776</v>
       </c>
@@ -69972,7 +69972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2631" ht="22.5" hidden="1" customHeight="1">
+    <row r="2631" ht="22.5" customHeight="1">
       <c r="A2631" s="5">
         <v>46012.411611435185</v>
       </c>
@@ -69998,7 +69998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2632" ht="22.5" hidden="1" customHeight="1">
+    <row r="2632" ht="22.5" customHeight="1">
       <c r="A2632" s="5">
         <v>46012.41193630787</v>
       </c>
@@ -70024,7 +70024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2633" ht="22.5" hidden="1" customHeight="1">
+    <row r="2633" ht="22.5" customHeight="1">
       <c r="A2633" s="5">
         <v>46012.41230246528</v>
       </c>
@@ -70050,7 +70050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2634" ht="22.5" hidden="1" customHeight="1">
+    <row r="2634" ht="22.5" customHeight="1">
       <c r="A2634" s="5">
         <v>46012.416488877316</v>
       </c>
@@ -70076,7 +70076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2635" ht="22.5" hidden="1" customHeight="1">
+    <row r="2635" ht="22.5" customHeight="1">
       <c r="A2635" s="5">
         <v>46012.41720302083</v>
       </c>
@@ -70102,7 +70102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2636" ht="22.5" hidden="1" customHeight="1">
+    <row r="2636" ht="22.5" customHeight="1">
       <c r="A2636" s="5">
         <v>46012.417760729164</v>
       </c>
@@ -70128,7 +70128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2637" ht="22.5" hidden="1" customHeight="1">
+    <row r="2637" ht="22.5" customHeight="1">
       <c r="A2637" s="5">
         <v>46012.417966493056</v>
       </c>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2662</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2709</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18635" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18964" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2662" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2662">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2709" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2709">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -42932,7 +42932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1591" ht="22.5" customHeight="1">
+    <row r="1591" ht="22.5" hidden="1" customHeight="1">
       <c r="A1591" s="5">
         <v>45881.40468253472</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1604" ht="22.5" customHeight="1">
+    <row r="1604" ht="22.5" hidden="1" customHeight="1">
       <c r="A1604" s="5">
         <v>45882.39004302083</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1623" ht="22.5" customHeight="1">
+    <row r="1623" ht="22.5" hidden="1" customHeight="1">
       <c r="A1623" s="5">
         <v>45883.374393125</v>
       </c>
@@ -44492,7 +44492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" ht="22.5" customHeight="1">
+    <row r="1651" ht="22.5" hidden="1" customHeight="1">
       <c r="A1651" s="5">
         <v>45884.41920474537</v>
       </c>
@@ -44544,7 +44544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1653" ht="22.5" customHeight="1">
+    <row r="1653" ht="22.5" hidden="1" customHeight="1">
       <c r="A1653" s="5">
         <v>45887.3809612037</v>
       </c>
@@ -44986,7 +44986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1670" ht="22.5" customHeight="1">
+    <row r="1670" ht="22.5" hidden="1" customHeight="1">
       <c r="A1670" s="5">
         <v>45888.39140821759</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694" ht="22.5" customHeight="1">
+    <row r="1694" ht="22.5" hidden="1" customHeight="1">
       <c r="A1694" s="5">
         <v>45889.379339872685</v>
       </c>
@@ -46234,7 +46234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1718" ht="22.5" customHeight="1">
+    <row r="1718" ht="22.5" hidden="1" customHeight="1">
       <c r="A1718" s="5">
         <v>45890.392384004634</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1742" ht="22.5" customHeight="1">
+    <row r="1742" ht="22.5" hidden="1" customHeight="1">
       <c r="A1742" s="5">
         <v>45891.3899556713</v>
       </c>
@@ -47404,7 +47404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1763" ht="22.5" customHeight="1">
+    <row r="1763" ht="22.5" hidden="1" customHeight="1">
       <c r="A1763" s="5">
         <v>45892.36715967592</v>
       </c>
@@ -47768,7 +47768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1777" ht="22.5" customHeight="1">
+    <row r="1777" ht="22.5" hidden="1" customHeight="1">
       <c r="A1777" s="5">
         <v>45895.38965509259</v>
       </c>
@@ -48080,7 +48080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789" ht="22.5" customHeight="1">
+    <row r="1789" ht="22.5" hidden="1" customHeight="1">
       <c r="A1789" s="5">
         <v>45896.371080972225</v>
       </c>
@@ -48704,7 +48704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1813" ht="22.5" customHeight="1">
+    <row r="1813" ht="22.5" hidden="1" customHeight="1">
       <c r="A1813" s="5">
         <v>45897.380201249995</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1837" ht="22.5" customHeight="1">
+    <row r="1837" ht="22.5" hidden="1" customHeight="1">
       <c r="A1837" s="5">
         <v>45898.389731979165</v>
       </c>
@@ -49744,7 +49744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1853" ht="22.5" customHeight="1">
+    <row r="1853" ht="22.5" hidden="1" customHeight="1">
       <c r="A1853" s="5">
         <v>45904.40915924768</v>
       </c>
@@ -49900,7 +49900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1859" ht="22.5" customHeight="1">
+    <row r="1859" ht="22.5" hidden="1" customHeight="1">
       <c r="A1859" s="5">
         <v>45908.398801041665</v>
       </c>
@@ -50446,7 +50446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880" ht="22.5" customHeight="1">
+    <row r="1880" ht="22.5" hidden="1" customHeight="1">
       <c r="A1880" s="5">
         <v>45909.38609510417</v>
       </c>
@@ -50836,7 +50836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895" ht="22.5" customHeight="1">
+    <row r="1895" ht="22.5" hidden="1" customHeight="1">
       <c r="A1895" s="5">
         <v>45910.38872837963</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930" ht="22.5" customHeight="1">
+    <row r="1930" ht="22.5" hidden="1" customHeight="1">
       <c r="A1930" s="5">
         <v>45911.399243576394</v>
       </c>
@@ -52188,7 +52188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947" ht="22.5" customHeight="1">
+    <row r="1947" ht="22.5" hidden="1" customHeight="1">
       <c r="A1947" s="5">
         <v>45912.37963631944</v>
       </c>
@@ -52838,7 +52838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972" ht="22.5" customHeight="1">
+    <row r="1972" ht="22.5" hidden="1" customHeight="1">
       <c r="A1972" s="5">
         <v>45915.40587287037</v>
       </c>
@@ -53098,7 +53098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982" ht="22.5" customHeight="1">
+    <row r="1982" ht="22.5" hidden="1" customHeight="1">
       <c r="A1982" s="5">
         <v>45916.39928375</v>
       </c>
@@ -53774,7 +53774,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2008" ht="22.5" customHeight="1">
+    <row r="2008" ht="22.5" hidden="1" customHeight="1">
       <c r="A2008" s="5">
         <v>45917.394830000005</v>
       </c>
@@ -54320,7 +54320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2029" ht="22.5" customHeight="1">
+    <row r="2029" ht="22.5" hidden="1" customHeight="1">
       <c r="A2029" s="5">
         <v>45918.392201863426</v>
       </c>
@@ -54944,7 +54944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2053" ht="22.5" customHeight="1">
+    <row r="2053" ht="22.5" hidden="1" customHeight="1">
       <c r="A2053" s="5">
         <v>45919.38368543981</v>
       </c>
@@ -55412,7 +55412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071" ht="22.5" customHeight="1">
+    <row r="2071" ht="22.5" hidden="1" customHeight="1">
       <c r="A2071" s="5">
         <v>45922.38489828704</v>
       </c>
@@ -55828,7 +55828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2087" ht="22.5" customHeight="1">
+    <row r="2087" ht="22.5" hidden="1" customHeight="1">
       <c r="A2087" s="5">
         <v>45923.38983987269</v>
       </c>
@@ -56426,7 +56426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2110" ht="22.5" customHeight="1">
+    <row r="2110" ht="22.5" hidden="1" customHeight="1">
       <c r="A2110" s="5">
         <v>45926.40699524306</v>
       </c>
@@ -56764,7 +56764,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123" ht="22.5" customHeight="1">
+    <row r="2123" ht="22.5" hidden="1" customHeight="1">
       <c r="A2123" s="5">
         <v>45930.38858100695</v>
       </c>
@@ -57154,7 +57154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138" ht="22.5" customHeight="1">
+    <row r="2138" ht="22.5" hidden="1" customHeight="1">
       <c r="A2138" s="5">
         <v>45931.38799164352</v>
       </c>
@@ -58688,7 +58688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2197" ht="22.5" customHeight="1">
+    <row r="2197" ht="22.5" hidden="1" customHeight="1">
       <c r="A2197" s="5">
         <v>45943.45935690972</v>
       </c>
@@ -58922,7 +58922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2206" ht="22.5" customHeight="1">
+    <row r="2206" ht="22.5" hidden="1" customHeight="1">
       <c r="A2206" s="5">
         <v>45944.382605949075</v>
       </c>
@@ -59364,7 +59364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2223" ht="22.5" customHeight="1">
+    <row r="2223" ht="22.5" hidden="1" customHeight="1">
       <c r="A2223" s="5">
         <v>45947.403554282406</v>
       </c>
@@ -59702,7 +59702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2236" ht="22.5" customHeight="1">
+    <row r="2236" ht="22.5" hidden="1" customHeight="1">
       <c r="A2236" s="5">
         <v>45949.42311469908</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2256" ht="22.5" customHeight="1">
+    <row r="2256" ht="22.5" hidden="1" customHeight="1">
       <c r="A2256" s="5">
         <v>45952.38742313658</v>
       </c>
@@ -60586,7 +60586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2270" ht="22.5" customHeight="1">
+    <row r="2270" ht="22.5" hidden="1" customHeight="1">
       <c r="A2270" s="5">
         <v>45953.32561439815</v>
       </c>
@@ -61288,7 +61288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2297" ht="22.5" customHeight="1">
+    <row r="2297" ht="22.5" hidden="1" customHeight="1">
       <c r="A2297" s="5">
         <v>45957.37074780093</v>
       </c>
@@ -61704,7 +61704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313" ht="22.5" customHeight="1">
+    <row r="2313" ht="22.5" hidden="1" customHeight="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -63004,7 +63004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363" ht="22.5" customHeight="1">
+    <row r="2363" ht="22.5" hidden="1" customHeight="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63810,7 +63810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394" ht="22.5" customHeight="1">
+    <row r="2394" ht="22.5" hidden="1" customHeight="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -64460,7 +64460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2419" ht="22.5" customHeight="1">
+    <row r="2419" ht="22.5" hidden="1" customHeight="1">
       <c r="A2419" s="5">
         <v>45967.390986087965</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2437" ht="22.5" customHeight="1">
+    <row r="2437" ht="22.5" hidden="1" customHeight="1">
       <c r="A2437" s="5">
         <v>45968.389227569445</v>
       </c>
@@ -65162,7 +65162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2446" ht="22.5" customHeight="1">
+    <row r="2446" ht="22.5" hidden="1" customHeight="1">
       <c r="A2446" s="5">
         <v>45979.38241262731</v>
       </c>
@@ -65552,7 +65552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2461" ht="22.5" customHeight="1">
+    <row r="2461" ht="22.5" hidden="1" customHeight="1">
       <c r="A2461" s="5">
         <v>45980.37654516204</v>
       </c>
@@ -65942,7 +65942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" customHeight="1">
+    <row r="2476" ht="22.5" hidden="1" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -68126,7 +68126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2560" ht="22.5" customHeight="1">
+    <row r="2560" ht="22.5" hidden="1" customHeight="1">
       <c r="A2560" s="5">
         <v>46010.6586277662</v>
       </c>
@@ -68152,7 +68152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2561" ht="22.5" customHeight="1">
+    <row r="2561" ht="22.5" hidden="1" customHeight="1">
       <c r="A2561" s="5">
         <v>46010.6602537037</v>
       </c>
@@ -68178,7 +68178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2562" ht="22.5" customHeight="1">
+    <row r="2562" ht="22.5" hidden="1" customHeight="1">
       <c r="A2562" s="5">
         <v>46010.68708289352</v>
       </c>
@@ -68204,7 +68204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2563" ht="22.5" customHeight="1">
+    <row r="2563" ht="22.5" hidden="1" customHeight="1">
       <c r="A2563" s="5">
         <v>46010.68727944445</v>
       </c>
@@ -68230,7 +68230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2564" ht="22.5" customHeight="1">
+    <row r="2564" ht="22.5" hidden="1" customHeight="1">
       <c r="A2564" s="5">
         <v>46010.68803590278</v>
       </c>
@@ -68256,7 +68256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2565" ht="22.5" customHeight="1">
+    <row r="2565" ht="22.5" hidden="1" customHeight="1">
       <c r="A2565" s="5">
         <v>46010.68818315973</v>
       </c>
@@ -68282,7 +68282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2566" ht="22.5" customHeight="1">
+    <row r="2566" ht="22.5" hidden="1" customHeight="1">
       <c r="A2566" s="5">
         <v>46010.689745069445</v>
       </c>
@@ -68308,7 +68308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2567" ht="22.5" customHeight="1">
+    <row r="2567" ht="22.5" hidden="1" customHeight="1">
       <c r="A2567" s="5">
         <v>46010.689891331014</v>
       </c>
@@ -68334,7 +68334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2568" ht="22.5" customHeight="1">
+    <row r="2568" ht="22.5" hidden="1" customHeight="1">
       <c r="A2568" s="5">
         <v>46010.698468726856</v>
       </c>
@@ -68360,7 +68360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2569" ht="22.5" customHeight="1">
+    <row r="2569" ht="22.5" hidden="1" customHeight="1">
       <c r="A2569" s="5">
         <v>46010.69863162037</v>
       </c>
@@ -68386,7 +68386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2570" ht="22.5" customHeight="1">
+    <row r="2570" ht="22.5" hidden="1" customHeight="1">
       <c r="A2570" s="5">
         <v>46010.69886758101</v>
       </c>
@@ -68412,7 +68412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2571" ht="22.5" customHeight="1">
+    <row r="2571" ht="22.5" hidden="1" customHeight="1">
       <c r="A2571" s="5">
         <v>46010.702832106486</v>
       </c>
@@ -68438,7 +68438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2572" ht="22.5" customHeight="1">
+    <row r="2572" ht="22.5" hidden="1" customHeight="1">
       <c r="A2572" s="5">
         <v>46010.70299414352</v>
       </c>
@@ -68464,7 +68464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2573" ht="22.5" customHeight="1">
+    <row r="2573" ht="22.5" hidden="1" customHeight="1">
       <c r="A2573" s="5">
         <v>46010.70315818287</v>
       </c>
@@ -68490,7 +68490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2574" ht="22.5" customHeight="1">
+    <row r="2574" ht="22.5" hidden="1" customHeight="1">
       <c r="A2574" s="5">
         <v>46011.36116439815</v>
       </c>
@@ -68516,7 +68516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2575" ht="22.5" customHeight="1">
+    <row r="2575" ht="22.5" hidden="1" customHeight="1">
       <c r="A2575" s="5">
         <v>46011.36194297454</v>
       </c>
@@ -68542,7 +68542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2576" ht="22.5" customHeight="1">
+    <row r="2576" ht="22.5" hidden="1" customHeight="1">
       <c r="A2576" s="5">
         <v>46011.36257939815</v>
       </c>
@@ -68568,7 +68568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2577" ht="22.5" customHeight="1">
+    <row r="2577" ht="22.5" hidden="1" customHeight="1">
       <c r="A2577" s="5">
         <v>46011.36303930556</v>
       </c>
@@ -68594,7 +68594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2578" ht="22.5" customHeight="1">
+    <row r="2578" ht="22.5" hidden="1" customHeight="1">
       <c r="A2578" s="5">
         <v>46011.36370047454</v>
       </c>
@@ -68620,7 +68620,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2579" ht="22.5" customHeight="1">
+    <row r="2579" ht="22.5" hidden="1" customHeight="1">
       <c r="A2579" s="5">
         <v>46011.364157986114</v>
       </c>
@@ -68646,7 +68646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2580" ht="22.5" customHeight="1">
+    <row r="2580" ht="22.5" hidden="1" customHeight="1">
       <c r="A2580" s="5">
         <v>46011.36491052083</v>
       </c>
@@ -68672,7 +68672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2581" ht="22.5" customHeight="1">
+    <row r="2581" ht="22.5" hidden="1" customHeight="1">
       <c r="A2581" s="5">
         <v>46011.36641270833</v>
       </c>
@@ -68698,7 +68698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2582" ht="22.5" customHeight="1">
+    <row r="2582" ht="22.5" hidden="1" customHeight="1">
       <c r="A2582" s="5">
         <v>46011.36754990741</v>
       </c>
@@ -68724,7 +68724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2583" ht="22.5" customHeight="1">
+    <row r="2583" ht="22.5" hidden="1" customHeight="1">
       <c r="A2583" s="5">
         <v>46011.3680284375</v>
       </c>
@@ -68750,7 +68750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2584" ht="22.5" customHeight="1">
+    <row r="2584" ht="22.5" hidden="1" customHeight="1">
       <c r="A2584" s="5">
         <v>46011.36899107639</v>
       </c>
@@ -68776,7 +68776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2585" ht="22.5" customHeight="1">
+    <row r="2585" ht="22.5" hidden="1" customHeight="1">
       <c r="A2585" s="5">
         <v>46011.36956982639</v>
       </c>
@@ -68802,7 +68802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2586" ht="22.5" customHeight="1">
+    <row r="2586" ht="22.5" hidden="1" customHeight="1">
       <c r="A2586" s="5">
         <v>46011.36990143519</v>
       </c>
@@ -68828,7 +68828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2587" ht="22.5" customHeight="1">
+    <row r="2587" ht="22.5" hidden="1" customHeight="1">
       <c r="A2587" s="5">
         <v>46011.37083474537</v>
       </c>
@@ -68854,7 +68854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2588" ht="22.5" customHeight="1">
+    <row r="2588" ht="22.5" hidden="1" customHeight="1">
       <c r="A2588" s="5">
         <v>46011.37155277778</v>
       </c>
@@ -68880,7 +68880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2589" ht="22.5" customHeight="1">
+    <row r="2589" ht="22.5" hidden="1" customHeight="1">
       <c r="A2589" s="5">
         <v>46011.37188224537</v>
       </c>
@@ -68906,7 +68906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2590" ht="22.5" customHeight="1">
+    <row r="2590" ht="22.5" hidden="1" customHeight="1">
       <c r="A2590" s="5">
         <v>46011.37250920139</v>
       </c>
@@ -68932,7 +68932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2591" ht="22.5" customHeight="1">
+    <row r="2591" ht="22.5" hidden="1" customHeight="1">
       <c r="A2591" s="5">
         <v>46011.37290135417</v>
       </c>
@@ -68958,7 +68958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2592" ht="22.5" customHeight="1">
+    <row r="2592" ht="22.5" hidden="1" customHeight="1">
       <c r="A2592" s="5">
         <v>46011.644947673616</v>
       </c>
@@ -68984,7 +68984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2593" ht="22.5" customHeight="1">
+    <row r="2593" ht="22.5" hidden="1" customHeight="1">
       <c r="A2593" s="5">
         <v>46011.64575946759</v>
       </c>
@@ -69010,7 +69010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2594" ht="22.5" customHeight="1">
+    <row r="2594" ht="22.5" hidden="1" customHeight="1">
       <c r="A2594" s="5">
         <v>46011.64679453704</v>
       </c>
@@ -69036,7 +69036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2595" ht="22.5" customHeight="1">
+    <row r="2595" ht="22.5" hidden="1" customHeight="1">
       <c r="A2595" s="5">
         <v>46011.64726376157</v>
       </c>
@@ -69062,7 +69062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2596" ht="22.5" customHeight="1">
+    <row r="2596" ht="22.5" hidden="1" customHeight="1">
       <c r="A2596" s="5">
         <v>46011.64855503472</v>
       </c>
@@ -69088,7 +69088,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2597" ht="22.5" customHeight="1">
+    <row r="2597" ht="22.5" hidden="1" customHeight="1">
       <c r="A2597" s="5">
         <v>46011.65217178241</v>
       </c>
@@ -69114,7 +69114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2598" ht="22.5" customHeight="1">
+    <row r="2598" ht="22.5" hidden="1" customHeight="1">
       <c r="A2598" s="5">
         <v>46011.65270490741</v>
       </c>
@@ -69140,7 +69140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2599" ht="22.5" customHeight="1">
+    <row r="2599" ht="22.5" hidden="1" customHeight="1">
       <c r="A2599" s="5">
         <v>46011.65336935185</v>
       </c>
@@ -69166,7 +69166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2600" ht="22.5" customHeight="1">
+    <row r="2600" ht="22.5" hidden="1" customHeight="1">
       <c r="A2600" s="5">
         <v>46011.65512840278</v>
       </c>
@@ -69192,7 +69192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2601" ht="22.5" customHeight="1">
+    <row r="2601" ht="22.5" hidden="1" customHeight="1">
       <c r="A2601" s="5">
         <v>46011.655611504626</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2602" ht="22.5" customHeight="1">
+    <row r="2602" ht="22.5" hidden="1" customHeight="1">
       <c r="A2602" s="5">
         <v>46011.65925834491</v>
       </c>
@@ -69244,7 +69244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2603" ht="22.5" customHeight="1">
+    <row r="2603" ht="22.5" hidden="1" customHeight="1">
       <c r="A2603" s="5">
         <v>46011.65957847222</v>
       </c>
@@ -69270,7 +69270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2604" ht="22.5" customHeight="1">
+    <row r="2604" ht="22.5" hidden="1" customHeight="1">
       <c r="A2604" s="5">
         <v>46011.659953912036</v>
       </c>
@@ -69296,7 +69296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2605" ht="22.5" customHeight="1">
+    <row r="2605" ht="22.5" hidden="1" customHeight="1">
       <c r="A2605" s="5">
         <v>46011.66039179398</v>
       </c>
@@ -69322,7 +69322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2606" ht="22.5" customHeight="1">
+    <row r="2606" ht="22.5" hidden="1" customHeight="1">
       <c r="A2606" s="5">
         <v>46011.66075746527</v>
       </c>
@@ -69348,7 +69348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2607" ht="22.5" customHeight="1">
+    <row r="2607" ht="22.5" hidden="1" customHeight="1">
       <c r="A2607" s="5">
         <v>46011.661354814816</v>
       </c>
@@ -69374,7 +69374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2608" ht="22.5" customHeight="1">
+    <row r="2608" ht="22.5" hidden="1" customHeight="1">
       <c r="A2608" s="5">
         <v>46011.66189505787</v>
       </c>
@@ -69400,7 +69400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2609" ht="22.5" customHeight="1">
+    <row r="2609" ht="22.5" hidden="1" customHeight="1">
       <c r="A2609" s="5">
         <v>46011.66219752315</v>
       </c>
@@ -69426,7 +69426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2610" ht="22.5" customHeight="1">
+    <row r="2610" ht="22.5" hidden="1" customHeight="1">
       <c r="A2610" s="5">
         <v>46011.662445787035</v>
       </c>
@@ -69452,7 +69452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2611" ht="22.5" customHeight="1">
+    <row r="2611" ht="22.5" hidden="1" customHeight="1">
       <c r="A2611" s="5">
         <v>46011.662733310186</v>
       </c>
@@ -69478,7 +69478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2612" ht="22.5" customHeight="1">
+    <row r="2612" ht="22.5" hidden="1" customHeight="1">
       <c r="A2612" s="5">
         <v>46011.66310677084</v>
       </c>
@@ -69504,7 +69504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2613" ht="22.5" customHeight="1">
+    <row r="2613" ht="22.5" hidden="1" customHeight="1">
       <c r="A2613" s="5">
         <v>46011.663499953705</v>
       </c>
@@ -69530,7 +69530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2614" ht="22.5" customHeight="1">
+    <row r="2614" ht="22.5" hidden="1" customHeight="1">
       <c r="A2614" s="5">
         <v>46011.66377085648</v>
       </c>
@@ -69556,7 +69556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2615" ht="22.5" customHeight="1">
+    <row r="2615" ht="22.5" hidden="1" customHeight="1">
       <c r="A2615" s="5">
         <v>46011.664039166666</v>
       </c>
@@ -69582,7 +69582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2616" ht="22.5" customHeight="1">
+    <row r="2616" ht="22.5" hidden="1" customHeight="1">
       <c r="A2616" s="5">
         <v>46011.66431335648</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2617" ht="22.5" customHeight="1">
+    <row r="2617" ht="22.5" hidden="1" customHeight="1">
       <c r="A2617" s="5">
         <v>46012.406275416666</v>
       </c>
@@ -69634,7 +69634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2618" ht="22.5" customHeight="1">
+    <row r="2618" ht="22.5" hidden="1" customHeight="1">
       <c r="A2618" s="5">
         <v>46012.40696774305</v>
       </c>
@@ -69660,7 +69660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2619" ht="22.5" customHeight="1">
+    <row r="2619" ht="22.5" hidden="1" customHeight="1">
       <c r="A2619" s="5">
         <v>46012.40735553241</v>
       </c>
@@ -69686,7 +69686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2620" ht="22.5" customHeight="1">
+    <row r="2620" ht="22.5" hidden="1" customHeight="1">
       <c r="A2620" s="5">
         <v>46012.407736747686</v>
       </c>
@@ -69712,7 +69712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2621" ht="22.5" customHeight="1">
+    <row r="2621" ht="22.5" hidden="1" customHeight="1">
       <c r="A2621" s="5">
         <v>46012.40803497685</v>
       </c>
@@ -69738,7 +69738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2622" ht="22.5" customHeight="1">
+    <row r="2622" ht="22.5" hidden="1" customHeight="1">
       <c r="A2622" s="5">
         <v>46012.408312280095</v>
       </c>
@@ -69764,7 +69764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2623" ht="22.5" customHeight="1">
+    <row r="2623" ht="22.5" hidden="1" customHeight="1">
       <c r="A2623" s="5">
         <v>46012.408646076394</v>
       </c>
@@ -69790,7 +69790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2624" ht="22.5" customHeight="1">
+    <row r="2624" ht="22.5" hidden="1" customHeight="1">
       <c r="A2624" s="5">
         <v>46012.409001064814</v>
       </c>
@@ -69816,7 +69816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2625" ht="22.5" customHeight="1">
+    <row r="2625" ht="22.5" hidden="1" customHeight="1">
       <c r="A2625" s="5">
         <v>46012.409509398145</v>
       </c>
@@ -69842,7 +69842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2626" ht="22.5" customHeight="1">
+    <row r="2626" ht="22.5" hidden="1" customHeight="1">
       <c r="A2626" s="5">
         <v>46012.409934525465</v>
       </c>
@@ -69868,7 +69868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2627" ht="22.5" customHeight="1">
+    <row r="2627" ht="22.5" hidden="1" customHeight="1">
       <c r="A2627" s="5">
         <v>46012.410468587965</v>
       </c>
@@ -69894,7 +69894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2628" ht="22.5" customHeight="1">
+    <row r="2628" ht="22.5" hidden="1" customHeight="1">
       <c r="A2628" s="5">
         <v>46012.41076921296</v>
       </c>
@@ -69920,7 +69920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2629" ht="22.5" customHeight="1">
+    <row r="2629" ht="22.5" hidden="1" customHeight="1">
       <c r="A2629" s="5">
         <v>46012.41105765046</v>
       </c>
@@ -69946,7 +69946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2630" ht="22.5" customHeight="1">
+    <row r="2630" ht="22.5" hidden="1" customHeight="1">
       <c r="A2630" s="5">
         <v>46012.411354027776</v>
       </c>
@@ -69972,7 +69972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2631" ht="22.5" customHeight="1">
+    <row r="2631" ht="22.5" hidden="1" customHeight="1">
       <c r="A2631" s="5">
         <v>46012.411611435185</v>
       </c>
@@ -69998,7 +69998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2632" ht="22.5" customHeight="1">
+    <row r="2632" ht="22.5" hidden="1" customHeight="1">
       <c r="A2632" s="5">
         <v>46012.41193630787</v>
       </c>
@@ -70024,7 +70024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2633" ht="22.5" customHeight="1">
+    <row r="2633" ht="22.5" hidden="1" customHeight="1">
       <c r="A2633" s="5">
         <v>46012.41230246528</v>
       </c>
@@ -70050,7 +70050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2634" ht="22.5" customHeight="1">
+    <row r="2634" ht="22.5" hidden="1" customHeight="1">
       <c r="A2634" s="5">
         <v>46012.416488877316</v>
       </c>
@@ -70076,7 +70076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2635" ht="22.5" customHeight="1">
+    <row r="2635" ht="22.5" hidden="1" customHeight="1">
       <c r="A2635" s="5">
         <v>46012.41720302083</v>
       </c>
@@ -70102,7 +70102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2636" ht="22.5" customHeight="1">
+    <row r="2636" ht="22.5" hidden="1" customHeight="1">
       <c r="A2636" s="5">
         <v>46012.417760729164</v>
       </c>
@@ -70128,7 +70128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2637" ht="22.5" customHeight="1">
+    <row r="2637" ht="22.5" hidden="1" customHeight="1">
       <c r="A2637" s="5">
         <v>46012.417966493056</v>
       </c>
@@ -70154,7 +70154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2638" ht="22.5" customHeight="1">
+    <row r="2638" ht="22.5" hidden="1" customHeight="1">
       <c r="A2638" s="5">
         <v>46013.335654027775</v>
       </c>
@@ -70180,7 +70180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2639" ht="22.5" customHeight="1">
+    <row r="2639" ht="22.5" hidden="1" customHeight="1">
       <c r="A2639" s="5">
         <v>46013.33618799769</v>
       </c>
@@ -70206,7 +70206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2640" ht="22.5" customHeight="1">
+    <row r="2640" ht="22.5" hidden="1" customHeight="1">
       <c r="A2640" s="5">
         <v>46013.33657557871</v>
       </c>
@@ -70232,7 +70232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2641" ht="22.5" customHeight="1">
+    <row r="2641" ht="22.5" hidden="1" customHeight="1">
       <c r="A2641" s="5">
         <v>46013.33698266203</v>
       </c>
@@ -70258,7 +70258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2642" ht="22.5" customHeight="1">
+    <row r="2642" ht="22.5" hidden="1" customHeight="1">
       <c r="A2642" s="5">
         <v>46013.33732827546</v>
       </c>
@@ -70284,7 +70284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2643" ht="22.5" customHeight="1">
+    <row r="2643" ht="22.5" hidden="1" customHeight="1">
       <c r="A2643" s="5">
         <v>46013.33771087963</v>
       </c>
@@ -70310,7 +70310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2644" ht="22.5" customHeight="1">
+    <row r="2644" ht="22.5" hidden="1" customHeight="1">
       <c r="A2644" s="5">
         <v>46013.33834283565</v>
       </c>
@@ -70336,7 +70336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2645" ht="22.5" customHeight="1">
+    <row r="2645" ht="22.5" hidden="1" customHeight="1">
       <c r="A2645" s="5">
         <v>46013.34011751157</v>
       </c>
@@ -70362,7 +70362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2646" ht="22.5" customHeight="1">
+    <row r="2646" ht="22.5" hidden="1" customHeight="1">
       <c r="A2646" s="5">
         <v>46013.342919675924</v>
       </c>
@@ -70388,7 +70388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2647" ht="22.5" customHeight="1">
+    <row r="2647" ht="22.5" hidden="1" customHeight="1">
       <c r="A2647" s="5">
         <v>46013.343977303244</v>
       </c>
@@ -70414,7 +70414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2648" ht="22.5" customHeight="1">
+    <row r="2648" ht="22.5" hidden="1" customHeight="1">
       <c r="A2648" s="5">
         <v>46013.35667259259</v>
       </c>
@@ -70440,7 +70440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2649" ht="22.5" customHeight="1">
+    <row r="2649" ht="22.5" hidden="1" customHeight="1">
       <c r="A2649" s="5">
         <v>46013.3570225</v>
       </c>
@@ -70466,7 +70466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2650" ht="22.5" customHeight="1">
+    <row r="2650" ht="22.5" hidden="1" customHeight="1">
       <c r="A2650" s="5">
         <v>46013.357438391206</v>
       </c>
@@ -70492,7 +70492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2651" ht="22.5" customHeight="1">
+    <row r="2651" ht="22.5" hidden="1" customHeight="1">
       <c r="A2651" s="5">
         <v>46013.35799391204</v>
       </c>
@@ -70518,7 +70518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2652" ht="22.5" customHeight="1">
+    <row r="2652" ht="22.5" hidden="1" customHeight="1">
       <c r="A2652" s="5">
         <v>46013.3583334838</v>
       </c>
@@ -70544,7 +70544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2653" ht="22.5" customHeight="1">
+    <row r="2653" ht="22.5" hidden="1" customHeight="1">
       <c r="A2653" s="5">
         <v>46013.358621203704</v>
       </c>
@@ -70570,7 +70570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2654" ht="22.5" customHeight="1">
+    <row r="2654" ht="22.5" hidden="1" customHeight="1">
       <c r="A2654" s="5">
         <v>46013.35895483797</v>
       </c>
@@ -70596,7 +70596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2655" ht="22.5" customHeight="1">
+    <row r="2655" ht="22.5" hidden="1" customHeight="1">
       <c r="A2655" s="5">
         <v>46013.35930568287</v>
       </c>
@@ -70622,7 +70622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2656" ht="22.5" customHeight="1">
+    <row r="2656" ht="22.5" hidden="1" customHeight="1">
       <c r="A2656" s="5">
         <v>46013.36087318287</v>
       </c>
@@ -70648,7 +70648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2657" ht="22.5" customHeight="1">
+    <row r="2657" ht="22.5" hidden="1" customHeight="1">
       <c r="A2657" s="5">
         <v>46013.36119708333</v>
       </c>
@@ -70674,7 +70674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2658" ht="22.5" customHeight="1">
+    <row r="2658" ht="22.5" hidden="1" customHeight="1">
       <c r="A2658" s="5">
         <v>46013.362917997685</v>
       </c>
@@ -70700,7 +70700,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2659" ht="22.5" customHeight="1">
+    <row r="2659" ht="22.5" hidden="1" customHeight="1">
       <c r="A2659" s="5">
         <v>46013.36359679398</v>
       </c>
@@ -70726,7 +70726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2660" ht="22.5" customHeight="1">
+    <row r="2660" ht="22.5" hidden="1" customHeight="1">
       <c r="A2660" s="5">
         <v>46013.364556238426</v>
       </c>
@@ -70752,7 +70752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2661" ht="22.5" customHeight="1">
+    <row r="2661" ht="22.5" hidden="1" customHeight="1">
       <c r="A2661" s="5">
         <v>46013.375676701384</v>
       </c>
@@ -70778,7 +70778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2662" ht="22.5" customHeight="1">
+    <row r="2662" ht="22.5" hidden="1" customHeight="1">
       <c r="A2662" s="5">
         <v>46013.376511400464</v>
       </c>
@@ -70804,13 +70804,1235 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2663" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2663" s="5">
+        <v>46013.63638091435</v>
+      </c>
+      <c r="B2663" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2663" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2663" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2663" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2663" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2663" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2663" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2664" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2664" s="5">
+        <v>46013.64290060185</v>
+      </c>
+      <c r="B2664" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2664" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2664" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2664" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2664" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2664" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2664" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2665" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2665" s="5">
+        <v>46013.644082893516</v>
+      </c>
+      <c r="B2665" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2665" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2665" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2665" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2665" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2665" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2665" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2666" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2666" s="5">
+        <v>46013.646062245374</v>
+      </c>
+      <c r="B2666" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2666" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2666" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2666" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2666" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2666" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2666" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2667" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2667" s="5">
+        <v>46013.64692101852</v>
+      </c>
+      <c r="B2667" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2667" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2667" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2667" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2667" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2667" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2667" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2668" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2668" s="5">
+        <v>46013.65180277778</v>
+      </c>
+      <c r="B2668" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2668" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2668" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2668" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2668" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2668" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2668" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2669" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2669" s="5">
+        <v>46013.65762892361</v>
+      </c>
+      <c r="B2669" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2669" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2669" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2669" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2669" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2669" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2669" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2670" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2670" s="5">
+        <v>46013.6579621875</v>
+      </c>
+      <c r="B2670" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2670" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2670" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2670" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2670" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2670" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2670" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2671" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2671" s="5">
+        <v>46013.66350510417</v>
+      </c>
+      <c r="B2671" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2671" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2671" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2671" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2671" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2671" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2671" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2672" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2672" s="5">
+        <v>46013.663840381945</v>
+      </c>
+      <c r="B2672" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2672" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2672" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2672" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2672" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2672" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2672" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2673" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2673" s="5">
+        <v>46013.66417862268</v>
+      </c>
+      <c r="B2673" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2673" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2673" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2673" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2673" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2673" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2673" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2674" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2674" s="5">
+        <v>46013.664499108796</v>
+      </c>
+      <c r="B2674" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2674" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2674" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2674" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2674" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2674" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2674" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2675" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2675" s="5">
+        <v>46013.6647893287</v>
+      </c>
+      <c r="B2675" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2675" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2675" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2675" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2675" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2675" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2675" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2676" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2676" s="5">
+        <v>46013.665156006944</v>
+      </c>
+      <c r="B2676" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2676" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2676" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2676" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2676" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2676" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2676" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2677" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2677" s="5">
+        <v>46013.66688496528</v>
+      </c>
+      <c r="B2677" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2677" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2677" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2677" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2677" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2677" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2677" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2678" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2678" s="5">
+        <v>46013.66868671296</v>
+      </c>
+      <c r="B2678" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2678" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2678" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2678" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2678" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2678" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2678" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2679" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2679" s="5">
+        <v>46013.670060358796</v>
+      </c>
+      <c r="B2679" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2679" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2679" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2679" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2679" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2679" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2679" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2680" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2680" s="5">
+        <v>46013.67331460648</v>
+      </c>
+      <c r="B2680" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2680" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2680" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2680" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2680" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2680" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2680" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2681" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2681" s="5">
+        <v>46013.6736204051</v>
+      </c>
+      <c r="B2681" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2681" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2681" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2681" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2681" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2681" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2681" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2682" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2682" s="5">
+        <v>46013.67488200231</v>
+      </c>
+      <c r="B2682" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2682" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2682" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2682" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2682" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2682" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2682" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2683" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2683" s="5">
+        <v>46013.68261574074</v>
+      </c>
+      <c r="B2683" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2683" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2683" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2683" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2683" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2683" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2683" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2684" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2684" s="5">
+        <v>46013.68291307871</v>
+      </c>
+      <c r="B2684" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2684" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2684" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2684" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2684" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2684" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2684" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2685" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2685" s="5">
+        <v>46013.68362329861</v>
+      </c>
+      <c r="B2685" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2685" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2685" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2685" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2685" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2685" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2685" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2686" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2686" s="5">
+        <v>46013.68426207176</v>
+      </c>
+      <c r="B2686" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2686" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2686" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2686" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2686" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2686" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2686" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2687" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2687" s="5">
+        <v>46013.68832883102</v>
+      </c>
+      <c r="B2687" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2687" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2687" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2687" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2687" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2687" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2687" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2688" ht="22.5" hidden="1" customHeight="1">
+      <c r="A2688" s="5">
+        <v>46013.688577152774</v>
+      </c>
+      <c r="B2688" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2688" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2688" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2688" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2688" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2688" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2688" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2689" ht="22.5" customHeight="1">
+      <c r="A2689" s="5">
+        <v>46014.355254062495</v>
+      </c>
+      <c r="B2689" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2689" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2689" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2689" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2689" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2689" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2689" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2690" ht="22.5" customHeight="1">
+      <c r="A2690" s="5">
+        <v>46014.366081238426</v>
+      </c>
+      <c r="B2690" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2690" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2690" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2690" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2690" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2690" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2690" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2691" ht="22.5" customHeight="1">
+      <c r="A2691" s="5">
+        <v>46014.366509178246</v>
+      </c>
+      <c r="B2691" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2691" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2691" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2691" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2691" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2691" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2691" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2692" ht="22.5" customHeight="1">
+      <c r="A2692" s="5">
+        <v>46014.36729189815</v>
+      </c>
+      <c r="B2692" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2692" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2692" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2692" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2692" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2692" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2692" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2693" ht="22.5" customHeight="1">
+      <c r="A2693" s="5">
+        <v>46014.36779369213</v>
+      </c>
+      <c r="B2693" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2693" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2693" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2693" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2693" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2693" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2693" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2694" ht="22.5" customHeight="1">
+      <c r="A2694" s="5">
+        <v>46014.368286620374</v>
+      </c>
+      <c r="B2694" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2694" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2694" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2694" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2694" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2694" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2694" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2695" ht="22.5" customHeight="1">
+      <c r="A2695" s="5">
+        <v>46014.36884717592</v>
+      </c>
+      <c r="B2695" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2695" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2695" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2695" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2695" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2695" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2695" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2696" ht="22.5" customHeight="1">
+      <c r="A2696" s="5">
+        <v>46014.369300185186</v>
+      </c>
+      <c r="B2696" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2696" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2696" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2696" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2696" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2696" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2696" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2697" ht="22.5" customHeight="1">
+      <c r="A2697" s="5">
+        <v>46014.36972478009</v>
+      </c>
+      <c r="B2697" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2697" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2697" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2697" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2697" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2697" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2697" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2698" ht="22.5" customHeight="1">
+      <c r="A2698" s="5">
+        <v>46014.37022012731</v>
+      </c>
+      <c r="B2698" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2698" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2698" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2698" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2698" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2698" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2698" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2699" ht="22.5" customHeight="1">
+      <c r="A2699" s="5">
+        <v>46014.37053568287</v>
+      </c>
+      <c r="B2699" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2699" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2699" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2699" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2699" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2699" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2699" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2700" ht="22.5" customHeight="1">
+      <c r="A2700" s="5">
+        <v>46014.37097525463</v>
+      </c>
+      <c r="B2700" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2700" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2700" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2700" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2700" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2700" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2700" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2701" ht="22.5" customHeight="1">
+      <c r="A2701" s="5">
+        <v>46014.37143585648</v>
+      </c>
+      <c r="B2701" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2701" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2701" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2701" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2701" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2701" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2701" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2702" ht="22.5" customHeight="1">
+      <c r="A2702" s="5">
+        <v>46014.37370295139</v>
+      </c>
+      <c r="B2702" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2702" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2702" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2702" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2702" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2702" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2702" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2703" ht="22.5" customHeight="1">
+      <c r="A2703" s="5">
+        <v>46014.374090625</v>
+      </c>
+      <c r="B2703" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2703" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2703" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2703" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2703" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2703" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2703" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2704" ht="22.5" customHeight="1">
+      <c r="A2704" s="5">
+        <v>46014.374461886575</v>
+      </c>
+      <c r="B2704" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2704" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2704" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2704" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2704" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2704" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2704" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2705" ht="22.5" customHeight="1">
+      <c r="A2705" s="5">
+        <v>46014.374851342596</v>
+      </c>
+      <c r="B2705" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2705" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2705" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2705" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2705" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2705" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2705" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2706" ht="22.5" customHeight="1">
+      <c r="A2706" s="5">
+        <v>46014.375244062496</v>
+      </c>
+      <c r="B2706" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2706" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2706" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2706" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2706" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2706" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2706" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2707" ht="22.5" customHeight="1">
+      <c r="A2707" s="5">
+        <v>46014.37572994213</v>
+      </c>
+      <c r="B2707" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2707" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2707" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2707" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2707" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2707" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2707" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2708" ht="22.5" customHeight="1">
+      <c r="A2708" s="5">
+        <v>46014.37598351852</v>
+      </c>
+      <c r="B2708" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2708" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2708" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2708" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2708" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2708" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2708" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2709" ht="22.5" customHeight="1">
+      <c r="A2709" s="5">
+        <v>46014.377127314816</v>
+      </c>
+      <c r="B2709" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2709" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2709" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2709" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2709" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2709" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2709" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2762">
+  <conditionalFormatting sqref="D1:D2809">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2762">
+  <conditionalFormatting sqref="G2:G2809">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2709</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2711</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18964" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18978" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2709" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2709">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2711" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2711">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -72026,13 +72026,65 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2710" ht="22.5" customHeight="1">
+      <c r="A2710" s="5">
+        <v>46014.38273574074</v>
+      </c>
+      <c r="B2710" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2710" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2710" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2710" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2710" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2710" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2710" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2711" ht="22.5" customHeight="1">
+      <c r="A2711" s="5">
+        <v>46014.38317577547</v>
+      </c>
+      <c r="B2711" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2711" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2711" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2711" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2711" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2711" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2711" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2809">
+  <conditionalFormatting sqref="D1:D2811">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2809">
+  <conditionalFormatting sqref="G2:G2811">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2711</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2716</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18978" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19013" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2711" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2711">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2716" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2716">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -72078,13 +72078,143 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2712" ht="22.5" customHeight="1">
+      <c r="A2712" s="5">
+        <v>46014.631960115745</v>
+      </c>
+      <c r="B2712" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2712" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2712" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2712" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2712" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2712" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2712" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2713" ht="22.5" customHeight="1">
+      <c r="A2713" s="5">
+        <v>46014.63232362269</v>
+      </c>
+      <c r="B2713" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2713" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2713" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2713" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2713" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2713" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2713" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2714" ht="22.5" customHeight="1">
+      <c r="A2714" s="5">
+        <v>46014.63275675926</v>
+      </c>
+      <c r="B2714" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2714" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2714" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2714" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2714" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2714" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2714" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2715" ht="22.5" customHeight="1">
+      <c r="A2715" s="5">
+        <v>46014.633084270834</v>
+      </c>
+      <c r="B2715" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2715" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2715" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2715" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2715" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2715" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2715" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2716" ht="22.5" customHeight="1">
+      <c r="A2716" s="5">
+        <v>46014.64826628473</v>
+      </c>
+      <c r="B2716" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2716" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2716" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2716" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2716" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2716" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2716" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2811">
+  <conditionalFormatting sqref="D1:D2816">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2811">
+  <conditionalFormatting sqref="G2:G2816">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2716</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2741</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19013" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19188" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2716" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2716">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2741" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2741">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -72208,13 +72208,663 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2717" ht="22.5" customHeight="1">
+      <c r="A2717" s="5">
+        <v>46015.342232337964</v>
+      </c>
+      <c r="B2717" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2717" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2717" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2717" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2717" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2717" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2717" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2718" ht="22.5" customHeight="1">
+      <c r="A2718" s="5">
+        <v>46015.345183321755</v>
+      </c>
+      <c r="B2718" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2718" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2718" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2718" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2718" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2718" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2718" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2719" ht="22.5" customHeight="1">
+      <c r="A2719" s="5">
+        <v>46015.346323935184</v>
+      </c>
+      <c r="B2719" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2719" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2719" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2719" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2719" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2719" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2719" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2720" ht="22.5" customHeight="1">
+      <c r="A2720" s="5">
+        <v>46015.34721195602</v>
+      </c>
+      <c r="B2720" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2720" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2720" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2720" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2720" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2720" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2720" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2721" ht="22.5" customHeight="1">
+      <c r="A2721" s="5">
+        <v>46015.3498609838</v>
+      </c>
+      <c r="B2721" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2721" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2721" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2721" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2721" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2721" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2721" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2722" ht="22.5" customHeight="1">
+      <c r="A2722" s="5">
+        <v>46015.35064265046</v>
+      </c>
+      <c r="B2722" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2722" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2722" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2722" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2722" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2722" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2722" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2723" ht="22.5" customHeight="1">
+      <c r="A2723" s="5">
+        <v>46015.351042002316</v>
+      </c>
+      <c r="B2723" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2723" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2723" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2723" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2723" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2723" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2723" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2724" ht="22.5" customHeight="1">
+      <c r="A2724" s="5">
+        <v>46015.35153733796</v>
+      </c>
+      <c r="B2724" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2724" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2724" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2724" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2724" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2724" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2724" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2725" ht="22.5" customHeight="1">
+      <c r="A2725" s="5">
+        <v>46015.35193912037</v>
+      </c>
+      <c r="B2725" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2725" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2725" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2725" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2725" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2725" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2725" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2726" ht="22.5" customHeight="1">
+      <c r="A2726" s="5">
+        <v>46015.35226402778</v>
+      </c>
+      <c r="B2726" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2726" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2726" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2726" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2726" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2726" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2726" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2727" ht="22.5" customHeight="1">
+      <c r="A2727" s="5">
+        <v>46015.35463725694</v>
+      </c>
+      <c r="B2727" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2727" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2727" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2727" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2727" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2727" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2727" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2728" ht="22.5" customHeight="1">
+      <c r="A2728" s="5">
+        <v>46015.35494684028</v>
+      </c>
+      <c r="B2728" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2728" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2728" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2728" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2728" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2728" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2728" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2729" ht="22.5" customHeight="1">
+      <c r="A2729" s="5">
+        <v>46015.35513675926</v>
+      </c>
+      <c r="B2729" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2729" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2729" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2729" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2729" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2729" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2729" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2730" ht="22.5" customHeight="1">
+      <c r="A2730" s="5">
+        <v>46015.355645972224</v>
+      </c>
+      <c r="B2730" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2730" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2730" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2730" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2730" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2730" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2730" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2731" ht="22.5" customHeight="1">
+      <c r="A2731" s="5">
+        <v>46015.35642765046</v>
+      </c>
+      <c r="B2731" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2731" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2731" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2731" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2731" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2731" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2731" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2732" ht="22.5" customHeight="1">
+      <c r="A2732" s="5">
+        <v>46015.356692430556</v>
+      </c>
+      <c r="B2732" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2732" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2732" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2732" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2732" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2732" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2732" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2733" ht="22.5" customHeight="1">
+      <c r="A2733" s="5">
+        <v>46015.357331527775</v>
+      </c>
+      <c r="B2733" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2733" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2733" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2733" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2733" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2733" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2733" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2734" ht="22.5" customHeight="1">
+      <c r="A2734" s="5">
+        <v>46015.35754813657</v>
+      </c>
+      <c r="B2734" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2734" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2734" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2734" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2734" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2734" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2734" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2735" ht="22.5" customHeight="1">
+      <c r="A2735" s="5">
+        <v>46015.35786024306</v>
+      </c>
+      <c r="B2735" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2735" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2735" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2735" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2735" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2735" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2735" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2736" ht="22.5" customHeight="1">
+      <c r="A2736" s="5">
+        <v>46015.358132256944</v>
+      </c>
+      <c r="B2736" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2736" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2736" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2736" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2736" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2736" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2736" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2737" ht="22.5" customHeight="1">
+      <c r="A2737" s="5">
+        <v>46015.35835894676</v>
+      </c>
+      <c r="B2737" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2737" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2737" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2737" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2737" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2737" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2737" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2738" ht="22.5" customHeight="1">
+      <c r="A2738" s="5">
+        <v>46015.35867284722</v>
+      </c>
+      <c r="B2738" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2738" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2738" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2738" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2738" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2738" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2738" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2739" ht="22.5" customHeight="1">
+      <c r="A2739" s="5">
+        <v>46015.359006134255</v>
+      </c>
+      <c r="B2739" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2739" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2739" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2739" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2739" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2739" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2739" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2740" ht="22.5" customHeight="1">
+      <c r="A2740" s="5">
+        <v>46015.35922329861</v>
+      </c>
+      <c r="B2740" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2740" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2740" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2740" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2740" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2740" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2740" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2741" ht="22.5" customHeight="1">
+      <c r="A2741" s="5">
+        <v>46015.359501342595</v>
+      </c>
+      <c r="B2741" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2741" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2741" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2741" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2741" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2741" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2741" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2816">
+  <conditionalFormatting sqref="D1:D2841">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2816">
+  <conditionalFormatting sqref="G2:G2841">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2741</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2766</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19188" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19363" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,8 +1344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2741" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2741">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2766" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2766">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -72858,13 +72858,663 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2742" ht="22.5" customHeight="1">
+      <c r="A2742" s="5">
+        <v>46017.65404252315</v>
+      </c>
+      <c r="B2742" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2742" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2742" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2742" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2742" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2742" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2742" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2743" ht="22.5" customHeight="1">
+      <c r="A2743" s="5">
+        <v>46017.69704168981</v>
+      </c>
+      <c r="B2743" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2743" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2743" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2743" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2743" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2743" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2743" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2744" ht="22.5" customHeight="1">
+      <c r="A2744" s="5">
+        <v>46017.70075290509</v>
+      </c>
+      <c r="B2744" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2744" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2744" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2744" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2744" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2744" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2744" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2745" ht="22.5" customHeight="1">
+      <c r="A2745" s="5">
+        <v>46017.702354629626</v>
+      </c>
+      <c r="B2745" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2745" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2745" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2745" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2745" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2745" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2745" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2746" ht="22.5" customHeight="1">
+      <c r="A2746" s="5">
+        <v>46017.70461512731</v>
+      </c>
+      <c r="B2746" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2746" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2746" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2746" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2746" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2746" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2746" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2747" ht="22.5" customHeight="1">
+      <c r="A2747" s="5">
+        <v>46017.71299413194</v>
+      </c>
+      <c r="B2747" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2747" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2747" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2747" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2747" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2747" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2747" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2748" ht="22.5" customHeight="1">
+      <c r="A2748" s="5">
+        <v>46017.721597615746</v>
+      </c>
+      <c r="B2748" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2748" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2748" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2748" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2748" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2748" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2748" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2749" ht="22.5" customHeight="1">
+      <c r="A2749" s="5">
+        <v>46017.72260340278</v>
+      </c>
+      <c r="B2749" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2749" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2749" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2749" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2749" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2749" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2749" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2750" ht="22.5" customHeight="1">
+      <c r="A2750" s="5">
+        <v>46017.72319462963</v>
+      </c>
+      <c r="B2750" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2750" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2750" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2750" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2750" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2750" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2750" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2751" ht="22.5" customHeight="1">
+      <c r="A2751" s="5">
+        <v>46017.723553738426</v>
+      </c>
+      <c r="B2751" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2751" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2751" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2751" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2751" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2751" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2751" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2752" ht="22.5" customHeight="1">
+      <c r="A2752" s="5">
+        <v>46017.72403891204</v>
+      </c>
+      <c r="B2752" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2752" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2752" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2752" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2752" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2752" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2752" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2753" ht="22.5" customHeight="1">
+      <c r="A2753" s="5">
+        <v>46017.724511203705</v>
+      </c>
+      <c r="B2753" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2753" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2753" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2753" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2753" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2753" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2753" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2754" ht="22.5" customHeight="1">
+      <c r="A2754" s="5">
+        <v>46017.724791863424</v>
+      </c>
+      <c r="B2754" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2754" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2754" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2754" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2754" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2754" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2754" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2755" ht="22.5" customHeight="1">
+      <c r="A2755" s="5">
+        <v>46017.72511119213</v>
+      </c>
+      <c r="B2755" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2755" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2755" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2755" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2755" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2755" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2755" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2756" ht="22.5" customHeight="1">
+      <c r="A2756" s="5">
+        <v>46017.725667824074</v>
+      </c>
+      <c r="B2756" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2756" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2756" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2756" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2756" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2756" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2756" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2757" ht="22.5" customHeight="1">
+      <c r="A2757" s="5">
+        <v>46017.72664543982</v>
+      </c>
+      <c r="B2757" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2757" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2757" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2757" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2757" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2757" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2757" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2758" ht="22.5" customHeight="1">
+      <c r="A2758" s="5">
+        <v>46017.728758287034</v>
+      </c>
+      <c r="B2758" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2758" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2758" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2758" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2758" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2758" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2758" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2759" ht="22.5" customHeight="1">
+      <c r="A2759" s="5">
+        <v>46017.72990052083</v>
+      </c>
+      <c r="B2759" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2759" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2759" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2759" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2759" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2759" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2759" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2760" ht="22.5" customHeight="1">
+      <c r="A2760" s="5">
+        <v>46017.73052435185</v>
+      </c>
+      <c r="B2760" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2760" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2760" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2760" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2760" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2760" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2760" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2761" ht="22.5" customHeight="1">
+      <c r="A2761" s="5">
+        <v>46017.731392291666</v>
+      </c>
+      <c r="B2761" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2761" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2761" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2761" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2761" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2761" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2761" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2762" ht="22.5" customHeight="1">
+      <c r="A2762" s="5">
+        <v>46017.7322216551</v>
+      </c>
+      <c r="B2762" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2762" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2762" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2762" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2762" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2762" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2762" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2763" ht="22.5" customHeight="1">
+      <c r="A2763" s="5">
+        <v>46017.7332721412</v>
+      </c>
+      <c r="B2763" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2763" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2763" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2763" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2763" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2763" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2763" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2764" ht="22.5" customHeight="1">
+      <c r="A2764" s="5">
+        <v>46017.74011416666</v>
+      </c>
+      <c r="B2764" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2764" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2764" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2764" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2764" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2764" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2764" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2765" ht="22.5" customHeight="1">
+      <c r="A2765" s="5">
+        <v>46017.74080305555</v>
+      </c>
+      <c r="B2765" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2765" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2765" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2765" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2765" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2765" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2765" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2766" ht="22.5" customHeight="1">
+      <c r="A2766" s="5">
+        <v>46017.74195659722</v>
+      </c>
+      <c r="B2766" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2766" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2766" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2766" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2766" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2766" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2766" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2841">
+  <conditionalFormatting sqref="D1:D2866">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2841">
+  <conditionalFormatting sqref="G2:G2866">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>

--- a/data/bienestar_jugador_primer_equipo_respuestas.xlsx
+++ b/data/bienestar_jugador_primer_equipo_respuestas.xlsx
@@ -4,16 +4,17 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="RPE" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2766</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$H$2793</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19363" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20025" uniqueCount="418">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1202,15 +1203,82 @@
   <si>
     <t>9 Isquiotibial izquierdo, 14 pantorrilla derecha, 15 espalda baja</t>
   </si>
+  <si>
+    <t>Día de la semana</t>
+  </si>
+  <si>
+    <t>Nombre del Jugador</t>
+  </si>
+  <si>
+    <t>RPE de la sesión</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizaste activación, movilidad, foamroller o preventivos antes del entrenamiento? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiciste alguna estrategia de recuperación después de entrenar? </t>
+  </si>
+  <si>
+    <t>3 moderado</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>4 algo duro</t>
+  </si>
+  <si>
+    <t>Ralph Orquín</t>
+  </si>
+  <si>
+    <t>6 más que duro</t>
+  </si>
+  <si>
+    <t>5 duro</t>
+  </si>
+  <si>
+    <t>7 muy duro</t>
+  </si>
+  <si>
+    <t>2 fácil</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Alejando Zendejas</t>
+  </si>
+  <si>
+    <t>José Raúl Zuñiga</t>
+  </si>
+  <si>
+    <t>Diego Arriaga</t>
+  </si>
+  <si>
+    <t>Diego Reyes</t>
+  </si>
+  <si>
+    <t>8 muy muy duro</t>
+  </si>
+  <si>
+    <t>1 muy muy fácil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d/MM/yyyy H:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1222,22 +1290,146 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA9999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEA9999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEA9999"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1258,6 +1450,42 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,8 +1556,14 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="2">
     <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="RPE-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1343,9 +1577,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2766" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$H$2766">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H2793" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$H$2793">
     <filterColumn colId="2">
       <filters>
         <filter val="Álvaro fidalgo"/>
@@ -1372,6 +1610,22 @@
     <tableColumn name="Donde te encuentras adolorido? Indica cada zona de dolor" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H94" displayName="Tabla_1" name="Tabla_1" id="2">
+  <tableColumns count="8">
+    <tableColumn name="Marca temporal" id="1"/>
+    <tableColumn name="Día de la semana" id="2"/>
+    <tableColumn name="Nombre del Jugador" id="3"/>
+    <tableColumn name="RPE de la sesión" id="4"/>
+    <tableColumn name="Valor" id="5"/>
+    <tableColumn name="RPE" id="6"/>
+    <tableColumn name="Realizaste activación, movilidad, foamroller o preventivos antes del entrenamiento? " id="7"/>
+    <tableColumn name="Hiciste alguna estrategia de recuperación después de entrenar? " id="8"/>
+  </tableColumns>
+  <tableStyleInfo name="RPE-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -42932,7 +43186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1591" ht="22.5" hidden="1" customHeight="1">
+    <row r="1591" ht="22.5" customHeight="1">
       <c r="A1591" s="5">
         <v>45881.40468253472</v>
       </c>
@@ -43270,7 +43524,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1604" ht="22.5" hidden="1" customHeight="1">
+    <row r="1604" ht="22.5" customHeight="1">
       <c r="A1604" s="5">
         <v>45882.39004302083</v>
       </c>
@@ -43764,7 +44018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="1623" ht="22.5" hidden="1" customHeight="1">
+    <row r="1623" ht="22.5" customHeight="1">
       <c r="A1623" s="5">
         <v>45883.374393125</v>
       </c>
@@ -44492,7 +44746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" ht="22.5" hidden="1" customHeight="1">
+    <row r="1651" ht="22.5" customHeight="1">
       <c r="A1651" s="5">
         <v>45884.41920474537</v>
       </c>
@@ -44544,7 +44798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1653" ht="22.5" hidden="1" customHeight="1">
+    <row r="1653" ht="22.5" customHeight="1">
       <c r="A1653" s="5">
         <v>45887.3809612037</v>
       </c>
@@ -44986,7 +45240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1670" ht="22.5" hidden="1" customHeight="1">
+    <row r="1670" ht="22.5" customHeight="1">
       <c r="A1670" s="5">
         <v>45888.39140821759</v>
       </c>
@@ -45610,7 +45864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="1694" ht="22.5" hidden="1" customHeight="1">
+    <row r="1694" ht="22.5" customHeight="1">
       <c r="A1694" s="5">
         <v>45889.379339872685</v>
       </c>
@@ -46234,7 +46488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1718" ht="22.5" hidden="1" customHeight="1">
+    <row r="1718" ht="22.5" customHeight="1">
       <c r="A1718" s="5">
         <v>45890.392384004634</v>
       </c>
@@ -46858,7 +47112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1742" ht="22.5" hidden="1" customHeight="1">
+    <row r="1742" ht="22.5" customHeight="1">
       <c r="A1742" s="5">
         <v>45891.3899556713</v>
       </c>
@@ -47404,7 +47658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1763" ht="22.5" hidden="1" customHeight="1">
+    <row r="1763" ht="22.5" customHeight="1">
       <c r="A1763" s="5">
         <v>45892.36715967592</v>
       </c>
@@ -47768,7 +48022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1777" ht="22.5" hidden="1" customHeight="1">
+    <row r="1777" ht="22.5" customHeight="1">
       <c r="A1777" s="5">
         <v>45895.38965509259</v>
       </c>
@@ -48080,7 +48334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1789" ht="22.5" hidden="1" customHeight="1">
+    <row r="1789" ht="22.5" customHeight="1">
       <c r="A1789" s="5">
         <v>45896.371080972225</v>
       </c>
@@ -48704,7 +48958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1813" ht="22.5" hidden="1" customHeight="1">
+    <row r="1813" ht="22.5" customHeight="1">
       <c r="A1813" s="5">
         <v>45897.380201249995</v>
       </c>
@@ -49328,7 +49582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1837" ht="22.5" hidden="1" customHeight="1">
+    <row r="1837" ht="22.5" customHeight="1">
       <c r="A1837" s="5">
         <v>45898.389731979165</v>
       </c>
@@ -49744,7 +49998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1853" ht="22.5" hidden="1" customHeight="1">
+    <row r="1853" ht="22.5" customHeight="1">
       <c r="A1853" s="5">
         <v>45904.40915924768</v>
       </c>
@@ -49900,7 +50154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1859" ht="22.5" hidden="1" customHeight="1">
+    <row r="1859" ht="22.5" customHeight="1">
       <c r="A1859" s="5">
         <v>45908.398801041665</v>
       </c>
@@ -50446,7 +50700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1880" ht="22.5" hidden="1" customHeight="1">
+    <row r="1880" ht="22.5" customHeight="1">
       <c r="A1880" s="5">
         <v>45909.38609510417</v>
       </c>
@@ -50836,7 +51090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1895" ht="22.5" hidden="1" customHeight="1">
+    <row r="1895" ht="22.5" customHeight="1">
       <c r="A1895" s="5">
         <v>45910.38872837963</v>
       </c>
@@ -51746,7 +52000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1930" ht="22.5" hidden="1" customHeight="1">
+    <row r="1930" ht="22.5" customHeight="1">
       <c r="A1930" s="5">
         <v>45911.399243576394</v>
       </c>
@@ -52188,7 +52442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1947" ht="22.5" hidden="1" customHeight="1">
+    <row r="1947" ht="22.5" customHeight="1">
       <c r="A1947" s="5">
         <v>45912.37963631944</v>
       </c>
@@ -52838,7 +53092,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1972" ht="22.5" hidden="1" customHeight="1">
+    <row r="1972" ht="22.5" customHeight="1">
       <c r="A1972" s="5">
         <v>45915.40587287037</v>
       </c>
@@ -53098,7 +53352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1982" ht="22.5" hidden="1" customHeight="1">
+    <row r="1982" ht="22.5" customHeight="1">
       <c r="A1982" s="5">
         <v>45916.39928375</v>
       </c>
@@ -53774,7 +54028,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2008" ht="22.5" hidden="1" customHeight="1">
+    <row r="2008" ht="22.5" customHeight="1">
       <c r="A2008" s="5">
         <v>45917.394830000005</v>
       </c>
@@ -54320,7 +54574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2029" ht="22.5" hidden="1" customHeight="1">
+    <row r="2029" ht="22.5" customHeight="1">
       <c r="A2029" s="5">
         <v>45918.392201863426</v>
       </c>
@@ -54944,7 +55198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2053" ht="22.5" hidden="1" customHeight="1">
+    <row r="2053" ht="22.5" customHeight="1">
       <c r="A2053" s="5">
         <v>45919.38368543981</v>
       </c>
@@ -55412,7 +55666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2071" ht="22.5" hidden="1" customHeight="1">
+    <row r="2071" ht="22.5" customHeight="1">
       <c r="A2071" s="5">
         <v>45922.38489828704</v>
       </c>
@@ -55828,7 +56082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2087" ht="22.5" hidden="1" customHeight="1">
+    <row r="2087" ht="22.5" customHeight="1">
       <c r="A2087" s="5">
         <v>45923.38983987269</v>
       </c>
@@ -56426,7 +56680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2110" ht="22.5" hidden="1" customHeight="1">
+    <row r="2110" ht="22.5" customHeight="1">
       <c r="A2110" s="5">
         <v>45926.40699524306</v>
       </c>
@@ -56764,7 +57018,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2123" ht="22.5" hidden="1" customHeight="1">
+    <row r="2123" ht="22.5" customHeight="1">
       <c r="A2123" s="5">
         <v>45930.38858100695</v>
       </c>
@@ -57154,7 +57408,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2138" ht="22.5" hidden="1" customHeight="1">
+    <row r="2138" ht="22.5" customHeight="1">
       <c r="A2138" s="5">
         <v>45931.38799164352</v>
       </c>
@@ -58688,7 +58942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2197" ht="22.5" hidden="1" customHeight="1">
+    <row r="2197" ht="22.5" customHeight="1">
       <c r="A2197" s="5">
         <v>45943.45935690972</v>
       </c>
@@ -58922,7 +59176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2206" ht="22.5" hidden="1" customHeight="1">
+    <row r="2206" ht="22.5" customHeight="1">
       <c r="A2206" s="5">
         <v>45944.382605949075</v>
       </c>
@@ -59364,7 +59618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2223" ht="22.5" hidden="1" customHeight="1">
+    <row r="2223" ht="22.5" customHeight="1">
       <c r="A2223" s="5">
         <v>45947.403554282406</v>
       </c>
@@ -59702,7 +59956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2236" ht="22.5" hidden="1" customHeight="1">
+    <row r="2236" ht="22.5" customHeight="1">
       <c r="A2236" s="5">
         <v>45949.42311469908</v>
       </c>
@@ -60222,7 +60476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2256" ht="22.5" hidden="1" customHeight="1">
+    <row r="2256" ht="22.5" customHeight="1">
       <c r="A2256" s="5">
         <v>45952.38742313658</v>
       </c>
@@ -60586,7 +60840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2270" ht="22.5" hidden="1" customHeight="1">
+    <row r="2270" ht="22.5" customHeight="1">
       <c r="A2270" s="5">
         <v>45953.32561439815</v>
       </c>
@@ -61288,7 +61542,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2297" ht="22.5" hidden="1" customHeight="1">
+    <row r="2297" ht="22.5" customHeight="1">
       <c r="A2297" s="5">
         <v>45957.37074780093</v>
       </c>
@@ -61704,7 +61958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2313" ht="22.5" hidden="1" customHeight="1">
+    <row r="2313" ht="22.5" customHeight="1">
       <c r="A2313" s="5">
         <v>45958.35920699074</v>
       </c>
@@ -63004,7 +63258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2363" ht="22.5" hidden="1" customHeight="1">
+    <row r="2363" ht="22.5" customHeight="1">
       <c r="A2363" s="5">
         <v>45964.400345243055</v>
       </c>
@@ -63810,7 +64064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2394" ht="22.5" hidden="1" customHeight="1">
+    <row r="2394" ht="22.5" customHeight="1">
       <c r="A2394" s="5">
         <v>45966.37463479167</v>
       </c>
@@ -64460,7 +64714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2419" ht="22.5" hidden="1" customHeight="1">
+    <row r="2419" ht="22.5" customHeight="1">
       <c r="A2419" s="5">
         <v>45967.390986087965</v>
       </c>
@@ -64928,7 +65182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2437" ht="22.5" hidden="1" customHeight="1">
+    <row r="2437" ht="22.5" customHeight="1">
       <c r="A2437" s="5">
         <v>45968.389227569445</v>
       </c>
@@ -65162,7 +65416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2446" ht="22.5" hidden="1" customHeight="1">
+    <row r="2446" ht="22.5" customHeight="1">
       <c r="A2446" s="5">
         <v>45979.38241262731</v>
       </c>
@@ -65552,7 +65806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2461" ht="22.5" hidden="1" customHeight="1">
+    <row r="2461" ht="22.5" customHeight="1">
       <c r="A2461" s="5">
         <v>45980.37654516204</v>
       </c>
@@ -65942,7 +66196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2476" ht="22.5" hidden="1" customHeight="1">
+    <row r="2476" ht="22.5" customHeight="1">
       <c r="A2476" s="5">
         <v>45981.38114978009</v>
       </c>
@@ -68126,7 +68380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2560" ht="22.5" hidden="1" customHeight="1">
+    <row r="2560" ht="22.5" customHeight="1">
       <c r="A2560" s="5">
         <v>46010.6586277662</v>
       </c>
@@ -68152,7 +68406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2561" ht="22.5" hidden="1" customHeight="1">
+    <row r="2561" ht="22.5" customHeight="1">
       <c r="A2561" s="5">
         <v>46010.6602537037</v>
       </c>
@@ -68178,7 +68432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2562" ht="22.5" hidden="1" customHeight="1">
+    <row r="2562" ht="22.5" customHeight="1">
       <c r="A2562" s="5">
         <v>46010.68708289352</v>
       </c>
@@ -68204,7 +68458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2563" ht="22.5" hidden="1" customHeight="1">
+    <row r="2563" ht="22.5" customHeight="1">
       <c r="A2563" s="5">
         <v>46010.68727944445</v>
       </c>
@@ -68230,7 +68484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2564" ht="22.5" hidden="1" customHeight="1">
+    <row r="2564" ht="22.5" customHeight="1">
       <c r="A2564" s="5">
         <v>46010.68803590278</v>
       </c>
@@ -68256,7 +68510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2565" ht="22.5" hidden="1" customHeight="1">
+    <row r="2565" ht="22.5" customHeight="1">
       <c r="A2565" s="5">
         <v>46010.68818315973</v>
       </c>
@@ -68282,7 +68536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2566" ht="22.5" hidden="1" customHeight="1">
+    <row r="2566" ht="22.5" customHeight="1">
       <c r="A2566" s="5">
         <v>46010.689745069445</v>
       </c>
@@ -68308,7 +68562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2567" ht="22.5" hidden="1" customHeight="1">
+    <row r="2567" ht="22.5" customHeight="1">
       <c r="A2567" s="5">
         <v>46010.689891331014</v>
       </c>
@@ -68334,7 +68588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2568" ht="22.5" hidden="1" customHeight="1">
+    <row r="2568" ht="22.5" customHeight="1">
       <c r="A2568" s="5">
         <v>46010.698468726856</v>
       </c>
@@ -68360,7 +68614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2569" ht="22.5" hidden="1" customHeight="1">
+    <row r="2569" ht="22.5" customHeight="1">
       <c r="A2569" s="5">
         <v>46010.69863162037</v>
       </c>
@@ -68386,7 +68640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2570" ht="22.5" hidden="1" customHeight="1">
+    <row r="2570" ht="22.5" customHeight="1">
       <c r="A2570" s="5">
         <v>46010.69886758101</v>
       </c>
@@ -68412,7 +68666,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2571" ht="22.5" hidden="1" customHeight="1">
+    <row r="2571" ht="22.5" customHeight="1">
       <c r="A2571" s="5">
         <v>46010.702832106486</v>
       </c>
@@ -68438,7 +68692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2572" ht="22.5" hidden="1" customHeight="1">
+    <row r="2572" ht="22.5" customHeight="1">
       <c r="A2572" s="5">
         <v>46010.70299414352</v>
       </c>
@@ -68464,7 +68718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2573" ht="22.5" hidden="1" customHeight="1">
+    <row r="2573" ht="22.5" customHeight="1">
       <c r="A2573" s="5">
         <v>46010.70315818287</v>
       </c>
@@ -68490,7 +68744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2574" ht="22.5" hidden="1" customHeight="1">
+    <row r="2574" ht="22.5" customHeight="1">
       <c r="A2574" s="5">
         <v>46011.36116439815</v>
       </c>
@@ -68516,7 +68770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2575" ht="22.5" hidden="1" customHeight="1">
+    <row r="2575" ht="22.5" customHeight="1">
       <c r="A2575" s="5">
         <v>46011.36194297454</v>
       </c>
@@ -68542,7 +68796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2576" ht="22.5" hidden="1" customHeight="1">
+    <row r="2576" ht="22.5" customHeight="1">
       <c r="A2576" s="5">
         <v>46011.36257939815</v>
       </c>
@@ -68568,7 +68822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2577" ht="22.5" hidden="1" customHeight="1">
+    <row r="2577" ht="22.5" customHeight="1">
       <c r="A2577" s="5">
         <v>46011.36303930556</v>
       </c>
@@ -68594,7 +68848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2578" ht="22.5" hidden="1" customHeight="1">
+    <row r="2578" ht="22.5" customHeight="1">
       <c r="A2578" s="5">
         <v>46011.36370047454</v>
       </c>
@@ -68620,7 +68874,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2579" ht="22.5" hidden="1" customHeight="1">
+    <row r="2579" ht="22.5" customHeight="1">
       <c r="A2579" s="5">
         <v>46011.364157986114</v>
       </c>
@@ -68646,7 +68900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2580" ht="22.5" hidden="1" customHeight="1">
+    <row r="2580" ht="22.5" customHeight="1">
       <c r="A2580" s="5">
         <v>46011.36491052083</v>
       </c>
@@ -68672,7 +68926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2581" ht="22.5" hidden="1" customHeight="1">
+    <row r="2581" ht="22.5" customHeight="1">
       <c r="A2581" s="5">
         <v>46011.36641270833</v>
       </c>
@@ -68698,7 +68952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2582" ht="22.5" hidden="1" customHeight="1">
+    <row r="2582" ht="22.5" customHeight="1">
       <c r="A2582" s="5">
         <v>46011.36754990741</v>
       </c>
@@ -68724,7 +68978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2583" ht="22.5" hidden="1" customHeight="1">
+    <row r="2583" ht="22.5" customHeight="1">
       <c r="A2583" s="5">
         <v>46011.3680284375</v>
       </c>
@@ -68750,7 +69004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2584" ht="22.5" hidden="1" customHeight="1">
+    <row r="2584" ht="22.5" customHeight="1">
       <c r="A2584" s="5">
         <v>46011.36899107639</v>
       </c>
@@ -68776,7 +69030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2585" ht="22.5" hidden="1" customHeight="1">
+    <row r="2585" ht="22.5" customHeight="1">
       <c r="A2585" s="5">
         <v>46011.36956982639</v>
       </c>
@@ -68802,7 +69056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2586" ht="22.5" hidden="1" customHeight="1">
+    <row r="2586" ht="22.5" customHeight="1">
       <c r="A2586" s="5">
         <v>46011.36990143519</v>
       </c>
@@ -68828,7 +69082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2587" ht="22.5" hidden="1" customHeight="1">
+    <row r="2587" ht="22.5" customHeight="1">
       <c r="A2587" s="5">
         <v>46011.37083474537</v>
       </c>
@@ -68854,7 +69108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2588" ht="22.5" hidden="1" customHeight="1">
+    <row r="2588" ht="22.5" customHeight="1">
       <c r="A2588" s="5">
         <v>46011.37155277778</v>
       </c>
@@ -68880,7 +69134,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2589" ht="22.5" hidden="1" customHeight="1">
+    <row r="2589" ht="22.5" customHeight="1">
       <c r="A2589" s="5">
         <v>46011.37188224537</v>
       </c>
@@ -68906,7 +69160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2590" ht="22.5" hidden="1" customHeight="1">
+    <row r="2590" ht="22.5" customHeight="1">
       <c r="A2590" s="5">
         <v>46011.37250920139</v>
       </c>
@@ -68932,7 +69186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2591" ht="22.5" hidden="1" customHeight="1">
+    <row r="2591" ht="22.5" customHeight="1">
       <c r="A2591" s="5">
         <v>46011.37290135417</v>
       </c>
@@ -68958,7 +69212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2592" ht="22.5" hidden="1" customHeight="1">
+    <row r="2592" ht="22.5" customHeight="1">
       <c r="A2592" s="5">
         <v>46011.644947673616</v>
       </c>
@@ -68984,7 +69238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2593" ht="22.5" hidden="1" customHeight="1">
+    <row r="2593" ht="22.5" customHeight="1">
       <c r="A2593" s="5">
         <v>46011.64575946759</v>
       </c>
@@ -69010,7 +69264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2594" ht="22.5" hidden="1" customHeight="1">
+    <row r="2594" ht="22.5" customHeight="1">
       <c r="A2594" s="5">
         <v>46011.64679453704</v>
       </c>
@@ -69036,7 +69290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2595" ht="22.5" hidden="1" customHeight="1">
+    <row r="2595" ht="22.5" customHeight="1">
       <c r="A2595" s="5">
         <v>46011.64726376157</v>
       </c>
@@ -69062,7 +69316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2596" ht="22.5" hidden="1" customHeight="1">
+    <row r="2596" ht="22.5" customHeight="1">
       <c r="A2596" s="5">
         <v>46011.64855503472</v>
       </c>
@@ -69088,7 +69342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2597" ht="22.5" hidden="1" customHeight="1">
+    <row r="2597" ht="22.5" customHeight="1">
       <c r="A2597" s="5">
         <v>46011.65217178241</v>
       </c>
@@ -69114,7 +69368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2598" ht="22.5" hidden="1" customHeight="1">
+    <row r="2598" ht="22.5" customHeight="1">
       <c r="A2598" s="5">
         <v>46011.65270490741</v>
       </c>
@@ -69140,7 +69394,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2599" ht="22.5" hidden="1" customHeight="1">
+    <row r="2599" ht="22.5" customHeight="1">
       <c r="A2599" s="5">
         <v>46011.65336935185</v>
       </c>
@@ -69166,7 +69420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2600" ht="22.5" hidden="1" customHeight="1">
+    <row r="2600" ht="22.5" customHeight="1">
       <c r="A2600" s="5">
         <v>46011.65512840278</v>
       </c>
@@ -69192,7 +69446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2601" ht="22.5" hidden="1" customHeight="1">
+    <row r="2601" ht="22.5" customHeight="1">
       <c r="A2601" s="5">
         <v>46011.655611504626</v>
       </c>
@@ -69218,7 +69472,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2602" ht="22.5" hidden="1" customHeight="1">
+    <row r="2602" ht="22.5" customHeight="1">
       <c r="A2602" s="5">
         <v>46011.65925834491</v>
       </c>
@@ -69244,7 +69498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2603" ht="22.5" hidden="1" customHeight="1">
+    <row r="2603" ht="22.5" customHeight="1">
       <c r="A2603" s="5">
         <v>46011.65957847222</v>
       </c>
@@ -69270,7 +69524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2604" ht="22.5" hidden="1" customHeight="1">
+    <row r="2604" ht="22.5" customHeight="1">
       <c r="A2604" s="5">
         <v>46011.659953912036</v>
       </c>
@@ -69296,7 +69550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2605" ht="22.5" hidden="1" customHeight="1">
+    <row r="2605" ht="22.5" customHeight="1">
       <c r="A2605" s="5">
         <v>46011.66039179398</v>
       </c>
@@ -69322,7 +69576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2606" ht="22.5" hidden="1" customHeight="1">
+    <row r="2606" ht="22.5" customHeight="1">
       <c r="A2606" s="5">
         <v>46011.66075746527</v>
       </c>
@@ -69348,7 +69602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2607" ht="22.5" hidden="1" customHeight="1">
+    <row r="2607" ht="22.5" customHeight="1">
       <c r="A2607" s="5">
         <v>46011.661354814816</v>
       </c>
@@ -69374,7 +69628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2608" ht="22.5" hidden="1" customHeight="1">
+    <row r="2608" ht="22.5" customHeight="1">
       <c r="A2608" s="5">
         <v>46011.66189505787</v>
       </c>
@@ -69400,7 +69654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2609" ht="22.5" hidden="1" customHeight="1">
+    <row r="2609" ht="22.5" customHeight="1">
       <c r="A2609" s="5">
         <v>46011.66219752315</v>
       </c>
@@ -69426,7 +69680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2610" ht="22.5" hidden="1" customHeight="1">
+    <row r="2610" ht="22.5" customHeight="1">
       <c r="A2610" s="5">
         <v>46011.662445787035</v>
       </c>
@@ -69452,7 +69706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2611" ht="22.5" hidden="1" customHeight="1">
+    <row r="2611" ht="22.5" customHeight="1">
       <c r="A2611" s="5">
         <v>46011.662733310186</v>
       </c>
@@ -69478,7 +69732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2612" ht="22.5" hidden="1" customHeight="1">
+    <row r="2612" ht="22.5" customHeight="1">
       <c r="A2612" s="5">
         <v>46011.66310677084</v>
       </c>
@@ -69504,7 +69758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2613" ht="22.5" hidden="1" customHeight="1">
+    <row r="2613" ht="22.5" customHeight="1">
       <c r="A2613" s="5">
         <v>46011.663499953705</v>
       </c>
@@ -69530,7 +69784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2614" ht="22.5" hidden="1" customHeight="1">
+    <row r="2614" ht="22.5" customHeight="1">
       <c r="A2614" s="5">
         <v>46011.66377085648</v>
       </c>
@@ -69556,7 +69810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2615" ht="22.5" hidden="1" customHeight="1">
+    <row r="2615" ht="22.5" customHeight="1">
       <c r="A2615" s="5">
         <v>46011.664039166666</v>
       </c>
@@ -69582,7 +69836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2616" ht="22.5" hidden="1" customHeight="1">
+    <row r="2616" ht="22.5" customHeight="1">
       <c r="A2616" s="5">
         <v>46011.66431335648</v>
       </c>
@@ -69608,7 +69862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2617" ht="22.5" hidden="1" customHeight="1">
+    <row r="2617" ht="22.5" customHeight="1">
       <c r="A2617" s="5">
         <v>46012.406275416666</v>
       </c>
@@ -69634,7 +69888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2618" ht="22.5" hidden="1" customHeight="1">
+    <row r="2618" ht="22.5" customHeight="1">
       <c r="A2618" s="5">
         <v>46012.40696774305</v>
       </c>
@@ -69660,7 +69914,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2619" ht="22.5" hidden="1" customHeight="1">
+    <row r="2619" ht="22.5" customHeight="1">
       <c r="A2619" s="5">
         <v>46012.40735553241</v>
       </c>
@@ -69686,7 +69940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2620" ht="22.5" hidden="1" customHeight="1">
+    <row r="2620" ht="22.5" customHeight="1">
       <c r="A2620" s="5">
         <v>46012.407736747686</v>
       </c>
@@ -69712,7 +69966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2621" ht="22.5" hidden="1" customHeight="1">
+    <row r="2621" ht="22.5" customHeight="1">
       <c r="A2621" s="5">
         <v>46012.40803497685</v>
       </c>
@@ -69738,7 +69992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2622" ht="22.5" hidden="1" customHeight="1">
+    <row r="2622" ht="22.5" customHeight="1">
       <c r="A2622" s="5">
         <v>46012.408312280095</v>
       </c>
@@ -69764,7 +70018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2623" ht="22.5" hidden="1" customHeight="1">
+    <row r="2623" ht="22.5" customHeight="1">
       <c r="A2623" s="5">
         <v>46012.408646076394</v>
       </c>
@@ -69790,7 +70044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2624" ht="22.5" hidden="1" customHeight="1">
+    <row r="2624" ht="22.5" customHeight="1">
       <c r="A2624" s="5">
         <v>46012.409001064814</v>
       </c>
@@ -69816,7 +70070,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2625" ht="22.5" hidden="1" customHeight="1">
+    <row r="2625" ht="22.5" customHeight="1">
       <c r="A2625" s="5">
         <v>46012.409509398145</v>
       </c>
@@ -69842,7 +70096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2626" ht="22.5" hidden="1" customHeight="1">
+    <row r="2626" ht="22.5" customHeight="1">
       <c r="A2626" s="5">
         <v>46012.409934525465</v>
       </c>
@@ -69868,7 +70122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2627" ht="22.5" hidden="1" customHeight="1">
+    <row r="2627" ht="22.5" customHeight="1">
       <c r="A2627" s="5">
         <v>46012.410468587965</v>
       </c>
@@ -69894,7 +70148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2628" ht="22.5" hidden="1" customHeight="1">
+    <row r="2628" ht="22.5" customHeight="1">
       <c r="A2628" s="5">
         <v>46012.41076921296</v>
       </c>
@@ -69920,7 +70174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2629" ht="22.5" hidden="1" customHeight="1">
+    <row r="2629" ht="22.5" customHeight="1">
       <c r="A2629" s="5">
         <v>46012.41105765046</v>
       </c>
@@ -69946,7 +70200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2630" ht="22.5" hidden="1" customHeight="1">
+    <row r="2630" ht="22.5" customHeight="1">
       <c r="A2630" s="5">
         <v>46012.411354027776</v>
       </c>
@@ -69972,7 +70226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2631" ht="22.5" hidden="1" customHeight="1">
+    <row r="2631" ht="22.5" customHeight="1">
       <c r="A2631" s="5">
         <v>46012.411611435185</v>
       </c>
@@ -69998,7 +70252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2632" ht="22.5" hidden="1" customHeight="1">
+    <row r="2632" ht="22.5" customHeight="1">
       <c r="A2632" s="5">
         <v>46012.41193630787</v>
       </c>
@@ -70024,7 +70278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2633" ht="22.5" hidden="1" customHeight="1">
+    <row r="2633" ht="22.5" customHeight="1">
       <c r="A2633" s="5">
         <v>46012.41230246528</v>
       </c>
@@ -70050,7 +70304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2634" ht="22.5" hidden="1" customHeight="1">
+    <row r="2634" ht="22.5" customHeight="1">
       <c r="A2634" s="5">
         <v>46012.416488877316</v>
       </c>
@@ -70076,7 +70330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2635" ht="22.5" hidden="1" customHeight="1">
+    <row r="2635" ht="22.5" customHeight="1">
       <c r="A2635" s="5">
         <v>46012.41720302083</v>
       </c>
@@ -70102,7 +70356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2636" ht="22.5" hidden="1" customHeight="1">
+    <row r="2636" ht="22.5" customHeight="1">
       <c r="A2636" s="5">
         <v>46012.417760729164</v>
       </c>
@@ -70128,7 +70382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2637" ht="22.5" hidden="1" customHeight="1">
+    <row r="2637" ht="22.5" customHeight="1">
       <c r="A2637" s="5">
         <v>46012.417966493056</v>
       </c>
@@ -70154,7 +70408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2638" ht="22.5" hidden="1" customHeight="1">
+    <row r="2638" ht="22.5" customHeight="1">
       <c r="A2638" s="5">
         <v>46013.335654027775</v>
       </c>
@@ -70180,7 +70434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2639" ht="22.5" hidden="1" customHeight="1">
+    <row r="2639" ht="22.5" customHeight="1">
       <c r="A2639" s="5">
         <v>46013.33618799769</v>
       </c>
@@ -70206,7 +70460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2640" ht="22.5" hidden="1" customHeight="1">
+    <row r="2640" ht="22.5" customHeight="1">
       <c r="A2640" s="5">
         <v>46013.33657557871</v>
       </c>
@@ -70232,7 +70486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2641" ht="22.5" hidden="1" customHeight="1">
+    <row r="2641" ht="22.5" customHeight="1">
       <c r="A2641" s="5">
         <v>46013.33698266203</v>
       </c>
@@ -70258,7 +70512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2642" ht="22.5" hidden="1" customHeight="1">
+    <row r="2642" ht="22.5" customHeight="1">
       <c r="A2642" s="5">
         <v>46013.33732827546</v>
       </c>
@@ -70284,7 +70538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2643" ht="22.5" hidden="1" customHeight="1">
+    <row r="2643" ht="22.5" customHeight="1">
       <c r="A2643" s="5">
         <v>46013.33771087963</v>
       </c>
@@ -70310,7 +70564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2644" ht="22.5" hidden="1" customHeight="1">
+    <row r="2644" ht="22.5" customHeight="1">
       <c r="A2644" s="5">
         <v>46013.33834283565</v>
       </c>
@@ -70336,7 +70590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2645" ht="22.5" hidden="1" customHeight="1">
+    <row r="2645" ht="22.5" customHeight="1">
       <c r="A2645" s="5">
         <v>46013.34011751157</v>
       </c>
@@ -70362,7 +70616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2646" ht="22.5" hidden="1" customHeight="1">
+    <row r="2646" ht="22.5" customHeight="1">
       <c r="A2646" s="5">
         <v>46013.342919675924</v>
       </c>
@@ -70388,7 +70642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2647" ht="22.5" hidden="1" customHeight="1">
+    <row r="2647" ht="22.5" customHeight="1">
       <c r="A2647" s="5">
         <v>46013.343977303244</v>
       </c>
@@ -70414,7 +70668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2648" ht="22.5" hidden="1" customHeight="1">
+    <row r="2648" ht="22.5" customHeight="1">
       <c r="A2648" s="5">
         <v>46013.35667259259</v>
       </c>
@@ -70440,7 +70694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2649" ht="22.5" hidden="1" customHeight="1">
+    <row r="2649" ht="22.5" customHeight="1">
       <c r="A2649" s="5">
         <v>46013.3570225</v>
       </c>
@@ -70466,7 +70720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2650" ht="22.5" hidden="1" customHeight="1">
+    <row r="2650" ht="22.5" customHeight="1">
       <c r="A2650" s="5">
         <v>46013.357438391206</v>
       </c>
@@ -70492,7 +70746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2651" ht="22.5" hidden="1" customHeight="1">
+    <row r="2651" ht="22.5" customHeight="1">
       <c r="A2651" s="5">
         <v>46013.35799391204</v>
       </c>
@@ -70518,7 +70772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2652" ht="22.5" hidden="1" customHeight="1">
+    <row r="2652" ht="22.5" customHeight="1">
       <c r="A2652" s="5">
         <v>46013.3583334838</v>
       </c>
@@ -70544,7 +70798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2653" ht="22.5" hidden="1" customHeight="1">
+    <row r="2653" ht="22.5" customHeight="1">
       <c r="A2653" s="5">
         <v>46013.358621203704</v>
       </c>
@@ -70570,7 +70824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2654" ht="22.5" hidden="1" customHeight="1">
+    <row r="2654" ht="22.5" customHeight="1">
       <c r="A2654" s="5">
         <v>46013.35895483797</v>
       </c>
@@ -70596,7 +70850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2655" ht="22.5" hidden="1" customHeight="1">
+    <row r="2655" ht="22.5" customHeight="1">
       <c r="A2655" s="5">
         <v>46013.35930568287</v>
       </c>
@@ -70622,7 +70876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2656" ht="22.5" hidden="1" customHeight="1">
+    <row r="2656" ht="22.5" customHeight="1">
       <c r="A2656" s="5">
         <v>46013.36087318287</v>
       </c>
@@ -70648,7 +70902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2657" ht="22.5" hidden="1" customHeight="1">
+    <row r="2657" ht="22.5" customHeight="1">
       <c r="A2657" s="5">
         <v>46013.36119708333</v>
       </c>
@@ -70674,7 +70928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2658" ht="22.5" hidden="1" customHeight="1">
+    <row r="2658" ht="22.5" customHeight="1">
       <c r="A2658" s="5">
         <v>46013.362917997685</v>
       </c>
@@ -70700,7 +70954,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2659" ht="22.5" hidden="1" customHeight="1">
+    <row r="2659" ht="22.5" customHeight="1">
       <c r="A2659" s="5">
         <v>46013.36359679398</v>
       </c>
@@ -70726,7 +70980,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2660" ht="22.5" hidden="1" customHeight="1">
+    <row r="2660" ht="22.5" customHeight="1">
       <c r="A2660" s="5">
         <v>46013.364556238426</v>
       </c>
@@ -70752,7 +71006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2661" ht="22.5" hidden="1" customHeight="1">
+    <row r="2661" ht="22.5" customHeight="1">
       <c r="A2661" s="5">
         <v>46013.375676701384</v>
       </c>
@@ -70778,7 +71032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2662" ht="22.5" hidden="1" customHeight="1">
+    <row r="2662" ht="22.5" customHeight="1">
       <c r="A2662" s="5">
         <v>46013.376511400464</v>
       </c>
@@ -70804,7 +71058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2663" ht="22.5" hidden="1" customHeight="1">
+    <row r="2663" ht="22.5" customHeight="1">
       <c r="A2663" s="5">
         <v>46013.63638091435</v>
       </c>
@@ -70830,7 +71084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2664" ht="22.5" hidden="1" customHeight="1">
+    <row r="2664" ht="22.5" customHeight="1">
       <c r="A2664" s="5">
         <v>46013.64290060185</v>
       </c>
@@ -70856,7 +71110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2665" ht="22.5" hidden="1" customHeight="1">
+    <row r="2665" ht="22.5" customHeight="1">
       <c r="A2665" s="5">
         <v>46013.644082893516</v>
       </c>
@@ -70882,7 +71136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2666" ht="22.5" hidden="1" customHeight="1">
+    <row r="2666" ht="22.5" customHeight="1">
       <c r="A2666" s="5">
         <v>46013.646062245374</v>
       </c>
@@ -70908,7 +71162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2667" ht="22.5" hidden="1" customHeight="1">
+    <row r="2667" ht="22.5" customHeight="1">
       <c r="A2667" s="5">
         <v>46013.64692101852</v>
       </c>
@@ -70934,7 +71188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2668" ht="22.5" hidden="1" customHeight="1">
+    <row r="2668" ht="22.5" customHeight="1">
       <c r="A2668" s="5">
         <v>46013.65180277778</v>
       </c>
@@ -70960,7 +71214,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2669" ht="22.5" hidden="1" customHeight="1">
+    <row r="2669" ht="22.5" customHeight="1">
       <c r="A2669" s="5">
         <v>46013.65762892361</v>
       </c>
@@ -70986,7 +71240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2670" ht="22.5" hidden="1" customHeight="1">
+    <row r="2670" ht="22.5" customHeight="1">
       <c r="A2670" s="5">
         <v>46013.6579621875</v>
       </c>
@@ -71012,7 +71266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2671" ht="22.5" hidden="1" customHeight="1">
+    <row r="2671" ht="22.5" customHeight="1">
       <c r="A2671" s="5">
         <v>46013.66350510417</v>
       </c>
@@ -71038,7 +71292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2672" ht="22.5" hidden="1" customHeight="1">
+    <row r="2672" ht="22.5" customHeight="1">
       <c r="A2672" s="5">
         <v>46013.663840381945</v>
       </c>
@@ -71064,7 +71318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2673" ht="22.5" hidden="1" customHeight="1">
+    <row r="2673" ht="22.5" customHeight="1">
       <c r="A2673" s="5">
         <v>46013.66417862268</v>
       </c>
@@ -71090,7 +71344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2674" ht="22.5" hidden="1" customHeight="1">
+    <row r="2674" ht="22.5" customHeight="1">
       <c r="A2674" s="5">
         <v>46013.664499108796</v>
       </c>
@@ -71116,7 +71370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2675" ht="22.5" hidden="1" customHeight="1">
+    <row r="2675" ht="22.5" customHeight="1">
       <c r="A2675" s="5">
         <v>46013.6647893287</v>
       </c>
@@ -71142,7 +71396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2676" ht="22.5" hidden="1" customHeight="1">
+    <row r="2676" ht="22.5" customHeight="1">
       <c r="A2676" s="5">
         <v>46013.665156006944</v>
       </c>
@@ -71168,7 +71422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2677" ht="22.5" hidden="1" customHeight="1">
+    <row r="2677" ht="22.5" customHeight="1">
       <c r="A2677" s="5">
         <v>46013.66688496528</v>
       </c>
@@ -71194,7 +71448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2678" ht="22.5" hidden="1" customHeight="1">
+    <row r="2678" ht="22.5" customHeight="1">
       <c r="A2678" s="5">
         <v>46013.66868671296</v>
       </c>
@@ -71220,7 +71474,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2679" ht="22.5" hidden="1" customHeight="1">
+    <row r="2679" ht="22.5" customHeight="1">
       <c r="A2679" s="5">
         <v>46013.670060358796</v>
       </c>
@@ -71246,7 +71500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2680" ht="22.5" hidden="1" customHeight="1">
+    <row r="2680" ht="22.5" customHeight="1">
       <c r="A2680" s="5">
         <v>46013.67331460648</v>
       </c>
@@ -71272,7 +71526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2681" ht="22.5" hidden="1" customHeight="1">
+    <row r="2681" ht="22.5" customHeight="1">
       <c r="A2681" s="5">
         <v>46013.6736204051</v>
       </c>
@@ -71298,7 +71552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2682" ht="22.5" hidden="1" customHeight="1">
+    <row r="2682" ht="22.5" customHeight="1">
       <c r="A2682" s="5">
         <v>46013.67488200231</v>
       </c>
@@ -71324,7 +71578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2683" ht="22.5" hidden="1" customHeight="1">
+    <row r="2683" ht="22.5" customHeight="1">
       <c r="A2683" s="5">
         <v>46013.68261574074</v>
       </c>
@@ -71350,7 +71604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2684" ht="22.5" hidden="1" customHeight="1">
+    <row r="2684" ht="22.5" customHeight="1">
       <c r="A2684" s="5">
         <v>46013.68291307871</v>
       </c>
@@ -71376,7 +71630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2685" ht="22.5" hidden="1" customHeight="1">
+    <row r="2685" ht="22.5" customHeight="1">
       <c r="A2685" s="5">
         <v>46013.68362329861</v>
       </c>
@@ -71402,7 +71656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2686" ht="22.5" hidden="1" customHeight="1">
+    <row r="2686" ht="22.5" customHeight="1">
       <c r="A2686" s="5">
         <v>46013.68426207176</v>
       </c>
@@ -71428,7 +71682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2687" ht="22.5" hidden="1" customHeight="1">
+    <row r="2687" ht="22.5" customHeight="1">
       <c r="A2687" s="5">
         <v>46013.68832883102</v>
       </c>
@@ -71454,7 +71708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2688" ht="22.5" hidden="1" customHeight="1">
+    <row r="2688" ht="22.5" customHeight="1">
       <c r="A2688" s="5">
         <v>46013.688577152774</v>
       </c>
@@ -73508,13 +73762,715 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2767" ht="22.5" customHeight="1">
+      <c r="A2767" s="5">
+        <v>46018.36988907408</v>
+      </c>
+      <c r="B2767" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2767" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2767" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2767" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2767" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2767" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2767" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2768" ht="22.5" customHeight="1">
+      <c r="A2768" s="5">
+        <v>46018.370219212964</v>
+      </c>
+      <c r="B2768" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2768" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2768" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2768" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2768" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2768" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2768" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2769" ht="22.5" customHeight="1">
+      <c r="A2769" s="5">
+        <v>46018.37044612269</v>
+      </c>
+      <c r="B2769" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2769" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2769" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2769" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2769" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2769" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2769" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2770" ht="22.5" customHeight="1">
+      <c r="A2770" s="5">
+        <v>46018.37062170139</v>
+      </c>
+      <c r="B2770" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2770" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2770" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2770" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2770" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2770" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2770" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2771" ht="22.5" customHeight="1">
+      <c r="A2771" s="5">
+        <v>46018.37100155093</v>
+      </c>
+      <c r="B2771" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2771" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2771" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2771" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2771" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2771" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2771" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2772" ht="22.5" customHeight="1">
+      <c r="A2772" s="5">
+        <v>46018.37123103009</v>
+      </c>
+      <c r="B2772" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2772" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2772" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2772" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2772" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2772" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2772" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2773" ht="22.5" customHeight="1">
+      <c r="A2773" s="5">
+        <v>46018.37148209491</v>
+      </c>
+      <c r="B2773" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2773" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2773" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2773" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2773" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2773" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2773" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2774" ht="22.5" customHeight="1">
+      <c r="A2774" s="5">
+        <v>46018.37167540509</v>
+      </c>
+      <c r="B2774" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2774" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2774" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2774" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2774" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2774" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2774" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2775" ht="22.5" customHeight="1">
+      <c r="A2775" s="5">
+        <v>46018.371889988426</v>
+      </c>
+      <c r="B2775" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2775" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2775" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2775" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2775" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2775" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2775" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2776" ht="22.5" customHeight="1">
+      <c r="A2776" s="5">
+        <v>46018.372162071755</v>
+      </c>
+      <c r="B2776" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2776" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2776" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2776" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2776" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2776" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2776" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2777" ht="22.5" customHeight="1">
+      <c r="A2777" s="5">
+        <v>46018.37237737268</v>
+      </c>
+      <c r="B2777" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2777" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2777" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2777" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2777" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2777" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2777" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2778" ht="22.5" customHeight="1">
+      <c r="A2778" s="5">
+        <v>46018.37574675926</v>
+      </c>
+      <c r="B2778" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2778" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2778" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2778" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2778" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2778" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2778" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2779" ht="22.5" customHeight="1">
+      <c r="A2779" s="5">
+        <v>46018.37778195602</v>
+      </c>
+      <c r="B2779" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2779" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2779" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2779" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2779" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2779" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2779" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2780" ht="22.5" customHeight="1">
+      <c r="A2780" s="5">
+        <v>46018.37802824074</v>
+      </c>
+      <c r="B2780" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2780" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2780" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2780" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2780" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2780" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2780" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2781" ht="22.5" customHeight="1">
+      <c r="A2781" s="5">
+        <v>46018.37832456018</v>
+      </c>
+      <c r="B2781" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2781" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2781" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2781" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2781" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2781" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2781" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2782" ht="22.5" customHeight="1">
+      <c r="A2782" s="5">
+        <v>46018.37857559028</v>
+      </c>
+      <c r="B2782" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2782" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2782" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2782" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2782" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2782" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2782" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2783" ht="22.5" customHeight="1">
+      <c r="A2783" s="5">
+        <v>46018.378863680555</v>
+      </c>
+      <c r="B2783" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2783" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2783" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2783" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2783" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2783" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2783" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2784" ht="22.5" customHeight="1">
+      <c r="A2784" s="5">
+        <v>46018.379150231485</v>
+      </c>
+      <c r="B2784" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2784" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2784" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2784" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2784" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2784" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2784" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2785" ht="22.5" customHeight="1">
+      <c r="A2785" s="5">
+        <v>46018.37932494213</v>
+      </c>
+      <c r="B2785" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2785" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2785" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2785" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2785" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2785" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2785" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2786" ht="22.5" customHeight="1">
+      <c r="A2786" s="5">
+        <v>46018.37953976852</v>
+      </c>
+      <c r="B2786" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2786" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2786" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2786" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2786" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2786" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2786" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2787" ht="22.5" customHeight="1">
+      <c r="A2787" s="5">
+        <v>46018.37975946759</v>
+      </c>
+      <c r="B2787" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2787" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2787" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2787" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2787" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2787" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2787" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2788" ht="22.5" customHeight="1">
+      <c r="A2788" s="5">
+        <v>46018.379989340276</v>
+      </c>
+      <c r="B2788" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2788" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2788" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2788" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2788" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2788" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2788" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2789" ht="22.5" customHeight="1">
+      <c r="A2789" s="5">
+        <v>46018.38031994213</v>
+      </c>
+      <c r="B2789" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2789" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2789" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2789" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2789" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2789" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2789" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2790" ht="22.5" customHeight="1">
+      <c r="A2790" s="5">
+        <v>46018.38068541666</v>
+      </c>
+      <c r="B2790" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2790" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2790" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2790" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2790" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2790" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2790" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2791" ht="22.5" customHeight="1">
+      <c r="A2791" s="5">
+        <v>46018.380942881944</v>
+      </c>
+      <c r="B2791" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2791" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2791" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2791" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2791" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2791" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2791" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2792" ht="22.5" customHeight="1">
+      <c r="A2792" s="5">
+        <v>46018.38118600694</v>
+      </c>
+      <c r="B2792" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2792" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2792" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2792" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2792" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2792" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2792" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2793" ht="22.5" customHeight="1">
+      <c r="A2793" s="5">
+        <v>46018.381386284724</v>
+      </c>
+      <c r="B2793" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2793" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2793" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2793" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2793" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2793" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2793" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D2866">
+  <conditionalFormatting sqref="D1:D2893">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&quot;Muy cansado&quot;">
       <formula>NOT(ISERROR(SEARCH(("""Muy cansado"""),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G2866">
+  <conditionalFormatting sqref="G2:G2893">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(G2))))</formula>
     </cfRule>
@@ -73527,4 +74483,2660 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="8">
+        <v>46013.436431678245</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f t="shared" ref="E2:E94" si="1">LEFT(D2)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F94" si="2">E2*1</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="12">
+        <v>46013.43688310185</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="8">
+        <v>46013.43704454861</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>46013.437277812496</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="8">
+        <v>46013.43758578703</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="12">
+        <v>46013.438136157405</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="8">
+        <v>46013.438667361115</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="12">
+        <v>46013.438862627314</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="8">
+        <v>46013.443182627314</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="12">
+        <v>46013.44361766204</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="8">
+        <v>46013.46276692129</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="12">
+        <v>46013.463303136574</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="8">
+        <v>46013.46527138889</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="12">
+        <v>46013.46641356482</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="8">
+        <v>46013.46667349537</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="12">
+        <v>46013.467105358795</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="8">
+        <v>46013.467613298606</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="12">
+        <v>46013.46878451389</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="8">
+        <v>46013.46966179398</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="12">
+        <v>46013.47055857639</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="8">
+        <v>46013.47184474537</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="12">
+        <v>46013.47246322916</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="8">
+        <v>46013.47300650463</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="12">
+        <v>46013.48124641203</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="8">
+        <v>46013.48214115741</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="12">
+        <v>46013.482916990746</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="8">
+        <v>46013.5183987037</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="12">
+        <v>46013.529549756946</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="8">
+        <v>46013.74579298611</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="12">
+        <v>46013.74636309028</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="8">
+        <v>46013.74669550926</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="12">
+        <v>46013.74705899306</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="8">
+        <v>46013.74737549768</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="12">
+        <v>46013.74825586806</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="8">
+        <v>46013.74908553241</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="12">
+        <v>46013.74933291667</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="8">
+        <v>46013.74969459491</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="12">
+        <v>46013.750061134255</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="8">
+        <v>46013.75041559028</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="12">
+        <v>46013.75063840278</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="8">
+        <v>46013.751155335645</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="12">
+        <v>46013.75141506945</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="8">
+        <v>46013.751750208336</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="A45" s="12">
+        <v>46013.753565266205</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E45" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" s="8">
+        <v>46013.75420954861</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="A47" s="12">
+        <v>46013.75463383102</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E47" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1">
+      <c r="A48" s="8">
+        <v>46013.75532391203</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" s="12">
+        <v>46013.75765197916</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1">
+      <c r="A50" s="8">
+        <v>46013.75827232639</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" s="12">
+        <v>46013.75899987268</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="A52" s="8">
+        <v>46013.75937878472</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" s="17">
+        <v>46014.44462202546</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="A54" s="18">
+        <v>46014.44487416667</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" s="17">
+        <v>46014.44517380787</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" s="18">
+        <v>46014.44549825232</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="A57" s="17">
+        <v>46014.445711203705</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" s="18">
+        <v>46014.44601784722</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" s="17">
+        <v>46014.446111736106</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" s="18">
+        <v>46014.44631157407</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" s="17">
+        <v>46014.446463043976</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E61" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" s="18">
+        <v>46014.446567997686</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" s="17">
+        <v>46014.44681594908</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E63" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="18">
+        <v>46014.44715881944</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" s="17">
+        <v>46014.4472605787</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E65" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="18">
+        <v>46014.44749895833</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" s="17">
+        <v>46014.44752241898</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" s="18">
+        <v>46014.44773850695</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" s="17">
+        <v>46014.447789328704</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" s="18">
+        <v>46014.448115011575</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F70" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="A71" s="17">
+        <v>46014.44843621527</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E71" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="A72" s="18">
+        <v>46014.44910784722</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="A73" s="17">
+        <v>46014.45001987269</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E73" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="A74" s="18">
+        <v>46017.80410641203</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="A75" s="17">
+        <v>46017.804205671295</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="A76" s="18">
+        <v>46017.804449421295</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="17">
+        <v>46017.80477012732</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E77" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="18">
+        <v>46017.804930370374</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" s="17">
+        <v>46017.80500771991</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E79" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F79" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" s="18">
+        <v>46017.805201446754</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="A81" s="17">
+        <v>46017.80521135416</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E81" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="A82" s="18">
+        <v>46017.80543570602</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F82" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="A83" s="17">
+        <v>46017.80550659722</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="A84" s="18">
+        <v>46017.80561487269</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E84" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" ht="22.5" customHeight="1">
+      <c r="A85" s="17">
+        <v>46017.805771354164</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" ht="22.5" customHeight="1">
+      <c r="A86" s="18">
+        <v>46017.805866678245</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" ht="22.5" customHeight="1">
+      <c r="A87" s="17">
+        <v>46017.80624320602</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E87" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" ht="22.5" customHeight="1">
+      <c r="A88" s="18">
+        <v>46017.80635828704</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E88" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" ht="22.5" customHeight="1">
+      <c r="A89" s="17">
+        <v>46017.806525486114</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" ht="22.5" customHeight="1">
+      <c r="A90" s="18">
+        <v>46017.806758252314</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="A91" s="17">
+        <v>46017.8070070949</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E91" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F91" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="A92" s="18">
+        <v>46017.807026180555</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E92" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F92" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" s="17">
+        <v>46017.807400011574</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E93" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" s="18">
+        <v>46017.807530983795</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E94" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F94" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A94">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>